--- a/1. Configuratie.xlsx
+++ b/1. Configuratie.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://vrln.sharepoint.com/sites/GGD-ONDZ/PSchijf/Gezondheidsmonitor/Algemeen/Automatisering en R/Rapportage GMJ2023/Versie 4/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ggdregioutrecht-my.sharepoint.com/personal/mderijk_ggdru_nl/Documents/Documenten/Rapportage Jeugd/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="31" documentId="14_{DA3B10F6-4681-47B7-BA15-7E16B320D707}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{13D803BB-4D26-48A9-81F8-E6439A186F83}"/>
+  <xr:revisionPtr revIDLastSave="95" documentId="14_{DA3B10F6-4681-47B7-BA15-7E16B320D707}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F3C52FA7-95B7-43ED-981A-8EC2245A4047}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{340DDFAE-1A83-41FC-A379-531A17E4526A}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="189">
   <si>
     <t>indicator</t>
   </si>
@@ -317,9 +317,6 @@
     <t>SBSSK3S1, SBSSK3S2, SBSSK3S3, SBSSK3S4, SBSSK3S5</t>
   </si>
   <si>
-    <t>heeft in de laatste 12 maanden suicidegedachten gehad</t>
-  </si>
-  <si>
     <t>Voelt druk van zichzelf</t>
   </si>
   <si>
@@ -383,15 +380,6 @@
     <t>SBSXK3S1</t>
   </si>
   <si>
-    <t>heb je ooit harddrugs gebruikt?</t>
-  </si>
-  <si>
-    <t>hoeveel van jouw vrienden en vriendinnen roken sigaretten?</t>
-  </si>
-  <si>
-    <t>hoeveel van jouw vrienden en vriendinnen roken hasj of wiet?</t>
-  </si>
-  <si>
     <t>Grafiek schoolbeleving</t>
   </si>
   <si>
@@ -534,6 +522,90 @@
   </si>
   <si>
     <t>ONDERWIJSNIVEAU</t>
+  </si>
+  <si>
+    <t>LBAGK3S20</t>
+  </si>
+  <si>
+    <t>LBAGK3S15</t>
+  </si>
+  <si>
+    <t>LBAGK3S17</t>
+  </si>
+  <si>
+    <t>Heeft in de laatste 12 maanden suicidegedachten gehad</t>
+  </si>
+  <si>
+    <t>Heb je ooit harddrugs gebruikt?</t>
+  </si>
+  <si>
+    <t>Hoeveel van jouw vrienden en vriendinnen roken sigaretten?</t>
+  </si>
+  <si>
+    <t>Hoeveel van jouw vrienden en vriendinnen roken hasj of wiet?</t>
+  </si>
+  <si>
+    <t>LBRAK3S18 (dagelijks) LBRAK3S19 (&gt;wekelijks)</t>
+  </si>
+  <si>
+    <t>LBGEK3S5 (dagelijks) of LBGEK3S4 (&gt;wekelijks)</t>
+  </si>
+  <si>
+    <t>LBSDK3S1</t>
+  </si>
+  <si>
+    <t>PBVKK3S2</t>
+  </si>
+  <si>
+    <t>SBPDK3S2</t>
+  </si>
+  <si>
+    <t>SBPDK3S3</t>
+  </si>
+  <si>
+    <t>SBPDK3S4, SBPDK3S5, SBPDK3S6, SBPDK3S7, SBPDK3S8, SBPDK3S9, SBPDK3S10</t>
+  </si>
+  <si>
+    <t>SBEZK3S2</t>
+  </si>
+  <si>
+    <t>SBEZK3S2 (soms tot altijd)</t>
+  </si>
+  <si>
+    <t>LBRAK3S19</t>
+  </si>
+  <si>
+    <t>LBGEK3S4</t>
+  </si>
+  <si>
+    <t>GBZOK3S1 ipv GBZOK3S2?</t>
+  </si>
+  <si>
+    <t>Opmerkingen_tijdelijk</t>
+  </si>
+  <si>
+    <t>Ooit</t>
+  </si>
+  <si>
+    <t>PBSGK3S1</t>
+  </si>
+  <si>
+    <t>PBSGK3S1 (enkele keer tot heel vaak)</t>
+  </si>
+  <si>
+    <t>PBVKK3S4</t>
+  </si>
+  <si>
+    <t>PBVKK3S4 label in spss bestand 'Vindt het niet moeilijk om stressvolle gebeurtenissen te doorstaan'</t>
+  </si>
+  <si>
+    <t>PBVTK3S3</t>
+  </si>
+  <si>
+    <t>nog geen opgeschoonde variabele</t>
+  </si>
+  <si>
+    <t>Staat niet in het bestand</t>
   </si>
 </sst>
 </file>
@@ -597,12 +669,18 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -629,7 +707,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -658,12 +736,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -684,6 +756,42 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1087,9 +1195,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73A75041-D6C8-4C2F-941F-420EA079C5D1}">
-  <dimension ref="A1:J164"/>
+  <dimension ref="A1:K164"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="K37" sqref="K37"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1101,10 +1211,12 @@
     <col min="6" max="7" width="14.44140625" style="3" customWidth="1"/>
     <col min="8" max="8" width="12.21875" style="3" customWidth="1"/>
     <col min="9" max="9" width="30.77734375" style="3" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="8.88671875" style="3"/>
+    <col min="10" max="10" width="8.88671875" style="3"/>
+    <col min="11" max="11" width="14.88671875" style="26" customWidth="1"/>
+    <col min="12" max="16384" width="8.88671875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>70</v>
       </c>
@@ -1133,17 +1245,20 @@
         <v>3</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+        <v>157</v>
+      </c>
+      <c r="K1" s="26" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>37</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="C2" s="5"/>
+      <c r="C2" s="25"/>
       <c r="D2" s="3" t="s">
         <v>28</v>
       </c>
@@ -1156,8 +1271,11 @@
       <c r="J2" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K2" s="26" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>37</v>
       </c>
@@ -1180,7 +1298,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>37</v>
       </c>
@@ -1190,7 +1308,7 @@
       <c r="C4" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="D4" s="18" t="s">
+      <c r="D4" s="16" t="s">
         <v>59</v>
       </c>
       <c r="H4" s="3">
@@ -1203,7 +1321,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>37</v>
       </c>
@@ -1213,7 +1331,7 @@
       <c r="C5" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D5" s="18" t="s">
+      <c r="D5" s="16" t="s">
         <v>59</v>
       </c>
       <c r="H5" s="3">
@@ -1226,7 +1344,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>38</v>
       </c>
@@ -1236,7 +1354,7 @@
       <c r="C6" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D6" s="18" t="s">
+      <c r="D6" s="16" t="s">
         <v>59</v>
       </c>
       <c r="H6" s="3">
@@ -1249,7 +1367,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>38</v>
       </c>
@@ -1259,7 +1377,7 @@
       <c r="C7" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="D7" s="18" t="s">
+      <c r="D7" s="16" t="s">
         <v>62</v>
       </c>
       <c r="H7" s="3">
@@ -1272,7 +1390,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>37</v>
       </c>
@@ -1286,22 +1404,22 @@
         <v>60</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="H8" s="3">
         <v>7</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="J8" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>37</v>
       </c>
@@ -1315,22 +1433,22 @@
         <v>60</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="H9" s="3">
         <v>7</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="J9" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>37</v>
       </c>
@@ -1344,22 +1462,22 @@
         <v>60</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="H10" s="3">
         <v>7</v>
       </c>
       <c r="I10" s="3" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="J10" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>37</v>
       </c>
@@ -1373,150 +1491,152 @@
         <v>60</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="H11" s="3">
         <v>7</v>
       </c>
       <c r="I11" s="3" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="J11" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="78" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" ht="78" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>38</v>
       </c>
       <c r="B12" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="C12" s="17" t="s">
+      <c r="C12" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="D12" s="18" t="s">
+      <c r="D12" s="16" t="s">
         <v>62</v>
       </c>
       <c r="H12" s="3">
         <v>8</v>
       </c>
       <c r="I12" s="3" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="J12" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B13" s="18" t="s">
+      <c r="B13" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="C13" s="18" t="s">
+      <c r="C13" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="D13" s="18" t="s">
+      <c r="D13" s="16" t="s">
         <v>59</v>
       </c>
       <c r="H13" s="3">
         <v>9</v>
       </c>
       <c r="I13" s="3" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="J13" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B14" s="18" t="s">
+      <c r="B14" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="C14" s="18" t="s">
+      <c r="C14" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="D14" s="18" t="s">
+      <c r="D14" s="16" t="s">
         <v>59</v>
       </c>
       <c r="H14" s="3">
         <v>9</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="J14" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B15" s="18" t="s">
+      <c r="B15" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="C15" s="18" t="s">
+      <c r="C15" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="D15" s="18" t="s">
+      <c r="D15" s="16" t="s">
         <v>60</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="H15" s="3">
         <v>9</v>
       </c>
       <c r="I15" s="3" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="J15" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B16" s="18" t="s">
+      <c r="B16" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="C16" s="18" t="s">
+      <c r="C16" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="D16" s="18" t="s">
+      <c r="D16" s="16" t="s">
         <v>60</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="H16" s="3">
         <v>9</v>
       </c>
       <c r="I16" s="3" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="J16" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
         <v>37</v>
       </c>
       <c r="B17" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="C17" s="6"/>
+      <c r="C17" s="17" t="s">
+        <v>161</v>
+      </c>
       <c r="D17" s="6" t="s">
         <v>65</v>
       </c>
@@ -1524,20 +1644,22 @@
         <v>10</v>
       </c>
       <c r="I17" s="3" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="J17" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
         <v>37</v>
       </c>
       <c r="B18" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="C18" s="6"/>
+      <c r="C18" s="17" t="s">
+        <v>162</v>
+      </c>
       <c r="D18" s="6" t="s">
         <v>60</v>
       </c>
@@ -1545,20 +1667,22 @@
         <v>10</v>
       </c>
       <c r="I18" s="3" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="J18" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
         <v>37</v>
       </c>
       <c r="B19" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="C19" s="6"/>
+      <c r="C19" s="17" t="s">
+        <v>163</v>
+      </c>
       <c r="D19" s="6" t="s">
         <v>60</v>
       </c>
@@ -1566,20 +1690,20 @@
         <v>10</v>
       </c>
       <c r="I19" s="3" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="J19" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
         <v>38</v>
       </c>
       <c r="B20" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="C20" s="6"/>
+      <c r="C20" s="23"/>
       <c r="D20" s="6" t="s">
         <v>68</v>
       </c>
@@ -1587,20 +1711,23 @@
         <v>11</v>
       </c>
       <c r="I20" s="3" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="J20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K20" s="26" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
         <v>38</v>
       </c>
       <c r="B21" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="C21" s="6"/>
+      <c r="C21" s="23"/>
       <c r="D21" s="6" t="s">
         <v>68</v>
       </c>
@@ -1608,39 +1735,45 @@
         <v>11</v>
       </c>
       <c r="I21" s="3" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="J21" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K21" s="26" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
         <v>38</v>
       </c>
       <c r="B22" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="C22" s="6"/>
+      <c r="C22" s="23"/>
       <c r="D22" s="6"/>
       <c r="H22" s="3">
         <v>11</v>
       </c>
       <c r="I22" s="3" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="J22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K22" s="26" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
         <v>38</v>
       </c>
       <c r="B23" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="C23" s="6"/>
+      <c r="C23" s="23"/>
       <c r="D23" s="6" t="s">
         <v>71</v>
       </c>
@@ -1648,73 +1781,88 @@
         <v>11</v>
       </c>
       <c r="I23" s="3" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="J23" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K23" s="26" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
         <v>37</v>
       </c>
       <c r="B24" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="C24" s="11"/>
+      <c r="C24" s="18" t="s">
+        <v>177</v>
+      </c>
       <c r="D24" s="3" t="s">
         <v>65</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="H24" s="3">
         <v>12</v>
       </c>
       <c r="I24" s="3" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="J24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K24" s="22" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
         <v>37</v>
       </c>
       <c r="B25" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="C25" s="7"/>
+      <c r="C25" s="19" t="s">
+        <v>178</v>
+      </c>
       <c r="D25" s="3" t="s">
         <v>60</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="H25" s="3">
         <v>12</v>
       </c>
       <c r="I25" s="3" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="J25" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K25" s="27" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="s">
         <v>37</v>
       </c>
       <c r="B26" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="C26" s="11"/>
+      <c r="C26" s="18" t="s">
+        <v>170</v>
+      </c>
       <c r="D26" s="7" t="s">
         <v>60</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="F26" s="7"/>
       <c r="G26" s="7"/>
@@ -1722,25 +1870,28 @@
         <v>12</v>
       </c>
       <c r="I26" s="3" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="J26" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K26" s="26" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="B27" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="C27" s="11"/>
+      <c r="B27" s="19" t="s">
+        <v>165</v>
+      </c>
+      <c r="C27" s="22"/>
       <c r="D27" s="7" t="s">
         <v>60</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="F27" s="7"/>
       <c r="G27" s="7"/>
@@ -1748,20 +1899,23 @@
         <v>13</v>
       </c>
       <c r="I27" s="3" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="J27" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K27" s="26" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="B28" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="C28" s="11"/>
+      <c r="B28" s="19" t="s">
+        <v>166</v>
+      </c>
+      <c r="C28" s="22"/>
       <c r="D28" s="3" t="s">
         <v>59</v>
       </c>
@@ -1769,20 +1923,23 @@
         <v>13</v>
       </c>
       <c r="I28" s="3" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="J28" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K28" s="26" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="B29" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="C29" s="11"/>
+      <c r="B29" s="19" t="s">
+        <v>167</v>
+      </c>
+      <c r="C29" s="22"/>
       <c r="D29" s="3" t="s">
         <v>59</v>
       </c>
@@ -1790,44 +1947,52 @@
         <v>13</v>
       </c>
       <c r="I29" s="3" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="J29" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K29" s="26" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="3" t="s">
         <v>37</v>
       </c>
       <c r="B30" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="C30" s="8"/>
+      <c r="C30" s="20"/>
       <c r="D30" s="3" t="s">
         <v>60</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="H30" s="3">
         <v>14</v>
       </c>
       <c r="I30" s="3" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="J30" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K30" s="26" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="3" t="s">
         <v>37</v>
       </c>
       <c r="B31" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="C31" s="8"/>
+      <c r="C31" s="20" t="s">
+        <v>171</v>
+      </c>
       <c r="D31" s="3" t="s">
         <v>59</v>
       </c>
@@ -1835,20 +2000,22 @@
         <v>14</v>
       </c>
       <c r="I31" s="3" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="J31" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B32" s="12" t="s">
+      <c r="B32" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="C32" s="8"/>
+      <c r="C32" s="20" t="s">
+        <v>184</v>
+      </c>
       <c r="D32" s="3" t="s">
         <v>59</v>
       </c>
@@ -1856,20 +2023,25 @@
         <v>14</v>
       </c>
       <c r="I32" s="3" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="J32" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K32" s="26" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B33" s="12" t="s">
+      <c r="B33" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="C33" s="8"/>
+      <c r="C33" s="20" t="s">
+        <v>186</v>
+      </c>
       <c r="D33" s="3" t="s">
         <v>71</v>
       </c>
@@ -1877,20 +2049,20 @@
         <v>14</v>
       </c>
       <c r="I33" s="3" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="J33" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B34" s="12" t="s">
+      <c r="B34" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="C34" s="10" t="s">
+      <c r="C34" s="24" t="s">
         <v>83</v>
       </c>
       <c r="D34" s="3" t="s">
@@ -1900,17 +2072,20 @@
         <v>14</v>
       </c>
       <c r="I34" s="3" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="J34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K34" s="24" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B35" s="12" t="s">
+      <c r="B35" s="10" t="s">
         <v>84</v>
       </c>
       <c r="C35" s="1" t="s">
@@ -1920,23 +2095,23 @@
         <v>60</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="H35" s="3">
         <v>15</v>
       </c>
       <c r="I35" s="3" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="J35" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B36" s="12" t="s">
+      <c r="B36" s="10" t="s">
         <v>86</v>
       </c>
       <c r="C36" s="8" t="s">
@@ -1949,17 +2124,17 @@
         <v>15</v>
       </c>
       <c r="I36" s="3" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="J36" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B37" s="12" t="s">
+      <c r="B37" s="10" t="s">
         <v>88</v>
       </c>
       <c r="C37" s="1" t="s">
@@ -1972,17 +2147,17 @@
         <v>15</v>
       </c>
       <c r="I37" s="3" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="J37" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:10" ht="78" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" ht="78" x14ac:dyDescent="0.3">
       <c r="A38" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B38" s="12" t="s">
+      <c r="B38" s="10" t="s">
         <v>90</v>
       </c>
       <c r="C38" s="2" t="s">
@@ -1995,20 +2170,22 @@
         <v>15</v>
       </c>
       <c r="I38" s="3" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="J38" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B39" s="12" t="s">
-        <v>92</v>
-      </c>
-      <c r="C39" s="8"/>
+      <c r="B39" s="21" t="s">
+        <v>164</v>
+      </c>
+      <c r="C39" s="20" t="s">
+        <v>182</v>
+      </c>
       <c r="D39" s="3" t="s">
         <v>59</v>
       </c>
@@ -2016,140 +2193,154 @@
         <v>15</v>
       </c>
       <c r="I39" s="3" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="J39" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K39" s="26" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B40" s="12" t="s">
-        <v>93</v>
-      </c>
-      <c r="C40" s="12"/>
+      <c r="B40" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="C40" s="21" t="s">
+        <v>172</v>
+      </c>
       <c r="D40" s="3" t="s">
         <v>60</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="H40" s="3">
         <v>16</v>
       </c>
       <c r="I40" s="3" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="J40" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B41" s="12" t="s">
-        <v>94</v>
-      </c>
-      <c r="C41" s="12"/>
+      <c r="B41" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="C41" s="21" t="s">
+        <v>173</v>
+      </c>
       <c r="D41" s="3" t="s">
         <v>60</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="H41" s="3">
         <v>16</v>
       </c>
       <c r="I41" s="3" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="J41" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" ht="109.2" x14ac:dyDescent="0.3">
       <c r="A42" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B42" s="12" t="s">
+      <c r="B42" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="C42" s="21" t="s">
+        <v>174</v>
+      </c>
+      <c r="D42" s="3" t="s">
         <v>95</v>
-      </c>
-      <c r="C42" s="12"/>
-      <c r="D42" s="3" t="s">
-        <v>96</v>
       </c>
       <c r="H42" s="3">
         <v>16</v>
       </c>
       <c r="I42" s="3" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="J42" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A43" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B43" s="12" t="s">
-        <v>97</v>
-      </c>
-      <c r="C43" s="12"/>
+      <c r="B43" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="C43" s="21" t="s">
+        <v>175</v>
+      </c>
       <c r="D43" s="3" t="s">
         <v>60</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="H43" s="3">
         <v>16</v>
       </c>
       <c r="I43" s="3" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="J43" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K43" s="28" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B44" s="12" t="s">
+      <c r="B44" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="C44" s="11" t="s">
         <v>98</v>
-      </c>
-      <c r="C44" s="13" t="s">
-        <v>99</v>
       </c>
       <c r="D44" s="3" t="s">
         <v>60</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="H44" s="3">
         <v>17</v>
       </c>
       <c r="I44" s="3" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="J44" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B45" s="12" t="s">
+      <c r="B45" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="C45" s="11" t="s">
         <v>98</v>
-      </c>
-      <c r="C45" s="13" t="s">
-        <v>99</v>
       </c>
       <c r="D45" s="3" t="s">
         <v>59</v>
@@ -2158,47 +2349,47 @@
         <v>17</v>
       </c>
       <c r="I45" s="3" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="J45" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B46" s="12" t="s">
+      <c r="B46" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="C46" s="11" t="s">
         <v>100</v>
-      </c>
-      <c r="C46" s="13" t="s">
-        <v>101</v>
       </c>
       <c r="D46" s="3" t="s">
         <v>60</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="H46" s="3">
         <v>17</v>
       </c>
       <c r="I46" s="3" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="J46" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A47" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B47" s="12" t="s">
+      <c r="B47" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="C47" s="11" t="s">
         <v>102</v>
-      </c>
-      <c r="C47" s="13" t="s">
-        <v>103</v>
       </c>
       <c r="D47" s="3" t="s">
         <v>59</v>
@@ -2207,36 +2398,36 @@
         <v>17</v>
       </c>
       <c r="I47" s="3" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="J47" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B48" s="12" t="s">
+      <c r="B48" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="C48" s="11" t="s">
         <v>104</v>
-      </c>
-      <c r="C48" s="13" t="s">
-        <v>105</v>
       </c>
       <c r="D48" s="3" t="s">
         <v>60</v>
       </c>
       <c r="E48" s="3" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="F48" s="3" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="H48" s="3">
         <v>17</v>
       </c>
       <c r="I48" s="3" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="J48" s="3">
         <v>1</v>
@@ -2246,23 +2437,23 @@
       <c r="A49" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B49" s="12" t="s">
+      <c r="B49" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="C49" s="11" t="s">
         <v>106</v>
-      </c>
-      <c r="C49" s="13" t="s">
-        <v>107</v>
       </c>
       <c r="D49" s="3" t="s">
         <v>60</v>
       </c>
       <c r="E49" s="3" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="H49" s="3">
         <v>18</v>
       </c>
       <c r="I49" s="3" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="J49" s="3">
         <v>1</v>
@@ -2272,23 +2463,23 @@
       <c r="A50" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B50" s="12" t="s">
+      <c r="B50" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="C50" s="11" t="s">
         <v>108</v>
-      </c>
-      <c r="C50" s="13" t="s">
-        <v>109</v>
       </c>
       <c r="D50" s="3" t="s">
         <v>60</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="H50" s="3">
         <v>18</v>
       </c>
       <c r="I50" s="3" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="J50" s="3">
         <v>1</v>
@@ -2298,26 +2489,26 @@
       <c r="A51" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B51" s="12" t="s">
+      <c r="B51" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="C51" s="11" t="s">
         <v>110</v>
-      </c>
-      <c r="C51" s="13" t="s">
-        <v>111</v>
       </c>
       <c r="D51" s="3" t="s">
         <v>60</v>
       </c>
       <c r="E51" s="3" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="F51" s="3" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="H51" s="3">
         <v>18</v>
       </c>
       <c r="I51" s="3" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="J51" s="3">
         <v>1</v>
@@ -2327,11 +2518,11 @@
       <c r="A52" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B52" s="12" t="s">
+      <c r="B52" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="C52" s="10" t="s">
         <v>112</v>
-      </c>
-      <c r="C52" s="12" t="s">
-        <v>113</v>
       </c>
       <c r="D52" s="3" t="s">
         <v>59</v>
@@ -2340,207 +2531,207 @@
         <v>18</v>
       </c>
       <c r="I52" s="3" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="J52" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B53" s="12"/>
-      <c r="C53" s="12"/>
+      <c r="B53" s="10"/>
+      <c r="C53" s="10"/>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B54" s="12"/>
-      <c r="C54" s="12"/>
+      <c r="B54" s="10"/>
+      <c r="C54" s="10"/>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B55" s="12"/>
-      <c r="C55" s="12"/>
+      <c r="B55" s="10"/>
+      <c r="C55" s="10"/>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B56" s="12"/>
-      <c r="C56" s="12"/>
+      <c r="B56" s="10"/>
+      <c r="C56" s="10"/>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B57" s="14"/>
-      <c r="C57" s="14"/>
+      <c r="B57" s="12"/>
+      <c r="C57" s="12"/>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B58" s="15"/>
-      <c r="C58" s="14"/>
+      <c r="B58" s="13"/>
+      <c r="C58" s="12"/>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B59" s="14"/>
-      <c r="C59" s="14"/>
+      <c r="B59" s="12"/>
+      <c r="C59" s="12"/>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B60" s="14"/>
-      <c r="C60" s="14"/>
+      <c r="B60" s="12"/>
+      <c r="C60" s="12"/>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B61" s="15"/>
-      <c r="C61" s="14"/>
+      <c r="B61" s="13"/>
+      <c r="C61" s="12"/>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B62" s="14"/>
-      <c r="C62" s="14"/>
+      <c r="B62" s="12"/>
+      <c r="C62" s="12"/>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B63" s="14"/>
-      <c r="C63" s="14"/>
+      <c r="B63" s="12"/>
+      <c r="C63" s="12"/>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B64" s="14"/>
-      <c r="C64" s="14"/>
+      <c r="B64" s="12"/>
+      <c r="C64" s="12"/>
     </row>
     <row r="65" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B65" s="14"/>
-      <c r="C65" s="14"/>
+      <c r="B65" s="12"/>
+      <c r="C65" s="12"/>
     </row>
     <row r="66" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B66" s="14"/>
-      <c r="C66" s="14"/>
+      <c r="B66" s="12"/>
+      <c r="C66" s="12"/>
     </row>
     <row r="67" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B67" s="14"/>
-      <c r="C67" s="14"/>
+      <c r="B67" s="12"/>
+      <c r="C67" s="12"/>
     </row>
     <row r="68" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B68" s="14"/>
-      <c r="C68" s="14"/>
+      <c r="B68" s="12"/>
+      <c r="C68" s="12"/>
     </row>
     <row r="69" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B69" s="14"/>
-      <c r="C69" s="14"/>
+      <c r="B69" s="12"/>
+      <c r="C69" s="12"/>
     </row>
     <row r="70" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B70" s="14"/>
-      <c r="C70" s="14"/>
+      <c r="B70" s="12"/>
+      <c r="C70" s="12"/>
     </row>
     <row r="71" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B71" s="14"/>
-      <c r="C71" s="14"/>
+      <c r="B71" s="12"/>
+      <c r="C71" s="12"/>
     </row>
     <row r="72" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B72" s="14"/>
-      <c r="C72" s="14"/>
+      <c r="B72" s="12"/>
+      <c r="C72" s="12"/>
     </row>
     <row r="73" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B73" s="14"/>
-      <c r="C73" s="14"/>
+      <c r="B73" s="12"/>
+      <c r="C73" s="12"/>
     </row>
     <row r="74" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B74" s="14"/>
-      <c r="C74" s="14"/>
+      <c r="B74" s="12"/>
+      <c r="C74" s="12"/>
     </row>
     <row r="75" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B75" s="14"/>
-      <c r="C75" s="14"/>
+      <c r="B75" s="12"/>
+      <c r="C75" s="12"/>
     </row>
     <row r="76" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B76" s="14"/>
-      <c r="C76" s="14"/>
+      <c r="B76" s="12"/>
+      <c r="C76" s="12"/>
     </row>
     <row r="77" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B77" s="14"/>
-      <c r="C77" s="14"/>
+      <c r="B77" s="12"/>
+      <c r="C77" s="12"/>
     </row>
     <row r="78" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B78" s="14"/>
-      <c r="C78" s="14"/>
+      <c r="B78" s="12"/>
+      <c r="C78" s="12"/>
     </row>
     <row r="79" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B79" s="14"/>
-      <c r="C79" s="14"/>
+      <c r="B79" s="12"/>
+      <c r="C79" s="12"/>
     </row>
     <row r="80" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B80" s="14"/>
-      <c r="C80" s="14"/>
+      <c r="B80" s="12"/>
+      <c r="C80" s="12"/>
     </row>
     <row r="81" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B81" s="14"/>
-      <c r="C81" s="14"/>
+      <c r="B81" s="12"/>
+      <c r="C81" s="12"/>
     </row>
     <row r="82" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B82" s="14"/>
-      <c r="C82" s="14"/>
+      <c r="B82" s="12"/>
+      <c r="C82" s="12"/>
     </row>
     <row r="83" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B83" s="14"/>
-      <c r="C83" s="14"/>
+      <c r="B83" s="12"/>
+      <c r="C83" s="12"/>
     </row>
     <row r="84" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B84" s="14"/>
-      <c r="C84" s="14"/>
+      <c r="B84" s="12"/>
+      <c r="C84" s="12"/>
     </row>
     <row r="85" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B85" s="14"/>
-      <c r="C85" s="14"/>
+      <c r="B85" s="12"/>
+      <c r="C85" s="12"/>
     </row>
     <row r="86" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B86" s="14"/>
-      <c r="C86" s="14"/>
+      <c r="B86" s="12"/>
+      <c r="C86" s="12"/>
     </row>
     <row r="87" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B87" s="14"/>
-      <c r="C87" s="14"/>
+      <c r="B87" s="12"/>
+      <c r="C87" s="12"/>
     </row>
     <row r="88" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B88" s="14"/>
-      <c r="C88" s="14"/>
+      <c r="B88" s="12"/>
+      <c r="C88" s="12"/>
     </row>
     <row r="89" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B89" s="14"/>
-      <c r="C89" s="14"/>
+      <c r="B89" s="12"/>
+      <c r="C89" s="12"/>
     </row>
     <row r="90" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B90" s="14"/>
-      <c r="C90" s="14"/>
+      <c r="B90" s="12"/>
+      <c r="C90" s="12"/>
     </row>
     <row r="91" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B91" s="14"/>
-      <c r="C91" s="14"/>
+      <c r="B91" s="12"/>
+      <c r="C91" s="12"/>
     </row>
     <row r="92" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B92" s="14"/>
-      <c r="C92" s="14"/>
+      <c r="B92" s="12"/>
+      <c r="C92" s="12"/>
     </row>
     <row r="93" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B93" s="14"/>
-      <c r="C93" s="14"/>
+      <c r="B93" s="12"/>
+      <c r="C93" s="12"/>
     </row>
     <row r="94" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B94" s="14"/>
-      <c r="C94" s="14"/>
+      <c r="B94" s="12"/>
+      <c r="C94" s="12"/>
     </row>
     <row r="95" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B95" s="14"/>
-      <c r="C95" s="14"/>
+      <c r="B95" s="12"/>
+      <c r="C95" s="12"/>
     </row>
     <row r="96" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B96" s="14"/>
-      <c r="C96" s="14"/>
+      <c r="B96" s="12"/>
+      <c r="C96" s="12"/>
     </row>
     <row r="97" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B97" s="14"/>
-      <c r="C97" s="14"/>
+      <c r="B97" s="12"/>
+      <c r="C97" s="12"/>
     </row>
     <row r="98" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B98" s="15"/>
-      <c r="C98" s="14"/>
+      <c r="B98" s="13"/>
+      <c r="C98" s="12"/>
     </row>
     <row r="99" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B99" s="14"/>
-      <c r="C99" s="14"/>
+      <c r="B99" s="12"/>
+      <c r="C99" s="12"/>
     </row>
     <row r="100" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B100" s="14"/>
-      <c r="C100" s="14"/>
+      <c r="B100" s="12"/>
+      <c r="C100" s="12"/>
     </row>
     <row r="101" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B101" s="14"/>
-      <c r="C101" s="14"/>
+      <c r="B101" s="12"/>
+      <c r="C101" s="12"/>
     </row>
     <row r="102" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B102" s="7"/>
@@ -2567,36 +2758,36 @@
       <c r="C107" s="7"/>
     </row>
     <row r="112" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B112" s="13"/>
-      <c r="C112" s="13"/>
+      <c r="B112" s="11"/>
+      <c r="C112" s="11"/>
     </row>
     <row r="113" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B113" s="12"/>
-      <c r="C113" s="13"/>
+      <c r="B113" s="10"/>
+      <c r="C113" s="11"/>
     </row>
     <row r="114" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B114" s="12"/>
-      <c r="C114" s="13"/>
+      <c r="B114" s="10"/>
+      <c r="C114" s="11"/>
     </row>
     <row r="115" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B115" s="12"/>
-      <c r="C115" s="13"/>
+      <c r="B115" s="10"/>
+      <c r="C115" s="11"/>
     </row>
     <row r="116" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B116" s="12"/>
-      <c r="C116" s="13"/>
+      <c r="B116" s="10"/>
+      <c r="C116" s="11"/>
     </row>
     <row r="117" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B117" s="12"/>
-      <c r="C117" s="13"/>
+      <c r="B117" s="10"/>
+      <c r="C117" s="11"/>
     </row>
     <row r="118" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B118" s="12"/>
-      <c r="C118" s="13"/>
+      <c r="B118" s="10"/>
+      <c r="C118" s="11"/>
     </row>
     <row r="119" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B119" s="12"/>
-      <c r="C119" s="13"/>
+      <c r="B119" s="10"/>
+      <c r="C119" s="11"/>
     </row>
     <row r="120" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B120" s="7"/>
@@ -2617,93 +2808,93 @@
       <c r="C124" s="7"/>
     </row>
     <row r="125" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="C125" s="16"/>
+      <c r="C125" s="14"/>
     </row>
     <row r="126" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="C126" s="16"/>
+      <c r="C126" s="14"/>
     </row>
     <row r="127" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="C127" s="16"/>
+      <c r="C127" s="14"/>
     </row>
     <row r="128" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="C128" s="16"/>
+      <c r="C128" s="14"/>
     </row>
     <row r="129" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="C129" s="16"/>
+      <c r="C129" s="14"/>
     </row>
     <row r="130" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="C130" s="16"/>
+      <c r="C130" s="14"/>
     </row>
     <row r="131" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B131" s="16"/>
-      <c r="C131" s="16"/>
+      <c r="B131" s="14"/>
+      <c r="C131" s="14"/>
     </row>
     <row r="132" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B132" s="16"/>
-      <c r="C132" s="16"/>
+      <c r="B132" s="14"/>
+      <c r="C132" s="14"/>
     </row>
     <row r="133" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B133" s="16"/>
-      <c r="C133" s="16"/>
+      <c r="B133" s="14"/>
+      <c r="C133" s="14"/>
     </row>
     <row r="134" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B134" s="16"/>
+      <c r="B134" s="14"/>
     </row>
     <row r="135" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B135" s="12"/>
-      <c r="C135" s="13"/>
+      <c r="B135" s="10"/>
+      <c r="C135" s="11"/>
     </row>
     <row r="136" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B136" s="12"/>
-      <c r="C136" s="13"/>
+      <c r="B136" s="10"/>
+      <c r="C136" s="11"/>
     </row>
     <row r="137" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B137" s="12"/>
-      <c r="C137" s="13"/>
+      <c r="B137" s="10"/>
+      <c r="C137" s="11"/>
     </row>
     <row r="138" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B138" s="12"/>
-      <c r="C138" s="13"/>
+      <c r="B138" s="10"/>
+      <c r="C138" s="11"/>
     </row>
     <row r="139" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B139" s="12"/>
-      <c r="C139" s="13"/>
+      <c r="B139" s="10"/>
+      <c r="C139" s="11"/>
     </row>
     <row r="140" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B140" s="12"/>
-      <c r="C140" s="13"/>
+      <c r="B140" s="10"/>
+      <c r="C140" s="11"/>
     </row>
     <row r="141" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B141" s="12"/>
-      <c r="C141" s="13"/>
+      <c r="B141" s="10"/>
+      <c r="C141" s="11"/>
     </row>
     <row r="142" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B142" s="12"/>
-      <c r="C142" s="13"/>
+      <c r="B142" s="10"/>
+      <c r="C142" s="11"/>
     </row>
     <row r="143" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B143" s="12"/>
-      <c r="C143" s="13"/>
+      <c r="B143" s="10"/>
+      <c r="C143" s="11"/>
     </row>
     <row r="144" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B144" s="12"/>
-      <c r="C144" s="13"/>
+      <c r="B144" s="10"/>
+      <c r="C144" s="11"/>
     </row>
     <row r="145" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B145" s="12"/>
-      <c r="C145" s="13"/>
+      <c r="B145" s="10"/>
+      <c r="C145" s="11"/>
     </row>
     <row r="146" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B146" s="12"/>
-      <c r="C146" s="13"/>
+      <c r="B146" s="10"/>
+      <c r="C146" s="11"/>
     </row>
     <row r="147" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B147" s="12"/>
-      <c r="C147" s="13"/>
+      <c r="B147" s="10"/>
+      <c r="C147" s="11"/>
     </row>
     <row r="148" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B148" s="12"/>
-      <c r="C148" s="13"/>
+      <c r="B148" s="10"/>
+      <c r="C148" s="11"/>
     </row>
     <row r="149" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B149" s="7"/>
@@ -2825,16 +3016,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="4e95bed8-6d15-4403-ad70-a53422338dca">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <TaxCatchAll xmlns="d045ab76-3bb7-45f5-ab41-d7b04aa0dc94" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3109,22 +3296,22 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="4e95bed8-6d15-4403-ad70-a53422338dca">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <TaxCatchAll xmlns="d045ab76-3bb7-45f5-ab41-d7b04aa0dc94" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FFBB421F-7112-4B85-A662-9379706C03DC}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F0EF40A6-8528-4994-A94E-1AE934020AF5}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="4e95bed8-6d15-4403-ad70-a53422338dca"/>
-    <ds:schemaRef ds:uri="d045ab76-3bb7-45f5-ab41-d7b04aa0dc94"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -3151,9 +3338,13 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F0EF40A6-8528-4994-A94E-1AE934020AF5}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FFBB421F-7112-4B85-A662-9379706C03DC}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="4e95bed8-6d15-4403-ad70-a53422338dca"/>
+    <ds:schemaRef ds:uri="d045ab76-3bb7-45f5-ab41-d7b04aa0dc94"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/1. Configuratie.xlsx
+++ b/1. Configuratie.xlsx
@@ -773,7 +773,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -835,107 +835,83 @@
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1361,7 +1337,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73A75041-D6C8-4C2F-941F-420EA079C5D1}">
   <dimension ref="A1:L168"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="L7" sqref="L7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1380,1960 +1358,1866 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="22" t="s">
+      <c r="B1" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="C1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D1" s="22" t="s">
+      <c r="D1" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="E1" s="23" t="s">
+      <c r="E1" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="F1" s="23" t="s">
+      <c r="F1" s="22" t="s">
         <v>198</v>
       </c>
-      <c r="G1" s="21" t="s">
+      <c r="G1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="H1" s="21" t="s">
+      <c r="H1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="I1" s="21" t="s">
+      <c r="I1" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="J1" s="21" t="s">
+      <c r="J1" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="K1" s="21" t="s">
+      <c r="K1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="L1" s="21" t="s">
+      <c r="L1" s="1" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A2" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="B2" s="24" t="s">
+      <c r="A2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="21" t="s">
+      <c r="C2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D2" s="24"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
-      <c r="G2" s="21"/>
-      <c r="H2" s="21"/>
-      <c r="I2" s="21" t="s">
-        <v>180</v>
-      </c>
-      <c r="J2" s="21">
-        <v>2023</v>
-      </c>
-      <c r="K2" s="21">
+      <c r="D2" s="23"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="I2" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="J2" s="1">
+        <v>2023</v>
+      </c>
+      <c r="K2" s="1">
         <v>1</v>
       </c>
-      <c r="L2" s="21" t="s">
+      <c r="L2" s="1" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A3" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="B3" s="24" t="s">
+      <c r="A3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="C3" s="21" t="s">
+      <c r="C3" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D3" s="24" t="s">
+      <c r="D3" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="E3" s="23">
+      <c r="E3" s="22">
         <v>1</v>
       </c>
-      <c r="F3" s="23"/>
-      <c r="G3" s="21"/>
-      <c r="H3" s="21"/>
-      <c r="I3" s="21" t="s">
-        <v>180</v>
-      </c>
-      <c r="J3" s="21">
-        <v>2023</v>
-      </c>
-      <c r="K3" s="21">
+      <c r="F3" s="22"/>
+      <c r="I3" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="J3" s="1">
+        <v>2023</v>
+      </c>
+      <c r="K3" s="1">
         <v>4</v>
       </c>
-      <c r="L3" s="21" t="s">
+      <c r="L3" s="1" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A4" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="B4" s="24" t="s">
+      <c r="A4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="C4" s="21" t="s">
+      <c r="C4" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D4" s="24" t="s">
+      <c r="D4" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="E4" s="23" t="s">
+      <c r="E4" s="22" t="s">
         <v>152</v>
       </c>
-      <c r="F4" s="23"/>
-      <c r="G4" s="21"/>
-      <c r="H4" s="21"/>
-      <c r="I4" s="21" t="s">
-        <v>180</v>
-      </c>
-      <c r="J4" s="21">
-        <v>2023</v>
-      </c>
-      <c r="K4" s="21">
+      <c r="F4" s="22"/>
+      <c r="I4" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="J4" s="1">
+        <v>2023</v>
+      </c>
+      <c r="K4" s="1">
         <v>4</v>
       </c>
-      <c r="L4" s="21" t="s">
+      <c r="L4" s="1" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A5" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="B5" s="24" t="s">
+      <c r="A5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="C5" s="21" t="s">
+      <c r="C5" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D5" s="24" t="s">
+      <c r="D5" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="E5" s="23" t="s">
+      <c r="E5" s="22" t="s">
         <v>153</v>
       </c>
-      <c r="F5" s="23"/>
-      <c r="G5" s="21"/>
-      <c r="H5" s="21"/>
-      <c r="I5" s="21" t="s">
-        <v>180</v>
-      </c>
-      <c r="J5" s="21">
-        <v>2023</v>
-      </c>
-      <c r="K5" s="21">
+      <c r="F5" s="22"/>
+      <c r="I5" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="J5" s="1">
+        <v>2023</v>
+      </c>
+      <c r="K5" s="1">
         <v>4</v>
       </c>
-      <c r="L5" s="21" t="s">
+      <c r="L5" s="1" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A6" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="B6" s="24" t="s">
+      <c r="A6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="C6" s="21" t="s">
+      <c r="C6" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D6" s="24" t="s">
+      <c r="D6" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="E6" s="23">
+      <c r="E6" s="22">
         <v>4</v>
       </c>
-      <c r="F6" s="23"/>
-      <c r="G6" s="21"/>
-      <c r="H6" s="21"/>
-      <c r="I6" s="21" t="s">
-        <v>180</v>
-      </c>
-      <c r="J6" s="21">
-        <v>2023</v>
-      </c>
-      <c r="K6" s="21">
+      <c r="F6" s="22"/>
+      <c r="I6" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="J6" s="1">
+        <v>2023</v>
+      </c>
+      <c r="K6" s="1">
         <v>4</v>
       </c>
-      <c r="L6" s="21" t="s">
+      <c r="L6" s="1" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A7" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="B7" s="21" t="s">
+      <c r="A7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C7" s="25" t="s">
+      <c r="C7" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="D7" s="24" t="s">
+      <c r="D7" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="E7" s="23">
+      <c r="E7" s="22">
         <v>1</v>
       </c>
-      <c r="F7" s="23"/>
-      <c r="G7" s="21"/>
-      <c r="H7" s="21"/>
-      <c r="I7" s="21" t="s">
-        <v>180</v>
-      </c>
-      <c r="J7" s="21">
-        <v>2023</v>
-      </c>
-      <c r="K7" s="21">
+      <c r="F7" s="22"/>
+      <c r="I7" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="J7" s="1">
+        <v>2023</v>
+      </c>
+      <c r="K7" s="1">
         <v>4</v>
       </c>
-      <c r="L7" s="21" t="s">
+      <c r="L7" s="1" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A8" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8" s="26" t="s">
+      <c r="A8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="C8" s="25" t="s">
+      <c r="C8" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="D8" s="27" t="s">
+      <c r="D8" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="E8" s="28">
+      <c r="E8" s="9">
         <v>1</v>
       </c>
-      <c r="F8" s="29"/>
-      <c r="G8" s="21"/>
-      <c r="H8" s="21"/>
-      <c r="I8" s="21" t="s">
-        <v>180</v>
-      </c>
-      <c r="J8" s="21">
-        <v>2023</v>
-      </c>
-      <c r="K8" s="21">
+      <c r="F8" s="17"/>
+      <c r="I8" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="J8" s="1">
+        <v>2023</v>
+      </c>
+      <c r="K8" s="1">
         <v>4</v>
       </c>
-      <c r="L8" s="21" t="s">
+      <c r="L8" s="1" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A9" s="21" t="s">
+      <c r="A9" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B9" s="26" t="s">
+      <c r="B9" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="C9" s="25" t="s">
+      <c r="C9" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="D9" s="27" t="s">
+      <c r="D9" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="E9" s="28" t="s">
-        <v>44</v>
-      </c>
-      <c r="F9" s="29"/>
-      <c r="G9" s="21"/>
-      <c r="H9" s="21"/>
-      <c r="I9" s="21" t="s">
-        <v>180</v>
-      </c>
-      <c r="J9" s="21">
-        <v>2023</v>
-      </c>
-      <c r="K9" s="21">
+      <c r="E9" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" s="17"/>
+      <c r="I9" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="J9" s="1">
+        <v>2023</v>
+      </c>
+      <c r="K9" s="1">
         <v>5</v>
       </c>
-      <c r="L9" s="21" t="s">
+      <c r="L9" s="1" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A10" s="21" t="s">
+      <c r="A10" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B10" s="26" t="s">
+      <c r="B10" s="25" t="s">
         <v>46</v>
       </c>
-      <c r="C10" s="25" t="s">
+      <c r="C10" s="24" t="s">
         <v>47</v>
       </c>
-      <c r="D10" s="24" t="s">
+      <c r="D10" s="23" t="s">
         <v>191</v>
       </c>
-      <c r="E10" s="23" t="s">
-        <v>44</v>
-      </c>
-      <c r="F10" s="23" t="s">
+      <c r="E10" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" s="22" t="s">
         <v>199</v>
       </c>
-      <c r="G10" s="21"/>
-      <c r="H10" s="21"/>
-      <c r="I10" s="21" t="s">
-        <v>180</v>
-      </c>
-      <c r="J10" s="21">
-        <v>2023</v>
-      </c>
-      <c r="K10" s="21">
+      <c r="I10" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="J10" s="1">
+        <v>2023</v>
+      </c>
+      <c r="K10" s="1">
         <v>5</v>
       </c>
-      <c r="L10" s="21" t="s">
+      <c r="L10" s="1" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A11" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="B11" s="30" t="s">
+      <c r="A11" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" s="26" t="s">
         <v>49</v>
       </c>
-      <c r="C11" s="26" t="s">
+      <c r="C11" s="25" t="s">
         <v>51</v>
       </c>
-      <c r="D11" s="31" t="s">
+      <c r="D11" s="27" t="s">
         <v>50</v>
       </c>
-      <c r="E11" s="32" t="s">
-        <v>44</v>
-      </c>
-      <c r="F11" s="33"/>
-      <c r="G11" s="21" t="s">
+      <c r="E11" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" s="29"/>
+      <c r="G11" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="H11" s="21" t="s">
+      <c r="H11" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="I11" s="21" t="s">
-        <v>180</v>
-      </c>
-      <c r="J11" s="21">
-        <v>2023</v>
-      </c>
-      <c r="K11" s="21">
+      <c r="I11" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="J11" s="1">
+        <v>2023</v>
+      </c>
+      <c r="K11" s="1">
         <v>6</v>
       </c>
-      <c r="L11" s="21" t="s">
+      <c r="L11" s="1" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A12" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="B12" s="30" t="s">
+      <c r="A12" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" s="26" t="s">
         <v>55</v>
       </c>
-      <c r="C12" s="26" t="s">
+      <c r="C12" s="25" t="s">
         <v>51</v>
       </c>
-      <c r="D12" s="31" t="s">
+      <c r="D12" s="27" t="s">
         <v>56</v>
       </c>
-      <c r="E12" s="32" t="s">
-        <v>44</v>
-      </c>
-      <c r="F12" s="33"/>
-      <c r="G12" s="21" t="s">
+      <c r="E12" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" s="29"/>
+      <c r="G12" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="H12" s="21" t="s">
+      <c r="H12" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="I12" s="21" t="s">
-        <v>180</v>
-      </c>
-      <c r="J12" s="21">
-        <v>2023</v>
-      </c>
-      <c r="K12" s="21">
+      <c r="I12" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="J12" s="1">
+        <v>2023</v>
+      </c>
+      <c r="K12" s="1">
         <v>6</v>
       </c>
-      <c r="L12" s="21" t="s">
+      <c r="L12" s="1" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A13" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="B13" s="27" t="s">
+      <c r="A13" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="C13" s="26" t="s">
+      <c r="C13" s="25" t="s">
         <v>51</v>
       </c>
-      <c r="D13" s="31" t="s">
+      <c r="D13" s="27" t="s">
         <v>59</v>
       </c>
-      <c r="E13" s="32" t="s">
-        <v>44</v>
-      </c>
-      <c r="F13" s="33"/>
-      <c r="G13" s="21" t="s">
+      <c r="E13" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" s="29"/>
+      <c r="G13" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="H13" s="21" t="s">
+      <c r="H13" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="I13" s="21" t="s">
-        <v>180</v>
-      </c>
-      <c r="J13" s="21">
-        <v>2023</v>
-      </c>
-      <c r="K13" s="21">
+      <c r="I13" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="J13" s="1">
+        <v>2023</v>
+      </c>
+      <c r="K13" s="1">
         <v>6</v>
       </c>
-      <c r="L13" s="21" t="s">
+      <c r="L13" s="1" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A14" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="B14" s="27" t="s">
+      <c r="A14" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="C14" s="26" t="s">
+      <c r="C14" s="25" t="s">
         <v>51</v>
       </c>
-      <c r="D14" s="31" t="s">
+      <c r="D14" s="27" t="s">
         <v>62</v>
       </c>
-      <c r="E14" s="32" t="s">
-        <v>44</v>
-      </c>
-      <c r="F14" s="33"/>
-      <c r="G14" s="21" t="s">
+      <c r="E14" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" s="29"/>
+      <c r="G14" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="H14" s="21" t="s">
+      <c r="H14" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="I14" s="21" t="s">
-        <v>180</v>
-      </c>
-      <c r="J14" s="21">
-        <v>2023</v>
-      </c>
-      <c r="K14" s="21">
+      <c r="I14" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="J14" s="1">
+        <v>2023</v>
+      </c>
+      <c r="K14" s="1">
         <v>6</v>
       </c>
-      <c r="L14" s="21" t="s">
+      <c r="L14" s="1" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="78" x14ac:dyDescent="0.3">
-      <c r="A15" s="21" t="s">
+      <c r="A15" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B15" s="27" t="s">
+      <c r="B15" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="C15" s="25" t="s">
+      <c r="C15" s="24" t="s">
         <v>47</v>
       </c>
-      <c r="D15" s="31" t="s">
+      <c r="D15" s="27" t="s">
         <v>192</v>
       </c>
-      <c r="E15" s="33" t="s">
-        <v>44</v>
-      </c>
-      <c r="F15" s="23" t="s">
+      <c r="E15" s="29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" s="22" t="s">
         <v>200</v>
       </c>
-      <c r="G15" s="21"/>
-      <c r="H15" s="21"/>
-      <c r="I15" s="21" t="s">
-        <v>180</v>
-      </c>
-      <c r="J15" s="21">
-        <v>2023</v>
-      </c>
-      <c r="K15" s="21">
+      <c r="I15" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="J15" s="1">
+        <v>2023</v>
+      </c>
+      <c r="K15" s="1">
         <v>7</v>
       </c>
-      <c r="L15" s="21" t="s">
+      <c r="L15" s="1" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A16" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="B16" s="34" t="s">
+      <c r="A16" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16" s="30" t="s">
         <v>65</v>
       </c>
-      <c r="C16" s="25" t="s">
+      <c r="C16" s="24" t="s">
         <v>67</v>
       </c>
-      <c r="D16" s="35" t="s">
+      <c r="D16" s="31" t="s">
         <v>66</v>
       </c>
-      <c r="E16" s="33" t="s">
-        <v>44</v>
-      </c>
-      <c r="F16" s="33"/>
-      <c r="G16" s="21"/>
-      <c r="H16" s="21"/>
-      <c r="I16" s="21" t="s">
+      <c r="E16" s="29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" s="29"/>
+      <c r="I16" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="J16" s="21" t="s">
+      <c r="J16" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="K16" s="21">
+      <c r="K16" s="1">
         <v>8</v>
       </c>
-      <c r="L16" s="21" t="s">
+      <c r="L16" s="1" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A17" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="B17" s="25" t="s">
+      <c r="A17" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B17" s="24" t="s">
         <v>69</v>
       </c>
-      <c r="C17" s="25" t="s">
+      <c r="C17" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="D17" s="36" t="s">
+      <c r="D17" s="32" t="s">
         <v>70</v>
       </c>
-      <c r="E17" s="37" t="s">
-        <v>44</v>
-      </c>
-      <c r="F17" s="38"/>
-      <c r="G17" s="21"/>
-      <c r="H17" s="21"/>
-      <c r="I17" s="21" t="s">
-        <v>180</v>
-      </c>
-      <c r="J17" s="21">
-        <v>2023</v>
-      </c>
-      <c r="K17" s="21">
+      <c r="E17" s="33" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" s="34"/>
+      <c r="I17" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="J17" s="1">
+        <v>2023</v>
+      </c>
+      <c r="K17" s="1">
         <v>8</v>
       </c>
-      <c r="L17" s="21" t="s">
+      <c r="L17" s="1" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A18" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="B18" s="25" t="s">
+      <c r="A18" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B18" s="24" t="s">
         <v>65</v>
       </c>
-      <c r="C18" s="25" t="s">
+      <c r="C18" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="D18" s="36" t="s">
+      <c r="D18" s="32" t="s">
         <v>66</v>
       </c>
-      <c r="E18" s="37" t="s">
-        <v>44</v>
-      </c>
-      <c r="F18" s="38"/>
-      <c r="G18" s="21"/>
-      <c r="H18" s="21"/>
-      <c r="I18" s="21" t="s">
-        <v>180</v>
-      </c>
-      <c r="J18" s="21">
-        <v>2023</v>
-      </c>
-      <c r="K18" s="21">
+      <c r="E18" s="33" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" s="34"/>
+      <c r="I18" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="J18" s="1">
+        <v>2023</v>
+      </c>
+      <c r="K18" s="1">
         <v>8</v>
       </c>
-      <c r="L18" s="21" t="s">
+      <c r="L18" s="1" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="19" spans="1:12" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A19" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="B19" s="25" t="s">
+      <c r="A19" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B19" s="24" t="s">
         <v>202</v>
       </c>
-      <c r="C19" s="25" t="s">
+      <c r="C19" s="24" t="s">
         <v>73</v>
       </c>
-      <c r="D19" s="36" t="s">
+      <c r="D19" s="32" t="s">
         <v>193</v>
       </c>
-      <c r="E19" s="37" t="s">
-        <v>44</v>
-      </c>
-      <c r="F19" s="36" t="s">
+      <c r="E19" s="33" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" s="32" t="s">
         <v>201</v>
       </c>
-      <c r="G19" s="21" t="s">
+      <c r="G19" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="H19" s="21"/>
-      <c r="I19" s="21" t="s">
-        <v>180</v>
-      </c>
-      <c r="J19" s="21">
-        <v>2023</v>
-      </c>
-      <c r="K19" s="21">
+      <c r="I19" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="J19" s="1">
+        <v>2023</v>
+      </c>
+      <c r="K19" s="1">
         <v>8</v>
       </c>
-      <c r="L19" s="21" t="s">
+      <c r="L19" s="1" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="20" spans="1:12" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A20" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="B20" s="25" t="s">
+      <c r="A20" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B20" s="24" t="s">
         <v>202</v>
       </c>
-      <c r="C20" s="25" t="s">
+      <c r="C20" s="24" t="s">
         <v>73</v>
       </c>
-      <c r="D20" s="36" t="s">
+      <c r="D20" s="32" t="s">
         <v>193</v>
       </c>
-      <c r="E20" s="37" t="s">
-        <v>44</v>
-      </c>
-      <c r="F20" s="36" t="s">
+      <c r="E20" s="33" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" s="32" t="s">
         <v>201</v>
       </c>
-      <c r="G20" s="21" t="s">
+      <c r="G20" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="H20" s="21"/>
-      <c r="I20" s="21" t="s">
-        <v>180</v>
-      </c>
-      <c r="J20" s="21">
-        <v>2023</v>
-      </c>
-      <c r="K20" s="21">
+      <c r="I20" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="J20" s="1">
+        <v>2023</v>
+      </c>
+      <c r="K20" s="1">
         <v>8</v>
       </c>
-      <c r="L20" s="21" t="s">
+      <c r="L20" s="1" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A21" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="B21" s="26" t="s">
+      <c r="A21" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B21" s="25" t="s">
         <v>76</v>
       </c>
-      <c r="C21" s="26" t="s">
+      <c r="C21" s="25" t="s">
         <v>67</v>
       </c>
-      <c r="D21" s="39" t="s">
+      <c r="D21" s="35" t="s">
         <v>77</v>
       </c>
-      <c r="E21" s="40" t="s">
-        <v>44</v>
-      </c>
-      <c r="F21" s="41"/>
-      <c r="G21" s="21"/>
-      <c r="H21" s="21"/>
-      <c r="I21" s="21" t="s">
-        <v>180</v>
-      </c>
-      <c r="J21" s="21" t="s">
+      <c r="E21" s="36" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" s="37"/>
+      <c r="I21" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="J21" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="K21" s="21">
+      <c r="K21" s="1">
         <v>9</v>
       </c>
-      <c r="L21" s="21" t="s">
+      <c r="L21" s="1" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A22" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="B22" s="26" t="s">
+      <c r="A22" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B22" s="25" t="s">
         <v>186</v>
       </c>
-      <c r="C22" s="26" t="s">
+      <c r="C22" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="D22" s="39" t="s">
+      <c r="D22" s="35" t="s">
         <v>184</v>
       </c>
-      <c r="E22" s="40" t="s">
-        <v>44</v>
-      </c>
-      <c r="F22" s="41"/>
-      <c r="G22" s="21"/>
-      <c r="H22" s="21"/>
-      <c r="I22" s="21" t="s">
-        <v>180</v>
-      </c>
-      <c r="J22" s="21">
-        <v>2023</v>
-      </c>
-      <c r="K22" s="21">
+      <c r="E22" s="36" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" s="37"/>
+      <c r="I22" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="J22" s="1">
+        <v>2023</v>
+      </c>
+      <c r="K22" s="1">
         <v>9</v>
       </c>
-      <c r="L22" s="21" t="s">
+      <c r="L22" s="1" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A23" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="B23" s="26" t="s">
+      <c r="A23" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B23" s="25" t="s">
         <v>187</v>
       </c>
-      <c r="C23" s="26" t="s">
+      <c r="C23" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="D23" s="39" t="s">
+      <c r="D23" s="35" t="s">
         <v>185</v>
       </c>
-      <c r="E23" s="40" t="s">
-        <v>44</v>
-      </c>
-      <c r="F23" s="41"/>
-      <c r="G23" s="21"/>
-      <c r="H23" s="21"/>
-      <c r="I23" s="21" t="s">
-        <v>180</v>
-      </c>
-      <c r="J23" s="21">
-        <v>2023</v>
-      </c>
-      <c r="K23" s="21">
+      <c r="E23" s="36" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" s="37"/>
+      <c r="I23" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="J23" s="1">
+        <v>2023</v>
+      </c>
+      <c r="K23" s="1">
         <v>9</v>
       </c>
-      <c r="L23" s="21" t="s">
+      <c r="L23" s="1" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="24" spans="1:12" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A24" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="B24" s="26" t="s">
+      <c r="A24" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B24" s="25" t="s">
         <v>79</v>
       </c>
-      <c r="C24" s="26" t="s">
+      <c r="C24" s="25" t="s">
         <v>73</v>
       </c>
-      <c r="D24" s="39" t="s">
+      <c r="D24" s="35" t="s">
         <v>194</v>
       </c>
-      <c r="E24" s="40" t="s">
-        <v>44</v>
-      </c>
-      <c r="F24" s="23" t="s">
+      <c r="E24" s="36" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" s="22" t="s">
         <v>199</v>
       </c>
-      <c r="G24" s="21" t="s">
+      <c r="G24" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="H24" s="21" t="s">
+      <c r="H24" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="I24" s="21" t="s">
-        <v>180</v>
-      </c>
-      <c r="J24" s="21">
-        <v>2023</v>
-      </c>
-      <c r="K24" s="21">
+      <c r="I24" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="J24" s="1">
+        <v>2023</v>
+      </c>
+      <c r="K24" s="1">
         <v>9</v>
       </c>
-      <c r="L24" s="21" t="s">
+      <c r="L24" s="1" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="25" spans="1:12" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A25" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="B25" s="26" t="s">
+      <c r="A25" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B25" s="25" t="s">
         <v>80</v>
       </c>
-      <c r="C25" s="26" t="s">
+      <c r="C25" s="25" t="s">
         <v>73</v>
       </c>
-      <c r="D25" s="39" t="s">
+      <c r="D25" s="35" t="s">
         <v>194</v>
       </c>
-      <c r="E25" s="40" t="s">
-        <v>44</v>
-      </c>
-      <c r="F25" s="23" t="s">
+      <c r="E25" s="36" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" s="22" t="s">
         <v>199</v>
       </c>
-      <c r="G25" s="21" t="s">
+      <c r="G25" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="H25" s="21" t="s">
+      <c r="H25" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="I25" s="21" t="s">
-        <v>180</v>
-      </c>
-      <c r="J25" s="21">
-        <v>2023</v>
-      </c>
-      <c r="K25" s="21">
+      <c r="I25" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="J25" s="1">
+        <v>2023</v>
+      </c>
+      <c r="K25" s="1">
         <v>9</v>
       </c>
-      <c r="L25" s="21" t="s">
+      <c r="L25" s="1" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A26" s="21" t="s">
+      <c r="A26" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B26" s="26" t="s">
+      <c r="B26" s="25" t="s">
         <v>81</v>
       </c>
-      <c r="C26" s="26" t="s">
+      <c r="C26" s="25" t="s">
         <v>47</v>
       </c>
-      <c r="D26" s="39"/>
-      <c r="E26" s="40"/>
-      <c r="F26" s="41"/>
-      <c r="G26" s="21"/>
-      <c r="H26" s="21"/>
-      <c r="I26" s="21" t="s">
-        <v>180</v>
-      </c>
-      <c r="J26" s="21">
-        <v>2023</v>
-      </c>
-      <c r="K26" s="21">
+      <c r="D26" s="35"/>
+      <c r="E26" s="36"/>
+      <c r="F26" s="37"/>
+      <c r="I26" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="J26" s="1">
+        <v>2023</v>
+      </c>
+      <c r="K26" s="1">
         <v>10</v>
       </c>
-      <c r="L26" s="21" t="s">
+      <c r="L26" s="1" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A27" s="21" t="s">
+      <c r="A27" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B27" s="26" t="s">
+      <c r="B27" s="25" t="s">
         <v>83</v>
       </c>
-      <c r="C27" s="26" t="s">
+      <c r="C27" s="25" t="s">
         <v>47</v>
       </c>
-      <c r="D27" s="39"/>
-      <c r="E27" s="40"/>
-      <c r="F27" s="41"/>
-      <c r="G27" s="21"/>
-      <c r="H27" s="21"/>
-      <c r="I27" s="21" t="s">
-        <v>180</v>
-      </c>
-      <c r="J27" s="21">
-        <v>2023</v>
-      </c>
-      <c r="K27" s="21">
+      <c r="D27" s="35"/>
+      <c r="E27" s="36"/>
+      <c r="F27" s="37"/>
+      <c r="I27" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="J27" s="1">
+        <v>2023</v>
+      </c>
+      <c r="K27" s="1">
         <v>10</v>
       </c>
-      <c r="L27" s="21" t="s">
+      <c r="L27" s="1" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A28" s="21" t="s">
+      <c r="A28" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B28" s="26" t="s">
+      <c r="B28" s="25" t="s">
         <v>85</v>
       </c>
-      <c r="C28" s="26" t="s">
+      <c r="C28" s="25" t="s">
         <v>160</v>
       </c>
-      <c r="D28" s="39"/>
-      <c r="E28" s="40"/>
-      <c r="F28" s="41"/>
-      <c r="G28" s="21"/>
-      <c r="H28" s="21"/>
-      <c r="I28" s="21" t="s">
-        <v>180</v>
-      </c>
-      <c r="J28" s="21">
-        <v>2023</v>
-      </c>
-      <c r="K28" s="21">
+      <c r="D28" s="35"/>
+      <c r="E28" s="36"/>
+      <c r="F28" s="37"/>
+      <c r="I28" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="J28" s="1">
+        <v>2023</v>
+      </c>
+      <c r="K28" s="1">
         <v>10</v>
       </c>
-      <c r="L28" s="21" t="s">
+      <c r="L28" s="1" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A29" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="B29" s="42" t="s">
+      <c r="A29" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B29" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="C29" s="21" t="s">
+      <c r="C29" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="D29" s="43" t="s">
+      <c r="D29" s="38" t="s">
         <v>87</v>
       </c>
-      <c r="E29" s="44" t="s">
-        <v>44</v>
-      </c>
-      <c r="F29" s="45"/>
-      <c r="G29" s="21"/>
-      <c r="H29" s="21"/>
-      <c r="I29" s="21" t="s">
+      <c r="E29" s="39" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29" s="40"/>
+      <c r="I29" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="J29" s="21" t="s">
+      <c r="J29" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="K29" s="21">
+      <c r="K29" s="1">
         <v>11</v>
       </c>
-      <c r="L29" s="21" t="s">
+      <c r="L29" s="1" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A30" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="B30" s="42" t="s">
+      <c r="A30" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B30" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="C30" s="21" t="s">
+      <c r="C30" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D30" s="27" t="s">
+      <c r="D30" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="E30" s="28" t="s">
-        <v>44</v>
-      </c>
-      <c r="F30" s="29"/>
-      <c r="G30" s="21"/>
-      <c r="H30" s="21"/>
-      <c r="I30" s="21" t="s">
-        <v>180</v>
-      </c>
-      <c r="J30" s="21">
-        <v>2023</v>
-      </c>
-      <c r="K30" s="21">
+      <c r="E30" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F30" s="17"/>
+      <c r="I30" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="J30" s="1">
+        <v>2023</v>
+      </c>
+      <c r="K30" s="1">
         <v>11</v>
       </c>
-      <c r="L30" s="21" t="s">
+      <c r="L30" s="1" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A31" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="B31" s="27" t="s">
+      <c r="A31" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B31" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="C31" s="42" t="s">
+      <c r="C31" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D31" s="43" t="s">
+      <c r="D31" s="38" t="s">
         <v>90</v>
       </c>
-      <c r="E31" s="44" t="s">
-        <v>44</v>
-      </c>
-      <c r="F31" s="45"/>
-      <c r="G31" s="21"/>
-      <c r="H31" s="42"/>
-      <c r="I31" s="21" t="s">
-        <v>180</v>
-      </c>
-      <c r="J31" s="21">
-        <v>2023</v>
-      </c>
-      <c r="K31" s="21">
+      <c r="E31" s="39" t="s">
+        <v>44</v>
+      </c>
+      <c r="F31" s="40"/>
+      <c r="H31" s="2"/>
+      <c r="I31" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="J31" s="1">
+        <v>2023</v>
+      </c>
+      <c r="K31" s="1">
         <v>11</v>
       </c>
-      <c r="L31" s="21" t="s">
+      <c r="L31" s="1" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="32" spans="1:12" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A32" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="B32" s="42" t="s">
+      <c r="A32" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B32" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="C32" s="21" t="s">
+      <c r="C32" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="D32" s="43" t="s">
+      <c r="D32" s="38" t="s">
         <v>195</v>
       </c>
-      <c r="E32" s="28" t="s">
-        <v>44</v>
-      </c>
-      <c r="F32" s="29" t="s">
+      <c r="E32" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F32" s="17" t="s">
         <v>203</v>
       </c>
-      <c r="G32" s="21" t="s">
+      <c r="G32" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="H32" s="21"/>
-      <c r="I32" s="21" t="s">
-        <v>180</v>
-      </c>
-      <c r="J32" s="21">
-        <v>2023</v>
-      </c>
-      <c r="K32" s="21">
+      <c r="I32" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="J32" s="1">
+        <v>2023</v>
+      </c>
+      <c r="K32" s="1">
         <v>11</v>
       </c>
-      <c r="L32" s="21" t="s">
+      <c r="L32" s="1" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="33" spans="1:12" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A33" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="B33" s="42" t="s">
+      <c r="A33" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B33" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="C33" s="42" t="s">
+      <c r="C33" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="D33" s="43" t="s">
+      <c r="D33" s="38" t="s">
         <v>195</v>
       </c>
-      <c r="E33" s="44" t="s">
-        <v>44</v>
-      </c>
-      <c r="F33" s="45" t="s">
+      <c r="E33" s="39" t="s">
+        <v>44</v>
+      </c>
+      <c r="F33" s="40" t="s">
         <v>203</v>
       </c>
-      <c r="G33" s="21" t="s">
+      <c r="G33" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="H33" s="42"/>
-      <c r="I33" s="21" t="s">
-        <v>180</v>
-      </c>
-      <c r="J33" s="21">
-        <v>2023</v>
-      </c>
-      <c r="K33" s="21">
+      <c r="H33" s="2"/>
+      <c r="I33" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="J33" s="1">
+        <v>2023</v>
+      </c>
+      <c r="K33" s="1">
         <v>11</v>
       </c>
-      <c r="L33" s="21" t="s">
+      <c r="L33" s="1" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A34" s="21" t="s">
+      <c r="A34" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B34" s="42" t="s">
+      <c r="B34" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="C34" s="42" t="s">
+      <c r="C34" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D34" s="43"/>
-      <c r="E34" s="44" t="s">
-        <v>44</v>
-      </c>
-      <c r="F34" s="45"/>
-      <c r="G34" s="21"/>
-      <c r="H34" s="42"/>
-      <c r="I34" s="21" t="s">
-        <v>180</v>
-      </c>
-      <c r="J34" s="21">
-        <v>2023</v>
-      </c>
-      <c r="K34" s="21">
+      <c r="D34" s="38"/>
+      <c r="E34" s="39" t="s">
+        <v>44</v>
+      </c>
+      <c r="F34" s="40"/>
+      <c r="H34" s="2"/>
+      <c r="I34" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="J34" s="1">
+        <v>2023</v>
+      </c>
+      <c r="K34" s="1">
         <v>13</v>
       </c>
-      <c r="L34" s="21" t="s">
+      <c r="L34" s="1" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A35" s="21" t="s">
+      <c r="A35" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B35" s="42" t="s">
+      <c r="B35" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="C35" s="21" t="s">
+      <c r="C35" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D35" s="43"/>
-      <c r="E35" s="44" t="s">
-        <v>44</v>
-      </c>
-      <c r="F35" s="45"/>
-      <c r="G35" s="21"/>
-      <c r="H35" s="21"/>
-      <c r="I35" s="21" t="s">
-        <v>180</v>
-      </c>
-      <c r="J35" s="21">
-        <v>2023</v>
-      </c>
-      <c r="K35" s="21">
+      <c r="D35" s="38"/>
+      <c r="E35" s="39" t="s">
+        <v>44</v>
+      </c>
+      <c r="F35" s="40"/>
+      <c r="I35" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="J35" s="1">
+        <v>2023</v>
+      </c>
+      <c r="K35" s="1">
         <v>13</v>
       </c>
-      <c r="L35" s="21" t="s">
+      <c r="L35" s="1" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A36" s="21" t="s">
+      <c r="A36" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B36" s="42" t="s">
+      <c r="B36" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="C36" s="21" t="s">
+      <c r="C36" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D36" s="43"/>
-      <c r="E36" s="44" t="s">
-        <v>44</v>
-      </c>
-      <c r="F36" s="45"/>
-      <c r="G36" s="21"/>
-      <c r="H36" s="21"/>
-      <c r="I36" s="21" t="s">
-        <v>180</v>
-      </c>
-      <c r="J36" s="21">
-        <v>2023</v>
-      </c>
-      <c r="K36" s="21">
+      <c r="D36" s="38"/>
+      <c r="E36" s="39" t="s">
+        <v>44</v>
+      </c>
+      <c r="F36" s="40"/>
+      <c r="I36" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="J36" s="1">
+        <v>2023</v>
+      </c>
+      <c r="K36" s="1">
         <v>13</v>
       </c>
-      <c r="L36" s="21" t="s">
+      <c r="L36" s="1" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A37" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="B37" s="42" t="s">
+      <c r="A37" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B37" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="C37" s="21" t="s">
+      <c r="C37" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D37" s="31"/>
-      <c r="E37" s="32" t="s">
-        <v>44</v>
-      </c>
-      <c r="F37" s="33"/>
-      <c r="G37" s="21" t="s">
+      <c r="D37" s="27"/>
+      <c r="E37" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="F37" s="29"/>
+      <c r="G37" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="H37" s="21" t="s">
+      <c r="H37" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="I37" s="21" t="s">
-        <v>180</v>
-      </c>
-      <c r="J37" s="21">
-        <v>2023</v>
-      </c>
-      <c r="K37" s="21">
+      <c r="I37" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="J37" s="1">
+        <v>2023</v>
+      </c>
+      <c r="K37" s="1">
         <v>12</v>
       </c>
-      <c r="L37" s="21" t="s">
+      <c r="L37" s="1" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A38" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="B38" s="42" t="s">
+      <c r="A38" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B38" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="C38" s="21" t="s">
+      <c r="C38" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D38" s="31" t="s">
+      <c r="D38" s="27" t="s">
         <v>101</v>
       </c>
-      <c r="E38" s="32" t="s">
-        <v>44</v>
-      </c>
-      <c r="F38" s="33"/>
-      <c r="G38" s="21"/>
-      <c r="H38" s="21"/>
-      <c r="I38" s="21" t="s">
-        <v>180</v>
-      </c>
-      <c r="J38" s="21">
-        <v>2023</v>
-      </c>
-      <c r="K38" s="21">
+      <c r="E38" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="F38" s="29"/>
+      <c r="I38" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="J38" s="1">
+        <v>2023</v>
+      </c>
+      <c r="K38" s="1">
         <v>12</v>
       </c>
-      <c r="L38" s="21" t="s">
+      <c r="L38" s="1" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A39" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="B39" s="46" t="s">
+      <c r="A39" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B39" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="C39" s="21" t="s">
+      <c r="C39" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D39" s="31" t="s">
+      <c r="D39" s="27" t="s">
         <v>104</v>
       </c>
-      <c r="E39" s="32" t="s">
-        <v>44</v>
-      </c>
-      <c r="F39" s="33"/>
-      <c r="G39" s="21"/>
-      <c r="H39" s="21"/>
-      <c r="I39" s="21" t="s">
-        <v>180</v>
-      </c>
-      <c r="J39" s="21">
-        <v>2023</v>
-      </c>
-      <c r="K39" s="21">
+      <c r="E39" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="F39" s="29"/>
+      <c r="I39" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="J39" s="1">
+        <v>2023</v>
+      </c>
+      <c r="K39" s="1">
         <v>12</v>
       </c>
-      <c r="L39" s="21" t="s">
+      <c r="L39" s="1" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A40" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="B40" s="46" t="s">
+      <c r="A40" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B40" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="C40" s="21"/>
-      <c r="D40" s="31" t="s">
+      <c r="D40" s="27" t="s">
         <v>107</v>
       </c>
-      <c r="E40" s="32" t="s">
-        <v>44</v>
-      </c>
-      <c r="F40" s="33"/>
-      <c r="G40" s="21"/>
-      <c r="H40" s="21"/>
-      <c r="I40" s="21" t="s">
-        <v>180</v>
-      </c>
-      <c r="J40" s="21">
-        <v>2023</v>
-      </c>
-      <c r="K40" s="21"/>
-      <c r="L40" s="21" t="s">
+      <c r="E40" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="F40" s="29"/>
+      <c r="I40" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="J40" s="1">
+        <v>2023</v>
+      </c>
+      <c r="L40" s="1" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A41" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="B41" s="46" t="s">
+      <c r="A41" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B41" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="C41" s="21"/>
-      <c r="D41" s="47" t="s">
+      <c r="D41" s="41" t="s">
         <v>110</v>
       </c>
-      <c r="E41" s="48" t="s">
-        <v>44</v>
-      </c>
-      <c r="F41" s="49"/>
-      <c r="G41" s="21"/>
-      <c r="H41" s="21"/>
-      <c r="I41" s="21" t="s">
-        <v>180</v>
-      </c>
-      <c r="J41" s="21">
-        <v>2023</v>
-      </c>
-      <c r="K41" s="21"/>
-      <c r="L41" s="21" t="s">
+      <c r="E41" s="42" t="s">
+        <v>44</v>
+      </c>
+      <c r="F41" s="43"/>
+      <c r="I41" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="J41" s="1">
+        <v>2023</v>
+      </c>
+      <c r="L41" s="1" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A42" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="B42" s="46" t="s">
+      <c r="A42" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B42" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="C42" s="21" t="s">
+      <c r="C42" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D42" s="50" t="s">
+      <c r="D42" s="44" t="s">
         <v>113</v>
       </c>
-      <c r="E42" s="51" t="s">
-        <v>44</v>
-      </c>
-      <c r="F42" s="52"/>
-      <c r="G42" s="21" t="s">
+      <c r="E42" s="45" t="s">
+        <v>44</v>
+      </c>
+      <c r="F42" s="46"/>
+      <c r="G42" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="H42" s="21"/>
-      <c r="I42" s="21" t="s">
-        <v>180</v>
-      </c>
-      <c r="J42" s="21">
-        <v>2023</v>
-      </c>
-      <c r="K42" s="21">
+      <c r="I42" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="J42" s="1">
+        <v>2023</v>
+      </c>
+      <c r="K42" s="1">
         <v>14</v>
       </c>
-      <c r="L42" s="21" t="s">
+      <c r="L42" s="1" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A43" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="B43" s="46" t="s">
+      <c r="A43" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B43" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="C43" s="21" t="s">
+      <c r="C43" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D43" s="50" t="s">
+      <c r="D43" s="44" t="s">
         <v>119</v>
       </c>
-      <c r="E43" s="51" t="s">
-        <v>44</v>
-      </c>
-      <c r="F43" s="52"/>
-      <c r="G43" s="21"/>
-      <c r="H43" s="21"/>
-      <c r="I43" s="21" t="s">
-        <v>180</v>
-      </c>
-      <c r="J43" s="21">
-        <v>2023</v>
-      </c>
-      <c r="K43" s="21">
+      <c r="E43" s="45" t="s">
+        <v>44</v>
+      </c>
+      <c r="F43" s="46"/>
+      <c r="I43" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="J43" s="1">
+        <v>2023</v>
+      </c>
+      <c r="K43" s="1">
         <v>14</v>
       </c>
-      <c r="L43" s="21" t="s">
+      <c r="L43" s="1" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A44" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="B44" s="46" t="s">
+      <c r="A44" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B44" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="C44" s="21" t="s">
+      <c r="C44" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D44" s="31" t="s">
+      <c r="D44" s="27" t="s">
         <v>124</v>
       </c>
-      <c r="E44" s="32" t="s">
-        <v>44</v>
-      </c>
-      <c r="F44" s="33"/>
-      <c r="G44" s="21"/>
-      <c r="H44" s="21"/>
-      <c r="I44" s="21" t="s">
-        <v>180</v>
-      </c>
-      <c r="J44" s="21">
-        <v>2023</v>
-      </c>
-      <c r="K44" s="21">
+      <c r="E44" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="F44" s="29"/>
+      <c r="I44" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="J44" s="1">
+        <v>2023</v>
+      </c>
+      <c r="K44" s="1">
         <v>14</v>
       </c>
-      <c r="L44" s="21" t="s">
+      <c r="L44" s="1" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A45" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="B45" s="46" t="s">
+      <c r="A45" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B45" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="C45" s="21" t="s">
+      <c r="C45" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="D45" s="31" t="s">
+      <c r="D45" s="27" t="s">
         <v>116</v>
       </c>
-      <c r="E45" s="32" t="s">
-        <v>44</v>
-      </c>
-      <c r="F45" s="33"/>
-      <c r="G45" s="21"/>
-      <c r="H45" s="21"/>
-      <c r="I45" s="21" t="s">
-        <v>180</v>
-      </c>
-      <c r="J45" s="21">
-        <v>2023</v>
-      </c>
-      <c r="K45" s="21">
+      <c r="E45" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="F45" s="29"/>
+      <c r="I45" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="J45" s="1">
+        <v>2023</v>
+      </c>
+      <c r="K45" s="1">
         <v>14</v>
       </c>
-      <c r="L45" s="21" t="s">
+      <c r="L45" s="1" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="46" spans="1:12" ht="78" x14ac:dyDescent="0.3">
-      <c r="A46" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="B46" s="46" t="s">
+      <c r="A46" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B46" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="C46" s="21" t="s">
+      <c r="C46" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="D46" s="50" t="s">
+      <c r="D46" s="44" t="s">
         <v>196</v>
       </c>
-      <c r="E46" s="52" t="s">
-        <v>44</v>
-      </c>
-      <c r="F46" s="52"/>
-      <c r="G46" s="21"/>
-      <c r="H46" s="21"/>
-      <c r="I46" s="21" t="s">
-        <v>180</v>
-      </c>
-      <c r="J46" s="21">
-        <v>2023</v>
-      </c>
-      <c r="K46" s="21">
+      <c r="E46" s="46" t="s">
+        <v>44</v>
+      </c>
+      <c r="F46" s="46"/>
+      <c r="I46" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="J46" s="1">
+        <v>2023</v>
+      </c>
+      <c r="K46" s="1">
         <v>14</v>
       </c>
-      <c r="L46" s="21" t="s">
+      <c r="L46" s="1" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A47" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="B47" s="46" t="s">
+      <c r="A47" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B47" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="C47" s="21" t="s">
+      <c r="C47" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D47" s="46" t="s">
+      <c r="D47" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="E47" s="53" t="s">
-        <v>44</v>
-      </c>
-      <c r="F47" s="53"/>
-      <c r="G47" s="21" t="s">
+      <c r="E47" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F47" s="11"/>
+      <c r="G47" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="H47" s="21"/>
-      <c r="I47" s="21" t="s">
-        <v>180</v>
-      </c>
-      <c r="J47" s="21">
-        <v>2023</v>
-      </c>
-      <c r="K47" s="21">
+      <c r="I47" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="J47" s="1">
+        <v>2023</v>
+      </c>
+      <c r="K47" s="1">
         <v>15</v>
       </c>
-      <c r="L47" s="21" t="s">
+      <c r="L47" s="1" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A48" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="B48" s="46" t="s">
+      <c r="A48" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B48" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="C48" s="21" t="s">
+      <c r="C48" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D48" s="46" t="s">
+      <c r="D48" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="E48" s="53" t="s">
-        <v>44</v>
-      </c>
-      <c r="F48" s="53"/>
-      <c r="G48" s="21" t="s">
+      <c r="E48" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F48" s="11"/>
+      <c r="G48" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="H48" s="21"/>
-      <c r="I48" s="21" t="s">
-        <v>180</v>
-      </c>
-      <c r="J48" s="21">
-        <v>2023</v>
-      </c>
-      <c r="K48" s="21">
+      <c r="I48" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="J48" s="1">
+        <v>2023</v>
+      </c>
+      <c r="K48" s="1">
         <v>15</v>
       </c>
-      <c r="L48" s="21" t="s">
+      <c r="L48" s="1" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="49" spans="1:12" ht="109.2" x14ac:dyDescent="0.3">
-      <c r="A49" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="B49" s="46" t="s">
+      <c r="A49" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B49" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="C49" s="21" t="s">
+      <c r="C49" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="D49" s="46" t="s">
+      <c r="D49" s="4" t="s">
         <v>197</v>
       </c>
-      <c r="E49" s="53" t="s">
-        <v>44</v>
-      </c>
-      <c r="F49" s="53"/>
-      <c r="G49" s="21"/>
-      <c r="H49" s="21"/>
-      <c r="I49" s="21" t="s">
-        <v>180</v>
-      </c>
-      <c r="J49" s="21">
-        <v>2023</v>
-      </c>
-      <c r="K49" s="21">
+      <c r="E49" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F49" s="11"/>
+      <c r="I49" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="J49" s="1">
+        <v>2023</v>
+      </c>
+      <c r="K49" s="1">
         <v>15</v>
       </c>
-      <c r="L49" s="21" t="s">
+      <c r="L49" s="1" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A50" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="B50" s="46" t="s">
+      <c r="A50" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B50" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="C50" s="21" t="s">
+      <c r="C50" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D50" s="46" t="s">
+      <c r="D50" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="E50" s="53" t="s">
-        <v>44</v>
-      </c>
-      <c r="F50" s="53"/>
-      <c r="G50" s="21" t="s">
+      <c r="E50" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F50" s="11"/>
+      <c r="G50" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="H50" s="21"/>
-      <c r="I50" s="21" t="s">
-        <v>180</v>
-      </c>
-      <c r="J50" s="21">
-        <v>2023</v>
-      </c>
-      <c r="K50" s="21">
+      <c r="I50" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="J50" s="1">
+        <v>2023</v>
+      </c>
+      <c r="K50" s="1">
         <v>15</v>
       </c>
-      <c r="L50" s="21" t="s">
+      <c r="L50" s="1" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A51" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="B51" s="46" t="s">
+      <c r="A51" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B51" s="4" t="s">
         <v>166</v>
       </c>
-      <c r="C51" s="21" t="s">
+      <c r="C51" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="D51" s="46"/>
-      <c r="E51" s="53" t="s">
-        <v>44</v>
-      </c>
-      <c r="F51" s="53"/>
-      <c r="G51" s="21"/>
-      <c r="H51" s="21"/>
-      <c r="I51" s="21" t="s">
+      <c r="D51" s="4"/>
+      <c r="E51" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F51" s="11"/>
+      <c r="I51" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="J51" s="21" t="s">
+      <c r="J51" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="K51" s="21">
+      <c r="K51" s="1">
         <v>16</v>
       </c>
-      <c r="L51" s="21" t="s">
+      <c r="L51" s="1" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A52" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="B52" s="46" t="s">
+      <c r="A52" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B52" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="C52" s="21" t="s">
+      <c r="C52" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D52" s="46" t="s">
+      <c r="D52" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="E52" s="54" t="s">
-        <v>44</v>
-      </c>
-      <c r="F52" s="53"/>
-      <c r="G52" s="21"/>
-      <c r="H52" s="21"/>
-      <c r="I52" s="21" t="s">
-        <v>180</v>
-      </c>
-      <c r="J52" s="21">
-        <v>2023</v>
-      </c>
-      <c r="K52" s="21">
+      <c r="E52" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F52" s="11"/>
+      <c r="I52" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="J52" s="1">
+        <v>2023</v>
+      </c>
+      <c r="K52" s="1">
         <v>16</v>
       </c>
-      <c r="L52" s="21" t="s">
+      <c r="L52" s="1" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A53" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="B53" s="46" t="s">
+      <c r="A53" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B53" s="4" t="s">
         <v>169</v>
       </c>
-      <c r="C53" s="21" t="s">
+      <c r="C53" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="D53" s="46" t="s">
+      <c r="D53" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="E53" s="54" t="s">
-        <v>44</v>
-      </c>
-      <c r="F53" s="53"/>
-      <c r="G53" s="21"/>
-      <c r="H53" s="21" t="s">
+      <c r="E53" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F53" s="11"/>
+      <c r="H53" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="I53" s="21" t="s">
-        <v>180</v>
-      </c>
-      <c r="J53" s="21">
-        <v>2023</v>
-      </c>
-      <c r="K53" s="21">
+      <c r="I53" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="J53" s="1">
+        <v>2023</v>
+      </c>
+      <c r="K53" s="1">
         <v>16</v>
       </c>
-      <c r="L53" s="21" t="s">
+      <c r="L53" s="1" t="s">
         <v>189</v>
       </c>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A54" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="B54" s="46" t="s">
+      <c r="A54" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B54" s="4" t="s">
         <v>169</v>
       </c>
-      <c r="C54" s="21" t="s">
+      <c r="C54" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="D54" s="46" t="s">
+      <c r="D54" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="E54" s="54" t="s">
-        <v>44</v>
-      </c>
-      <c r="F54" s="53"/>
-      <c r="G54" s="21"/>
-      <c r="H54" s="21" t="s">
+      <c r="E54" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F54" s="11"/>
+      <c r="H54" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="I54" s="21" t="s">
-        <v>180</v>
-      </c>
-      <c r="J54" s="21">
-        <v>2023</v>
-      </c>
-      <c r="K54" s="21">
+      <c r="I54" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="J54" s="1">
+        <v>2023</v>
+      </c>
+      <c r="K54" s="1">
         <v>16</v>
       </c>
-      <c r="L54" s="21" t="s">
+      <c r="L54" s="1" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A55" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="B55" s="46" t="s">
+      <c r="A55" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B55" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="C55" s="21" t="s">
+      <c r="C55" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="D55" s="46" t="s">
+      <c r="D55" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="E55" s="54" t="s">
-        <v>44</v>
-      </c>
-      <c r="F55" s="53"/>
-      <c r="G55" s="21"/>
-      <c r="H55" s="21"/>
-      <c r="I55" s="21" t="s">
+      <c r="E55" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F55" s="11"/>
+      <c r="I55" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="J55" s="21" t="s">
+      <c r="J55" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="K55" s="21">
+      <c r="K55" s="1">
         <v>17</v>
       </c>
-      <c r="L55" s="21" t="s">
+      <c r="L55" s="1" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A56" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="B56" s="46" t="s">
+      <c r="A56" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B56" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="C56" s="21" t="s">
+      <c r="C56" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D56" s="46" t="s">
+      <c r="D56" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="E56" s="54" t="s">
-        <v>44</v>
-      </c>
-      <c r="F56" s="53"/>
-      <c r="G56" s="21"/>
-      <c r="H56" s="21"/>
-      <c r="I56" s="21" t="s">
-        <v>180</v>
-      </c>
-      <c r="J56" s="21">
-        <v>2023</v>
-      </c>
-      <c r="K56" s="21">
+      <c r="E56" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F56" s="11"/>
+      <c r="I56" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="J56" s="1">
+        <v>2023</v>
+      </c>
+      <c r="K56" s="1">
         <v>17</v>
       </c>
-      <c r="L56" s="21" t="s">
+      <c r="L56" s="1" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A57" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="B57" s="46" t="s">
+      <c r="A57" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B57" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="C57" s="21" t="s">
+      <c r="C57" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D57" s="46" t="s">
+      <c r="D57" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="E57" s="54" t="s">
-        <v>44</v>
-      </c>
-      <c r="F57" s="53"/>
-      <c r="G57" s="21"/>
-      <c r="H57" s="21"/>
-      <c r="I57" s="21" t="s">
-        <v>180</v>
-      </c>
-      <c r="J57" s="21">
-        <v>2023</v>
-      </c>
-      <c r="K57" s="21">
+      <c r="E57" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F57" s="11"/>
+      <c r="I57" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="J57" s="1">
+        <v>2023</v>
+      </c>
+      <c r="K57" s="1">
         <v>17</v>
       </c>
-      <c r="L57" s="21" t="s">
+      <c r="L57" s="1" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A58" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="B58" s="46" t="s">
+      <c r="A58" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B58" s="4" t="s">
         <v>175</v>
       </c>
-      <c r="C58" s="21" t="s">
+      <c r="C58" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="D58" s="46" t="s">
+      <c r="D58" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="E58" s="54" t="s">
-        <v>44</v>
-      </c>
-      <c r="F58" s="53"/>
-      <c r="G58" s="21"/>
-      <c r="H58" s="21" t="s">
+      <c r="E58" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F58" s="11"/>
+      <c r="H58" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="I58" s="21" t="s">
-        <v>180</v>
-      </c>
-      <c r="J58" s="21">
-        <v>2023</v>
-      </c>
-      <c r="K58" s="21">
+      <c r="I58" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="J58" s="1">
+        <v>2023</v>
+      </c>
+      <c r="K58" s="1">
         <v>17</v>
       </c>
-      <c r="L58" s="21" t="s">
+      <c r="L58" s="1" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A59" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="B59" s="46" t="s">
+      <c r="A59" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B59" s="4" t="s">
         <v>178</v>
       </c>
-      <c r="C59" s="21" t="s">
+      <c r="C59" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D59" s="46" t="s">
+      <c r="D59" s="4" t="s">
         <v>181</v>
       </c>
-      <c r="E59" s="53" t="s">
-        <v>44</v>
-      </c>
-      <c r="F59" s="53"/>
-      <c r="G59" s="21"/>
-      <c r="H59" s="21"/>
-      <c r="I59" s="21" t="s">
-        <v>180</v>
-      </c>
-      <c r="J59" s="21">
-        <v>2023</v>
-      </c>
-      <c r="K59" s="21">
+      <c r="E59" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F59" s="11"/>
+      <c r="I59" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="J59" s="1">
+        <v>2023</v>
+      </c>
+      <c r="K59" s="1">
         <v>17</v>
       </c>
-      <c r="L59" s="21" t="s">
+      <c r="L59" s="1" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A60" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="B60" s="46" t="s">
+      <c r="A60" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B60" s="4" t="s">
         <v>178</v>
       </c>
-      <c r="C60" s="21" t="s">
+      <c r="C60" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D60" s="46" t="s">
+      <c r="D60" s="4" t="s">
         <v>181</v>
       </c>
-      <c r="E60" s="53" t="s">
-        <v>44</v>
-      </c>
-      <c r="F60" s="53"/>
-      <c r="G60" s="21"/>
-      <c r="H60" s="21"/>
-      <c r="I60" s="21" t="s">
+      <c r="E60" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F60" s="11"/>
+      <c r="I60" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="J60" s="21">
-        <v>2023</v>
-      </c>
-      <c r="K60" s="21">
+      <c r="J60" s="1">
+        <v>2023</v>
+      </c>
+      <c r="K60" s="1">
         <v>17</v>
       </c>
-      <c r="L60" s="21" t="s">
+      <c r="L60" s="1" t="s">
         <v>177</v>
       </c>
     </row>
@@ -4006,16 +3890,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="4e95bed8-6d15-4403-ad70-a53422338dca">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <TaxCatchAll xmlns="d045ab76-3bb7-45f5-ab41-d7b04aa0dc94" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4290,29 +4170,22 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="4e95bed8-6d15-4403-ad70-a53422338dca">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <TaxCatchAll xmlns="d045ab76-3bb7-45f5-ab41-d7b04aa0dc94" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FFBB421F-7112-4B85-A662-9379706C03DC}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F0EF40A6-8528-4994-A94E-1AE934020AF5}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="c1085ce0-992b-4e2c-bc8b-9e7e29361dd3"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="4e95bed8-6d15-4403-ad70-a53422338dca"/>
-    <ds:schemaRef ds:uri="d045ab76-3bb7-45f5-ab41-d7b04aa0dc94"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -4339,9 +4212,20 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F0EF40A6-8528-4994-A94E-1AE934020AF5}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FFBB421F-7112-4B85-A662-9379706C03DC}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="c1085ce0-992b-4e2c-bc8b-9e7e29361dd3"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="4e95bed8-6d15-4403-ad70-a53422338dca"/>
+    <ds:schemaRef ds:uri="d045ab76-3bb7-45f5-ab41-d7b04aa0dc94"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/1. Configuratie.xlsx
+++ b/1. Configuratie.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://vrln.sharepoint.com/sites/GGD-ONDZ/PSchijf/Gezondheidsmonitor/Algemeen/Automatisering en R/Rapportage GMJ2023/Versie 8/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="184" documentId="8_{328FD829-EBBF-4353-AF4A-9E9843A0D461}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D04DBEF7-4185-408D-9F12-A6FF5E0EA94D}"/>
+  <xr:revisionPtr revIDLastSave="362" documentId="8_{328FD829-EBBF-4353-AF4A-9E9843A0D461}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{992AFB2E-B2E2-429F-BE62-771BC5189D2F}"/>
   <bookViews>
-    <workbookView xWindow="10668" yWindow="-17592" windowWidth="30936" windowHeight="16896" activeTab="1" xr2:uid="{340DDFAE-1A83-41FC-A379-531A17E4526A}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{340DDFAE-1A83-41FC-A379-531A17E4526A}"/>
   </bookViews>
   <sheets>
     <sheet name="Rapportconfiguratie" sheetId="4" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="Blad1" sheetId="3" state="hidden" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Slideconfiguratie 1'!$B$1:$L$61</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Slideconfiguratie 1'!$A$1:$L$173</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="473" uniqueCount="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="500" uniqueCount="217">
   <si>
     <t>configuratie</t>
   </si>
@@ -106,12 +106,6 @@
     <t>label</t>
   </si>
   <si>
-    <t>Basis</t>
-  </si>
-  <si>
-    <t>Schoolnaam</t>
-  </si>
-  <si>
     <t>rapportnaam</t>
   </si>
   <si>
@@ -148,9 +142,6 @@
     <t>Percentage gezin 4</t>
   </si>
   <si>
-    <t xml:space="preserve">Hebben jullie thuis moeite met rondkomen? </t>
-  </si>
-  <si>
     <t>MBMRK3S1</t>
   </si>
   <si>
@@ -169,9 +160,6 @@
     <t>OKO</t>
   </si>
   <si>
-    <t>Hoeveel dagen was je in de laatste week 's avonds na 22 uur niet thuis?</t>
-  </si>
-  <si>
     <t>SOROK3S1</t>
   </si>
   <si>
@@ -190,12 +178,6 @@
     <t>Grafiek gezin</t>
   </si>
   <si>
-    <t>Schoolbeleving</t>
-  </si>
-  <si>
-    <t>SBOSK3S4</t>
-  </si>
-  <si>
     <t>staafgrafiek</t>
   </si>
   <si>
@@ -208,36 +190,18 @@
     <t>Grafiek schoolbeleving</t>
   </si>
   <si>
-    <t>Ziekteverzuim</t>
-  </si>
-  <si>
-    <t>SBOSK3S5</t>
-  </si>
-  <si>
     <t>Grafiek ziekteverzuim</t>
   </si>
   <si>
-    <t>Spijbelen</t>
-  </si>
-  <si>
-    <t>SBOSK3S6</t>
-  </si>
-  <si>
     <t>Grafiek spijbelen</t>
   </si>
   <si>
-    <t>Pesten</t>
-  </si>
-  <si>
     <t>SBRLK3S11</t>
   </si>
   <si>
     <t>Grafiek pesten</t>
   </si>
   <si>
-    <t>School</t>
-  </si>
-  <si>
     <t>Voelt zich meestal gelukkig</t>
   </si>
   <si>
@@ -247,9 +211,6 @@
     <t>trendgrafiek</t>
   </si>
   <si>
-    <t>regio</t>
-  </si>
-  <si>
     <t>Ervaart een goede gezondheid</t>
   </si>
   <si>
@@ -319,141 +280,57 @@
     <t>Percentage softdrugs</t>
   </si>
   <si>
-    <t>Heb je ooit harddrugs gebruikt?</t>
-  </si>
-  <si>
-    <t>Percentage harddrugs</t>
-  </si>
-  <si>
-    <t>Hoeveel van jouw vrienden en vriendinnen roken sigaretten?</t>
-  </si>
-  <si>
-    <t>Percentage vrienden sigaretten</t>
-  </si>
-  <si>
-    <t>Hoeveel van jouw vrienden en vriendinnen roken hasj of wiet?</t>
-  </si>
-  <si>
-    <t>Percentage vrienden softdrugs</t>
-  </si>
-  <si>
     <t>Kan goed voor zichzelf opkomen</t>
   </si>
   <si>
-    <t>Grafiek opkomen</t>
-  </si>
-  <si>
     <t>Herstelt snel na een moeilijke periode</t>
   </si>
   <si>
     <t>PBVKK3S2</t>
   </si>
   <si>
-    <t>Percentage veerkracht 1</t>
-  </si>
-  <si>
-    <t>Vindt het makkelijk om stressvolle gebeurtenissen te doorstaan</t>
-  </si>
-  <si>
-    <t>PBVKK3S4</t>
-  </si>
-  <si>
-    <t>Percentage veerkracht 2</t>
-  </si>
-  <si>
     <t>Vertrouwen in de toekomst</t>
   </si>
   <si>
-    <t>PBVTK3S3</t>
-  </si>
-  <si>
-    <t>Grafiek vertrouwen</t>
-  </si>
-  <si>
-    <t>Kun je bij iemand terecht als je een probleem hebt of ergens mee zit?</t>
-  </si>
-  <si>
-    <t>GBZOK3S2</t>
-  </si>
-  <si>
-    <t>Grafiek terechtkunnen</t>
-  </si>
-  <si>
     <t>Heeft psychische klachten</t>
   </si>
   <si>
     <t>PBMHK3S3</t>
   </si>
   <si>
-    <t>Grafiek psychische klachten 1</t>
-  </si>
-  <si>
     <t>Psychische klachten</t>
   </si>
   <si>
     <t>PBMHK3S2</t>
   </si>
   <si>
-    <t>Grafiek psychische klachten 2</t>
-  </si>
-  <si>
     <t>Voelt zich (zeer) vaak gestrest door één of meer factoren</t>
   </si>
   <si>
     <t>SBSSK3S6</t>
   </si>
   <si>
-    <t>Percentage stress</t>
-  </si>
-  <si>
     <t>Bronnen van stress</t>
   </si>
   <si>
     <t>Grafiek stress bronnen</t>
   </si>
   <si>
-    <t>Heeft in de laatste 12 maanden suicidegedachten gehad</t>
-  </si>
-  <si>
-    <t>PBSGK3S1</t>
-  </si>
-  <si>
-    <t>Percentage suicidegedachten</t>
-  </si>
-  <si>
-    <t>Voelt druk van zichzelf</t>
-  </si>
-  <si>
     <t>SBPDK3S2</t>
   </si>
   <si>
-    <t>Grafiek druk zelf</t>
-  </si>
-  <si>
-    <t>Voelt druk van anderen</t>
-  </si>
-  <si>
     <t>SBPDK3S3</t>
   </si>
   <si>
-    <t>Grafiek druk anderen</t>
-  </si>
-  <si>
     <t>Bronnen van druk van anderen</t>
   </si>
   <si>
-    <t>Grafiek druk bronnen</t>
-  </si>
-  <si>
     <t>Heeft zich eenzaam gevoeld; laatste 4 weken</t>
   </si>
   <si>
     <t>SBEZK3S2</t>
   </si>
   <si>
-    <t>Grafiek eenzaamheid</t>
-  </si>
-  <si>
     <t>Sport wekelijks bij een club, vereniging of sportschool</t>
   </si>
   <si>
@@ -538,18 +415,12 @@
     <t>Heeft ooit wiet of hasj gebruikt</t>
   </si>
   <si>
-    <t>?</t>
-  </si>
-  <si>
     <t>Is wekelijks actief in vrije tijd</t>
   </si>
   <si>
     <t>Trendgrafiek actief</t>
   </si>
   <si>
-    <t>top 5</t>
-  </si>
-  <si>
     <t>Bewegen</t>
   </si>
   <si>
@@ -610,12 +481,6 @@
     <t>MBOKK3S31</t>
   </si>
   <si>
-    <t>Combi bewegen MBOKK3S31</t>
-  </si>
-  <si>
-    <t>school; regio</t>
-  </si>
-  <si>
     <t>SOROK3S3; SOROK3S4; SOROK3S6</t>
   </si>
   <si>
@@ -658,15 +523,6 @@
     <t>Middelengebruik</t>
   </si>
   <si>
-    <t>niveau_variabele</t>
-  </si>
-  <si>
-    <t>niveau_label</t>
-  </si>
-  <si>
-    <t>vergelijking_variabele</t>
-  </si>
-  <si>
     <t>jaar</t>
   </si>
   <si>
@@ -674,6 +530,168 @@
   </si>
   <si>
     <t>Slideconfiguratie 2</t>
+  </si>
+  <si>
+    <t>Heeft vrienden of vriendinnen die roken</t>
+  </si>
+  <si>
+    <t>Heeft ooit andere drugs dan wiet of hasj gebruikt</t>
+  </si>
+  <si>
+    <t>Heeft vrienden of vriendinnen die wiet of hasj gebruiken</t>
+  </si>
+  <si>
+    <t>Middelengebruik vrienden naar leerjaar</t>
+  </si>
+  <si>
+    <t>Middelengebruik vrienden naar gender</t>
+  </si>
+  <si>
+    <t>basis</t>
+  </si>
+  <si>
+    <t>basis_label</t>
+  </si>
+  <si>
+    <t>referentie</t>
+  </si>
+  <si>
+    <t>referentie_label</t>
+  </si>
+  <si>
+    <t>Grafiek vrienden roken</t>
+  </si>
+  <si>
+    <t>Grafieke andere drugs</t>
+  </si>
+  <si>
+    <t>Grafiek vrienden wiet</t>
+  </si>
+  <si>
+    <t>Combi middelen vrienden klas</t>
+  </si>
+  <si>
+    <t>Combi middelen vrienden gender</t>
+  </si>
+  <si>
+    <t>schoolnaam</t>
+  </si>
+  <si>
+    <t>Grafiek bij wie terecht</t>
+  </si>
+  <si>
+    <t>Bij wie kunnen jongeren terecht als ze ergens mee zitten?</t>
+  </si>
+  <si>
+    <t>Percentage veerkracht</t>
+  </si>
+  <si>
+    <t>Vindt het niet moeilijk om stressvolle gebeurtenissen te doorstaan</t>
+  </si>
+  <si>
+    <t>Percentage stress doorstaan</t>
+  </si>
+  <si>
+    <t>Percentage opkomen</t>
+  </si>
+  <si>
+    <t>Percentage iemand terecht</t>
+  </si>
+  <si>
+    <t>Veerkracht</t>
+  </si>
+  <si>
+    <t>Combi veerkracht gender</t>
+  </si>
+  <si>
+    <t>Stapelgrafiek vertrouwen</t>
+  </si>
+  <si>
+    <t>basis en referentie</t>
+  </si>
+  <si>
+    <t>Grafiek stress</t>
+  </si>
+  <si>
+    <t>Trendgrafiek psychische klachten</t>
+  </si>
+  <si>
+    <t>Combi psychische klachten</t>
+  </si>
+  <si>
+    <t>Heeft zich eenzaam gevoeld in de laatste 4 weken</t>
+  </si>
+  <si>
+    <t>Trendgrafiek eenzaamheid</t>
+  </si>
+  <si>
+    <t>Ervaren druk</t>
+  </si>
+  <si>
+    <t>Combi liggend prestatiedruk</t>
+  </si>
+  <si>
+    <t>Grafiek bronnen druk</t>
+  </si>
+  <si>
+    <t>top 3</t>
+  </si>
+  <si>
+    <t>Grafiek eenzaamheid gender</t>
+  </si>
+  <si>
+    <t>Combi prestatie gender</t>
+  </si>
+  <si>
+    <t>Eenzaamheid en druk</t>
+  </si>
+  <si>
+    <t>Beweegt wekelijks in de vrije tijd (zonder club of sportschool)</t>
+  </si>
+  <si>
+    <t>Percentage vrije tijd</t>
+  </si>
+  <si>
+    <t>Combi bewegen onderwijsniveau</t>
+  </si>
+  <si>
+    <t>Ervaart thuis enige of groeite moeite met rondkomen</t>
+  </si>
+  <si>
+    <t>Was in de laatste week 3 of meer dagen 's avonds na 10 uur niet thuis</t>
+  </si>
+  <si>
+    <t>SBOSK3S7</t>
+  </si>
+  <si>
+    <t>SBOSK3S2</t>
+  </si>
+  <si>
+    <t>SBOSK3S3</t>
+  </si>
+  <si>
+    <t>Vindt school hartstikke leuk</t>
+  </si>
+  <si>
+    <t>Is de laatste 4 weken 3 of meer dagen niet naar school geweest wegens ziekte</t>
+  </si>
+  <si>
+    <t>Heeft de laatste 4 weken 1 of meer lesuren gespijbeld</t>
+  </si>
+  <si>
+    <t>Is de laatste 3 maanden gepest op school</t>
+  </si>
+  <si>
+    <t>LOAGK311; LOAGK312; LOAGK313; LOAGK314; LOAGK315</t>
+  </si>
+  <si>
+    <t>LOMVK301</t>
+  </si>
+  <si>
+    <t>Landelijk</t>
+  </si>
+  <si>
+    <t>LOMVK3S1</t>
   </si>
 </sst>
 </file>
@@ -741,12 +759,18 @@
       <name val="Calibri"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -773,7 +797,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -912,6 +936,30 @@
     </xf>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1230,36 +1278,37 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F0AA7A9-459B-4958-BBC2-94F84CFD8846}">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B44" sqref="B44"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="22.109375" customWidth="1"/>
-    <col min="2" max="4" width="21" customWidth="1"/>
-    <col min="5" max="5" width="20.6640625" customWidth="1"/>
+    <col min="2" max="5" width="21" customWidth="1"/>
+    <col min="6" max="6" width="20.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>205</v>
+        <v>168</v>
       </c>
       <c r="B1" t="s">
-        <v>206</v>
+        <v>169</v>
       </c>
       <c r="C1" t="s">
-        <v>207</v>
+        <v>170</v>
       </c>
       <c r="D1" t="s">
+        <v>171</v>
+      </c>
+      <c r="E1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>180</v>
+        <v>137</v>
       </c>
       <c r="B2" t="s">
         <v>1</v>
@@ -1267,13 +1316,13 @@
       <c r="C2" t="s">
         <v>2</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>180</v>
+        <v>137</v>
       </c>
       <c r="B3" t="s">
         <v>4</v>
@@ -1281,13 +1330,13 @@
       <c r="C3" t="s">
         <v>5</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>180</v>
+        <v>137</v>
       </c>
       <c r="B4" t="s">
         <v>6</v>
@@ -1295,13 +1344,13 @@
       <c r="C4" t="s">
         <v>7</v>
       </c>
-      <c r="D4" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E4" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>180</v>
+        <v>137</v>
       </c>
       <c r="B5" t="s">
         <v>8</v>
@@ -1309,13 +1358,13 @@
       <c r="C5" t="s">
         <v>9</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>180</v>
+        <v>137</v>
       </c>
       <c r="B6" t="s">
         <v>10</v>
@@ -1323,7 +1372,7 @@
       <c r="C6" t="s">
         <v>11</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1335,22 +1384,22 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73A75041-D6C8-4C2F-941F-420EA079C5D1}">
-  <dimension ref="A1:L168"/>
+  <dimension ref="A1:L173"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="L7" sqref="L7"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="8.88671875" style="1"/>
     <col min="2" max="2" width="69" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.33203125" style="16" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.33203125" style="13" customWidth="1"/>
     <col min="6" max="6" width="30.5546875" style="20" customWidth="1"/>
     <col min="7" max="8" width="19.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="18.5546875" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="16.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="12.33203125" style="1" customWidth="1"/>
     <col min="12" max="12" width="39.5546875" style="1" bestFit="1" customWidth="1"/>
@@ -1374,7 +1423,7 @@
         <v>15</v>
       </c>
       <c r="F1" s="22" t="s">
-        <v>198</v>
+        <v>153</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>17</v>
@@ -1383,10 +1432,10 @@
         <v>18</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>179</v>
+        <v>136</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>208</v>
+        <v>160</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>19</v>
@@ -1397,19 +1446,19 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="B2" s="23" t="s">
+        <v>177</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>21</v>
-      </c>
-      <c r="B2" s="23" t="s">
-        <v>22</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>23</v>
       </c>
       <c r="D2" s="23"/>
       <c r="E2" s="22"/>
       <c r="F2" s="22"/>
       <c r="I2" s="1" t="s">
-        <v>180</v>
+        <v>168</v>
       </c>
       <c r="J2" s="1">
         <v>2023</v>
@@ -1418,28 +1467,28 @@
         <v>1</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>21</v>
+        <v>215</v>
       </c>
       <c r="B3" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" s="49" t="s">
         <v>25</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D3" s="23" t="s">
-        <v>26</v>
+      <c r="D3" s="50" t="s">
+        <v>24</v>
       </c>
       <c r="E3" s="22">
         <v>1</v>
       </c>
       <c r="F3" s="22"/>
       <c r="I3" s="1" t="s">
-        <v>180</v>
+        <v>168</v>
       </c>
       <c r="J3" s="1">
         <v>2023</v>
@@ -1448,28 +1497,28 @@
         <v>4</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>21</v>
+        <v>215</v>
       </c>
       <c r="B4" s="23" t="s">
-        <v>29</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D4" s="23" t="s">
-        <v>26</v>
+      <c r="C4" s="49" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" s="50" t="s">
+        <v>24</v>
       </c>
       <c r="E4" s="22" t="s">
-        <v>152</v>
+        <v>111</v>
       </c>
       <c r="F4" s="22"/>
       <c r="I4" s="1" t="s">
-        <v>180</v>
+        <v>168</v>
       </c>
       <c r="J4" s="1">
         <v>2023</v>
@@ -1478,28 +1527,28 @@
         <v>4</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>21</v>
+        <v>215</v>
       </c>
       <c r="B5" s="23" t="s">
-        <v>31</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D5" s="23" t="s">
-        <v>26</v>
+        <v>29</v>
+      </c>
+      <c r="C5" s="49" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" s="50" t="s">
+        <v>24</v>
       </c>
       <c r="E5" s="22" t="s">
-        <v>153</v>
+        <v>112</v>
       </c>
       <c r="F5" s="22"/>
       <c r="I5" s="1" t="s">
-        <v>180</v>
+        <v>168</v>
       </c>
       <c r="J5" s="1">
         <v>2023</v>
@@ -1508,28 +1557,28 @@
         <v>4</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>21</v>
+        <v>215</v>
       </c>
       <c r="B6" s="23" t="s">
-        <v>33</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D6" s="23" t="s">
-        <v>26</v>
+        <v>31</v>
+      </c>
+      <c r="C6" s="49" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" s="50" t="s">
+        <v>24</v>
       </c>
       <c r="E6" s="22">
         <v>4</v>
       </c>
       <c r="F6" s="22"/>
       <c r="I6" s="1" t="s">
-        <v>180</v>
+        <v>168</v>
       </c>
       <c r="J6" s="1">
         <v>2023</v>
@@ -1538,28 +1587,28 @@
         <v>4</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>21</v>
+        <v>215</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C7" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="D7" s="23" t="s">
-        <v>36</v>
+        <v>204</v>
+      </c>
+      <c r="C7" s="51" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" s="50" t="s">
+        <v>33</v>
       </c>
       <c r="E7" s="22">
         <v>1</v>
       </c>
       <c r="F7" s="22"/>
       <c r="I7" s="1" t="s">
-        <v>180</v>
+        <v>168</v>
       </c>
       <c r="J7" s="1">
         <v>2023</v>
@@ -1568,28 +1617,28 @@
         <v>4</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>21</v>
+        <v>215</v>
       </c>
       <c r="B8" s="25" t="s">
-        <v>38</v>
-      </c>
-      <c r="C8" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>39</v>
+        <v>35</v>
+      </c>
+      <c r="C8" s="51" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" s="52" t="s">
+        <v>36</v>
       </c>
       <c r="E8" s="9">
         <v>1</v>
       </c>
       <c r="F8" s="17"/>
       <c r="I8" s="1" t="s">
-        <v>180</v>
+        <v>168</v>
       </c>
       <c r="J8" s="1">
         <v>2023</v>
@@ -1598,28 +1647,28 @@
         <v>4</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B9" s="25" t="s">
-        <v>42</v>
-      </c>
-      <c r="C9" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>43</v>
+        <v>205</v>
+      </c>
+      <c r="C9" s="51" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" s="52" t="s">
+        <v>39</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="F9" s="17"/>
       <c r="I9" s="1" t="s">
-        <v>180</v>
+        <v>168</v>
       </c>
       <c r="J9" s="1">
         <v>2023</v>
@@ -1628,30 +1677,30 @@
         <v>5</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B10" s="25" t="s">
-        <v>46</v>
-      </c>
-      <c r="C10" s="24" t="s">
-        <v>47</v>
-      </c>
-      <c r="D10" s="23" t="s">
-        <v>191</v>
+        <v>42</v>
+      </c>
+      <c r="C10" s="51" t="s">
+        <v>43</v>
+      </c>
+      <c r="D10" s="50" t="s">
+        <v>146</v>
       </c>
       <c r="E10" s="22" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="F10" s="22" t="s">
-        <v>199</v>
+        <v>154</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>180</v>
+        <v>168</v>
       </c>
       <c r="J10" s="1">
         <v>2023</v>
@@ -1660,34 +1709,34 @@
         <v>5</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>21</v>
+        <v>215</v>
       </c>
       <c r="B11" s="26" t="s">
-        <v>49</v>
-      </c>
-      <c r="C11" s="25" t="s">
-        <v>51</v>
-      </c>
-      <c r="D11" s="27" t="s">
-        <v>50</v>
+        <v>209</v>
+      </c>
+      <c r="C11" s="53" t="s">
+        <v>45</v>
+      </c>
+      <c r="D11" s="54" t="s">
+        <v>206</v>
       </c>
       <c r="E11" s="28" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="F11" s="29"/>
       <c r="G11" s="1" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>180</v>
+        <v>168</v>
       </c>
       <c r="J11" s="1">
         <v>2023</v>
@@ -1696,34 +1745,34 @@
         <v>6</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>21</v>
+        <v>215</v>
       </c>
       <c r="B12" s="26" t="s">
-        <v>55</v>
-      </c>
-      <c r="C12" s="25" t="s">
-        <v>51</v>
-      </c>
-      <c r="D12" s="27" t="s">
-        <v>56</v>
+        <v>210</v>
+      </c>
+      <c r="C12" s="53" t="s">
+        <v>45</v>
+      </c>
+      <c r="D12" s="54" t="s">
+        <v>208</v>
       </c>
       <c r="E12" s="28" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="F12" s="29"/>
       <c r="G12" s="1" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>180</v>
+        <v>168</v>
       </c>
       <c r="J12" s="1">
         <v>2023</v>
@@ -1732,34 +1781,34 @@
         <v>6</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="C13" s="25" t="s">
-        <v>51</v>
-      </c>
-      <c r="D13" s="27" t="s">
-        <v>59</v>
+        <v>215</v>
+      </c>
+      <c r="B13" s="26" t="s">
+        <v>211</v>
+      </c>
+      <c r="C13" s="53" t="s">
+        <v>45</v>
+      </c>
+      <c r="D13" s="54" t="s">
+        <v>207</v>
       </c>
       <c r="E13" s="28" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="F13" s="29"/>
       <c r="G13" s="1" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>180</v>
+        <v>168</v>
       </c>
       <c r="J13" s="1">
         <v>2023</v>
@@ -1768,34 +1817,34 @@
         <v>6</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>21</v>
+        <v>215</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="C14" s="25" t="s">
+        <v>212</v>
+      </c>
+      <c r="C14" s="53" t="s">
+        <v>45</v>
+      </c>
+      <c r="D14" s="54" t="s">
         <v>51</v>
       </c>
-      <c r="D14" s="27" t="s">
-        <v>62</v>
-      </c>
       <c r="E14" s="28" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="F14" s="29"/>
       <c r="G14" s="1" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>180</v>
+        <v>168</v>
       </c>
       <c r="J14" s="1">
         <v>2023</v>
@@ -1804,30 +1853,30 @@
         <v>6</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="78" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>64</v>
+        <v>137</v>
       </c>
       <c r="C15" s="24" t="s">
-        <v>47</v>
-      </c>
-      <c r="D15" s="27" t="s">
-        <v>192</v>
+        <v>43</v>
+      </c>
+      <c r="D15" s="47" t="s">
+        <v>147</v>
       </c>
       <c r="E15" s="29" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="F15" s="22" t="s">
-        <v>200</v>
+        <v>155</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>180</v>
+        <v>168</v>
       </c>
       <c r="J15" s="1">
         <v>2023</v>
@@ -1836,58 +1885,58 @@
         <v>7</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>154</v>
+        <v>113</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>21</v>
+        <v>215</v>
       </c>
       <c r="B16" s="30" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="C16" s="24" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="D16" s="31" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="E16" s="29" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="F16" s="29"/>
       <c r="I16" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>209</v>
+        <v>161</v>
       </c>
       <c r="K16" s="1">
         <v>8</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>155</v>
+        <v>114</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>21</v>
+        <v>215</v>
       </c>
       <c r="B17" s="24" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
       <c r="C17" s="24" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D17" s="32" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="E17" s="33" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="F17" s="34"/>
       <c r="I17" s="1" t="s">
-        <v>180</v>
+        <v>168</v>
       </c>
       <c r="J17" s="1">
         <v>2023</v>
@@ -1896,28 +1945,28 @@
         <v>8</v>
       </c>
       <c r="L17" s="1" t="s">
-        <v>71</v>
+        <v>58</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>21</v>
+        <v>215</v>
       </c>
       <c r="B18" s="24" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="C18" s="24" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D18" s="32" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="E18" s="33" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="F18" s="34"/>
       <c r="I18" s="1" t="s">
-        <v>180</v>
+        <v>168</v>
       </c>
       <c r="J18" s="1">
         <v>2023</v>
@@ -1926,33 +1975,33 @@
         <v>8</v>
       </c>
       <c r="L18" s="1" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
     </row>
     <row r="19" spans="1:12" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>21</v>
+        <v>215</v>
       </c>
       <c r="B19" s="24" t="s">
-        <v>202</v>
+        <v>157</v>
       </c>
       <c r="C19" s="24" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="D19" s="32" t="s">
-        <v>193</v>
+        <v>148</v>
       </c>
       <c r="E19" s="33" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="F19" s="32" t="s">
-        <v>201</v>
+        <v>156</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>180</v>
+        <v>168</v>
       </c>
       <c r="J19" s="1">
         <v>2023</v>
@@ -1961,33 +2010,33 @@
         <v>8</v>
       </c>
       <c r="L19" s="1" t="s">
-        <v>74</v>
+        <v>61</v>
       </c>
     </row>
     <row r="20" spans="1:12" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>215</v>
       </c>
       <c r="B20" s="24" t="s">
-        <v>202</v>
+        <v>157</v>
       </c>
       <c r="C20" s="24" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="D20" s="32" t="s">
-        <v>193</v>
+        <v>148</v>
       </c>
       <c r="E20" s="33" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="F20" s="32" t="s">
-        <v>201</v>
+        <v>156</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>180</v>
+        <v>168</v>
       </c>
       <c r="J20" s="1">
         <v>2023</v>
@@ -1996,58 +2045,58 @@
         <v>8</v>
       </c>
       <c r="L20" s="1" t="s">
-        <v>75</v>
+        <v>62</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
-        <v>21</v>
+        <v>215</v>
       </c>
       <c r="B21" s="25" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="C21" s="25" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="D21" s="35" t="s">
-        <v>77</v>
+        <v>64</v>
       </c>
       <c r="E21" s="36" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="F21" s="37"/>
       <c r="I21" s="1" t="s">
-        <v>180</v>
+        <v>168</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>209</v>
+        <v>161</v>
       </c>
       <c r="K21" s="1">
         <v>9</v>
       </c>
       <c r="L21" s="1" t="s">
-        <v>156</v>
+        <v>115</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>21</v>
+        <v>215</v>
       </c>
       <c r="B22" s="25" t="s">
-        <v>186</v>
+        <v>143</v>
       </c>
       <c r="C22" s="25" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D22" s="35" t="s">
-        <v>184</v>
+        <v>141</v>
       </c>
       <c r="E22" s="36" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="F22" s="37"/>
       <c r="I22" s="1" t="s">
-        <v>180</v>
+        <v>168</v>
       </c>
       <c r="J22" s="1">
         <v>2023</v>
@@ -2056,28 +2105,28 @@
         <v>9</v>
       </c>
       <c r="L22" s="1" t="s">
-        <v>78</v>
+        <v>65</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
-        <v>21</v>
+        <v>215</v>
       </c>
       <c r="B23" s="25" t="s">
-        <v>187</v>
+        <v>144</v>
       </c>
       <c r="C23" s="25" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D23" s="35" t="s">
-        <v>185</v>
+        <v>142</v>
       </c>
       <c r="E23" s="36" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="F23" s="37"/>
       <c r="I23" s="1" t="s">
-        <v>180</v>
+        <v>168</v>
       </c>
       <c r="J23" s="1">
         <v>2023</v>
@@ -2086,36 +2135,36 @@
         <v>9</v>
       </c>
       <c r="L23" s="1" t="s">
-        <v>157</v>
+        <v>116</v>
       </c>
     </row>
     <row r="24" spans="1:12" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>21</v>
+        <v>215</v>
       </c>
       <c r="B24" s="25" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="C24" s="25" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="D24" s="35" t="s">
-        <v>194</v>
+        <v>149</v>
       </c>
       <c r="E24" s="36" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="F24" s="22" t="s">
-        <v>199</v>
+        <v>154</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>180</v>
+        <v>168</v>
       </c>
       <c r="J24" s="1">
         <v>2023</v>
@@ -2124,36 +2173,36 @@
         <v>9</v>
       </c>
       <c r="L24" s="1" t="s">
-        <v>158</v>
+        <v>117</v>
       </c>
     </row>
     <row r="25" spans="1:12" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>21</v>
+        <v>215</v>
       </c>
       <c r="B25" s="25" t="s">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="C25" s="25" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="D25" s="35" t="s">
-        <v>194</v>
+        <v>149</v>
       </c>
       <c r="E25" s="36" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="F25" s="22" t="s">
-        <v>199</v>
+        <v>154</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>180</v>
+        <v>168</v>
       </c>
       <c r="J25" s="1">
         <v>2023</v>
@@ -2162,24 +2211,24 @@
         <v>9</v>
       </c>
       <c r="L25" s="1" t="s">
-        <v>159</v>
+        <v>118</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B26" s="25" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="C26" s="25" t="s">
-        <v>47</v>
-      </c>
-      <c r="D26" s="35"/>
+        <v>43</v>
+      </c>
+      <c r="D26" s="48"/>
       <c r="E26" s="36"/>
       <c r="F26" s="37"/>
       <c r="I26" s="1" t="s">
-        <v>180</v>
+        <v>168</v>
       </c>
       <c r="J26" s="1">
         <v>2023</v>
@@ -2188,24 +2237,26 @@
         <v>10</v>
       </c>
       <c r="L26" s="1" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" ht="78" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B27" s="25" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="C27" s="25" t="s">
-        <v>47</v>
-      </c>
-      <c r="D27" s="35"/>
+        <v>43</v>
+      </c>
+      <c r="D27" s="35" t="s">
+        <v>213</v>
+      </c>
       <c r="E27" s="36"/>
       <c r="F27" s="37"/>
       <c r="I27" s="1" t="s">
-        <v>180</v>
+        <v>168</v>
       </c>
       <c r="J27" s="1">
         <v>2023</v>
@@ -2214,24 +2265,26 @@
         <v>10</v>
       </c>
       <c r="L27" s="1" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B28" s="25" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="C28" s="25" t="s">
-        <v>160</v>
-      </c>
-      <c r="D28" s="35"/>
+        <v>119</v>
+      </c>
+      <c r="D28" s="35" t="s">
+        <v>214</v>
+      </c>
       <c r="E28" s="36"/>
       <c r="F28" s="37"/>
       <c r="I28" s="1" t="s">
-        <v>180</v>
+        <v>188</v>
       </c>
       <c r="J28" s="1">
         <v>2023</v>
@@ -2240,58 +2293,58 @@
         <v>10</v>
       </c>
       <c r="L28" s="1" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>21</v>
+        <v>215</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>162</v>
+        <v>121</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="D29" s="38" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="E29" s="39" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="F29" s="40"/>
       <c r="I29" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>209</v>
+        <v>161</v>
       </c>
       <c r="K29" s="1">
         <v>11</v>
       </c>
       <c r="L29" s="1" t="s">
-        <v>161</v>
+        <v>120</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
-        <v>21</v>
+        <v>215</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>163</v>
+        <v>122</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>88</v>
+        <v>75</v>
       </c>
       <c r="E30" s="9" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="F30" s="17"/>
       <c r="I30" s="1" t="s">
-        <v>180</v>
+        <v>168</v>
       </c>
       <c r="J30" s="1">
         <v>2023</v>
@@ -2300,29 +2353,29 @@
         <v>11</v>
       </c>
       <c r="L30" s="1" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
-        <v>21</v>
+        <v>215</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>164</v>
+        <v>123</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D31" s="38" t="s">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="E31" s="39" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="F31" s="40"/>
       <c r="H31" s="2"/>
       <c r="I31" s="1" t="s">
-        <v>180</v>
+        <v>168</v>
       </c>
       <c r="J31" s="1">
         <v>2023</v>
@@ -2331,33 +2384,33 @@
         <v>11</v>
       </c>
       <c r="L31" s="1" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
     </row>
     <row r="32" spans="1:12" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>21</v>
+        <v>215</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>204</v>
+        <v>159</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="D32" s="38" t="s">
-        <v>195</v>
+        <v>150</v>
       </c>
       <c r="E32" s="9" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="F32" s="17" t="s">
-        <v>203</v>
+        <v>158</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="I32" s="1" t="s">
-        <v>180</v>
+        <v>168</v>
       </c>
       <c r="J32" s="1">
         <v>2023</v>
@@ -2366,34 +2419,34 @@
         <v>11</v>
       </c>
       <c r="L32" s="1" t="s">
-        <v>182</v>
+        <v>139</v>
       </c>
     </row>
     <row r="33" spans="1:12" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
-        <v>21</v>
+        <v>215</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>204</v>
+        <v>159</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="D33" s="38" t="s">
-        <v>195</v>
+        <v>150</v>
       </c>
       <c r="E33" s="39" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="F33" s="40" t="s">
-        <v>203</v>
+        <v>158</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="H33" s="2"/>
       <c r="I33" s="1" t="s">
-        <v>180</v>
+        <v>168</v>
       </c>
       <c r="J33" s="1">
         <v>2023</v>
@@ -2402,117 +2455,111 @@
         <v>11</v>
       </c>
       <c r="L33" s="1" t="s">
-        <v>183</v>
+        <v>140</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>92</v>
+        <v>163</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D34" s="38"/>
+        <v>25</v>
+      </c>
+      <c r="D34" s="38" t="s">
+        <v>216</v>
+      </c>
       <c r="E34" s="39" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="F34" s="40"/>
       <c r="H34" s="2"/>
       <c r="I34" s="1" t="s">
-        <v>180</v>
+        <v>168</v>
       </c>
       <c r="J34" s="1">
         <v>2023</v>
       </c>
       <c r="K34" s="1">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L34" s="1" t="s">
-        <v>93</v>
+        <v>172</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>94</v>
+        <v>164</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D35" s="38"/>
       <c r="E35" s="39" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="F35" s="40"/>
       <c r="I35" s="1" t="s">
-        <v>180</v>
+        <v>168</v>
       </c>
       <c r="J35" s="1">
         <v>2023</v>
       </c>
       <c r="K35" s="1">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L35" s="1" t="s">
-        <v>95</v>
+        <v>173</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>96</v>
+        <v>165</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D36" s="38"/>
       <c r="E36" s="39" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="F36" s="40"/>
       <c r="I36" s="1" t="s">
-        <v>180</v>
+        <v>168</v>
       </c>
       <c r="J36" s="1">
         <v>2023</v>
       </c>
       <c r="K36" s="1">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L36" s="1" t="s">
-        <v>97</v>
+        <v>174</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>98</v>
+        <v>166</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="D37" s="27"/>
-      <c r="E37" s="28" t="s">
-        <v>44</v>
-      </c>
-      <c r="F37" s="29"/>
-      <c r="G37" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="H37" s="1" t="s">
-        <v>53</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="D37" s="38"/>
+      <c r="E37" s="39"/>
+      <c r="F37" s="40"/>
       <c r="I37" s="1" t="s">
-        <v>180</v>
+        <v>168</v>
       </c>
       <c r="J37" s="1">
         <v>2023</v>
@@ -2521,28 +2568,24 @@
         <v>12</v>
       </c>
       <c r="L37" s="1" t="s">
-        <v>99</v>
+        <v>175</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>100</v>
+        <v>167</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D38" s="27" t="s">
-        <v>101</v>
-      </c>
-      <c r="E38" s="28" t="s">
-        <v>44</v>
-      </c>
-      <c r="F38" s="29"/>
+        <v>60</v>
+      </c>
+      <c r="D38" s="38"/>
+      <c r="E38" s="39"/>
+      <c r="F38" s="40"/>
       <c r="I38" s="1" t="s">
-        <v>180</v>
+        <v>168</v>
       </c>
       <c r="J38" s="1">
         <v>2023</v>
@@ -2551,229 +2594,221 @@
         <v>12</v>
       </c>
       <c r="L38" s="1" t="s">
-        <v>102</v>
+        <v>176</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B39" s="4" t="s">
-        <v>103</v>
+        <v>215</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>179</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D39" s="27" t="s">
-        <v>104</v>
-      </c>
-      <c r="E39" s="28" t="s">
-        <v>44</v>
-      </c>
-      <c r="F39" s="29"/>
+        <v>43</v>
+      </c>
+      <c r="D39" s="38"/>
+      <c r="E39" s="39"/>
+      <c r="F39" s="40"/>
       <c r="I39" s="1" t="s">
-        <v>180</v>
+        <v>168</v>
       </c>
       <c r="J39" s="1">
         <v>2023</v>
       </c>
       <c r="K39" s="1">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L39" s="1" t="s">
-        <v>105</v>
+        <v>178</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B40" s="4" t="s">
-        <v>106</v>
+        <v>215</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="D40" s="27" t="s">
-        <v>107</v>
+        <v>81</v>
       </c>
       <c r="E40" s="28" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="F40" s="29"/>
       <c r="I40" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="J40" s="1">
+        <v>2023</v>
+      </c>
+      <c r="K40" s="1">
+        <v>13</v>
+      </c>
+      <c r="L40" s="1" t="s">
         <v>180</v>
-      </c>
-      <c r="J40" s="1">
-        <v>2023</v>
-      </c>
-      <c r="L40" s="1" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B41" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="D41" s="41" t="s">
-        <v>110</v>
-      </c>
-      <c r="E41" s="42" t="s">
-        <v>44</v>
-      </c>
-      <c r="F41" s="43"/>
+        <v>215</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D41" s="27"/>
+      <c r="E41" s="28"/>
+      <c r="F41" s="29"/>
       <c r="I41" s="1" t="s">
-        <v>180</v>
+        <v>168</v>
       </c>
       <c r="J41" s="1">
         <v>2023</v>
       </c>
+      <c r="K41" s="1">
+        <v>13</v>
+      </c>
       <c r="L41" s="1" t="s">
-        <v>111</v>
+        <v>182</v>
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B42" s="4" t="s">
-        <v>112</v>
+        <v>215</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>79</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="D42" s="44" t="s">
-        <v>113</v>
-      </c>
-      <c r="E42" s="45" t="s">
-        <v>44</v>
-      </c>
-      <c r="F42" s="46"/>
-      <c r="G42" s="1" t="s">
-        <v>52</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="D42" s="27"/>
+      <c r="E42" s="28"/>
+      <c r="F42" s="29"/>
       <c r="I42" s="1" t="s">
-        <v>180</v>
+        <v>168</v>
       </c>
       <c r="J42" s="1">
         <v>2023</v>
       </c>
       <c r="K42" s="1">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="L42" s="1" t="s">
-        <v>114</v>
+        <v>183</v>
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A43" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B43" s="4" t="s">
-        <v>118</v>
-      </c>
+      <c r="B43" s="2"/>
       <c r="C43" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D43" s="44" t="s">
-        <v>119</v>
-      </c>
-      <c r="E43" s="45" t="s">
-        <v>44</v>
-      </c>
-      <c r="F43" s="46"/>
+        <v>25</v>
+      </c>
+      <c r="D43" s="27"/>
+      <c r="E43" s="28"/>
+      <c r="F43" s="29"/>
       <c r="I43" s="1" t="s">
-        <v>180</v>
+        <v>168</v>
       </c>
       <c r="J43" s="1">
         <v>2023</v>
       </c>
       <c r="K43" s="1">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="L43" s="1" t="s">
-        <v>120</v>
+        <v>184</v>
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
-        <v>21</v>
+        <v>215</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>123</v>
+        <v>185</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D44" s="27" t="s">
-        <v>124</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="D44" s="27"/>
       <c r="E44" s="28" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="F44" s="29"/>
+      <c r="G44" s="1" t="s">
+        <v>46</v>
+      </c>
       <c r="I44" s="1" t="s">
-        <v>180</v>
+        <v>168</v>
       </c>
       <c r="J44" s="1">
         <v>2023</v>
       </c>
       <c r="K44" s="1">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="L44" s="1" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
-        <v>21</v>
+        <v>215</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>115</v>
+        <v>82</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="D45" s="27" t="s">
-        <v>116</v>
-      </c>
-      <c r="E45" s="28" t="s">
-        <v>44</v>
-      </c>
-      <c r="F45" s="29"/>
+        <v>119</v>
+      </c>
+      <c r="D45" s="41"/>
+      <c r="E45" s="42" t="s">
+        <v>40</v>
+      </c>
+      <c r="F45" s="43"/>
       <c r="I45" s="1" t="s">
-        <v>180</v>
+        <v>188</v>
       </c>
       <c r="J45" s="1">
         <v>2023</v>
       </c>
       <c r="K45" s="1">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="L45" s="1" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="46" spans="1:12" ht="78" x14ac:dyDescent="0.3">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
-        <v>21</v>
+        <v>215</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>121</v>
+        <v>87</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>73</v>
+        <v>25</v>
       </c>
       <c r="D46" s="44" t="s">
-        <v>196</v>
-      </c>
-      <c r="E46" s="46" t="s">
-        <v>44</v>
-      </c>
-      <c r="F46" s="46"/>
+        <v>88</v>
+      </c>
+      <c r="E46" s="45" t="s">
+        <v>40</v>
+      </c>
+      <c r="F46" s="46" t="s">
+        <v>46</v>
+      </c>
+      <c r="G46" s="1" t="s">
+        <v>47</v>
+      </c>
       <c r="I46" s="1" t="s">
-        <v>180</v>
+        <v>168</v>
       </c>
       <c r="J46" s="1">
         <v>2023</v>
@@ -2782,560 +2817,679 @@
         <v>14</v>
       </c>
       <c r="L46" s="1" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" ht="78" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
-        <v>21</v>
+        <v>215</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>126</v>
+        <v>89</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="D47" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="E47" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="F47" s="11"/>
-      <c r="G47" s="1" t="s">
-        <v>52</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="D47" s="44" t="s">
+        <v>151</v>
+      </c>
+      <c r="E47" s="46" t="s">
+        <v>40</v>
+      </c>
+      <c r="F47" s="46"/>
       <c r="I47" s="1" t="s">
-        <v>180</v>
+        <v>168</v>
       </c>
       <c r="J47" s="1">
         <v>2023</v>
       </c>
       <c r="K47" s="1">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L47" s="1" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.3">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
-        <v>21</v>
+        <v>215</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>129</v>
+        <v>83</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="D48" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="E48" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="F48" s="11"/>
-      <c r="G48" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D48" s="44" t="s">
+        <v>84</v>
+      </c>
+      <c r="E48" s="45" t="s">
+        <v>40</v>
+      </c>
+      <c r="F48" s="46"/>
+      <c r="I48" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="I48" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="J48" s="1">
-        <v>2023</v>
+      <c r="J48" s="1" t="s">
+        <v>161</v>
       </c>
       <c r="K48" s="1">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L48" s="1" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="49" spans="1:12" ht="109.2" x14ac:dyDescent="0.3">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
-        <v>21</v>
+        <v>215</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>132</v>
+        <v>85</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="D49" s="4" t="s">
-        <v>197</v>
-      </c>
-      <c r="E49" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="F49" s="11"/>
+        <v>60</v>
+      </c>
+      <c r="D49" s="27" t="s">
+        <v>86</v>
+      </c>
+      <c r="E49" s="28" t="s">
+        <v>40</v>
+      </c>
+      <c r="F49" s="29"/>
+      <c r="G49" s="1" t="s">
+        <v>46</v>
+      </c>
       <c r="I49" s="1" t="s">
-        <v>180</v>
+        <v>168</v>
       </c>
       <c r="J49" s="1">
         <v>2023</v>
       </c>
       <c r="K49" s="1">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L49" s="1" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.3">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
-        <v>21</v>
+        <v>215</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>134</v>
+        <v>192</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="D50" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="E50" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="F50" s="11"/>
-      <c r="G50" s="1" t="s">
-        <v>52</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="D50" s="27"/>
+      <c r="E50" s="28" t="s">
+        <v>40</v>
+      </c>
+      <c r="F50" s="29"/>
       <c r="I50" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="J50" s="1">
-        <v>2023</v>
+        <v>188</v>
+      </c>
+      <c r="J50" s="1" t="s">
+        <v>161</v>
       </c>
       <c r="K50" s="1">
         <v>15</v>
       </c>
       <c r="L50" s="1" t="s">
-        <v>136</v>
+        <v>193</v>
       </c>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
-        <v>21</v>
+        <v>215</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>166</v>
+        <v>194</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="D51" s="4"/>
+        <v>43</v>
+      </c>
+      <c r="D51" s="4" t="s">
+        <v>91</v>
+      </c>
       <c r="E51" s="11" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="F51" s="11"/>
+      <c r="G51" s="1" t="s">
+        <v>46</v>
+      </c>
       <c r="I51" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="J51" s="1" t="s">
-        <v>209</v>
+        <v>188</v>
+      </c>
+      <c r="J51" s="1">
+        <v>2023</v>
       </c>
       <c r="K51" s="1">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L51" s="1" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.3">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
-        <v>21</v>
+        <v>215</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>137</v>
+        <v>94</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="D52" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="E52" s="10" t="s">
-        <v>44</v>
+        <v>95</v>
+      </c>
+      <c r="E52" s="11" t="s">
+        <v>40</v>
       </c>
       <c r="F52" s="11"/>
+      <c r="G52" s="1" t="s">
+        <v>46</v>
+      </c>
       <c r="I52" s="1" t="s">
-        <v>180</v>
+        <v>168</v>
       </c>
       <c r="J52" s="1">
         <v>2023</v>
       </c>
       <c r="K52" s="1">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L52" s="1" t="s">
-        <v>139</v>
+        <v>198</v>
       </c>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
-        <v>21</v>
+        <v>215</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>169</v>
+        <v>200</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="D53" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="E53" s="10" t="s">
-        <v>44</v>
+        <v>92</v>
+      </c>
+      <c r="E53" s="11" t="s">
+        <v>40</v>
       </c>
       <c r="F53" s="11"/>
-      <c r="H53" s="1" t="s">
-        <v>188</v>
+      <c r="G53" s="1" t="s">
+        <v>46</v>
       </c>
       <c r="I53" s="1" t="s">
-        <v>180</v>
+        <v>168</v>
       </c>
       <c r="J53" s="1">
         <v>2023</v>
       </c>
       <c r="K53" s="1">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L53" s="1" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.3">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" ht="109.2" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
-        <v>21</v>
+        <v>215</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>169</v>
+        <v>93</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>73</v>
+        <v>197</v>
       </c>
       <c r="D54" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="E54" s="10" t="s">
-        <v>44</v>
+        <v>152</v>
+      </c>
+      <c r="E54" s="11" t="s">
+        <v>40</v>
       </c>
       <c r="F54" s="11"/>
-      <c r="H54" s="1" t="s">
-        <v>53</v>
-      </c>
       <c r="I54" s="1" t="s">
-        <v>180</v>
+        <v>168</v>
       </c>
       <c r="J54" s="1">
         <v>2023</v>
       </c>
       <c r="K54" s="1">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L54" s="1" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.3">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
-        <v>21</v>
+        <v>215</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>145</v>
+        <v>124</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="D55" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="E55" s="10" t="s">
-        <v>44</v>
+        <v>55</v>
+      </c>
+      <c r="D55" s="4"/>
+      <c r="E55" s="11" t="s">
+        <v>40</v>
       </c>
       <c r="F55" s="11"/>
       <c r="I55" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="J55" s="1" t="s">
-        <v>209</v>
+        <v>161</v>
       </c>
       <c r="K55" s="1">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L55" s="1" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.3">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
-        <v>21</v>
+        <v>215</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>141</v>
+        <v>96</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D56" s="4" t="s">
-        <v>142</v>
+        <v>97</v>
       </c>
       <c r="E56" s="10" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="F56" s="11"/>
       <c r="I56" s="1" t="s">
-        <v>180</v>
+        <v>168</v>
       </c>
       <c r="J56" s="1">
         <v>2023</v>
       </c>
       <c r="K56" s="1">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L56" s="1" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.3">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
-        <v>21</v>
+        <v>215</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>143</v>
+        <v>201</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D57" s="4" t="s">
-        <v>144</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="D57" s="4"/>
       <c r="E57" s="10" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="F57" s="11"/>
       <c r="I57" s="1" t="s">
-        <v>180</v>
+        <v>168</v>
       </c>
       <c r="J57" s="1">
         <v>2023</v>
       </c>
       <c r="K57" s="1">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L57" s="1" t="s">
-        <v>173</v>
+        <v>202</v>
       </c>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
-        <v>21</v>
+        <v>215</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>175</v>
+        <v>126</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="D58" s="4" t="s">
-        <v>146</v>
+        <v>97</v>
       </c>
       <c r="E58" s="10" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="F58" s="11"/>
       <c r="H58" s="1" t="s">
-        <v>52</v>
+        <v>145</v>
       </c>
       <c r="I58" s="1" t="s">
-        <v>180</v>
+        <v>168</v>
       </c>
       <c r="J58" s="1">
         <v>2023</v>
       </c>
       <c r="K58" s="1">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L58" s="1" t="s">
-        <v>174</v>
+        <v>203</v>
       </c>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
-        <v>21</v>
+        <v>215</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>178</v>
+        <v>126</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>27</v>
+        <v>60</v>
       </c>
       <c r="D59" s="4" t="s">
-        <v>181</v>
-      </c>
-      <c r="E59" s="11" t="s">
-        <v>44</v>
+        <v>99</v>
+      </c>
+      <c r="E59" s="10" t="s">
+        <v>40</v>
       </c>
       <c r="F59" s="11"/>
+      <c r="H59" s="1" t="s">
+        <v>47</v>
+      </c>
       <c r="I59" s="1" t="s">
-        <v>180</v>
+        <v>168</v>
       </c>
       <c r="J59" s="1">
         <v>2023</v>
       </c>
       <c r="K59" s="1">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L59" s="1" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.3">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
-        <v>21</v>
+        <v>215</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>178</v>
+        <v>104</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>27</v>
+        <v>55</v>
       </c>
       <c r="D60" s="4" t="s">
-        <v>181</v>
-      </c>
-      <c r="E60" s="11" t="s">
-        <v>44</v>
+        <v>105</v>
+      </c>
+      <c r="E60" s="10" t="s">
+        <v>40</v>
       </c>
       <c r="F60" s="11"/>
       <c r="I60" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="J60" s="1">
-        <v>2023</v>
+        <v>188</v>
+      </c>
+      <c r="J60" s="1" t="s">
+        <v>161</v>
       </c>
       <c r="K60" s="1">
         <v>17</v>
       </c>
       <c r="L60" s="1" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B61" s="6"/>
-      <c r="D61" s="7"/>
-      <c r="E61" s="12"/>
-      <c r="F61" s="18"/>
-    </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B62" s="7"/>
-      <c r="D62" s="7"/>
-      <c r="E62" s="12"/>
-      <c r="F62" s="18"/>
-    </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B63" s="6"/>
-      <c r="D63" s="7"/>
-      <c r="E63" s="12"/>
-      <c r="F63" s="18"/>
+        <v>128</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A61" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="B61" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D61" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="E61" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="F61" s="11"/>
+      <c r="I61" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="J61" s="1">
+        <v>2023</v>
+      </c>
+      <c r="K61" s="1">
+        <v>17</v>
+      </c>
+      <c r="L61" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A62" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="B62" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D62" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="E62" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="F62" s="11"/>
+      <c r="I62" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="J62" s="1">
+        <v>2023</v>
+      </c>
+      <c r="K62" s="1">
+        <v>17</v>
+      </c>
+      <c r="L62" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A63" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="B63" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D63" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="E63" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="F63" s="11"/>
+      <c r="H63" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="I63" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="J63" s="1">
+        <v>2023</v>
+      </c>
+      <c r="K63" s="1">
+        <v>17</v>
+      </c>
+      <c r="L63" s="1" t="s">
+        <v>131</v>
+      </c>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B64" s="6"/>
-      <c r="D64" s="7"/>
-      <c r="E64" s="12"/>
-      <c r="F64" s="18"/>
-    </row>
-    <row r="65" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B65" s="7"/>
-      <c r="D65" s="7"/>
-      <c r="E65" s="12"/>
-      <c r="F65" s="18"/>
-    </row>
-    <row r="66" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="A64" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="B64" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D64" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="E64" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="F64" s="11"/>
+      <c r="I64" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="J64" s="1">
+        <v>2023</v>
+      </c>
+      <c r="K64" s="1">
+        <v>17</v>
+      </c>
+      <c r="L64" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A65" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="B65" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D65" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="E65" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="F65" s="11"/>
+      <c r="I65" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="J65" s="1">
+        <v>2023</v>
+      </c>
+      <c r="K65" s="1">
+        <v>17</v>
+      </c>
+      <c r="L65" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B66" s="6"/>
       <c r="D66" s="7"/>
       <c r="E66" s="12"/>
       <c r="F66" s="18"/>
     </row>
-    <row r="67" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B67" s="6"/>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B67" s="7"/>
       <c r="D67" s="7"/>
       <c r="E67" s="12"/>
       <c r="F67" s="18"/>
     </row>
-    <row r="68" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B68" s="6"/>
       <c r="D68" s="7"/>
       <c r="E68" s="12"/>
       <c r="F68" s="18"/>
     </row>
-    <row r="69" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B69" s="6"/>
       <c r="D69" s="7"/>
       <c r="E69" s="12"/>
       <c r="F69" s="18"/>
     </row>
-    <row r="70" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B70" s="6"/>
+    <row r="70" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B70" s="7"/>
       <c r="D70" s="7"/>
       <c r="E70" s="12"/>
       <c r="F70" s="18"/>
     </row>
-    <row r="71" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B71" s="6"/>
       <c r="D71" s="7"/>
       <c r="E71" s="12"/>
       <c r="F71" s="18"/>
     </row>
-    <row r="72" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B72" s="6"/>
       <c r="D72" s="7"/>
       <c r="E72" s="12"/>
       <c r="F72" s="18"/>
     </row>
-    <row r="73" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B73" s="6"/>
       <c r="D73" s="7"/>
       <c r="E73" s="12"/>
       <c r="F73" s="18"/>
     </row>
-    <row r="74" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B74" s="6"/>
       <c r="D74" s="7"/>
       <c r="E74" s="12"/>
       <c r="F74" s="18"/>
     </row>
-    <row r="75" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B75" s="6"/>
       <c r="D75" s="7"/>
       <c r="E75" s="12"/>
       <c r="F75" s="18"/>
     </row>
-    <row r="76" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B76" s="6"/>
       <c r="D76" s="7"/>
       <c r="E76" s="12"/>
       <c r="F76" s="18"/>
     </row>
-    <row r="77" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B77" s="6"/>
       <c r="D77" s="7"/>
       <c r="E77" s="12"/>
       <c r="F77" s="18"/>
     </row>
-    <row r="78" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B78" s="6"/>
       <c r="D78" s="7"/>
       <c r="E78" s="12"/>
       <c r="F78" s="18"/>
     </row>
-    <row r="79" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B79" s="6"/>
       <c r="D79" s="7"/>
       <c r="E79" s="12"/>
       <c r="F79" s="18"/>
     </row>
-    <row r="80" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B80" s="6"/>
       <c r="D80" s="7"/>
       <c r="E80" s="12"/>
@@ -3468,7 +3622,7 @@
       <c r="F101" s="18"/>
     </row>
     <row r="102" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B102" s="7"/>
+      <c r="B102" s="6"/>
       <c r="D102" s="7"/>
       <c r="E102" s="12"/>
       <c r="F102" s="18"/>
@@ -3492,34 +3646,34 @@
       <c r="F105" s="18"/>
     </row>
     <row r="106" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B106" s="2"/>
-      <c r="D106" s="3"/>
-      <c r="E106" s="9"/>
-      <c r="F106" s="17"/>
+      <c r="B106" s="6"/>
+      <c r="D106" s="7"/>
+      <c r="E106" s="12"/>
+      <c r="F106" s="18"/>
     </row>
     <row r="107" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B107" s="2"/>
-      <c r="D107" s="3"/>
-      <c r="E107" s="9"/>
-      <c r="F107" s="17"/>
+      <c r="B107" s="7"/>
+      <c r="D107" s="7"/>
+      <c r="E107" s="12"/>
+      <c r="F107" s="18"/>
     </row>
     <row r="108" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B108" s="2"/>
-      <c r="D108" s="3"/>
-      <c r="E108" s="9"/>
-      <c r="F108" s="17"/>
+      <c r="B108" s="6"/>
+      <c r="D108" s="7"/>
+      <c r="E108" s="12"/>
+      <c r="F108" s="18"/>
     </row>
     <row r="109" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B109" s="2"/>
-      <c r="D109" s="3"/>
-      <c r="E109" s="9"/>
-      <c r="F109" s="17"/>
+      <c r="B109" s="6"/>
+      <c r="D109" s="7"/>
+      <c r="E109" s="12"/>
+      <c r="F109" s="18"/>
     </row>
     <row r="110" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B110" s="2"/>
-      <c r="D110" s="3"/>
-      <c r="E110" s="9"/>
-      <c r="F110" s="17"/>
+      <c r="B110" s="6"/>
+      <c r="D110" s="7"/>
+      <c r="E110" s="12"/>
+      <c r="F110" s="18"/>
     </row>
     <row r="111" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B111" s="2"/>
@@ -3527,38 +3681,38 @@
       <c r="E111" s="9"/>
       <c r="F111" s="17"/>
     </row>
+    <row r="112" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B112" s="2"/>
+      <c r="D112" s="3"/>
+      <c r="E112" s="9"/>
+      <c r="F112" s="17"/>
+    </row>
+    <row r="113" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B113" s="2"/>
+      <c r="D113" s="3"/>
+      <c r="E113" s="9"/>
+      <c r="F113" s="17"/>
+    </row>
+    <row r="114" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B114" s="2"/>
+      <c r="D114" s="3"/>
+      <c r="E114" s="9"/>
+      <c r="F114" s="17"/>
+    </row>
+    <row r="115" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B115" s="2"/>
+      <c r="D115" s="3"/>
+      <c r="E115" s="9"/>
+      <c r="F115" s="17"/>
+    </row>
     <row r="116" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B116" s="5"/>
-      <c r="D116" s="4"/>
-      <c r="E116" s="10"/>
-      <c r="F116" s="11"/>
-    </row>
-    <row r="117" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B117" s="4"/>
-      <c r="D117" s="4"/>
-      <c r="E117" s="10"/>
-      <c r="F117" s="11"/>
-    </row>
-    <row r="118" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B118" s="4"/>
-      <c r="D118" s="4"/>
-      <c r="E118" s="10"/>
-      <c r="F118" s="11"/>
-    </row>
-    <row r="119" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B119" s="4"/>
-      <c r="D119" s="4"/>
-      <c r="E119" s="10"/>
-      <c r="F119" s="11"/>
-    </row>
-    <row r="120" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B120" s="4"/>
-      <c r="D120" s="4"/>
-      <c r="E120" s="10"/>
-      <c r="F120" s="11"/>
+      <c r="B116" s="2"/>
+      <c r="D116" s="3"/>
+      <c r="E116" s="9"/>
+      <c r="F116" s="17"/>
     </row>
     <row r="121" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B121" s="4"/>
+      <c r="B121" s="5"/>
       <c r="D121" s="4"/>
       <c r="E121" s="10"/>
       <c r="F121" s="11"/>
@@ -3576,57 +3730,62 @@
       <c r="F123" s="11"/>
     </row>
     <row r="124" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B124" s="2"/>
-      <c r="D124" s="3"/>
-      <c r="E124" s="9"/>
-      <c r="F124" s="17"/>
+      <c r="B124" s="4"/>
+      <c r="D124" s="4"/>
+      <c r="E124" s="10"/>
+      <c r="F124" s="11"/>
     </row>
     <row r="125" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B125" s="2"/>
-      <c r="D125" s="3"/>
-      <c r="E125" s="9"/>
-      <c r="F125" s="17"/>
+      <c r="B125" s="4"/>
+      <c r="D125" s="4"/>
+      <c r="E125" s="10"/>
+      <c r="F125" s="11"/>
     </row>
     <row r="126" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B126" s="2"/>
-      <c r="D126" s="3"/>
-      <c r="E126" s="9"/>
-      <c r="F126" s="17"/>
+      <c r="B126" s="4"/>
+      <c r="D126" s="4"/>
+      <c r="E126" s="10"/>
+      <c r="F126" s="11"/>
     </row>
     <row r="127" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="D127" s="3"/>
-      <c r="E127" s="9"/>
-      <c r="F127" s="17"/>
+      <c r="B127" s="4"/>
+      <c r="D127" s="4"/>
+      <c r="E127" s="10"/>
+      <c r="F127" s="11"/>
     </row>
     <row r="128" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="D128" s="3"/>
-      <c r="E128" s="9"/>
-      <c r="F128" s="17"/>
+      <c r="B128" s="4"/>
+      <c r="D128" s="4"/>
+      <c r="E128" s="10"/>
+      <c r="F128" s="11"/>
     </row>
     <row r="129" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="D129" s="15"/>
-      <c r="E129" s="14"/>
-      <c r="F129" s="19"/>
+      <c r="B129" s="2"/>
+      <c r="D129" s="3"/>
+      <c r="E129" s="9"/>
+      <c r="F129" s="17"/>
     </row>
     <row r="130" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="D130" s="15"/>
-      <c r="E130" s="14"/>
-      <c r="F130" s="19"/>
+      <c r="B130" s="2"/>
+      <c r="D130" s="3"/>
+      <c r="E130" s="9"/>
+      <c r="F130" s="17"/>
     </row>
     <row r="131" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="D131" s="15"/>
-      <c r="E131" s="14"/>
-      <c r="F131" s="19"/>
+      <c r="B131" s="2"/>
+      <c r="D131" s="3"/>
+      <c r="E131" s="9"/>
+      <c r="F131" s="17"/>
     </row>
     <row r="132" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="D132" s="15"/>
-      <c r="E132" s="14"/>
-      <c r="F132" s="19"/>
+      <c r="D132" s="3"/>
+      <c r="E132" s="9"/>
+      <c r="F132" s="17"/>
     </row>
     <row r="133" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="D133" s="15"/>
-      <c r="E133" s="14"/>
-      <c r="F133" s="19"/>
+      <c r="D133" s="3"/>
+      <c r="E133" s="9"/>
+      <c r="F133" s="17"/>
     </row>
     <row r="134" spans="2:6" x14ac:dyDescent="0.3">
       <c r="D134" s="15"/>
@@ -3634,55 +3793,50 @@
       <c r="F134" s="19"/>
     </row>
     <row r="135" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B135" s="8"/>
       <c r="D135" s="15"/>
       <c r="E135" s="14"/>
       <c r="F135" s="19"/>
     </row>
     <row r="136" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B136" s="8"/>
       <c r="D136" s="15"/>
       <c r="E136" s="14"/>
       <c r="F136" s="19"/>
     </row>
     <row r="137" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B137" s="8"/>
       <c r="D137" s="15"/>
       <c r="E137" s="14"/>
       <c r="F137" s="19"/>
     </row>
     <row r="138" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B138" s="8"/>
+      <c r="D138" s="15"/>
+      <c r="E138" s="14"/>
+      <c r="F138" s="19"/>
     </row>
     <row r="139" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B139" s="4"/>
-      <c r="D139" s="4"/>
-      <c r="E139" s="10"/>
-      <c r="F139" s="11"/>
+      <c r="D139" s="15"/>
+      <c r="E139" s="14"/>
+      <c r="F139" s="19"/>
     </row>
     <row r="140" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B140" s="4"/>
-      <c r="D140" s="4"/>
-      <c r="E140" s="10"/>
-      <c r="F140" s="11"/>
+      <c r="B140" s="8"/>
+      <c r="D140" s="15"/>
+      <c r="E140" s="14"/>
+      <c r="F140" s="19"/>
     </row>
     <row r="141" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B141" s="4"/>
-      <c r="D141" s="4"/>
-      <c r="E141" s="10"/>
-      <c r="F141" s="11"/>
+      <c r="B141" s="8"/>
+      <c r="D141" s="15"/>
+      <c r="E141" s="14"/>
+      <c r="F141" s="19"/>
     </row>
     <row r="142" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B142" s="4"/>
-      <c r="D142" s="4"/>
-      <c r="E142" s="10"/>
-      <c r="F142" s="11"/>
+      <c r="B142" s="8"/>
+      <c r="D142" s="15"/>
+      <c r="E142" s="14"/>
+      <c r="F142" s="19"/>
     </row>
     <row r="143" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B143" s="4"/>
-      <c r="D143" s="4"/>
-      <c r="E143" s="10"/>
-      <c r="F143" s="11"/>
+      <c r="B143" s="8"/>
     </row>
     <row r="144" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B144" s="4"/>
@@ -3739,34 +3893,34 @@
       <c r="F152" s="11"/>
     </row>
     <row r="153" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B153" s="2"/>
-      <c r="D153" s="3"/>
-      <c r="E153" s="9"/>
-      <c r="F153" s="17"/>
+      <c r="B153" s="4"/>
+      <c r="D153" s="4"/>
+      <c r="E153" s="10"/>
+      <c r="F153" s="11"/>
     </row>
     <row r="154" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B154" s="2"/>
-      <c r="D154" s="3"/>
-      <c r="E154" s="9"/>
-      <c r="F154" s="17"/>
+      <c r="B154" s="4"/>
+      <c r="D154" s="4"/>
+      <c r="E154" s="10"/>
+      <c r="F154" s="11"/>
     </row>
     <row r="155" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B155" s="2"/>
-      <c r="D155" s="3"/>
-      <c r="E155" s="9"/>
-      <c r="F155" s="17"/>
+      <c r="B155" s="4"/>
+      <c r="D155" s="4"/>
+      <c r="E155" s="10"/>
+      <c r="F155" s="11"/>
     </row>
     <row r="156" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B156" s="2"/>
-      <c r="D156" s="3"/>
-      <c r="E156" s="9"/>
-      <c r="F156" s="17"/>
+      <c r="B156" s="4"/>
+      <c r="D156" s="4"/>
+      <c r="E156" s="10"/>
+      <c r="F156" s="11"/>
     </row>
     <row r="157" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B157" s="2"/>
-      <c r="D157" s="3"/>
-      <c r="E157" s="9"/>
-      <c r="F157" s="17"/>
+      <c r="B157" s="4"/>
+      <c r="D157" s="4"/>
+      <c r="E157" s="10"/>
+      <c r="F157" s="11"/>
     </row>
     <row r="158" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B158" s="2"/>
@@ -3834,9 +3988,44 @@
       <c r="E168" s="9"/>
       <c r="F168" s="17"/>
     </row>
+    <row r="169" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B169" s="2"/>
+      <c r="D169" s="3"/>
+      <c r="E169" s="9"/>
+      <c r="F169" s="17"/>
+    </row>
+    <row r="170" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B170" s="2"/>
+      <c r="D170" s="3"/>
+      <c r="E170" s="9"/>
+      <c r="F170" s="17"/>
+    </row>
+    <row r="171" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B171" s="2"/>
+      <c r="D171" s="3"/>
+      <c r="E171" s="9"/>
+      <c r="F171" s="17"/>
+    </row>
+    <row r="172" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B172" s="2"/>
+      <c r="D172" s="3"/>
+      <c r="E172" s="9"/>
+      <c r="F172" s="17"/>
+    </row>
+    <row r="173" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B173" s="2"/>
+      <c r="D173" s="3"/>
+      <c r="E173" s="9"/>
+      <c r="F173" s="17"/>
+    </row>
   </sheetData>
-  <autoFilter ref="B1:L61" xr:uid="{73A75041-D6C8-4C2F-941F-420EA079C5D1}"/>
+  <autoFilter ref="A1:L173" xr:uid="{73A75041-D6C8-4C2F-941F-420EA079C5D1}"/>
   <phoneticPr fontId="4" type="noConversion"/>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I1:I1048576" xr:uid="{E89AD40E-DE52-4053-84BA-AF9396D00B95}">
+      <formula1>"basis, referentie, basis en referentie"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -3854,10 +4043,10 @@
   <sheetData>
     <row r="1" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D1" t="s">
-        <v>147</v>
+        <v>106</v>
       </c>
       <c r="E1" t="s">
-        <v>148</v>
+        <v>107</v>
       </c>
     </row>
     <row r="2" spans="4:5" x14ac:dyDescent="0.3">
@@ -3865,7 +4054,7 @@
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>149</v>
+        <v>108</v>
       </c>
     </row>
     <row r="3" spans="4:5" x14ac:dyDescent="0.3">
@@ -3873,7 +4062,7 @@
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>150</v>
+        <v>109</v>
       </c>
     </row>
     <row r="4" spans="4:5" x14ac:dyDescent="0.3">
@@ -3881,7 +4070,7 @@
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>151</v>
+        <v>110</v>
       </c>
     </row>
   </sheetData>
@@ -3890,12 +4079,16 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="4e95bed8-6d15-4403-ad70-a53422338dca">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <TaxCatchAll xmlns="d045ab76-3bb7-45f5-ab41-d7b04aa0dc94" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4170,22 +4363,29 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="4e95bed8-6d15-4403-ad70-a53422338dca">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <TaxCatchAll xmlns="d045ab76-3bb7-45f5-ab41-d7b04aa0dc94" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F0EF40A6-8528-4994-A94E-1AE934020AF5}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FFBB421F-7112-4B85-A662-9379706C03DC}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="c1085ce0-992b-4e2c-bc8b-9e7e29361dd3"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="4e95bed8-6d15-4403-ad70-a53422338dca"/>
+    <ds:schemaRef ds:uri="d045ab76-3bb7-45f5-ab41-d7b04aa0dc94"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -4212,20 +4412,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FFBB421F-7112-4B85-A662-9379706C03DC}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F0EF40A6-8528-4994-A94E-1AE934020AF5}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="c1085ce0-992b-4e2c-bc8b-9e7e29361dd3"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="4e95bed8-6d15-4403-ad70-a53422338dca"/>
-    <ds:schemaRef ds:uri="d045ab76-3bb7-45f5-ab41-d7b04aa0dc94"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/1. Configuratie.xlsx
+++ b/1. Configuratie.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://vrln.sharepoint.com/sites/GGD-ONDZ/PSchijf/Gezondheidsmonitor/Algemeen/Automatisering en R/Rapportage GMJ2023/Versie 8/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="362" documentId="8_{328FD829-EBBF-4353-AF4A-9E9843A0D461}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{992AFB2E-B2E2-429F-BE62-771BC5189D2F}"/>
+  <xr:revisionPtr revIDLastSave="572" documentId="8_{328FD829-EBBF-4353-AF4A-9E9843A0D461}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{21DD20AA-111D-44D1-93AE-9FCEEFAC0594}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{340DDFAE-1A83-41FC-A379-531A17E4526A}"/>
+    <workbookView xWindow="-4890" yWindow="-21720" windowWidth="38640" windowHeight="21240" xr2:uid="{340DDFAE-1A83-41FC-A379-531A17E4526A}"/>
   </bookViews>
   <sheets>
     <sheet name="Rapportconfiguratie" sheetId="4" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="Blad1" sheetId="3" state="hidden" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Slideconfiguratie 1'!$A$1:$L$173</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Slideconfiguratie 1'!$A$1:$L$181</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -41,44 +41,23 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="500" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="571" uniqueCount="236">
   <si>
     <t>configuratie</t>
   </si>
   <si>
-    <t>School 1</t>
-  </si>
-  <si>
     <t>opl_vmbo</t>
   </si>
   <si>
     <t>Slideconfiguratie 1</t>
   </si>
   <si>
-    <t>School 2</t>
-  </si>
-  <si>
     <t>opl_vmbohavo</t>
   </si>
   <si>
-    <t>School 3</t>
-  </si>
-  <si>
     <t>opl_havovwo</t>
   </si>
   <si>
-    <t>School 4</t>
-  </si>
-  <si>
-    <t>opl_vwo</t>
-  </si>
-  <si>
-    <t>School 5</t>
-  </si>
-  <si>
-    <t>opl_totaal</t>
-  </si>
-  <si>
     <t>vraag</t>
   </si>
   <si>
@@ -109,9 +88,6 @@
     <t>rapportnaam</t>
   </si>
   <si>
-    <t>Rapport</t>
-  </si>
-  <si>
     <t>Woont bij beide ouders</t>
   </si>
   <si>
@@ -217,12 +193,6 @@
     <t>EBEGK3S2</t>
   </si>
   <si>
-    <t>Percentage ervaren gezondheid</t>
-  </si>
-  <si>
-    <t>Percentage geluk</t>
-  </si>
-  <si>
     <t>combi</t>
   </si>
   <si>
@@ -241,12 +211,6 @@
     <t>Percentage bingedrinken</t>
   </si>
   <si>
-    <t>Heeft afgelopen 4 weken vijf of meer drankjes met alcohol gedronken</t>
-  </si>
-  <si>
-    <t>Is dronken/aangeschoten geweest in afgelopen 4 weken</t>
-  </si>
-  <si>
     <t>Als je alcohol drinkt, waar is dit dan meestal?</t>
   </si>
   <si>
@@ -301,9 +265,6 @@
     <t>Psychische klachten</t>
   </si>
   <si>
-    <t>PBMHK3S2</t>
-  </si>
-  <si>
     <t>Voelt zich (zeer) vaak gestrest door één of meer factoren</t>
   </si>
   <si>
@@ -316,18 +277,6 @@
     <t>Grafiek stress bronnen</t>
   </si>
   <si>
-    <t>SBPDK3S2</t>
-  </si>
-  <si>
-    <t>SBPDK3S3</t>
-  </si>
-  <si>
-    <t>Bronnen van druk van anderen</t>
-  </si>
-  <si>
-    <t>Heeft zich eenzaam gevoeld; laatste 4 weken</t>
-  </si>
-  <si>
     <t>SBEZK3S2</t>
   </si>
   <si>
@@ -388,9 +337,6 @@
     <t>Trendgrafiek geluk</t>
   </si>
   <si>
-    <t>Grafiek alcohol</t>
-  </si>
-  <si>
     <t>Percentage dronkenschap</t>
   </si>
   <si>
@@ -415,18 +361,9 @@
     <t>Heeft ooit wiet of hasj gebruikt</t>
   </si>
   <si>
-    <t>Is wekelijks actief in vrije tijd</t>
-  </si>
-  <si>
-    <t>Trendgrafiek actief</t>
-  </si>
-  <si>
     <t>Bewegen</t>
   </si>
   <si>
-    <t>Combi bewegen klas</t>
-  </si>
-  <si>
     <t>Trendgrafiek pesten</t>
   </si>
   <si>
@@ -478,15 +415,9 @@
     <t>Was afgelopen 4 weken dronken of aangeschoten</t>
   </si>
   <si>
-    <t>MBOKK3S31</t>
-  </si>
-  <si>
     <t>SOROK3S3; SOROK3S4; SOROK3S6</t>
   </si>
   <si>
-    <t>SOOSK3S1; SOOSK3S2; SOOSK3S3; SOOSK3S4; SOOSK3S6</t>
-  </si>
-  <si>
     <t xml:space="preserve">EBGLK3S1; EBEGK3S2 </t>
   </si>
   <si>
@@ -505,12 +436,6 @@
     <t>labels</t>
   </si>
   <si>
-    <t>omschrijving 1; omschrijving 2; omschrijving 3</t>
-  </si>
-  <si>
-    <t>omschrijving 1; omschrijving 2; omschrijving 3; omschrijving 4; omschrijving 5</t>
-  </si>
-  <si>
     <t>Ervaart een goede gezondheid; Voelt zich meestal gelukkig</t>
   </si>
   <si>
@@ -529,9 +454,6 @@
     <t>2023; 2021; 2019</t>
   </si>
   <si>
-    <t>Slideconfiguratie 2</t>
-  </si>
-  <si>
     <t>Heeft vrienden of vriendinnen die roken</t>
   </si>
   <si>
@@ -637,9 +559,6 @@
     <t>top 3</t>
   </si>
   <si>
-    <t>Grafiek eenzaamheid gender</t>
-  </si>
-  <si>
     <t>Combi prestatie gender</t>
   </si>
   <si>
@@ -652,9 +571,6 @@
     <t>Percentage vrije tijd</t>
   </si>
   <si>
-    <t>Combi bewegen onderwijsniveau</t>
-  </si>
-  <si>
     <t>Ervaart thuis enige of groeite moeite met rondkomen</t>
   </si>
   <si>
@@ -692,6 +608,147 @@
   </si>
   <si>
     <t>LOMVK3S1</t>
+  </si>
+  <si>
+    <t>Schoolnaam</t>
+  </si>
+  <si>
+    <t>nvt</t>
+  </si>
+  <si>
+    <t>datum</t>
+  </si>
+  <si>
+    <t>Datum</t>
+  </si>
+  <si>
+    <t>Trendgrafiek ervaren gezondheid</t>
+  </si>
+  <si>
+    <t>Maxima Lyceum</t>
+  </si>
+  <si>
+    <t>Willem Alexander Mavo</t>
+  </si>
+  <si>
+    <t>Beatrix College</t>
+  </si>
+  <si>
+    <t>vmbo</t>
+  </si>
+  <si>
+    <t>vmbo/havo</t>
+  </si>
+  <si>
+    <t>havo/vwo</t>
+  </si>
+  <si>
+    <t>Percentage bingedrinken regio</t>
+  </si>
+  <si>
+    <t>Trendgrafiek alcohol</t>
+  </si>
+  <si>
+    <t>Percentage dronkenschap regio</t>
+  </si>
+  <si>
+    <t>Percentage vapen regio</t>
+  </si>
+  <si>
+    <t>Percentage softdrugs regio</t>
+  </si>
+  <si>
+    <t>Kan bij iemand terecht als hij/zij ergens mee zit</t>
+  </si>
+  <si>
+    <t>Trendgrafiek bewegen</t>
+  </si>
+  <si>
+    <t>Percentage sport regio</t>
+  </si>
+  <si>
+    <t>Percentage vrije tijd regio</t>
+  </si>
+  <si>
+    <t>Percentage fietsen</t>
+  </si>
+  <si>
+    <t>Percentage fietsen regio</t>
+  </si>
+  <si>
+    <t>Fietst of loopt elke dag naar school of stage</t>
+  </si>
+  <si>
+    <t>Combi bewegen gender</t>
+  </si>
+  <si>
+    <t>SBSGK3S2; SBGMK3S2; SBRLK3S21</t>
+  </si>
+  <si>
+    <t>Beweegt 5 of meer dagen per week minstens 1 uur</t>
+  </si>
+  <si>
+    <t>LBLBK3S10</t>
+  </si>
+  <si>
+    <t>LBLBK3S14</t>
+  </si>
+  <si>
+    <t>LBLBK3S13; LBLBK3S11; LBLBK3S10</t>
+  </si>
+  <si>
+    <t>SBEZK3S2; SBPDK3S2; SBPDK3S3</t>
+  </si>
+  <si>
+    <t>SBPDK3S2; SBPDK3S3</t>
+  </si>
+  <si>
+    <t>Ervaren druk van anderen</t>
+  </si>
+  <si>
+    <t>PBMHK3S3; SBSSK3S6; PBSGK3S1</t>
+  </si>
+  <si>
+    <t>GBZOK3S2; GBZOK3S3; GBZOK3S4; GBZOK3S5; GBZOK3S6</t>
+  </si>
+  <si>
+    <t>GBZOK3S1</t>
+  </si>
+  <si>
+    <t>PBVKK3S4</t>
+  </si>
+  <si>
+    <t>PBVTK3S3</t>
+  </si>
+  <si>
+    <t>PBWBK3S7</t>
+  </si>
+  <si>
+    <t>PBVKK3S2; PBVKK3S4; PBWBK3S7</t>
+  </si>
+  <si>
+    <t>LOHDK3S1</t>
+  </si>
+  <si>
+    <t>LOHDK3S1; LOMVK3S1</t>
+  </si>
+  <si>
+    <t>SOOSK3S6</t>
+  </si>
+  <si>
+    <t>Vindt naar school gaan zinloos</t>
+  </si>
+  <si>
+    <t>Mijn ouders of verzorgers weten waar ik ben als ik niet thuis ben; Mijn ouders hebben duidelijke regels over wat ik wel en niet mag doen; Mijn ouders brengen veel tijd met mij door</t>
+  </si>
+  <si>
+    <t>Alcohol klas</t>
+  </si>
+  <si>
+    <t>Alcohol gender</t>
+  </si>
+  <si>
+    <t>Heeft alcohol gedronken in de afgelopen 4 weken; Binge drinken in de afgelopen 4 weken; Dronkenschap in de afgelopen 4 weken</t>
   </si>
 </sst>
 </file>
@@ -797,7 +854,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -943,23 +1000,11 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1278,29 +1323,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F0AA7A9-459B-4958-BBC2-94F84CFD8846}">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="22.109375" customWidth="1"/>
-    <col min="2" max="5" width="21" customWidth="1"/>
+    <col min="2" max="2" width="23.88671875" customWidth="1"/>
+    <col min="3" max="5" width="21" customWidth="1"/>
     <col min="6" max="6" width="20.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>168</v>
+        <v>142</v>
       </c>
       <c r="B1" t="s">
-        <v>169</v>
+        <v>143</v>
       </c>
       <c r="C1" t="s">
-        <v>170</v>
+        <v>144</v>
       </c>
       <c r="D1" t="s">
-        <v>171</v>
+        <v>145</v>
       </c>
       <c r="E1" t="s">
         <v>0</v>
@@ -1308,72 +1354,53 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>137</v>
+        <v>116</v>
       </c>
       <c r="B2" t="s">
+        <v>196</v>
+      </c>
+      <c r="C2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
+        <v>197</v>
+      </c>
+      <c r="E2" t="s">
         <v>2</v>
-      </c>
-      <c r="E2" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>137</v>
+        <v>116</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>195</v>
       </c>
       <c r="C3" t="s">
-        <v>5</v>
+        <v>3</v>
+      </c>
+      <c r="D3" t="s">
+        <v>198</v>
       </c>
       <c r="E3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>137</v>
+        <v>116</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>194</v>
       </c>
       <c r="C4" t="s">
-        <v>7</v>
+        <v>4</v>
+      </c>
+      <c r="D4" t="s">
+        <v>199</v>
       </c>
       <c r="E4" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>137</v>
-      </c>
-      <c r="B5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>137</v>
-      </c>
-      <c r="B6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -1384,11 +1411,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73A75041-D6C8-4C2F-941F-420EA079C5D1}">
-  <dimension ref="A1:L173"/>
+  <dimension ref="A1:L181"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D35" sqref="D35"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1408,117 +1433,101 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="22" t="s">
+        <v>130</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="L1" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D1" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="E1" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="F1" s="22" t="s">
-        <v>153</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>215</v>
+        <v>190</v>
       </c>
       <c r="B2" s="23" t="s">
-        <v>177</v>
+        <v>151</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="D2" s="23"/>
       <c r="E2" s="22"/>
       <c r="F2" s="22"/>
-      <c r="I2" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="J2" s="1">
-        <v>2023</v>
-      </c>
       <c r="K2" s="1">
         <v>1</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>22</v>
+        <v>189</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>215</v>
+        <v>190</v>
       </c>
       <c r="B3" s="23" t="s">
-        <v>23</v>
-      </c>
-      <c r="C3" s="49" t="s">
-        <v>25</v>
-      </c>
-      <c r="D3" s="50" t="s">
-        <v>24</v>
-      </c>
-      <c r="E3" s="22">
+        <v>191</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="D3" s="23"/>
+      <c r="E3" s="22"/>
+      <c r="F3" s="22"/>
+      <c r="K3" s="1">
         <v>1</v>
       </c>
-      <c r="F3" s="22"/>
-      <c r="I3" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="J3" s="1">
-        <v>2023</v>
-      </c>
-      <c r="K3" s="1">
-        <v>4</v>
-      </c>
       <c r="L3" s="1" t="s">
-        <v>26</v>
+        <v>192</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>215</v>
+        <v>187</v>
       </c>
       <c r="B4" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="C4" s="49" t="s">
-        <v>25</v>
-      </c>
-      <c r="D4" s="50" t="s">
-        <v>24</v>
-      </c>
-      <c r="E4" s="22" t="s">
-        <v>111</v>
+        <v>15</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="22">
+        <v>1</v>
       </c>
       <c r="F4" s="22"/>
       <c r="I4" s="1" t="s">
-        <v>168</v>
+        <v>142</v>
       </c>
       <c r="J4" s="1">
         <v>2023</v>
@@ -1527,28 +1536,28 @@
         <v>4</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>215</v>
+        <v>187</v>
       </c>
       <c r="B5" s="23" t="s">
-        <v>29</v>
-      </c>
-      <c r="C5" s="49" t="s">
-        <v>25</v>
-      </c>
-      <c r="D5" s="50" t="s">
-        <v>24</v>
+        <v>19</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="23" t="s">
+        <v>16</v>
       </c>
       <c r="E5" s="22" t="s">
-        <v>112</v>
+        <v>94</v>
       </c>
       <c r="F5" s="22"/>
       <c r="I5" s="1" t="s">
-        <v>168</v>
+        <v>142</v>
       </c>
       <c r="J5" s="1">
         <v>2023</v>
@@ -1557,28 +1566,28 @@
         <v>4</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>215</v>
+        <v>187</v>
       </c>
       <c r="B6" s="23" t="s">
-        <v>31</v>
-      </c>
-      <c r="C6" s="49" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" s="50" t="s">
-        <v>24</v>
-      </c>
-      <c r="E6" s="22">
-        <v>4</v>
+        <v>21</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" s="22" t="s">
+        <v>95</v>
       </c>
       <c r="F6" s="22"/>
       <c r="I6" s="1" t="s">
-        <v>168</v>
+        <v>142</v>
       </c>
       <c r="J6" s="1">
         <v>2023</v>
@@ -1587,28 +1596,28 @@
         <v>4</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="C7" s="51" t="s">
-        <v>25</v>
-      </c>
-      <c r="D7" s="50" t="s">
-        <v>33</v>
+        <v>187</v>
+      </c>
+      <c r="B7" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="23" t="s">
+        <v>16</v>
       </c>
       <c r="E7" s="22">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F7" s="22"/>
       <c r="I7" s="1" t="s">
-        <v>168</v>
+        <v>142</v>
       </c>
       <c r="J7" s="1">
         <v>2023</v>
@@ -1617,28 +1626,28 @@
         <v>4</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="B8" s="25" t="s">
-        <v>35</v>
-      </c>
-      <c r="C8" s="51" t="s">
+        <v>187</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="C8" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="D8" s="52" t="s">
-        <v>36</v>
-      </c>
-      <c r="E8" s="9">
+      <c r="E8" s="22">
         <v>1</v>
       </c>
-      <c r="F8" s="17"/>
+      <c r="F8" s="22"/>
       <c r="I8" s="1" t="s">
-        <v>168</v>
+        <v>142</v>
       </c>
       <c r="J8" s="1">
         <v>2023</v>
@@ -1647,60 +1656,58 @@
         <v>4</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>38</v>
+        <v>187</v>
       </c>
       <c r="B9" s="25" t="s">
-        <v>205</v>
-      </c>
-      <c r="C9" s="51" t="s">
-        <v>25</v>
-      </c>
-      <c r="D9" s="52" t="s">
-        <v>39</v>
-      </c>
-      <c r="E9" s="9" t="s">
-        <v>40</v>
+        <v>27</v>
+      </c>
+      <c r="C9" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E9" s="9">
+        <v>1</v>
       </c>
       <c r="F9" s="17"/>
       <c r="I9" s="1" t="s">
-        <v>168</v>
+        <v>142</v>
       </c>
       <c r="J9" s="1">
         <v>2023</v>
       </c>
       <c r="K9" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" ht="46.8" x14ac:dyDescent="0.3">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="B10" s="25" t="s">
-        <v>42</v>
-      </c>
-      <c r="C10" s="51" t="s">
-        <v>43</v>
-      </c>
-      <c r="D10" s="50" t="s">
-        <v>146</v>
-      </c>
-      <c r="E10" s="22" t="s">
-        <v>40</v>
-      </c>
-      <c r="F10" s="22" t="s">
-        <v>154</v>
-      </c>
+        <v>177</v>
+      </c>
+      <c r="C10" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="F10" s="17"/>
       <c r="I10" s="1" t="s">
-        <v>168</v>
+        <v>142</v>
       </c>
       <c r="J10" s="1">
         <v>2023</v>
@@ -1709,70 +1716,69 @@
         <v>5</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="109.2" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="B11" s="26" t="s">
-        <v>209</v>
-      </c>
-      <c r="C11" s="53" t="s">
-        <v>45</v>
-      </c>
-      <c r="D11" s="54" t="s">
-        <v>206</v>
-      </c>
-      <c r="E11" s="28" t="s">
-        <v>40</v>
-      </c>
-      <c r="F11" s="29"/>
-      <c r="G11" s="1" t="s">
-        <v>46</v>
+        <v>30</v>
+      </c>
+      <c r="B11" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="D11" s="50" t="s">
+        <v>124</v>
+      </c>
+      <c r="E11" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="F11" s="22" t="s">
+        <v>232</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>168</v>
+        <v>142</v>
       </c>
       <c r="J11" s="1">
         <v>2023</v>
       </c>
       <c r="K11" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>215</v>
+        <v>187</v>
       </c>
       <c r="B12" s="26" t="s">
-        <v>210</v>
-      </c>
-      <c r="C12" s="53" t="s">
-        <v>45</v>
-      </c>
-      <c r="D12" s="54" t="s">
-        <v>208</v>
+        <v>181</v>
+      </c>
+      <c r="C12" s="25" t="s">
+        <v>37</v>
+      </c>
+      <c r="D12" s="27" t="s">
+        <v>178</v>
       </c>
       <c r="E12" s="28" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="F12" s="29"/>
       <c r="G12" s="1" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>168</v>
+        <v>142</v>
       </c>
       <c r="J12" s="1">
         <v>2023</v>
@@ -1781,34 +1787,34 @@
         <v>6</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>215</v>
+        <v>187</v>
       </c>
       <c r="B13" s="26" t="s">
-        <v>211</v>
-      </c>
-      <c r="C13" s="53" t="s">
-        <v>45</v>
-      </c>
-      <c r="D13" s="54" t="s">
-        <v>207</v>
+        <v>182</v>
+      </c>
+      <c r="C13" s="25" t="s">
+        <v>37</v>
+      </c>
+      <c r="D13" s="27" t="s">
+        <v>180</v>
       </c>
       <c r="E13" s="28" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="F13" s="29"/>
       <c r="G13" s="1" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>168</v>
+        <v>142</v>
       </c>
       <c r="J13" s="1">
         <v>2023</v>
@@ -1817,34 +1823,34 @@
         <v>6</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>212</v>
-      </c>
-      <c r="C14" s="53" t="s">
-        <v>45</v>
-      </c>
-      <c r="D14" s="54" t="s">
-        <v>51</v>
+        <v>187</v>
+      </c>
+      <c r="B14" s="26" t="s">
+        <v>183</v>
+      </c>
+      <c r="C14" s="25" t="s">
+        <v>37</v>
+      </c>
+      <c r="D14" s="27" t="s">
+        <v>179</v>
       </c>
       <c r="E14" s="28" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="F14" s="29"/>
       <c r="G14" s="1" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>168</v>
+        <v>142</v>
       </c>
       <c r="J14" s="1">
         <v>2023</v>
@@ -1853,155 +1859,164 @@
         <v>6</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" ht="78" x14ac:dyDescent="0.3">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="C15" s="25" t="s">
+        <v>37</v>
+      </c>
+      <c r="D15" s="27" t="s">
+        <v>43</v>
+      </c>
+      <c r="E15" s="28" t="s">
+        <v>32</v>
+      </c>
+      <c r="F15" s="29"/>
+      <c r="G15" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B15" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="C15" s="24" t="s">
-        <v>43</v>
-      </c>
-      <c r="D15" s="47" t="s">
-        <v>147</v>
-      </c>
-      <c r="E15" s="29" t="s">
-        <v>40</v>
-      </c>
-      <c r="F15" s="22" t="s">
-        <v>155</v>
+      <c r="H15" s="1" t="s">
+        <v>39</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>168</v>
+        <v>142</v>
       </c>
       <c r="J15" s="1">
         <v>2023</v>
       </c>
       <c r="K15" s="1">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>113</v>
+        <v>44</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="B16" s="30" t="s">
-        <v>53</v>
+        <v>30</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>116</v>
       </c>
       <c r="C16" s="24" t="s">
-        <v>55</v>
-      </c>
-      <c r="D16" s="31" t="s">
-        <v>54</v>
+        <v>35</v>
+      </c>
+      <c r="D16" s="47" t="s">
+        <v>230</v>
       </c>
       <c r="E16" s="29" t="s">
-        <v>40</v>
-      </c>
-      <c r="F16" s="29"/>
+        <v>32</v>
+      </c>
+      <c r="F16" s="22" t="s">
+        <v>231</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>39</v>
+      </c>
       <c r="I16" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="J16" s="1" t="s">
-        <v>161</v>
+        <v>142</v>
+      </c>
+      <c r="J16" s="1">
+        <v>2023</v>
       </c>
       <c r="K16" s="1">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>114</v>
+        <v>96</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>215</v>
+        <v>187</v>
       </c>
       <c r="B17" s="24" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="C17" s="24" t="s">
-        <v>25</v>
+        <v>47</v>
       </c>
       <c r="D17" s="32" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="E17" s="33" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="F17" s="34"/>
       <c r="I17" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="J17" s="1">
-        <v>2023</v>
+        <v>162</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>136</v>
       </c>
       <c r="K17" s="1">
         <v>8</v>
       </c>
       <c r="L17" s="1" t="s">
-        <v>58</v>
+        <v>193</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="B18" s="24" t="s">
-        <v>53</v>
+        <v>187</v>
+      </c>
+      <c r="B18" s="30" t="s">
+        <v>45</v>
       </c>
       <c r="C18" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="D18" s="32" t="s">
-        <v>54</v>
-      </c>
-      <c r="E18" s="33" t="s">
-        <v>40</v>
-      </c>
-      <c r="F18" s="34"/>
+        <v>47</v>
+      </c>
+      <c r="D18" s="31" t="s">
+        <v>46</v>
+      </c>
+      <c r="E18" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="F18" s="29"/>
       <c r="I18" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="J18" s="1">
-        <v>2023</v>
+        <v>162</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>136</v>
       </c>
       <c r="K18" s="1">
         <v>8</v>
       </c>
       <c r="L18" s="1" t="s">
-        <v>59</v>
+        <v>97</v>
       </c>
     </row>
     <row r="19" spans="1:12" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>215</v>
+        <v>187</v>
       </c>
       <c r="B19" s="24" t="s">
-        <v>157</v>
+        <v>132</v>
       </c>
       <c r="C19" s="24" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="D19" s="32" t="s">
-        <v>148</v>
+        <v>125</v>
       </c>
       <c r="E19" s="33" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="F19" s="32" t="s">
-        <v>156</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>47</v>
+        <v>131</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>39</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>168</v>
+        <v>142</v>
       </c>
       <c r="J19" s="1">
         <v>2023</v>
@@ -2010,33 +2025,33 @@
         <v>8</v>
       </c>
       <c r="L19" s="1" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
     </row>
     <row r="20" spans="1:12" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>215</v>
+        <v>187</v>
       </c>
       <c r="B20" s="24" t="s">
-        <v>157</v>
+        <v>132</v>
       </c>
       <c r="C20" s="24" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="D20" s="32" t="s">
-        <v>148</v>
+        <v>125</v>
       </c>
       <c r="E20" s="33" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="F20" s="32" t="s">
-        <v>156</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>46</v>
+        <v>131</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>38</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>168</v>
+        <v>142</v>
       </c>
       <c r="J20" s="1">
         <v>2023</v>
@@ -2045,58 +2060,58 @@
         <v>8</v>
       </c>
       <c r="L20" s="1" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
-        <v>215</v>
+        <v>187</v>
       </c>
       <c r="B21" s="25" t="s">
-        <v>63</v>
+        <v>122</v>
       </c>
       <c r="C21" s="25" t="s">
-        <v>55</v>
+        <v>17</v>
       </c>
       <c r="D21" s="35" t="s">
-        <v>64</v>
+        <v>120</v>
       </c>
       <c r="E21" s="36" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="F21" s="37"/>
       <c r="I21" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="J21" s="1" t="s">
-        <v>161</v>
+        <v>142</v>
+      </c>
+      <c r="J21" s="1">
+        <v>2023</v>
       </c>
       <c r="K21" s="1">
         <v>9</v>
       </c>
       <c r="L21" s="1" t="s">
-        <v>115</v>
+        <v>55</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>215</v>
+        <v>187</v>
       </c>
       <c r="B22" s="25" t="s">
-        <v>143</v>
+        <v>122</v>
       </c>
       <c r="C22" s="25" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="D22" s="35" t="s">
-        <v>141</v>
+        <v>120</v>
       </c>
       <c r="E22" s="36" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="F22" s="37"/>
       <c r="I22" s="1" t="s">
-        <v>168</v>
+        <v>144</v>
       </c>
       <c r="J22" s="1">
         <v>2023</v>
@@ -2105,66 +2120,58 @@
         <v>9</v>
       </c>
       <c r="L22" s="1" t="s">
-        <v>65</v>
+        <v>200</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
-        <v>215</v>
+        <v>187</v>
       </c>
       <c r="B23" s="25" t="s">
-        <v>144</v>
+        <v>53</v>
       </c>
       <c r="C23" s="25" t="s">
-        <v>25</v>
+        <v>47</v>
       </c>
       <c r="D23" s="35" t="s">
-        <v>142</v>
+        <v>54</v>
       </c>
       <c r="E23" s="36" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="F23" s="37"/>
       <c r="I23" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="J23" s="1">
-        <v>2023</v>
+        <v>142</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>136</v>
       </c>
       <c r="K23" s="1">
         <v>9</v>
       </c>
       <c r="L23" s="1" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" ht="46.8" x14ac:dyDescent="0.3">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>215</v>
+        <v>187</v>
       </c>
       <c r="B24" s="25" t="s">
-        <v>66</v>
+        <v>123</v>
       </c>
       <c r="C24" s="25" t="s">
-        <v>60</v>
+        <v>17</v>
       </c>
       <c r="D24" s="35" t="s">
-        <v>149</v>
+        <v>121</v>
       </c>
       <c r="E24" s="36" t="s">
-        <v>40</v>
-      </c>
-      <c r="F24" s="22" t="s">
-        <v>154</v>
-      </c>
-      <c r="G24" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="H24" s="1" t="s">
-        <v>47</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="F24" s="37"/>
       <c r="I24" s="1" t="s">
-        <v>168</v>
+        <v>142</v>
       </c>
       <c r="J24" s="1">
         <v>2023</v>
@@ -2173,36 +2180,28 @@
         <v>9</v>
       </c>
       <c r="L24" s="1" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" ht="46.8" x14ac:dyDescent="0.3">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>215</v>
+        <v>187</v>
       </c>
       <c r="B25" s="25" t="s">
-        <v>67</v>
+        <v>123</v>
       </c>
       <c r="C25" s="25" t="s">
-        <v>60</v>
+        <v>17</v>
       </c>
       <c r="D25" s="35" t="s">
-        <v>149</v>
+        <v>121</v>
       </c>
       <c r="E25" s="36" t="s">
-        <v>40</v>
-      </c>
-      <c r="F25" s="22" t="s">
-        <v>154</v>
-      </c>
-      <c r="G25" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="H25" s="1" t="s">
-        <v>46</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="F25" s="37"/>
       <c r="I25" s="1" t="s">
-        <v>168</v>
+        <v>144</v>
       </c>
       <c r="J25" s="1">
         <v>2023</v>
@@ -2211,80 +2210,100 @@
         <v>9</v>
       </c>
       <c r="L25" s="1" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" ht="78" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
-        <v>38</v>
+        <v>187</v>
       </c>
       <c r="B26" s="25" t="s">
-        <v>68</v>
+        <v>233</v>
       </c>
       <c r="C26" s="25" t="s">
-        <v>43</v>
-      </c>
-      <c r="D26" s="48"/>
-      <c r="E26" s="36"/>
-      <c r="F26" s="37"/>
+        <v>50</v>
+      </c>
+      <c r="D26" s="35" t="s">
+        <v>126</v>
+      </c>
+      <c r="E26" s="36" t="s">
+        <v>32</v>
+      </c>
+      <c r="F26" s="22" t="s">
+        <v>235</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>39</v>
+      </c>
       <c r="I26" s="1" t="s">
-        <v>168</v>
+        <v>142</v>
       </c>
       <c r="J26" s="1">
         <v>2023</v>
       </c>
       <c r="K26" s="1">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L26" s="1" t="s">
-        <v>69</v>
+        <v>99</v>
       </c>
     </row>
     <row r="27" spans="1:12" ht="78" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="B27" s="25" t="s">
+        <v>234</v>
+      </c>
+      <c r="C27" s="25" t="s">
+        <v>50</v>
+      </c>
+      <c r="D27" s="35" t="s">
+        <v>126</v>
+      </c>
+      <c r="E27" s="36" t="s">
+        <v>32</v>
+      </c>
+      <c r="F27" s="22" t="s">
+        <v>235</v>
+      </c>
+      <c r="G27" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B27" s="25" t="s">
-        <v>70</v>
-      </c>
-      <c r="C27" s="25" t="s">
-        <v>43</v>
-      </c>
-      <c r="D27" s="35" t="s">
-        <v>213</v>
-      </c>
-      <c r="E27" s="36"/>
-      <c r="F27" s="37"/>
+      <c r="H27" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="I27" s="1" t="s">
-        <v>168</v>
+        <v>142</v>
       </c>
       <c r="J27" s="1">
         <v>2023</v>
       </c>
       <c r="K27" s="1">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L27" s="1" t="s">
-        <v>71</v>
+        <v>100</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="B28" s="25" t="s">
-        <v>72</v>
+        <v>56</v>
       </c>
       <c r="C28" s="25" t="s">
-        <v>119</v>
-      </c>
-      <c r="D28" s="35" t="s">
-        <v>214</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="D28" s="48"/>
       <c r="E28" s="36"/>
       <c r="F28" s="37"/>
       <c r="I28" s="1" t="s">
-        <v>188</v>
+        <v>162</v>
       </c>
       <c r="J28" s="1">
         <v>2023</v>
@@ -2293,124 +2312,118 @@
         <v>10</v>
       </c>
       <c r="L28" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" ht="78" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="D29" s="38" t="s">
-        <v>74</v>
-      </c>
-      <c r="E29" s="39" t="s">
-        <v>40</v>
-      </c>
-      <c r="F29" s="40"/>
+        <v>30</v>
+      </c>
+      <c r="B29" s="25" t="s">
+        <v>58</v>
+      </c>
+      <c r="C29" s="25" t="s">
+        <v>35</v>
+      </c>
+      <c r="D29" s="35" t="s">
+        <v>185</v>
+      </c>
+      <c r="E29" s="36" t="s">
+        <v>32</v>
+      </c>
+      <c r="F29" s="37"/>
       <c r="I29" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="J29" s="1" t="s">
-        <v>161</v>
+        <v>162</v>
+      </c>
+      <c r="J29" s="1">
+        <v>2023</v>
       </c>
       <c r="K29" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L29" s="1" t="s">
-        <v>120</v>
+        <v>59</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D30" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="E30" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="F30" s="17"/>
+        <v>30</v>
+      </c>
+      <c r="B30" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="C30" s="25" t="s">
+        <v>101</v>
+      </c>
+      <c r="D30" s="35" t="s">
+        <v>186</v>
+      </c>
+      <c r="E30" s="36" t="s">
+        <v>32</v>
+      </c>
+      <c r="F30" s="37"/>
       <c r="I30" s="1" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="J30" s="1">
         <v>2023</v>
       </c>
       <c r="K30" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L30" s="1" t="s">
-        <v>76</v>
+        <v>61</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="B31" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>25</v>
+        <v>187</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="D31" s="38" t="s">
-        <v>77</v>
+        <v>62</v>
       </c>
       <c r="E31" s="39" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="F31" s="40"/>
-      <c r="H31" s="2"/>
       <c r="I31" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="J31" s="1">
-        <v>2023</v>
+        <v>162</v>
+      </c>
+      <c r="J31" s="1" t="s">
+        <v>136</v>
       </c>
       <c r="K31" s="1">
         <v>11</v>
       </c>
       <c r="L31" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12" ht="46.8" x14ac:dyDescent="0.3">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>215</v>
+        <v>187</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>159</v>
+        <v>104</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="D32" s="38" t="s">
-        <v>150</v>
+        <v>17</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>63</v>
       </c>
       <c r="E32" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="F32" s="17" t="s">
-        <v>158</v>
-      </c>
-      <c r="G32" s="1" t="s">
-        <v>47</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="F32" s="17"/>
       <c r="I32" s="1" t="s">
-        <v>168</v>
+        <v>142</v>
       </c>
       <c r="J32" s="1">
         <v>2023</v>
@@ -2419,34 +2432,28 @@
         <v>11</v>
       </c>
       <c r="L32" s="1" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12" ht="46.8" x14ac:dyDescent="0.3">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
-        <v>215</v>
+        <v>187</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="D33" s="38" t="s">
-        <v>150</v>
-      </c>
-      <c r="E33" s="39" t="s">
-        <v>40</v>
-      </c>
-      <c r="F33" s="40" t="s">
-        <v>158</v>
-      </c>
-      <c r="G33" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="H33" s="2"/>
+        <v>104</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="E33" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="F33" s="17"/>
       <c r="I33" s="1" t="s">
-        <v>168</v>
+        <v>144</v>
       </c>
       <c r="J33" s="1">
         <v>2023</v>
@@ -2455,137 +2462,161 @@
         <v>11</v>
       </c>
       <c r="L33" s="1" t="s">
-        <v>140</v>
+        <v>203</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>163</v>
+        <v>187</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>105</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="D34" s="38" t="s">
-        <v>216</v>
+        <v>65</v>
       </c>
       <c r="E34" s="39" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="F34" s="40"/>
       <c r="H34" s="2"/>
       <c r="I34" s="1" t="s">
-        <v>168</v>
+        <v>142</v>
       </c>
       <c r="J34" s="1">
         <v>2023</v>
       </c>
       <c r="K34" s="1">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L34" s="1" t="s">
-        <v>172</v>
+        <v>66</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D35" s="38" t="s">
+        <v>65</v>
+      </c>
+      <c r="E35" s="39" t="s">
+        <v>32</v>
+      </c>
+      <c r="F35" s="40"/>
+      <c r="H35" s="2"/>
+      <c r="I35" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="J35" s="1">
+        <v>2023</v>
+      </c>
+      <c r="K35" s="1">
+        <v>11</v>
+      </c>
+      <c r="L35" s="1" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A36" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D36" s="38" t="s">
+        <v>127</v>
+      </c>
+      <c r="E36" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="F36" s="17" t="s">
+        <v>133</v>
+      </c>
+      <c r="H36" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I36" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="J36" s="1">
+        <v>2023</v>
+      </c>
+      <c r="K36" s="1">
+        <v>11</v>
+      </c>
+      <c r="L36" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A37" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D37" s="38" t="s">
+        <v>127</v>
+      </c>
+      <c r="E37" s="39" t="s">
+        <v>32</v>
+      </c>
+      <c r="F37" s="40" t="s">
+        <v>133</v>
+      </c>
+      <c r="H37" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B35" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D35" s="38"/>
-      <c r="E35" s="39" t="s">
-        <v>40</v>
-      </c>
-      <c r="F35" s="40"/>
-      <c r="I35" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="J35" s="1">
-        <v>2023</v>
-      </c>
-      <c r="K35" s="1">
-        <v>12</v>
-      </c>
-      <c r="L35" s="1" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A36" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D36" s="38"/>
-      <c r="E36" s="39" t="s">
-        <v>40</v>
-      </c>
-      <c r="F36" s="40"/>
-      <c r="I36" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="J36" s="1">
-        <v>2023</v>
-      </c>
-      <c r="K36" s="1">
-        <v>12</v>
-      </c>
-      <c r="L36" s="1" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A37" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="D37" s="38"/>
-      <c r="E37" s="39"/>
-      <c r="F37" s="40"/>
       <c r="I37" s="1" t="s">
-        <v>168</v>
+        <v>142</v>
       </c>
       <c r="J37" s="1">
         <v>2023</v>
       </c>
       <c r="K37" s="1">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L37" s="1" t="s">
-        <v>175</v>
+        <v>119</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="D38" s="38"/>
-      <c r="E38" s="39"/>
+        <v>137</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D38" s="38" t="s">
+        <v>188</v>
+      </c>
+      <c r="E38" s="39" t="s">
+        <v>32</v>
+      </c>
       <c r="F38" s="40"/>
+      <c r="H38" s="2"/>
       <c r="I38" s="1" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="J38" s="1">
         <v>2023</v>
@@ -2594,127 +2625,152 @@
         <v>12</v>
       </c>
       <c r="L38" s="1" t="s">
-        <v>176</v>
+        <v>146</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
-        <v>215</v>
+        <v>30</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>179</v>
+        <v>138</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D39" s="38"/>
-      <c r="E39" s="39"/>
+        <v>17</v>
+      </c>
+      <c r="D39" s="38" t="s">
+        <v>228</v>
+      </c>
+      <c r="E39" s="39" t="s">
+        <v>32</v>
+      </c>
       <c r="F39" s="40"/>
       <c r="I39" s="1" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="J39" s="1">
         <v>2023</v>
       </c>
       <c r="K39" s="1">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L39" s="1" t="s">
-        <v>178</v>
+        <v>147</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
-        <v>215</v>
+        <v>30</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>80</v>
+        <v>139</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D40" s="27" t="s">
-        <v>81</v>
-      </c>
-      <c r="E40" s="28" t="s">
-        <v>40</v>
-      </c>
-      <c r="F40" s="29"/>
+        <v>17</v>
+      </c>
+      <c r="D40" s="49"/>
+      <c r="E40" s="39" t="s">
+        <v>32</v>
+      </c>
+      <c r="F40" s="40"/>
       <c r="I40" s="1" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="J40" s="1">
         <v>2023</v>
       </c>
       <c r="K40" s="1">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L40" s="1" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
-        <v>215</v>
+        <v>30</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>181</v>
+        <v>140</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D41" s="27"/>
-      <c r="E41" s="28"/>
-      <c r="F41" s="29"/>
+        <v>50</v>
+      </c>
+      <c r="D41" s="38" t="s">
+        <v>229</v>
+      </c>
+      <c r="E41" s="39" t="s">
+        <v>32</v>
+      </c>
+      <c r="F41" s="40"/>
+      <c r="H41" s="1" t="s">
+        <v>39</v>
+      </c>
       <c r="I41" s="1" t="s">
-        <v>168</v>
+        <v>142</v>
       </c>
       <c r="J41" s="1">
         <v>2023</v>
       </c>
       <c r="K41" s="1">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L41" s="1" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
-        <v>215</v>
+        <v>30</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>79</v>
+        <v>141</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D42" s="27"/>
-      <c r="E42" s="28"/>
-      <c r="F42" s="29"/>
+        <v>50</v>
+      </c>
+      <c r="D42" s="38" t="s">
+        <v>229</v>
+      </c>
+      <c r="E42" s="39" t="s">
+        <v>32</v>
+      </c>
+      <c r="F42" s="40"/>
+      <c r="H42" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="I42" s="1" t="s">
-        <v>168</v>
+        <v>142</v>
       </c>
       <c r="J42" s="1">
         <v>2023</v>
       </c>
       <c r="K42" s="1">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L42" s="1" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B43" s="2"/>
+        <v>150</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" ht="78" x14ac:dyDescent="0.3">
+      <c r="A43" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>153</v>
+      </c>
       <c r="C43" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D43" s="27"/>
-      <c r="E43" s="28"/>
-      <c r="F43" s="29"/>
+        <v>35</v>
+      </c>
+      <c r="D43" s="38" t="s">
+        <v>222</v>
+      </c>
+      <c r="E43" s="39" t="s">
+        <v>32</v>
+      </c>
+      <c r="F43" s="40"/>
       <c r="I43" s="1" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="J43" s="1">
         <v>2023</v>
@@ -2723,29 +2779,28 @@
         <v>13</v>
       </c>
       <c r="L43" s="1" t="s">
-        <v>184</v>
+        <v>152</v>
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="B44" s="4" t="s">
-        <v>185</v>
+        <v>187</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>68</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="D44" s="27"/>
+        <v>17</v>
+      </c>
+      <c r="D44" s="27" t="s">
+        <v>69</v>
+      </c>
       <c r="E44" s="28" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="F44" s="29"/>
-      <c r="G44" s="1" t="s">
-        <v>46</v>
-      </c>
       <c r="I44" s="1" t="s">
-        <v>168</v>
+        <v>142</v>
       </c>
       <c r="J44" s="1">
         <v>2023</v>
@@ -2754,26 +2809,28 @@
         <v>13</v>
       </c>
       <c r="L44" s="1" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="45" spans="1:12" ht="31.2" x14ac:dyDescent="0.3">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="B45" s="4" t="s">
-        <v>82</v>
+        <v>187</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>155</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="D45" s="41"/>
-      <c r="E45" s="42" t="s">
-        <v>40</v>
-      </c>
-      <c r="F45" s="43"/>
+        <v>17</v>
+      </c>
+      <c r="D45" s="27" t="s">
+        <v>224</v>
+      </c>
+      <c r="E45" s="28" t="s">
+        <v>32</v>
+      </c>
+      <c r="F45" s="29"/>
       <c r="I45" s="1" t="s">
-        <v>188</v>
+        <v>142</v>
       </c>
       <c r="J45" s="1">
         <v>2023</v>
@@ -2782,435 +2839,433 @@
         <v>13</v>
       </c>
       <c r="L45" s="1" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="46" spans="1:12" ht="46.8" x14ac:dyDescent="0.3">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="B46" s="4" t="s">
-        <v>87</v>
+        <v>187</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>67</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D46" s="44" t="s">
-        <v>88</v>
-      </c>
-      <c r="E46" s="45" t="s">
-        <v>40</v>
-      </c>
-      <c r="F46" s="46" t="s">
-        <v>46</v>
-      </c>
-      <c r="G46" s="1" t="s">
-        <v>47</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="D46" s="27" t="s">
+        <v>226</v>
+      </c>
+      <c r="E46" s="28" t="s">
+        <v>32</v>
+      </c>
+      <c r="F46" s="29"/>
       <c r="I46" s="1" t="s">
-        <v>168</v>
+        <v>142</v>
       </c>
       <c r="J46" s="1">
         <v>2023</v>
       </c>
       <c r="K46" s="1">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="L46" s="1" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="47" spans="1:12" ht="78" x14ac:dyDescent="0.3">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="B47" s="4" t="s">
-        <v>89</v>
+        <v>187</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>205</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="D47" s="44" t="s">
-        <v>151</v>
-      </c>
-      <c r="E47" s="46" t="s">
-        <v>40</v>
-      </c>
-      <c r="F47" s="46"/>
+        <v>17</v>
+      </c>
+      <c r="D47" s="27" t="s">
+        <v>223</v>
+      </c>
+      <c r="E47" s="28" t="s">
+        <v>32</v>
+      </c>
+      <c r="F47" s="29"/>
       <c r="I47" s="1" t="s">
-        <v>168</v>
+        <v>142</v>
       </c>
       <c r="J47" s="1">
         <v>2023</v>
       </c>
       <c r="K47" s="1">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="L47" s="1" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="48" spans="1:12" ht="31.2" x14ac:dyDescent="0.3">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
-        <v>215</v>
+        <v>187</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>83</v>
+        <v>159</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="D48" s="44" t="s">
-        <v>84</v>
-      </c>
-      <c r="E48" s="45" t="s">
-        <v>40</v>
-      </c>
-      <c r="F48" s="46"/>
+        <v>50</v>
+      </c>
+      <c r="D48" s="27" t="s">
+        <v>227</v>
+      </c>
+      <c r="E48" s="28" t="s">
+        <v>32</v>
+      </c>
+      <c r="F48" s="29"/>
+      <c r="H48" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="I48" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="J48" s="1" t="s">
-        <v>161</v>
+        <v>142</v>
+      </c>
+      <c r="J48" s="1">
+        <v>2023</v>
       </c>
       <c r="K48" s="1">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="L48" s="1" t="s">
-        <v>190</v>
+        <v>160</v>
       </c>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
-        <v>215</v>
+        <v>187</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="D49" s="27" t="s">
-        <v>86</v>
-      </c>
-      <c r="E49" s="28" t="s">
-        <v>40</v>
-      </c>
-      <c r="F49" s="29"/>
-      <c r="G49" s="1" t="s">
-        <v>46</v>
-      </c>
+        <v>101</v>
+      </c>
+      <c r="D49" s="41" t="s">
+        <v>225</v>
+      </c>
+      <c r="E49" s="42" t="s">
+        <v>32</v>
+      </c>
+      <c r="F49" s="43"/>
       <c r="I49" s="1" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="J49" s="1">
         <v>2023</v>
       </c>
       <c r="K49" s="1">
+        <v>13</v>
+      </c>
+      <c r="L49" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A50" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D50" s="44" t="s">
+        <v>75</v>
+      </c>
+      <c r="E50" s="45" t="s">
+        <v>32</v>
+      </c>
+      <c r="F50" s="46"/>
+      <c r="G50" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="H50" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I50" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="J50" s="1">
+        <v>2023</v>
+      </c>
+      <c r="K50" s="1">
         <v>14</v>
       </c>
-      <c r="L49" s="1" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="50" spans="1:12" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A50" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="B50" s="4" t="s">
-        <v>192</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="D50" s="27"/>
-      <c r="E50" s="28" t="s">
-        <v>40</v>
-      </c>
-      <c r="F50" s="29"/>
-      <c r="I50" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="J50" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="K50" s="1">
-        <v>15</v>
-      </c>
       <c r="L50" s="1" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.3">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" ht="78" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
-        <v>215</v>
+        <v>187</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>194</v>
+        <v>76</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D51" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="E51" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="F51" s="11"/>
-      <c r="G51" s="1" t="s">
-        <v>46</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="D51" s="44" t="s">
+        <v>128</v>
+      </c>
+      <c r="E51" s="46" t="s">
+        <v>32</v>
+      </c>
+      <c r="F51" s="46"/>
       <c r="I51" s="1" t="s">
-        <v>188</v>
+        <v>142</v>
       </c>
       <c r="J51" s="1">
         <v>2023</v>
       </c>
       <c r="K51" s="1">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L51" s="1" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="52" spans="1:12" ht="46.8" x14ac:dyDescent="0.3">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
-        <v>215</v>
+        <v>187</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>94</v>
+        <v>71</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D52" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="E52" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="F52" s="11"/>
-      <c r="G52" s="1" t="s">
-        <v>46</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="D52" s="44" t="s">
+        <v>72</v>
+      </c>
+      <c r="E52" s="45" t="s">
+        <v>32</v>
+      </c>
+      <c r="F52" s="46"/>
       <c r="I52" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="J52" s="1">
-        <v>2023</v>
+        <v>162</v>
+      </c>
+      <c r="J52" s="1" t="s">
+        <v>136</v>
       </c>
       <c r="K52" s="1">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L52" s="1" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.3">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
-        <v>215</v>
+        <v>187</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>200</v>
+        <v>73</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="D53" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="E53" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="F53" s="11"/>
-      <c r="G53" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
+      </c>
+      <c r="D53" s="27" t="s">
+        <v>221</v>
+      </c>
+      <c r="E53" s="28" t="s">
+        <v>32</v>
+      </c>
+      <c r="F53" s="29"/>
+      <c r="H53" s="1" t="s">
+        <v>38</v>
       </c>
       <c r="I53" s="1" t="s">
-        <v>168</v>
+        <v>142</v>
       </c>
       <c r="J53" s="1">
         <v>2023</v>
       </c>
       <c r="K53" s="1">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L53" s="1" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="54" spans="1:12" ht="109.2" x14ac:dyDescent="0.3">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
-        <v>215</v>
+        <v>187</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>93</v>
+        <v>166</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="D54" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="E54" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="F54" s="11"/>
+        <v>47</v>
+      </c>
+      <c r="D54" s="27" t="s">
+        <v>78</v>
+      </c>
+      <c r="E54" s="28" t="s">
+        <v>32</v>
+      </c>
+      <c r="F54" s="29"/>
       <c r="I54" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="J54" s="1">
-        <v>2023</v>
+        <v>162</v>
+      </c>
+      <c r="J54" s="1" t="s">
+        <v>136</v>
       </c>
       <c r="K54" s="1">
         <v>15</v>
       </c>
       <c r="L54" s="1" t="s">
-        <v>196</v>
+        <v>167</v>
       </c>
     </row>
     <row r="55" spans="1:12" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
-        <v>215</v>
+        <v>187</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>124</v>
+        <v>168</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="D55" s="4"/>
+        <v>35</v>
+      </c>
+      <c r="D55" s="4" t="s">
+        <v>219</v>
+      </c>
       <c r="E55" s="11" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="F55" s="11"/>
       <c r="I55" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="J55" s="1" t="s">
-        <v>161</v>
+        <v>162</v>
+      </c>
+      <c r="J55" s="1">
+        <v>2023</v>
       </c>
       <c r="K55" s="1">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L55" s="1" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="56" spans="1:12" ht="46.8" x14ac:dyDescent="0.3">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" ht="109.2" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
-        <v>215</v>
+        <v>187</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>96</v>
+        <v>220</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>25</v>
+        <v>171</v>
       </c>
       <c r="D56" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="E56" s="10" t="s">
-        <v>40</v>
+        <v>129</v>
+      </c>
+      <c r="E56" s="11" t="s">
+        <v>32</v>
       </c>
       <c r="F56" s="11"/>
       <c r="I56" s="1" t="s">
-        <v>168</v>
+        <v>142</v>
       </c>
       <c r="J56" s="1">
         <v>2023</v>
       </c>
       <c r="K56" s="1">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L56" s="1" t="s">
-        <v>98</v>
+        <v>170</v>
       </c>
     </row>
     <row r="57" spans="1:12" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
-        <v>215</v>
+        <v>187</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>201</v>
+        <v>173</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D57" s="4"/>
-      <c r="E57" s="10" t="s">
-        <v>40</v>
+        <v>50</v>
+      </c>
+      <c r="D57" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="E57" s="11" t="s">
+        <v>32</v>
       </c>
       <c r="F57" s="11"/>
+      <c r="H57" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="I57" s="1" t="s">
-        <v>168</v>
+        <v>142</v>
       </c>
       <c r="J57" s="1">
         <v>2023</v>
       </c>
       <c r="K57" s="1">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L57" s="1" t="s">
-        <v>202</v>
+        <v>172</v>
       </c>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
-        <v>215</v>
+        <v>187</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>126</v>
+        <v>214</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="D58" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="E58" s="10" t="s">
-        <v>40</v>
+        <v>82</v>
+      </c>
+      <c r="E58" s="11" t="s">
+        <v>32</v>
       </c>
       <c r="F58" s="11"/>
-      <c r="H58" s="1" t="s">
-        <v>145</v>
-      </c>
       <c r="I58" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="J58" s="1">
-        <v>2023</v>
+        <v>162</v>
+      </c>
+      <c r="J58" s="1" t="s">
+        <v>136</v>
       </c>
       <c r="K58" s="1">
         <v>16</v>
       </c>
       <c r="L58" s="1" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
-        <v>215</v>
+        <v>187</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>126</v>
+        <v>79</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>60</v>
+        <v>17</v>
       </c>
       <c r="D59" s="4" t="s">
-        <v>99</v>
+        <v>80</v>
       </c>
       <c r="E59" s="10" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="F59" s="11"/>
-      <c r="H59" s="1" t="s">
-        <v>47</v>
-      </c>
       <c r="I59" s="1" t="s">
-        <v>168</v>
+        <v>142</v>
       </c>
       <c r="J59" s="1">
         <v>2023</v>
@@ -3219,239 +3274,434 @@
         <v>16</v>
       </c>
       <c r="L59" s="1" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="60" spans="1:12" ht="46.8" x14ac:dyDescent="0.3">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
-        <v>215</v>
+        <v>187</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>104</v>
+        <v>79</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>55</v>
+        <v>17</v>
       </c>
       <c r="D60" s="4" t="s">
-        <v>105</v>
+        <v>80</v>
       </c>
       <c r="E60" s="10" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="F60" s="11"/>
       <c r="I60" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="J60" s="1" t="s">
-        <v>161</v>
+        <v>144</v>
+      </c>
+      <c r="J60" s="1">
+        <v>2023</v>
       </c>
       <c r="K60" s="1">
+        <v>16</v>
+      </c>
+      <c r="L60" s="1" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A61" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="B61" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="C61" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="L60" s="1" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="61" spans="1:12" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A61" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="B61" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="C61" s="1" t="s">
-        <v>25</v>
-      </c>
       <c r="D61" s="4" t="s">
-        <v>101</v>
+        <v>216</v>
       </c>
       <c r="E61" s="10" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="F61" s="11"/>
       <c r="I61" s="1" t="s">
-        <v>168</v>
+        <v>142</v>
       </c>
       <c r="J61" s="1">
         <v>2023</v>
       </c>
       <c r="K61" s="1">
+        <v>16</v>
+      </c>
+      <c r="L61" s="1" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A62" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="B62" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="C62" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="L61" s="1" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="62" spans="1:12" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A62" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="B62" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="C62" s="1" t="s">
-        <v>25</v>
-      </c>
       <c r="D62" s="4" t="s">
-        <v>103</v>
+        <v>216</v>
       </c>
       <c r="E62" s="10" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="F62" s="11"/>
       <c r="I62" s="1" t="s">
-        <v>168</v>
+        <v>144</v>
       </c>
       <c r="J62" s="1">
         <v>2023</v>
       </c>
       <c r="K62" s="1">
+        <v>16</v>
+      </c>
+      <c r="L62" s="1" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A63" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="B63" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="C63" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="L62" s="1" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="63" spans="1:12" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A63" s="1" t="s">
+      <c r="D63" s="4" t="s">
         <v>215</v>
       </c>
-      <c r="B63" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="C63" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="D63" s="4" t="s">
-        <v>105</v>
-      </c>
       <c r="E63" s="10" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="F63" s="11"/>
-      <c r="H63" s="1" t="s">
-        <v>46</v>
-      </c>
       <c r="I63" s="1" t="s">
-        <v>168</v>
+        <v>142</v>
       </c>
       <c r="J63" s="1">
         <v>2023</v>
       </c>
       <c r="K63" s="1">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L63" s="1" t="s">
-        <v>131</v>
+        <v>209</v>
       </c>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="B64" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D64" s="4" t="s">
         <v>215</v>
       </c>
-      <c r="B64" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="C64" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D64" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="E64" s="11" t="s">
-        <v>40</v>
+      <c r="E64" s="10" t="s">
+        <v>32</v>
       </c>
       <c r="F64" s="11"/>
       <c r="I64" s="1" t="s">
-        <v>168</v>
+        <v>144</v>
       </c>
       <c r="J64" s="1">
         <v>2023</v>
       </c>
       <c r="K64" s="1">
+        <v>16</v>
+      </c>
+      <c r="L64" s="1" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A65" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="B65" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D65" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="E65" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="F65" s="11"/>
+      <c r="H65" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="I65" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="J65" s="1">
+        <v>2023</v>
+      </c>
+      <c r="K65" s="1">
+        <v>16</v>
+      </c>
+      <c r="L65" s="1" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A66" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="B66" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C66" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="L64" s="1" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A65" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="B65" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="C65" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D65" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="E65" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="F65" s="11"/>
-      <c r="I65" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="J65" s="1">
-        <v>2023</v>
-      </c>
-      <c r="K65" s="1">
+      <c r="D66" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="E66" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="F66" s="11"/>
+      <c r="I66" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="J66" s="1">
+        <v>2023</v>
+      </c>
+      <c r="K66" s="1">
         <v>17</v>
       </c>
-      <c r="L65" s="1" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B66" s="6"/>
-      <c r="D66" s="7"/>
-      <c r="E66" s="12"/>
-      <c r="F66" s="18"/>
+      <c r="L66" s="1" t="s">
+        <v>108</v>
+      </c>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B67" s="7"/>
-      <c r="D67" s="7"/>
-      <c r="E67" s="12"/>
-      <c r="F67" s="18"/>
+      <c r="A67" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="B67" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D67" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="E67" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="F67" s="11"/>
+      <c r="I67" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="J67" s="1">
+        <v>2023</v>
+      </c>
+      <c r="K67" s="1">
+        <v>17</v>
+      </c>
+      <c r="L67" s="1" t="s">
+        <v>108</v>
+      </c>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B68" s="6"/>
-      <c r="D68" s="7"/>
-      <c r="E68" s="12"/>
-      <c r="F68" s="18"/>
+      <c r="A68" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="B68" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D68" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="E68" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="F68" s="11"/>
+      <c r="I68" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="J68" s="1">
+        <v>2023</v>
+      </c>
+      <c r="K68" s="1">
+        <v>17</v>
+      </c>
+      <c r="L68" s="1" t="s">
+        <v>109</v>
+      </c>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B69" s="6"/>
-      <c r="D69" s="7"/>
-      <c r="E69" s="12"/>
-      <c r="F69" s="18"/>
+      <c r="A69" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="B69" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D69" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="E69" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="F69" s="11"/>
+      <c r="I69" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="J69" s="1">
+        <v>2023</v>
+      </c>
+      <c r="K69" s="1">
+        <v>17</v>
+      </c>
+      <c r="L69" s="1" t="s">
+        <v>109</v>
+      </c>
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B70" s="7"/>
-      <c r="D70" s="7"/>
-      <c r="E70" s="12"/>
-      <c r="F70" s="18"/>
-    </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B71" s="6"/>
-      <c r="D71" s="7"/>
-      <c r="E71" s="12"/>
-      <c r="F71" s="18"/>
+      <c r="A70" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="B70" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D70" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="E70" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="F70" s="11"/>
+      <c r="I70" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="J70" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="K70" s="1">
+        <v>17</v>
+      </c>
+      <c r="L70" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A71" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="B71" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D71" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="E71" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="F71" s="11"/>
+      <c r="H71" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="I71" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="J71" s="1">
+        <v>2023</v>
+      </c>
+      <c r="K71" s="1">
+        <v>17</v>
+      </c>
+      <c r="L71" s="1" t="s">
+        <v>110</v>
+      </c>
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B72" s="6"/>
-      <c r="D72" s="7"/>
-      <c r="E72" s="12"/>
-      <c r="F72" s="18"/>
+      <c r="A72" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="B72" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D72" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="E72" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="F72" s="11"/>
+      <c r="I72" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="J72" s="1">
+        <v>2023</v>
+      </c>
+      <c r="K72" s="1">
+        <v>17</v>
+      </c>
+      <c r="L72" s="1" t="s">
+        <v>112</v>
+      </c>
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B73" s="6"/>
-      <c r="D73" s="7"/>
-      <c r="E73" s="12"/>
-      <c r="F73" s="18"/>
+      <c r="A73" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="B73" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D73" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="E73" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="F73" s="11"/>
+      <c r="I73" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="J73" s="1">
+        <v>2023</v>
+      </c>
+      <c r="K73" s="1">
+        <v>17</v>
+      </c>
+      <c r="L73" s="1" t="s">
+        <v>113</v>
+      </c>
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B74" s="6"/>
@@ -3460,7 +3710,7 @@
       <c r="F74" s="18"/>
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B75" s="6"/>
+      <c r="B75" s="7"/>
       <c r="D75" s="7"/>
       <c r="E75" s="12"/>
       <c r="F75" s="18"/>
@@ -3478,7 +3728,7 @@
       <c r="F77" s="18"/>
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B78" s="6"/>
+      <c r="B78" s="7"/>
       <c r="D78" s="7"/>
       <c r="E78" s="12"/>
       <c r="F78" s="18"/>
@@ -3652,7 +3902,7 @@
       <c r="F106" s="18"/>
     </row>
     <row r="107" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B107" s="7"/>
+      <c r="B107" s="6"/>
       <c r="D107" s="7"/>
       <c r="E107" s="12"/>
       <c r="F107" s="18"/>
@@ -3676,215 +3926,215 @@
       <c r="F110" s="18"/>
     </row>
     <row r="111" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B111" s="2"/>
-      <c r="D111" s="3"/>
-      <c r="E111" s="9"/>
-      <c r="F111" s="17"/>
+      <c r="B111" s="6"/>
+      <c r="D111" s="7"/>
+      <c r="E111" s="12"/>
+      <c r="F111" s="18"/>
     </row>
     <row r="112" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B112" s="2"/>
-      <c r="D112" s="3"/>
-      <c r="E112" s="9"/>
-      <c r="F112" s="17"/>
+      <c r="B112" s="6"/>
+      <c r="D112" s="7"/>
+      <c r="E112" s="12"/>
+      <c r="F112" s="18"/>
     </row>
     <row r="113" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B113" s="2"/>
-      <c r="D113" s="3"/>
-      <c r="E113" s="9"/>
-      <c r="F113" s="17"/>
+      <c r="B113" s="6"/>
+      <c r="D113" s="7"/>
+      <c r="E113" s="12"/>
+      <c r="F113" s="18"/>
     </row>
     <row r="114" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B114" s="2"/>
-      <c r="D114" s="3"/>
-      <c r="E114" s="9"/>
-      <c r="F114" s="17"/>
+      <c r="B114" s="6"/>
+      <c r="D114" s="7"/>
+      <c r="E114" s="12"/>
+      <c r="F114" s="18"/>
     </row>
     <row r="115" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B115" s="2"/>
-      <c r="D115" s="3"/>
-      <c r="E115" s="9"/>
-      <c r="F115" s="17"/>
+      <c r="B115" s="7"/>
+      <c r="D115" s="7"/>
+      <c r="E115" s="12"/>
+      <c r="F115" s="18"/>
     </row>
     <row r="116" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B116" s="2"/>
-      <c r="D116" s="3"/>
-      <c r="E116" s="9"/>
-      <c r="F116" s="17"/>
+      <c r="B116" s="6"/>
+      <c r="D116" s="7"/>
+      <c r="E116" s="12"/>
+      <c r="F116" s="18"/>
+    </row>
+    <row r="117" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B117" s="6"/>
+      <c r="D117" s="7"/>
+      <c r="E117" s="12"/>
+      <c r="F117" s="18"/>
+    </row>
+    <row r="118" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B118" s="6"/>
+      <c r="D118" s="7"/>
+      <c r="E118" s="12"/>
+      <c r="F118" s="18"/>
+    </row>
+    <row r="119" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B119" s="2"/>
+      <c r="D119" s="3"/>
+      <c r="E119" s="9"/>
+      <c r="F119" s="17"/>
+    </row>
+    <row r="120" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B120" s="2"/>
+      <c r="D120" s="3"/>
+      <c r="E120" s="9"/>
+      <c r="F120" s="17"/>
     </row>
     <row r="121" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B121" s="5"/>
-      <c r="D121" s="4"/>
-      <c r="E121" s="10"/>
-      <c r="F121" s="11"/>
+      <c r="B121" s="2"/>
+      <c r="D121" s="3"/>
+      <c r="E121" s="9"/>
+      <c r="F121" s="17"/>
     </row>
     <row r="122" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B122" s="4"/>
-      <c r="D122" s="4"/>
-      <c r="E122" s="10"/>
-      <c r="F122" s="11"/>
+      <c r="B122" s="2"/>
+      <c r="D122" s="3"/>
+      <c r="E122" s="9"/>
+      <c r="F122" s="17"/>
     </row>
     <row r="123" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B123" s="4"/>
-      <c r="D123" s="4"/>
-      <c r="E123" s="10"/>
-      <c r="F123" s="11"/>
+      <c r="B123" s="2"/>
+      <c r="D123" s="3"/>
+      <c r="E123" s="9"/>
+      <c r="F123" s="17"/>
     </row>
     <row r="124" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B124" s="4"/>
-      <c r="D124" s="4"/>
-      <c r="E124" s="10"/>
-      <c r="F124" s="11"/>
-    </row>
-    <row r="125" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B125" s="4"/>
-      <c r="D125" s="4"/>
-      <c r="E125" s="10"/>
-      <c r="F125" s="11"/>
-    </row>
-    <row r="126" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B126" s="4"/>
-      <c r="D126" s="4"/>
-      <c r="E126" s="10"/>
-      <c r="F126" s="11"/>
-    </row>
-    <row r="127" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B127" s="4"/>
-      <c r="D127" s="4"/>
-      <c r="E127" s="10"/>
-      <c r="F127" s="11"/>
-    </row>
-    <row r="128" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B128" s="4"/>
-      <c r="D128" s="4"/>
-      <c r="E128" s="10"/>
-      <c r="F128" s="11"/>
+      <c r="B124" s="2"/>
+      <c r="D124" s="3"/>
+      <c r="E124" s="9"/>
+      <c r="F124" s="17"/>
     </row>
     <row r="129" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B129" s="2"/>
-      <c r="D129" s="3"/>
-      <c r="E129" s="9"/>
-      <c r="F129" s="17"/>
+      <c r="B129" s="5"/>
+      <c r="D129" s="4"/>
+      <c r="E129" s="10"/>
+      <c r="F129" s="11"/>
     </row>
     <row r="130" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B130" s="2"/>
-      <c r="D130" s="3"/>
-      <c r="E130" s="9"/>
-      <c r="F130" s="17"/>
+      <c r="B130" s="4"/>
+      <c r="D130" s="4"/>
+      <c r="E130" s="10"/>
+      <c r="F130" s="11"/>
     </row>
     <row r="131" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B131" s="2"/>
-      <c r="D131" s="3"/>
-      <c r="E131" s="9"/>
-      <c r="F131" s="17"/>
+      <c r="B131" s="4"/>
+      <c r="D131" s="4"/>
+      <c r="E131" s="10"/>
+      <c r="F131" s="11"/>
     </row>
     <row r="132" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="D132" s="3"/>
-      <c r="E132" s="9"/>
-      <c r="F132" s="17"/>
+      <c r="B132" s="4"/>
+      <c r="D132" s="4"/>
+      <c r="E132" s="10"/>
+      <c r="F132" s="11"/>
     </row>
     <row r="133" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="D133" s="3"/>
-      <c r="E133" s="9"/>
-      <c r="F133" s="17"/>
+      <c r="B133" s="4"/>
+      <c r="D133" s="4"/>
+      <c r="E133" s="10"/>
+      <c r="F133" s="11"/>
     </row>
     <row r="134" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="D134" s="15"/>
-      <c r="E134" s="14"/>
-      <c r="F134" s="19"/>
+      <c r="B134" s="4"/>
+      <c r="D134" s="4"/>
+      <c r="E134" s="10"/>
+      <c r="F134" s="11"/>
     </row>
     <row r="135" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="D135" s="15"/>
-      <c r="E135" s="14"/>
-      <c r="F135" s="19"/>
+      <c r="B135" s="4"/>
+      <c r="D135" s="4"/>
+      <c r="E135" s="10"/>
+      <c r="F135" s="11"/>
     </row>
     <row r="136" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="D136" s="15"/>
-      <c r="E136" s="14"/>
-      <c r="F136" s="19"/>
+      <c r="B136" s="4"/>
+      <c r="D136" s="4"/>
+      <c r="E136" s="10"/>
+      <c r="F136" s="11"/>
     </row>
     <row r="137" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="D137" s="15"/>
-      <c r="E137" s="14"/>
-      <c r="F137" s="19"/>
+      <c r="B137" s="2"/>
+      <c r="D137" s="3"/>
+      <c r="E137" s="9"/>
+      <c r="F137" s="17"/>
     </row>
     <row r="138" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="D138" s="15"/>
-      <c r="E138" s="14"/>
-      <c r="F138" s="19"/>
+      <c r="B138" s="2"/>
+      <c r="D138" s="3"/>
+      <c r="E138" s="9"/>
+      <c r="F138" s="17"/>
     </row>
     <row r="139" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="D139" s="15"/>
-      <c r="E139" s="14"/>
-      <c r="F139" s="19"/>
+      <c r="B139" s="2"/>
+      <c r="D139" s="3"/>
+      <c r="E139" s="9"/>
+      <c r="F139" s="17"/>
     </row>
     <row r="140" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B140" s="8"/>
-      <c r="D140" s="15"/>
-      <c r="E140" s="14"/>
-      <c r="F140" s="19"/>
+      <c r="D140" s="3"/>
+      <c r="E140" s="9"/>
+      <c r="F140" s="17"/>
     </row>
     <row r="141" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B141" s="8"/>
-      <c r="D141" s="15"/>
-      <c r="E141" s="14"/>
-      <c r="F141" s="19"/>
+      <c r="D141" s="3"/>
+      <c r="E141" s="9"/>
+      <c r="F141" s="17"/>
     </row>
     <row r="142" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B142" s="8"/>
       <c r="D142" s="15"/>
       <c r="E142" s="14"/>
       <c r="F142" s="19"/>
     </row>
     <row r="143" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B143" s="8"/>
+      <c r="D143" s="15"/>
+      <c r="E143" s="14"/>
+      <c r="F143" s="19"/>
     </row>
     <row r="144" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B144" s="4"/>
-      <c r="D144" s="4"/>
-      <c r="E144" s="10"/>
-      <c r="F144" s="11"/>
+      <c r="D144" s="15"/>
+      <c r="E144" s="14"/>
+      <c r="F144" s="19"/>
     </row>
     <row r="145" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B145" s="4"/>
-      <c r="D145" s="4"/>
-      <c r="E145" s="10"/>
-      <c r="F145" s="11"/>
+      <c r="D145" s="15"/>
+      <c r="E145" s="14"/>
+      <c r="F145" s="19"/>
     </row>
     <row r="146" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B146" s="4"/>
-      <c r="D146" s="4"/>
-      <c r="E146" s="10"/>
-      <c r="F146" s="11"/>
+      <c r="D146" s="15"/>
+      <c r="E146" s="14"/>
+      <c r="F146" s="19"/>
     </row>
     <row r="147" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B147" s="4"/>
-      <c r="D147" s="4"/>
-      <c r="E147" s="10"/>
-      <c r="F147" s="11"/>
+      <c r="D147" s="15"/>
+      <c r="E147" s="14"/>
+      <c r="F147" s="19"/>
     </row>
     <row r="148" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B148" s="4"/>
-      <c r="D148" s="4"/>
-      <c r="E148" s="10"/>
-      <c r="F148" s="11"/>
+      <c r="B148" s="8"/>
+      <c r="D148" s="15"/>
+      <c r="E148" s="14"/>
+      <c r="F148" s="19"/>
     </row>
     <row r="149" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B149" s="4"/>
-      <c r="D149" s="4"/>
-      <c r="E149" s="10"/>
-      <c r="F149" s="11"/>
+      <c r="B149" s="8"/>
+      <c r="D149" s="15"/>
+      <c r="E149" s="14"/>
+      <c r="F149" s="19"/>
     </row>
     <row r="150" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B150" s="4"/>
-      <c r="D150" s="4"/>
-      <c r="E150" s="10"/>
-      <c r="F150" s="11"/>
+      <c r="B150" s="8"/>
+      <c r="D150" s="15"/>
+      <c r="E150" s="14"/>
+      <c r="F150" s="19"/>
     </row>
     <row r="151" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B151" s="4"/>
-      <c r="D151" s="4"/>
-      <c r="E151" s="10"/>
-      <c r="F151" s="11"/>
+      <c r="B151" s="8"/>
     </row>
     <row r="152" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B152" s="4"/>
@@ -3923,52 +4173,52 @@
       <c r="F157" s="11"/>
     </row>
     <row r="158" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B158" s="2"/>
-      <c r="D158" s="3"/>
-      <c r="E158" s="9"/>
-      <c r="F158" s="17"/>
+      <c r="B158" s="4"/>
+      <c r="D158" s="4"/>
+      <c r="E158" s="10"/>
+      <c r="F158" s="11"/>
     </row>
     <row r="159" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B159" s="2"/>
-      <c r="D159" s="3"/>
-      <c r="E159" s="9"/>
-      <c r="F159" s="17"/>
+      <c r="B159" s="4"/>
+      <c r="D159" s="4"/>
+      <c r="E159" s="10"/>
+      <c r="F159" s="11"/>
     </row>
     <row r="160" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B160" s="2"/>
-      <c r="D160" s="3"/>
-      <c r="E160" s="9"/>
-      <c r="F160" s="17"/>
+      <c r="B160" s="4"/>
+      <c r="D160" s="4"/>
+      <c r="E160" s="10"/>
+      <c r="F160" s="11"/>
     </row>
     <row r="161" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B161" s="2"/>
-      <c r="D161" s="3"/>
-      <c r="E161" s="9"/>
-      <c r="F161" s="17"/>
+      <c r="B161" s="4"/>
+      <c r="D161" s="4"/>
+      <c r="E161" s="10"/>
+      <c r="F161" s="11"/>
     </row>
     <row r="162" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B162" s="2"/>
-      <c r="D162" s="3"/>
-      <c r="E162" s="9"/>
-      <c r="F162" s="17"/>
+      <c r="B162" s="4"/>
+      <c r="D162" s="4"/>
+      <c r="E162" s="10"/>
+      <c r="F162" s="11"/>
     </row>
     <row r="163" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B163" s="2"/>
-      <c r="D163" s="3"/>
-      <c r="E163" s="9"/>
-      <c r="F163" s="17"/>
+      <c r="B163" s="4"/>
+      <c r="D163" s="4"/>
+      <c r="E163" s="10"/>
+      <c r="F163" s="11"/>
     </row>
     <row r="164" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B164" s="2"/>
-      <c r="D164" s="3"/>
-      <c r="E164" s="9"/>
-      <c r="F164" s="17"/>
+      <c r="B164" s="4"/>
+      <c r="D164" s="4"/>
+      <c r="E164" s="10"/>
+      <c r="F164" s="11"/>
     </row>
     <row r="165" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B165" s="2"/>
-      <c r="D165" s="3"/>
-      <c r="E165" s="9"/>
-      <c r="F165" s="17"/>
+      <c r="B165" s="4"/>
+      <c r="D165" s="4"/>
+      <c r="E165" s="10"/>
+      <c r="F165" s="11"/>
     </row>
     <row r="166" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B166" s="2"/>
@@ -4018,8 +4268,56 @@
       <c r="E173" s="9"/>
       <c r="F173" s="17"/>
     </row>
+    <row r="174" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B174" s="2"/>
+      <c r="D174" s="3"/>
+      <c r="E174" s="9"/>
+      <c r="F174" s="17"/>
+    </row>
+    <row r="175" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B175" s="2"/>
+      <c r="D175" s="3"/>
+      <c r="E175" s="9"/>
+      <c r="F175" s="17"/>
+    </row>
+    <row r="176" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B176" s="2"/>
+      <c r="D176" s="3"/>
+      <c r="E176" s="9"/>
+      <c r="F176" s="17"/>
+    </row>
+    <row r="177" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B177" s="2"/>
+      <c r="D177" s="3"/>
+      <c r="E177" s="9"/>
+      <c r="F177" s="17"/>
+    </row>
+    <row r="178" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B178" s="2"/>
+      <c r="D178" s="3"/>
+      <c r="E178" s="9"/>
+      <c r="F178" s="17"/>
+    </row>
+    <row r="179" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B179" s="2"/>
+      <c r="D179" s="3"/>
+      <c r="E179" s="9"/>
+      <c r="F179" s="17"/>
+    </row>
+    <row r="180" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B180" s="2"/>
+      <c r="D180" s="3"/>
+      <c r="E180" s="9"/>
+      <c r="F180" s="17"/>
+    </row>
+    <row r="181" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B181" s="2"/>
+      <c r="D181" s="3"/>
+      <c r="E181" s="9"/>
+      <c r="F181" s="17"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:L173" xr:uid="{73A75041-D6C8-4C2F-941F-420EA079C5D1}"/>
+  <autoFilter ref="A1:L181" xr:uid="{73A75041-D6C8-4C2F-941F-420EA079C5D1}"/>
   <phoneticPr fontId="4" type="noConversion"/>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I1:I1048576" xr:uid="{E89AD40E-DE52-4053-84BA-AF9396D00B95}">
@@ -4028,6 +4326,9 @@
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <ignoredErrors>
+    <ignoredError sqref="E4:E6 E34 E36:E40 E70 E57:E59 E61 E65 E71:E73 E44 E48:E55 E31:E32 E23:E24 E26:E27 E7:E20 E21:E22 E28:E30 E25 E33" numberStoredAsText="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>
 
@@ -4043,10 +4344,10 @@
   <sheetData>
     <row r="1" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D1" t="s">
-        <v>106</v>
+        <v>89</v>
       </c>
       <c r="E1" t="s">
-        <v>107</v>
+        <v>90</v>
       </c>
     </row>
     <row r="2" spans="4:5" x14ac:dyDescent="0.3">
@@ -4054,7 +4355,7 @@
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>108</v>
+        <v>91</v>
       </c>
     </row>
     <row r="3" spans="4:5" x14ac:dyDescent="0.3">
@@ -4062,7 +4363,7 @@
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>109</v>
+        <v>92</v>
       </c>
     </row>
     <row r="4" spans="4:5" x14ac:dyDescent="0.3">
@@ -4070,7 +4371,7 @@
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>110</v>
+        <v>93</v>
       </c>
     </row>
   </sheetData>
@@ -4079,16 +4380,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="4e95bed8-6d15-4403-ad70-a53422338dca">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <TaxCatchAll xmlns="d045ab76-3bb7-45f5-ab41-d7b04aa0dc94" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4363,29 +4660,22 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="4e95bed8-6d15-4403-ad70-a53422338dca">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <TaxCatchAll xmlns="d045ab76-3bb7-45f5-ab41-d7b04aa0dc94" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FFBB421F-7112-4B85-A662-9379706C03DC}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F0EF40A6-8528-4994-A94E-1AE934020AF5}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="c1085ce0-992b-4e2c-bc8b-9e7e29361dd3"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="4e95bed8-6d15-4403-ad70-a53422338dca"/>
-    <ds:schemaRef ds:uri="d045ab76-3bb7-45f5-ab41-d7b04aa0dc94"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -4412,9 +4702,20 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F0EF40A6-8528-4994-A94E-1AE934020AF5}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FFBB421F-7112-4B85-A662-9379706C03DC}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="c1085ce0-992b-4e2c-bc8b-9e7e29361dd3"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="4e95bed8-6d15-4403-ad70-a53422338dca"/>
+    <ds:schemaRef ds:uri="d045ab76-3bb7-45f5-ab41-d7b04aa0dc94"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/1. Configuratie.xlsx
+++ b/1. Configuratie.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://vrln.sharepoint.com/sites/GGD-ONDZ/PSchijf/Gezondheidsmonitor/Algemeen/Automatisering en R/Rapportage GMJ2023/Versie 10/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="131" documentId="8_{9135F566-5C0B-45DE-866D-BB2926EAD177}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B12E110A-0D6A-4A97-B8C1-97EF356EAF8D}"/>
+  <xr:revisionPtr revIDLastSave="156" documentId="8_{9135F566-5C0B-45DE-866D-BB2926EAD177}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CF9E928B-845E-4C7A-B68C-DB920289C75E}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{340DDFAE-1A83-41FC-A379-531A17E4526A}"/>
+    <workbookView xWindow="12" yWindow="12" windowWidth="23016" windowHeight="12336" xr2:uid="{340DDFAE-1A83-41FC-A379-531A17E4526A}"/>
   </bookViews>
   <sheets>
     <sheet name="Rapportconfiguratie" sheetId="4" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="Slideconfiguratie Testdata" sheetId="5" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Slideconfiguratie Landelijk'!$A$1:$L$189</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Slideconfiguratie Landelijk'!$A$1:$L$188</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Slideconfiguratie Testdata'!$A$1:$L$174</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1249" uniqueCount="275">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1243" uniqueCount="273">
   <si>
     <t>basis</t>
   </si>
@@ -470,12 +470,6 @@
     <t>Grafiek andere drugs</t>
   </si>
   <si>
-    <t>Heeft vrienden of vriendinnen die wiet of hasj gebruiken</t>
-  </si>
-  <si>
-    <t>Grafiek vrienden wiet</t>
-  </si>
-  <si>
     <t>Middelengebruik vrienden</t>
   </si>
   <si>
@@ -794,81 +788,80 @@
     <t>SOROK3S8; SOROK3S9; SOROK3S11</t>
   </si>
   <si>
-    <t xml:space="preserve">LOAGK3S1; LOAGK3S2; LOAGK3S3; LOAGK3S4; LOAGK3S5; LOAGK3S6; LOAGK3S7; LOAGK3S8; LOAGK3S9
+    <t>Thuis; Bij vriend(inn)en; In een horecagelegenheid; Bij een concert of festival; Op de kermis, zomer- of lentefeest; Bij een schoolactiviteit; In de sportkantine of bij een vereniging; Openbare plek buiten; In een keet, jeugdhonk of schuur</t>
+  </si>
+  <si>
+    <t>LBAGK3S17</t>
+  </si>
+  <si>
+    <t>LBSDK3S1; LBSDK3S2</t>
+  </si>
+  <si>
+    <t>GBZOK316</t>
+  </si>
+  <si>
+    <t>Tekst wiet of hasj</t>
+  </si>
+  <si>
+    <t>Tekst vaak stress</t>
+  </si>
+  <si>
+    <t>Tekst suicide</t>
+  </si>
+  <si>
+    <t>PBSGK3S2</t>
+  </si>
+  <si>
+    <t>Slideconfiguratie Testdata</t>
+  </si>
+  <si>
+    <t>Mening ouders alcohol</t>
+  </si>
+  <si>
+    <t>Heeft afgelopen 4 weken 5 of meer drankjes gedronken bij 1 gelegenheid</t>
+  </si>
+  <si>
+    <t>1;2;3</t>
+  </si>
+  <si>
+    <t>1;2;3;4</t>
+  </si>
+  <si>
+    <t>SOVBK302</t>
+  </si>
+  <si>
+    <t>SOVBK301</t>
+  </si>
+  <si>
+    <t>Creatieve en culturele activeiten buiten schooltijd</t>
+  </si>
+  <si>
+    <t>Grafiek cultuur</t>
+  </si>
+  <si>
+    <t>Grafiek andere verenigingen</t>
+  </si>
+  <si>
+    <t>Activiteiten bij andere clubs of verenigingen buiten schooltijd</t>
+  </si>
+  <si>
+    <t>LOAGK3S1; LOAGK3S2; LOAGK3S3; LOAGK3S4; LOAGK3S5; LOAGK3S6; LOAGK3S7; LOAGK3S8; LOAGK3S9</t>
+  </si>
+  <si>
+    <t>LBSDK3S1 van de jongeren op uw school heeft ooit wiet of hasj gebruikt. Het percentage dat in de laatste 4 weken wiet of hasj gebruikt heeft is LBSDK3S2.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Op uw school kan GBZOK316 van de jongeren bij niemand terecht. Deze groep is extra kwetsbaar bij problemen. Ondanks de uitdagingen die zij in hun leven tegenkomen hebben de meeste jongeren voldoende vertrouwen in de toekomst.
 </t>
   </si>
   <si>
-    <t>Thuis; Bij vriend(inn)en; In een horecagelegenheid; Bij een concert of festival; Op de kermis, zomer- of lentefeest; Bij een schoolactiviteit; In de sportkantine of bij een vereniging; Openbare plek buiten; In een keet, jeugdhonk of schuur</t>
-  </si>
-  <si>
-    <t>LBAGK3S17</t>
-  </si>
-  <si>
-    <t>LBSDK3S1; LBSDK3S2</t>
-  </si>
-  <si>
-    <t>[LBSDK3S1] van de jongeren op uw school heeft ooit wiet of hasj gebruikt. Het percentage dat in de laatste 4 weken wiet of hasj gebruikt heeft is [LBSDK3S2].</t>
-  </si>
-  <si>
-    <t>GBZOK316</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Op uw school kan [GBZOK316] van de jongeren bij niemand terecht. Deze groep is extra kwetsbaar bij problemen. Ondanks de uitdagingen die zij in hun leven tegenkomen hebben de meeste jongeren voldoende vertrouwen in de toekomst.
-</t>
-  </si>
-  <si>
-    <t>Tekst wiet of hasj</t>
-  </si>
-  <si>
-    <t>Tekst vaak stress</t>
-  </si>
-  <si>
-    <t>Tekst suicide</t>
-  </si>
-  <si>
-    <t>In 2023 geeft [SBSSK3S6] van de jongeren op uw school aan zich (zeer) vaak gestrest te voelen door een of meer factoren.</t>
-  </si>
-  <si>
-    <t>[PBSGK3S2] van de jongeren uit onze regio hebben er in de laatste 12 maanden vaak of heel vaak serieus over gedacht een eind te maken aan zijn/haar leven. Heeft u zorgen over een leerling, neem dan contact op met de afdeling JGZ van de GGD. </t>
-  </si>
-  <si>
-    <t>PBSGK3S2</t>
-  </si>
-  <si>
-    <t>Slideconfiguratie Testdata</t>
-  </si>
-  <si>
-    <t>Mening ouders alcohol</t>
-  </si>
-  <si>
-    <t>Heeft afgelopen 4 weken 5 of meer drankjes gedronken bij 1 gelegenheid</t>
-  </si>
-  <si>
-    <t>1;2;3</t>
-  </si>
-  <si>
-    <t>1;2;3;4</t>
-  </si>
-  <si>
-    <t>SOVBK302</t>
-  </si>
-  <si>
-    <t>SOVBK301</t>
-  </si>
-  <si>
-    <t>Creatieve en culturele activeiten buiten schooltijd</t>
-  </si>
-  <si>
-    <t>Grafiek cultuur</t>
-  </si>
-  <si>
-    <t>Grafiek andere verenigingen</t>
-  </si>
-  <si>
-    <t>Activiteiten bij andere clubs of verenigingen buiten schooltijd</t>
-  </si>
-  <si>
-    <t>College van de Hoge Boom</t>
+    <t>In 2023 geeft SBSSK3S6 van de jongeren op uw school aan zich (zeer) vaak gestrest te voelen door een of meer factoren.</t>
+  </si>
+  <si>
+    <t>PBSGK3S2 van de jongeren uit onze regio hebben er in de laatste 12 maanden vaak of heel vaak serieus over gedacht een eind te maken aan zijn/haar leven. Heeft u zorgen over een leerling, neem dan contact op met de afdeling JGZ van de GGD. </t>
+  </si>
+  <si>
+    <t>College van de Hoge Hoed</t>
   </si>
 </sst>
 </file>
@@ -940,18 +933,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -984,7 +971,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -1057,9 +1044,6 @@
     <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1072,16 +1056,16 @@
     <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1437,7 +1421,7 @@
         <v>5</v>
       </c>
       <c r="B2" s="19" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="C2" s="19" t="s">
         <v>6</v>
@@ -1446,7 +1430,7 @@
         <v>6</v>
       </c>
       <c r="E2" s="19" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
     </row>
   </sheetData>
@@ -1458,7 +1442,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73A75041-D6C8-4C2F-941F-420EA079C5D1}">
-  <dimension ref="A1:L189"/>
+  <dimension ref="A1:L188"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0"/>
   </sheetViews>
@@ -1567,11 +1551,11 @@
         <v>26</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="E4" s="6"/>
       <c r="F4" s="6" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="I4" s="4" t="s">
         <v>0</v>
@@ -1837,7 +1821,7 @@
         <v>30</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="E13" s="9" t="s">
         <v>52</v>
@@ -1867,7 +1851,7 @@
         <v>55</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="E14" s="6" t="s">
         <v>52</v>
@@ -2205,7 +2189,7 @@
         <v>28</v>
       </c>
       <c r="B24" s="20" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="C24" s="4" t="s">
         <v>30</v>
@@ -2234,7 +2218,7 @@
         <v>28</v>
       </c>
       <c r="B25" s="20" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="C25" s="4" t="s">
         <v>30</v>
@@ -2298,7 +2282,7 @@
         <v>30</v>
       </c>
       <c r="D27" s="20" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="E27" s="21" t="s">
         <v>52</v>
@@ -2327,7 +2311,7 @@
         <v>30</v>
       </c>
       <c r="D28" s="20" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="E28" s="21" t="s">
         <v>52</v>
@@ -2420,7 +2404,7 @@
         <v>49</v>
       </c>
       <c r="B31" s="20" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="C31" s="4" t="s">
         <v>107</v>
@@ -2445,7 +2429,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="32" spans="1:12" ht="138" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:12" ht="124.2" x14ac:dyDescent="0.3">
       <c r="A32" s="4" t="s">
         <v>49</v>
       </c>
@@ -2456,13 +2440,13 @@
         <v>55</v>
       </c>
       <c r="D32" s="20" t="s">
-        <v>250</v>
+        <v>267</v>
       </c>
       <c r="E32" s="21" t="s">
         <v>52</v>
       </c>
       <c r="F32" s="22" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="I32" s="4" t="s">
         <v>0</v>
@@ -2523,7 +2507,7 @@
         <v>118</v>
       </c>
       <c r="E34" s="21" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="I34" s="4" t="s">
         <v>81</v>
@@ -2543,13 +2527,13 @@
         <v>28</v>
       </c>
       <c r="B35" s="20" t="s">
-        <v>254</v>
+        <v>268</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D35" s="20" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="E35" s="21" t="s">
         <v>52</v>
@@ -2564,7 +2548,7 @@
         <v>11</v>
       </c>
       <c r="L35" s="4" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.3">
@@ -2850,7 +2834,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:12" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A45" s="4" t="s">
         <v>49</v>
       </c>
@@ -2858,15 +2842,22 @@
         <v>142</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="D45" s="26"/>
+        <v>88</v>
+      </c>
+      <c r="D45" s="23" t="s">
+        <v>143</v>
+      </c>
       <c r="E45" s="24" t="s">
         <v>52</v>
       </c>
-      <c r="F45" s="25"/>
+      <c r="F45" s="25" t="s">
+        <v>144</v>
+      </c>
+      <c r="H45" s="4" t="s">
+        <v>58</v>
+      </c>
       <c r="I45" s="4" t="s">
-        <v>81</v>
+        <v>0</v>
       </c>
       <c r="J45" s="4">
         <v>2023</v>
@@ -2875,7 +2866,7 @@
         <v>12</v>
       </c>
       <c r="L45" s="4" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="46" spans="1:12" ht="27.6" x14ac:dyDescent="0.3">
@@ -2883,22 +2874,22 @@
         <v>49</v>
       </c>
       <c r="B46" s="8" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C46" s="4" t="s">
         <v>88</v>
       </c>
       <c r="D46" s="23" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E46" s="24" t="s">
         <v>52</v>
       </c>
       <c r="F46" s="25" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="H46" s="4" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="I46" s="4" t="s">
         <v>0</v>
@@ -2910,31 +2901,26 @@
         <v>12</v>
       </c>
       <c r="L46" s="4" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" ht="61.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B47" s="8" t="s">
+        <v>269</v>
+      </c>
+      <c r="C47" s="4" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="47" spans="1:12" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A47" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="B47" s="8" t="s">
-        <v>144</v>
-      </c>
-      <c r="C47" s="4" t="s">
-        <v>88</v>
-      </c>
       <c r="D47" s="23" t="s">
-        <v>145</v>
+        <v>251</v>
       </c>
       <c r="E47" s="24" t="s">
         <v>52</v>
       </c>
-      <c r="F47" s="25" t="s">
-        <v>146</v>
-      </c>
-      <c r="H47" s="4" t="s">
-        <v>63</v>
-      </c>
+      <c r="F47" s="25"/>
       <c r="I47" s="4" t="s">
         <v>0</v>
       </c>
@@ -2942,29 +2928,31 @@
         <v>2023</v>
       </c>
       <c r="K47" s="4">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L47" s="4" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="48" spans="1:12" ht="61.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:12" ht="72" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="4" t="s">
         <v>28</v>
       </c>
       <c r="B48" s="8" t="s">
-        <v>256</v>
+        <v>149</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>149</v>
+        <v>55</v>
       </c>
       <c r="D48" s="23" t="s">
-        <v>255</v>
+        <v>150</v>
       </c>
       <c r="E48" s="24" t="s">
         <v>52</v>
       </c>
-      <c r="F48" s="25"/>
+      <c r="F48" s="25" t="s">
+        <v>151</v>
+      </c>
       <c r="I48" s="4" t="s">
         <v>0</v>
       </c>
@@ -2975,28 +2963,26 @@
         <v>13</v>
       </c>
       <c r="L48" s="4" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="49" spans="1:12" ht="72" customHeight="1" x14ac:dyDescent="0.3">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A49" s="4" t="s">
         <v>28</v>
       </c>
       <c r="B49" s="8" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="D49" s="23" t="s">
-        <v>152</v>
-      </c>
-      <c r="E49" s="24" t="s">
-        <v>52</v>
-      </c>
-      <c r="F49" s="25" t="s">
-        <v>153</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="D49" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="E49" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="F49" s="10"/>
       <c r="I49" s="4" t="s">
         <v>0</v>
       </c>
@@ -3007,21 +2993,21 @@
         <v>13</v>
       </c>
       <c r="L49" s="4" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.3">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A50" s="4" t="s">
         <v>28</v>
       </c>
       <c r="B50" s="8" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C50" s="4" t="s">
         <v>30</v>
       </c>
       <c r="D50" s="8" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="E50" s="9" t="s">
         <v>52</v>
@@ -3037,21 +3023,21 @@
         <v>13</v>
       </c>
       <c r="L50" s="4" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="51" spans="1:12" ht="27.6" x14ac:dyDescent="0.3">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A51" s="4" t="s">
         <v>28</v>
       </c>
       <c r="B51" s="8" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C51" s="4" t="s">
         <v>30</v>
       </c>
       <c r="D51" s="8" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="E51" s="9" t="s">
         <v>52</v>
@@ -3067,7 +3053,7 @@
         <v>13</v>
       </c>
       <c r="L51" s="4" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.3">
@@ -3075,13 +3061,13 @@
         <v>28</v>
       </c>
       <c r="B52" s="8" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C52" s="4" t="s">
         <v>30</v>
       </c>
       <c r="D52" s="8" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E52" s="9" t="s">
         <v>52</v>
@@ -3097,26 +3083,31 @@
         <v>13</v>
       </c>
       <c r="L52" s="4" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.3">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A53" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B53" s="8" t="s">
-        <v>164</v>
+      <c r="B53" s="15" t="s">
+        <v>165</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>30</v>
+        <v>88</v>
       </c>
       <c r="D53" s="8" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E53" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="F53" s="10"/>
+      <c r="F53" s="10" t="s">
+        <v>167</v>
+      </c>
+      <c r="H53" s="4" t="s">
+        <v>63</v>
+      </c>
       <c r="I53" s="4" t="s">
         <v>0</v>
       </c>
@@ -3127,33 +3118,27 @@
         <v>13</v>
       </c>
       <c r="L53" s="4" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="54" spans="1:12" ht="41.4" x14ac:dyDescent="0.3">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A54" s="4" t="s">
         <v>28</v>
       </c>
       <c r="B54" s="15" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="D54" s="8" t="s">
-        <v>168</v>
-      </c>
-      <c r="E54" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="F54" s="10" t="s">
-        <v>169</v>
-      </c>
-      <c r="H54" s="4" t="s">
-        <v>63</v>
+        <v>107</v>
+      </c>
+      <c r="D54" s="20" t="s">
+        <v>170</v>
+      </c>
+      <c r="E54" s="21" t="s">
+        <v>259</v>
       </c>
       <c r="I54" s="4" t="s">
-        <v>0</v>
+        <v>81</v>
       </c>
       <c r="J54" s="4">
         <v>2023</v>
@@ -3162,85 +3147,92 @@
         <v>13</v>
       </c>
       <c r="L54" s="4" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.3">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A55" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B55" s="15" t="s">
-        <v>171</v>
+      <c r="B55" s="8" t="s">
+        <v>270</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="D55" s="20" t="s">
-        <v>172</v>
-      </c>
-      <c r="E55" s="21" t="s">
-        <v>266</v>
-      </c>
+        <v>147</v>
+      </c>
+      <c r="D55" s="23" t="s">
+        <v>173</v>
+      </c>
+      <c r="E55" s="24" t="s">
+        <v>52</v>
+      </c>
+      <c r="F55" s="25"/>
       <c r="I55" s="4" t="s">
-        <v>81</v>
+        <v>0</v>
       </c>
       <c r="J55" s="4">
         <v>2023</v>
       </c>
       <c r="K55" s="4">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="L55" s="4" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="56" spans="1:12" ht="27.6" x14ac:dyDescent="0.3">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" ht="61.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="4" t="s">
         <v>28</v>
       </c>
       <c r="B56" s="8" t="s">
-        <v>260</v>
+        <v>271</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D56" s="23" t="s">
-        <v>175</v>
+        <v>255</v>
       </c>
       <c r="E56" s="24" t="s">
         <v>52</v>
       </c>
       <c r="F56" s="25"/>
       <c r="I56" s="4" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J56" s="4">
         <v>2023</v>
       </c>
       <c r="K56" s="4">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="L56" s="4" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="57" spans="1:12" ht="61.8" customHeight="1" x14ac:dyDescent="0.3">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A57" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B57" s="8" t="s">
-        <v>261</v>
+      <c r="B57" s="15" t="s">
+        <v>172</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="D57" s="23" t="s">
-        <v>262</v>
-      </c>
-      <c r="E57" s="24" t="s">
-        <v>52</v>
-      </c>
-      <c r="F57" s="25"/>
+        <v>61</v>
+      </c>
+      <c r="D57" s="15" t="s">
+        <v>173</v>
+      </c>
+      <c r="E57" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="F57" s="16"/>
+      <c r="G57" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="H57" s="4" t="s">
+        <v>58</v>
+      </c>
       <c r="I57" s="4" t="s">
         <v>0</v>
       </c>
@@ -3248,34 +3240,30 @@
         <v>2023</v>
       </c>
       <c r="K57" s="4">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="L57" s="4" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.3">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" ht="69" x14ac:dyDescent="0.3">
       <c r="A58" s="4" t="s">
         <v>28</v>
       </c>
       <c r="B58" s="15" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="D58" s="15" t="s">
-        <v>175</v>
-      </c>
-      <c r="E58" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="F58" s="16"/>
-      <c r="G58" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="H58" s="4" t="s">
-        <v>58</v>
+        <v>176</v>
+      </c>
+      <c r="E58" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="F58" s="16" t="s">
+        <v>177</v>
       </c>
       <c r="I58" s="4" t="s">
         <v>0</v>
@@ -3287,154 +3275,154 @@
         <v>14</v>
       </c>
       <c r="L58" s="4" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="59" spans="1:12" ht="69" x14ac:dyDescent="0.3">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A59" s="4" t="s">
         <v>28</v>
       </c>
       <c r="B59" s="15" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>55</v>
+        <v>79</v>
       </c>
       <c r="D59" s="15" t="s">
-        <v>178</v>
-      </c>
-      <c r="E59" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="F59" s="16" t="s">
-        <v>179</v>
-      </c>
+        <v>180</v>
+      </c>
+      <c r="E59" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="F59" s="16"/>
       <c r="I59" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="J59" s="4">
-        <v>2023</v>
+        <v>81</v>
+      </c>
+      <c r="J59" s="4" t="s">
+        <v>82</v>
       </c>
       <c r="K59" s="4">
         <v>14</v>
       </c>
       <c r="L59" s="4" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.3">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A60" s="4" t="s">
         <v>28</v>
       </c>
       <c r="B60" s="15" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="D60" s="15" t="s">
-        <v>182</v>
-      </c>
-      <c r="E60" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="F60" s="16"/>
+        <v>88</v>
+      </c>
+      <c r="D60" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="E60" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="F60" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="H60" s="4" t="s">
+        <v>63</v>
+      </c>
       <c r="I60" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="J60" s="4" t="s">
-        <v>82</v>
+        <v>0</v>
+      </c>
+      <c r="J60" s="4">
+        <v>2023</v>
       </c>
       <c r="K60" s="4">
         <v>14</v>
       </c>
       <c r="L60" s="4" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="61" spans="1:12" ht="41.4" x14ac:dyDescent="0.3">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A61" s="4" t="s">
         <v>28</v>
       </c>
       <c r="B61" s="15" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="D61" s="8" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="E61" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="F61" s="10" t="s">
-        <v>186</v>
-      </c>
-      <c r="H61" s="4" t="s">
-        <v>63</v>
-      </c>
+      <c r="F61" s="10"/>
       <c r="I61" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="J61" s="4">
-        <v>2023</v>
+        <v>81</v>
+      </c>
+      <c r="J61" s="4" t="s">
+        <v>82</v>
       </c>
       <c r="K61" s="4">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="L61" s="4" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.3">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A62" s="4" t="s">
         <v>28</v>
       </c>
       <c r="B62" s="15" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="D62" s="8" t="s">
-        <v>189</v>
-      </c>
-      <c r="E62" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="F62" s="10"/>
+        <v>55</v>
+      </c>
+      <c r="D62" s="15" t="s">
+        <v>190</v>
+      </c>
+      <c r="E62" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="F62" s="16" t="s">
+        <v>191</v>
+      </c>
       <c r="I62" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="J62" s="4" t="s">
-        <v>82</v>
+        <v>0</v>
+      </c>
+      <c r="J62" s="4">
+        <v>2023</v>
       </c>
       <c r="K62" s="4">
         <v>15</v>
       </c>
       <c r="L62" s="4" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="63" spans="1:12" ht="27.6" x14ac:dyDescent="0.3">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" ht="96.6" x14ac:dyDescent="0.3">
       <c r="A63" s="4" t="s">
         <v>28</v>
       </c>
       <c r="B63" s="15" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>55</v>
+        <v>194</v>
       </c>
       <c r="D63" s="15" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="E63" s="16" t="s">
         <v>52</v>
       </c>
       <c r="F63" s="16" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="I63" s="4" t="s">
         <v>0</v>
@@ -3446,27 +3434,30 @@
         <v>15</v>
       </c>
       <c r="L63" s="4" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="64" spans="1:12" ht="96.6" x14ac:dyDescent="0.3">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A64" s="4" t="s">
         <v>28</v>
       </c>
       <c r="B64" s="15" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>196</v>
+        <v>88</v>
       </c>
       <c r="D64" s="15" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="E64" s="16" t="s">
         <v>52</v>
       </c>
       <c r="F64" s="16" t="s">
-        <v>198</v>
+        <v>200</v>
+      </c>
+      <c r="H64" s="4" t="s">
+        <v>63</v>
       </c>
       <c r="I64" s="4" t="s">
         <v>0</v>
@@ -3478,31 +3469,26 @@
         <v>15</v>
       </c>
       <c r="L64" s="4" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="65" spans="1:12" ht="41.4" x14ac:dyDescent="0.3">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A65" s="4" t="s">
         <v>28</v>
       </c>
       <c r="B65" s="15" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>88</v>
+        <v>30</v>
       </c>
       <c r="D65" s="15" t="s">
-        <v>201</v>
-      </c>
-      <c r="E65" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="F65" s="16" t="s">
-        <v>202</v>
-      </c>
-      <c r="H65" s="4" t="s">
-        <v>63</v>
-      </c>
+        <v>203</v>
+      </c>
+      <c r="E65" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="F65" s="16"/>
       <c r="I65" s="4" t="s">
         <v>0</v>
       </c>
@@ -3510,10 +3496,10 @@
         <v>2023</v>
       </c>
       <c r="K65" s="4">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="L65" s="4" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.3">
@@ -3521,20 +3507,20 @@
         <v>28</v>
       </c>
       <c r="B66" s="15" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C66" s="4" t="s">
         <v>30</v>
       </c>
       <c r="D66" s="15" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="E66" s="17" t="s">
         <v>52</v>
       </c>
       <c r="F66" s="16"/>
       <c r="I66" s="4" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J66" s="4">
         <v>2023</v>
@@ -3543,7 +3529,7 @@
         <v>16</v>
       </c>
       <c r="L66" s="4" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.3">
@@ -3551,20 +3537,20 @@
         <v>28</v>
       </c>
       <c r="B67" s="15" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="C67" s="4" t="s">
         <v>30</v>
       </c>
       <c r="D67" s="15" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="E67" s="17" t="s">
         <v>52</v>
       </c>
       <c r="F67" s="16"/>
       <c r="I67" s="4" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J67" s="4">
         <v>2023</v>
@@ -3573,7 +3559,7 @@
         <v>16</v>
       </c>
       <c r="L67" s="4" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.3">
@@ -3581,20 +3567,20 @@
         <v>28</v>
       </c>
       <c r="B68" s="15" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C68" s="4" t="s">
         <v>30</v>
       </c>
       <c r="D68" s="15" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="E68" s="17" t="s">
         <v>52</v>
       </c>
       <c r="F68" s="16"/>
       <c r="I68" s="4" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J68" s="4">
         <v>2023</v>
@@ -3603,7 +3589,7 @@
         <v>16</v>
       </c>
       <c r="L68" s="4" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.3">
@@ -3611,83 +3597,83 @@
         <v>28</v>
       </c>
       <c r="B69" s="15" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>30</v>
+        <v>79</v>
       </c>
       <c r="D69" s="15" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="E69" s="17" t="s">
         <v>52</v>
       </c>
       <c r="F69" s="16"/>
       <c r="I69" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="J69" s="4">
-        <v>2023</v>
+        <v>81</v>
+      </c>
+      <c r="J69" s="4" t="s">
+        <v>82</v>
       </c>
       <c r="K69" s="4">
         <v>16</v>
       </c>
       <c r="L69" s="4" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.3">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A70" s="4" t="s">
         <v>28</v>
       </c>
       <c r="B70" s="15" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="D70" s="15" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="E70" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="F70" s="16"/>
+      <c r="F70" s="16" t="s">
+        <v>215</v>
+      </c>
+      <c r="H70" s="4" t="s">
+        <v>63</v>
+      </c>
       <c r="I70" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="J70" s="4" t="s">
-        <v>82</v>
+        <v>0</v>
+      </c>
+      <c r="J70" s="4">
+        <v>2023</v>
       </c>
       <c r="K70" s="4">
         <v>16</v>
       </c>
       <c r="L70" s="4" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="71" spans="1:12" ht="41.4" x14ac:dyDescent="0.3">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A71" s="4" t="s">
         <v>28</v>
       </c>
       <c r="B71" s="15" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>88</v>
+        <v>30</v>
       </c>
       <c r="D71" s="15" t="s">
-        <v>216</v>
-      </c>
-      <c r="E71" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="F71" s="16" t="s">
-        <v>217</v>
-      </c>
-      <c r="H71" s="4" t="s">
-        <v>63</v>
-      </c>
+        <v>218</v>
+      </c>
+      <c r="E71" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="F71" s="16"/>
       <c r="I71" s="4" t="s">
         <v>0</v>
       </c>
@@ -3698,7 +3684,7 @@
         <v>16</v>
       </c>
       <c r="L71" s="4" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.3">
@@ -3706,20 +3692,20 @@
         <v>28</v>
       </c>
       <c r="B72" s="15" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C72" s="4" t="s">
         <v>30</v>
       </c>
       <c r="D72" s="15" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="E72" s="16" t="s">
         <v>52</v>
       </c>
       <c r="F72" s="16"/>
       <c r="I72" s="4" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J72" s="4">
         <v>2023</v>
@@ -3728,7 +3714,7 @@
         <v>16</v>
       </c>
       <c r="L72" s="4" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.3">
@@ -3736,29 +3722,29 @@
         <v>28</v>
       </c>
       <c r="B73" s="15" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>30</v>
+        <v>61</v>
       </c>
       <c r="D73" s="15" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="E73" s="16" t="s">
         <v>52</v>
       </c>
       <c r="F73" s="16"/>
       <c r="I73" s="4" t="s">
-        <v>2</v>
+        <v>81</v>
       </c>
       <c r="J73" s="4">
         <v>2023</v>
       </c>
       <c r="K73" s="4">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="L73" s="4" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.3">
@@ -3766,29 +3752,29 @@
         <v>28</v>
       </c>
       <c r="B74" s="15" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>79</v>
+        <v>30</v>
       </c>
       <c r="D74" s="15" t="s">
-        <v>224</v>
-      </c>
-      <c r="E74" s="16" t="s">
+        <v>225</v>
+      </c>
+      <c r="E74" s="17" t="s">
         <v>52</v>
       </c>
       <c r="F74" s="16"/>
       <c r="I74" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="J74" s="4" t="s">
-        <v>82</v>
+        <v>0</v>
+      </c>
+      <c r="J74" s="4">
+        <v>2023</v>
       </c>
       <c r="K74" s="4">
         <v>17</v>
       </c>
       <c r="L74" s="4" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.3">
@@ -3796,20 +3782,20 @@
         <v>28</v>
       </c>
       <c r="B75" s="15" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C75" s="4" t="s">
         <v>30</v>
       </c>
       <c r="D75" s="15" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="E75" s="17" t="s">
         <v>52</v>
       </c>
       <c r="F75" s="16"/>
       <c r="I75" s="4" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J75" s="4">
         <v>2023</v>
@@ -3818,7 +3804,7 @@
         <v>17</v>
       </c>
       <c r="L75" s="4" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.3">
@@ -3826,20 +3812,20 @@
         <v>28</v>
       </c>
       <c r="B76" s="15" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="C76" s="4" t="s">
         <v>30</v>
       </c>
       <c r="D76" s="15" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="E76" s="17" t="s">
         <v>52</v>
       </c>
       <c r="F76" s="16"/>
       <c r="I76" s="4" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J76" s="4">
         <v>2023</v>
@@ -3848,7 +3834,7 @@
         <v>17</v>
       </c>
       <c r="L76" s="4" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.3">
@@ -3856,20 +3842,20 @@
         <v>28</v>
       </c>
       <c r="B77" s="15" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C77" s="4" t="s">
         <v>30</v>
       </c>
       <c r="D77" s="15" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="E77" s="17" t="s">
         <v>52</v>
       </c>
       <c r="F77" s="16"/>
       <c r="I77" s="4" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J77" s="4">
         <v>2023</v>
@@ -3878,7 +3864,7 @@
         <v>17</v>
       </c>
       <c r="L77" s="4" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.3">
@@ -3886,20 +3872,20 @@
         <v>28</v>
       </c>
       <c r="B78" s="15" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="C78" s="4" t="s">
         <v>30</v>
       </c>
       <c r="D78" s="15" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="E78" s="17" t="s">
         <v>52</v>
       </c>
       <c r="F78" s="16"/>
       <c r="I78" s="4" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J78" s="4">
         <v>2023</v>
@@ -3908,7 +3894,7 @@
         <v>17</v>
       </c>
       <c r="L78" s="4" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.3">
@@ -3916,20 +3902,20 @@
         <v>28</v>
       </c>
       <c r="B79" s="15" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C79" s="4" t="s">
         <v>30</v>
       </c>
       <c r="D79" s="15" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="E79" s="17" t="s">
         <v>52</v>
       </c>
       <c r="F79" s="16"/>
       <c r="I79" s="4" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J79" s="4">
         <v>2023</v>
@@ -3938,28 +3924,33 @@
         <v>17</v>
       </c>
       <c r="L79" s="4" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="A80" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B80" s="15" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A80" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="B80" s="15" t="s">
-        <v>234</v>
-      </c>
       <c r="C80" s="4" t="s">
-        <v>30</v>
+        <v>88</v>
       </c>
       <c r="D80" s="15" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="E80" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="F80" s="16"/>
+      <c r="F80" s="16" t="s">
+        <v>238</v>
+      </c>
+      <c r="H80" s="4" t="s">
+        <v>63</v>
+      </c>
       <c r="I80" s="4" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J80" s="4">
         <v>2023</v>
@@ -3968,31 +3959,26 @@
         <v>17</v>
       </c>
       <c r="L80" s="4" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="81" spans="1:12" ht="41.4" x14ac:dyDescent="0.3">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A81" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="B81" s="15" t="s">
-        <v>238</v>
+        <v>49</v>
+      </c>
+      <c r="B81" s="23" t="s">
+        <v>263</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="D81" s="15" t="s">
-        <v>239</v>
-      </c>
-      <c r="E81" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="F81" s="16" t="s">
-        <v>240</v>
-      </c>
-      <c r="H81" s="4" t="s">
-        <v>63</v>
-      </c>
+        <v>107</v>
+      </c>
+      <c r="D81" s="26" t="s">
+        <v>262</v>
+      </c>
+      <c r="E81" s="21" t="s">
+        <v>109</v>
+      </c>
+      <c r="F81" s="25"/>
       <c r="I81" s="4" t="s">
         <v>0</v>
       </c>
@@ -4000,10 +3986,10 @@
         <v>2023</v>
       </c>
       <c r="K81" s="4">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="L81" s="4" t="s">
-        <v>241</v>
+        <v>264</v>
       </c>
     </row>
     <row r="82" spans="1:12" x14ac:dyDescent="0.3">
@@ -4011,13 +3997,13 @@
         <v>49</v>
       </c>
       <c r="B82" s="23" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="C82" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="D82" s="27" t="s">
-        <v>269</v>
+      <c r="D82" s="26" t="s">
+        <v>261</v>
       </c>
       <c r="E82" s="21" t="s">
         <v>109</v>
@@ -4033,38 +4019,14 @@
         <v>18</v>
       </c>
       <c r="L82" s="4" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
     </row>
     <row r="83" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A83" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="B83" s="23" t="s">
-        <v>273</v>
-      </c>
-      <c r="C83" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="D83" s="27" t="s">
-        <v>268</v>
-      </c>
-      <c r="E83" s="21" t="s">
-        <v>109</v>
-      </c>
+      <c r="B83" s="23"/>
+      <c r="D83" s="23"/>
+      <c r="E83" s="24"/>
       <c r="F83" s="25"/>
-      <c r="I83" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="J83" s="4">
-        <v>2023</v>
-      </c>
-      <c r="K83" s="4">
-        <v>18</v>
-      </c>
-      <c r="L83" s="4" t="s">
-        <v>272</v>
-      </c>
     </row>
     <row r="84" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B84" s="23"/>
@@ -4319,10 +4281,10 @@
       <c r="F125" s="25"/>
     </row>
     <row r="126" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B126" s="23"/>
-      <c r="D126" s="23"/>
-      <c r="E126" s="24"/>
-      <c r="F126" s="25"/>
+      <c r="B126" s="8"/>
+      <c r="D126" s="8"/>
+      <c r="E126" s="9"/>
+      <c r="F126" s="10"/>
     </row>
     <row r="127" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B127" s="8"/>
@@ -4354,11 +4316,11 @@
       <c r="E131" s="9"/>
       <c r="F131" s="10"/>
     </row>
-    <row r="132" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B132" s="8"/>
-      <c r="D132" s="8"/>
-      <c r="E132" s="9"/>
-      <c r="F132" s="10"/>
+    <row r="136" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B136" s="15"/>
+      <c r="D136" s="15"/>
+      <c r="E136" s="17"/>
+      <c r="F136" s="16"/>
     </row>
     <row r="137" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B137" s="15"/>
@@ -4403,10 +4365,10 @@
       <c r="F143" s="16"/>
     </row>
     <row r="144" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B144" s="15"/>
-      <c r="D144" s="15"/>
-      <c r="E144" s="17"/>
-      <c r="F144" s="16"/>
+      <c r="B144" s="8"/>
+      <c r="D144" s="8"/>
+      <c r="E144" s="9"/>
+      <c r="F144" s="10"/>
     </row>
     <row r="145" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B145" s="8"/>
@@ -4421,7 +4383,6 @@
       <c r="F146" s="10"/>
     </row>
     <row r="147" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B147" s="8"/>
       <c r="D147" s="8"/>
       <c r="E147" s="9"/>
       <c r="F147" s="10"/>
@@ -4432,60 +4393,61 @@
       <c r="F148" s="10"/>
     </row>
     <row r="149" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="D149" s="8"/>
-      <c r="E149" s="9"/>
-      <c r="F149" s="10"/>
+      <c r="D149" s="27"/>
+      <c r="E149" s="28"/>
+      <c r="F149" s="29"/>
     </row>
     <row r="150" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="D150" s="28"/>
-      <c r="E150" s="29"/>
-      <c r="F150" s="30"/>
+      <c r="D150" s="27"/>
+      <c r="E150" s="28"/>
+      <c r="F150" s="29"/>
     </row>
     <row r="151" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="D151" s="28"/>
-      <c r="E151" s="29"/>
-      <c r="F151" s="30"/>
+      <c r="D151" s="27"/>
+      <c r="E151" s="28"/>
+      <c r="F151" s="29"/>
     </row>
     <row r="152" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="D152" s="28"/>
-      <c r="E152" s="29"/>
-      <c r="F152" s="30"/>
+      <c r="D152" s="27"/>
+      <c r="E152" s="28"/>
+      <c r="F152" s="29"/>
     </row>
     <row r="153" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="D153" s="28"/>
-      <c r="E153" s="29"/>
-      <c r="F153" s="30"/>
+      <c r="D153" s="27"/>
+      <c r="E153" s="28"/>
+      <c r="F153" s="29"/>
     </row>
     <row r="154" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="D154" s="28"/>
-      <c r="E154" s="29"/>
-      <c r="F154" s="30"/>
+      <c r="D154" s="27"/>
+      <c r="E154" s="28"/>
+      <c r="F154" s="29"/>
     </row>
     <row r="155" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="D155" s="28"/>
-      <c r="E155" s="29"/>
-      <c r="F155" s="30"/>
+      <c r="B155" s="27"/>
+      <c r="D155" s="27"/>
+      <c r="E155" s="28"/>
+      <c r="F155" s="29"/>
     </row>
     <row r="156" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B156" s="28"/>
-      <c r="D156" s="28"/>
-      <c r="E156" s="29"/>
-      <c r="F156" s="30"/>
+      <c r="B156" s="27"/>
+      <c r="D156" s="27"/>
+      <c r="E156" s="28"/>
+      <c r="F156" s="29"/>
     </row>
     <row r="157" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B157" s="28"/>
-      <c r="D157" s="28"/>
-      <c r="E157" s="29"/>
-      <c r="F157" s="30"/>
+      <c r="B157" s="27"/>
+      <c r="D157" s="27"/>
+      <c r="E157" s="28"/>
+      <c r="F157" s="29"/>
     </row>
     <row r="158" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B158" s="28"/>
-      <c r="D158" s="28"/>
-      <c r="E158" s="29"/>
-      <c r="F158" s="30"/>
+      <c r="B158" s="27"/>
     </row>
     <row r="159" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B159" s="28"/>
+      <c r="B159" s="15"/>
+      <c r="D159" s="15"/>
+      <c r="E159" s="17"/>
+      <c r="F159" s="16"/>
     </row>
     <row r="160" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B160" s="15"/>
@@ -4566,10 +4528,10 @@
       <c r="F172" s="16"/>
     </row>
     <row r="173" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B173" s="15"/>
-      <c r="D173" s="15"/>
-      <c r="E173" s="17"/>
-      <c r="F173" s="16"/>
+      <c r="B173" s="8"/>
+      <c r="D173" s="8"/>
+      <c r="E173" s="9"/>
+      <c r="F173" s="10"/>
     </row>
     <row r="174" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B174" s="8"/>
@@ -4661,14 +4623,8 @@
       <c r="E188" s="9"/>
       <c r="F188" s="10"/>
     </row>
-    <row r="189" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B189" s="8"/>
-      <c r="D189" s="8"/>
-      <c r="E189" s="9"/>
-      <c r="F189" s="10"/>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:L189" xr:uid="{73A75041-D6C8-4C2F-941F-420EA079C5D1}"/>
+  <autoFilter ref="A1:L188" xr:uid="{73A75041-D6C8-4C2F-941F-420EA079C5D1}"/>
   <phoneticPr fontId="4" type="noConversion"/>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I1:I1048576" xr:uid="{E89AD40E-DE52-4053-84BA-AF9396D00B95}">
@@ -4678,7 +4634,7 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="E41:E45 E74:E75 E77 E81 E50 E58:E63 E13:E30 E33 E5:E9 E11 E65 E36:E39 E54" numberStoredAsText="1"/>
+    <ignoredError sqref="E13:E30 E33 E5:E9 E11 E53 E36:E39 E64 E57:E62 E49 E80 E76 E73:E74 E41:E44 E35 E45:E48 E75 E77:E79 E81:E82 E50:E52 E63 E65:E72 E40 E54:E56" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -4794,11 +4750,11 @@
         <v>26</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="E4" s="6"/>
       <c r="F4" s="6" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="I4" s="4" t="s">
         <v>0</v>
@@ -5063,7 +5019,7 @@
       <c r="C13" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="D13" s="32" t="s">
+      <c r="D13" s="31" t="s">
         <v>51</v>
       </c>
       <c r="E13" s="9" t="s">
@@ -5093,7 +5049,7 @@
       <c r="C14" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="D14" s="34" t="s">
+      <c r="D14" s="33" t="s">
         <v>56</v>
       </c>
       <c r="E14" s="6" t="s">
@@ -5272,7 +5228,7 @@
       <c r="C19" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="D19" s="32" t="s">
+      <c r="D19" s="31" t="s">
         <v>75</v>
       </c>
       <c r="E19" s="10" t="s">
@@ -5432,7 +5388,7 @@
         <v>28</v>
       </c>
       <c r="B24" s="20" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="C24" s="4" t="s">
         <v>30</v>
@@ -5461,7 +5417,7 @@
         <v>28</v>
       </c>
       <c r="B25" s="20" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="C25" s="4" t="s">
         <v>30</v>
@@ -5525,7 +5481,7 @@
         <v>30</v>
       </c>
       <c r="D27" s="20" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="E27" s="21" t="s">
         <v>52</v>
@@ -5554,7 +5510,7 @@
         <v>30</v>
       </c>
       <c r="D28" s="20" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="E28" s="21" t="s">
         <v>52</v>
@@ -5647,7 +5603,7 @@
         <v>49</v>
       </c>
       <c r="B31" s="20" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="C31" s="4" t="s">
         <v>107</v>
@@ -5718,7 +5674,7 @@
         <v>118</v>
       </c>
       <c r="E33" s="21" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="I33" s="4" t="s">
         <v>81</v>
@@ -5738,15 +5694,17 @@
         <v>28</v>
       </c>
       <c r="B34" s="20" t="s">
-        <v>254</v>
+        <v>268</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D34" s="20" t="s">
-        <v>253</v>
-      </c>
-      <c r="E34" s="24"/>
+        <v>250</v>
+      </c>
+      <c r="E34" s="24" t="s">
+        <v>52</v>
+      </c>
       <c r="I34" s="4" t="s">
         <v>0</v>
       </c>
@@ -5757,7 +5715,7 @@
         <v>11</v>
       </c>
       <c r="L34" s="4" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.3">
@@ -6048,19 +6006,19 @@
         <v>49</v>
       </c>
       <c r="B44" s="8" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C44" s="4" t="s">
         <v>88</v>
       </c>
       <c r="D44" s="23" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E44" s="24" t="s">
         <v>52</v>
       </c>
       <c r="F44" s="25" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="H44" s="4" t="s">
         <v>58</v>
@@ -6075,7 +6033,7 @@
         <v>12</v>
       </c>
       <c r="L44" s="4" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="45" spans="1:12" ht="27.6" x14ac:dyDescent="0.3">
@@ -6083,19 +6041,19 @@
         <v>49</v>
       </c>
       <c r="B45" s="8" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C45" s="4" t="s">
         <v>88</v>
       </c>
       <c r="D45" s="23" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E45" s="24" t="s">
         <v>52</v>
       </c>
       <c r="F45" s="25" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="H45" s="4" t="s">
         <v>63</v>
@@ -6110,7 +6068,7 @@
         <v>12</v>
       </c>
       <c r="L45" s="4" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="46" spans="1:12" ht="61.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -6118,13 +6076,13 @@
         <v>28</v>
       </c>
       <c r="B46" s="8" t="s">
-        <v>256</v>
+        <v>269</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D46" s="23" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="E46" s="24" t="s">
         <v>52</v>
@@ -6140,7 +6098,7 @@
         <v>13</v>
       </c>
       <c r="L46" s="4" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="47" spans="1:12" ht="72" customHeight="1" x14ac:dyDescent="0.3">
@@ -6148,19 +6106,19 @@
         <v>28</v>
       </c>
       <c r="B47" s="8" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C47" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="D47" s="31" t="s">
-        <v>242</v>
+      <c r="D47" s="30" t="s">
+        <v>240</v>
       </c>
       <c r="E47" s="24" t="s">
         <v>52</v>
       </c>
       <c r="F47" s="25" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="I47" s="4" t="s">
         <v>0</v>
@@ -6172,7 +6130,7 @@
         <v>13</v>
       </c>
       <c r="L47" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.3">
@@ -6180,13 +6138,13 @@
         <v>28</v>
       </c>
       <c r="B48" s="8" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C48" s="4" t="s">
         <v>30</v>
       </c>
       <c r="D48" s="8" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="E48" s="9" t="s">
         <v>52</v>
@@ -6202,7 +6160,7 @@
         <v>13</v>
       </c>
       <c r="L48" s="4" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="49" spans="1:12" ht="27.6" x14ac:dyDescent="0.3">
@@ -6210,13 +6168,13 @@
         <v>28</v>
       </c>
       <c r="B49" s="8" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C49" s="4" t="s">
         <v>30</v>
       </c>
       <c r="D49" s="8" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E49" s="9" t="s">
         <v>52</v>
@@ -6232,7 +6190,7 @@
         <v>13</v>
       </c>
       <c r="L49" s="4" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.3">
@@ -6240,13 +6198,13 @@
         <v>28</v>
       </c>
       <c r="B50" s="8" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C50" s="4" t="s">
         <v>30</v>
       </c>
       <c r="D50" s="8" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="E50" s="9" t="s">
         <v>52</v>
@@ -6262,7 +6220,7 @@
         <v>13</v>
       </c>
       <c r="L50" s="4" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.3">
@@ -6270,13 +6228,13 @@
         <v>28</v>
       </c>
       <c r="B51" s="8" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C51" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="D51" s="32" t="s">
-        <v>243</v>
+      <c r="D51" s="31" t="s">
+        <v>241</v>
       </c>
       <c r="E51" s="9" t="s">
         <v>52</v>
@@ -6292,7 +6250,7 @@
         <v>13</v>
       </c>
       <c r="L51" s="4" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="52" spans="1:12" ht="41.4" x14ac:dyDescent="0.3">
@@ -6300,19 +6258,19 @@
         <v>28</v>
       </c>
       <c r="B52" s="15" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C52" s="4" t="s">
         <v>88</v>
       </c>
       <c r="D52" s="8" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="E52" s="9" t="s">
         <v>52</v>
       </c>
       <c r="F52" s="10" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="H52" s="4" t="s">
         <v>63</v>
@@ -6327,7 +6285,7 @@
         <v>13</v>
       </c>
       <c r="L52" s="4" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.3">
@@ -6335,16 +6293,16 @@
         <v>28</v>
       </c>
       <c r="B53" s="15" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C53" s="4" t="s">
         <v>107</v>
       </c>
       <c r="D53" s="20" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="E53" s="21" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="I53" s="4" t="s">
         <v>81</v>
@@ -6356,7 +6314,7 @@
         <v>13</v>
       </c>
       <c r="L53" s="4" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="54" spans="1:12" ht="27.6" x14ac:dyDescent="0.3">
@@ -6364,13 +6322,13 @@
         <v>28</v>
       </c>
       <c r="B54" s="8" t="s">
-        <v>260</v>
+        <v>270</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D54" s="23" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="E54" s="24" t="s">
         <v>52</v>
@@ -6386,7 +6344,7 @@
         <v>14</v>
       </c>
       <c r="L54" s="4" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
     </row>
     <row r="55" spans="1:12" ht="61.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -6394,13 +6352,13 @@
         <v>28</v>
       </c>
       <c r="B55" s="8" t="s">
-        <v>261</v>
+        <v>271</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D55" s="23" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="E55" s="24" t="s">
         <v>52</v>
@@ -6416,7 +6374,7 @@
         <v>14</v>
       </c>
       <c r="L55" s="4" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.3">
@@ -6424,13 +6382,13 @@
         <v>28</v>
       </c>
       <c r="B56" s="15" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C56" s="4" t="s">
         <v>61</v>
       </c>
       <c r="D56" s="15" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="E56" s="17" t="s">
         <v>52</v>
@@ -6452,7 +6410,7 @@
         <v>14</v>
       </c>
       <c r="L56" s="4" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="57" spans="1:12" ht="69" x14ac:dyDescent="0.3">
@@ -6460,19 +6418,19 @@
         <v>28</v>
       </c>
       <c r="B57" s="15" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C57" s="4" t="s">
         <v>55</v>
       </c>
       <c r="D57" s="15" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="E57" s="16" t="s">
         <v>52</v>
       </c>
       <c r="F57" s="16" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="I57" s="4" t="s">
         <v>0</v>
@@ -6484,7 +6442,7 @@
         <v>14</v>
       </c>
       <c r="L57" s="4" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.3">
@@ -6492,13 +6450,13 @@
         <v>28</v>
       </c>
       <c r="B58" s="15" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C58" s="4" t="s">
         <v>79</v>
       </c>
       <c r="D58" s="15" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E58" s="17" t="s">
         <v>52</v>
@@ -6514,7 +6472,7 @@
         <v>14</v>
       </c>
       <c r="L58" s="4" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="59" spans="1:12" ht="41.4" x14ac:dyDescent="0.3">
@@ -6522,19 +6480,19 @@
         <v>28</v>
       </c>
       <c r="B59" s="15" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C59" s="4" t="s">
         <v>88</v>
       </c>
       <c r="D59" s="8" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E59" s="9" t="s">
         <v>52</v>
       </c>
       <c r="F59" s="10" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="H59" s="4" t="s">
         <v>63</v>
@@ -6549,7 +6507,7 @@
         <v>14</v>
       </c>
       <c r="L59" s="4" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.3">
@@ -6557,13 +6515,13 @@
         <v>28</v>
       </c>
       <c r="B60" s="15" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C60" s="4" t="s">
         <v>79</v>
       </c>
       <c r="D60" s="8" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E60" s="9" t="s">
         <v>52</v>
@@ -6579,7 +6537,7 @@
         <v>15</v>
       </c>
       <c r="L60" s="4" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="61" spans="1:12" ht="27.6" x14ac:dyDescent="0.3">
@@ -6587,19 +6545,19 @@
         <v>28</v>
       </c>
       <c r="B61" s="15" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C61" s="4" t="s">
         <v>55</v>
       </c>
       <c r="D61" s="15" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="E61" s="16" t="s">
         <v>52</v>
       </c>
       <c r="F61" s="16" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="I61" s="4" t="s">
         <v>0</v>
@@ -6611,7 +6569,7 @@
         <v>15</v>
       </c>
       <c r="L61" s="4" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="62" spans="1:12" ht="96.6" x14ac:dyDescent="0.3">
@@ -6619,19 +6577,19 @@
         <v>28</v>
       </c>
       <c r="B62" s="15" t="s">
+        <v>193</v>
+      </c>
+      <c r="C62" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="D62" s="15" t="s">
         <v>195</v>
       </c>
-      <c r="C62" s="4" t="s">
+      <c r="E62" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="F62" s="16" t="s">
         <v>196</v>
-      </c>
-      <c r="D62" s="15" t="s">
-        <v>197</v>
-      </c>
-      <c r="E62" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="F62" s="16" t="s">
-        <v>198</v>
       </c>
       <c r="I62" s="4" t="s">
         <v>0</v>
@@ -6643,7 +6601,7 @@
         <v>15</v>
       </c>
       <c r="L62" s="4" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="63" spans="1:12" ht="41.4" x14ac:dyDescent="0.3">
@@ -6651,19 +6609,19 @@
         <v>28</v>
       </c>
       <c r="B63" s="15" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C63" s="4" t="s">
         <v>88</v>
       </c>
       <c r="D63" s="15" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="E63" s="16" t="s">
         <v>52</v>
       </c>
       <c r="F63" s="16" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="H63" s="4" t="s">
         <v>63</v>
@@ -6678,7 +6636,7 @@
         <v>15</v>
       </c>
       <c r="L63" s="4" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.3">
@@ -6686,13 +6644,13 @@
         <v>28</v>
       </c>
       <c r="B64" s="15" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C64" s="4" t="s">
         <v>30</v>
       </c>
       <c r="D64" s="15" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="E64" s="17" t="s">
         <v>52</v>
@@ -6708,7 +6666,7 @@
         <v>16</v>
       </c>
       <c r="L64" s="4" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.3">
@@ -6716,13 +6674,13 @@
         <v>28</v>
       </c>
       <c r="B65" s="15" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C65" s="4" t="s">
         <v>30</v>
       </c>
       <c r="D65" s="15" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="E65" s="17" t="s">
         <v>52</v>
@@ -6738,7 +6696,7 @@
         <v>16</v>
       </c>
       <c r="L65" s="4" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.3">
@@ -6746,13 +6704,13 @@
         <v>28</v>
       </c>
       <c r="B66" s="15" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C66" s="4" t="s">
         <v>30</v>
       </c>
       <c r="D66" s="15" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="E66" s="17" t="s">
         <v>52</v>
@@ -6768,7 +6726,7 @@
         <v>16</v>
       </c>
       <c r="L66" s="4" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.3">
@@ -6776,13 +6734,13 @@
         <v>28</v>
       </c>
       <c r="B67" s="15" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C67" s="4" t="s">
         <v>30</v>
       </c>
       <c r="D67" s="15" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="E67" s="17" t="s">
         <v>52</v>
@@ -6798,7 +6756,7 @@
         <v>16</v>
       </c>
       <c r="L67" s="4" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.3">
@@ -6806,13 +6764,13 @@
         <v>28</v>
       </c>
       <c r="B68" s="15" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C68" s="4" t="s">
         <v>79</v>
       </c>
       <c r="D68" s="15" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="E68" s="17" t="s">
         <v>52</v>
@@ -6828,7 +6786,7 @@
         <v>16</v>
       </c>
       <c r="L68" s="4" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="69" spans="1:12" ht="41.4" x14ac:dyDescent="0.3">
@@ -6836,19 +6794,19 @@
         <v>28</v>
       </c>
       <c r="B69" s="15" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C69" s="4" t="s">
         <v>88</v>
       </c>
       <c r="D69" s="15" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="E69" s="17" t="s">
         <v>52</v>
       </c>
       <c r="F69" s="16" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="H69" s="4" t="s">
         <v>63</v>
@@ -6863,7 +6821,7 @@
         <v>16</v>
       </c>
       <c r="L69" s="4" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.3">
@@ -6871,13 +6829,13 @@
         <v>28</v>
       </c>
       <c r="B70" s="15" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C70" s="4" t="s">
         <v>30</v>
       </c>
       <c r="D70" s="15" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="E70" s="16" t="s">
         <v>52</v>
@@ -6893,7 +6851,7 @@
         <v>16</v>
       </c>
       <c r="L70" s="4" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.3">
@@ -6901,13 +6859,13 @@
         <v>28</v>
       </c>
       <c r="B71" s="15" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C71" s="4" t="s">
         <v>30</v>
       </c>
       <c r="D71" s="15" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="E71" s="16" t="s">
         <v>52</v>
@@ -6923,7 +6881,7 @@
         <v>16</v>
       </c>
       <c r="L71" s="4" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.3">
@@ -6931,13 +6889,13 @@
         <v>28</v>
       </c>
       <c r="B72" s="15" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="C72" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="D72" s="33" t="s">
-        <v>244</v>
+      <c r="D72" s="32" t="s">
+        <v>242</v>
       </c>
       <c r="E72" s="16" t="s">
         <v>52</v>
@@ -6953,7 +6911,7 @@
         <v>17</v>
       </c>
       <c r="L72" s="4" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.3">
@@ -6961,13 +6919,13 @@
         <v>28</v>
       </c>
       <c r="B73" s="15" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C73" s="4" t="s">
         <v>30</v>
       </c>
       <c r="D73" s="15" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="E73" s="17" t="s">
         <v>52</v>
@@ -6983,7 +6941,7 @@
         <v>17</v>
       </c>
       <c r="L73" s="4" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.3">
@@ -6991,13 +6949,13 @@
         <v>28</v>
       </c>
       <c r="B74" s="15" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C74" s="4" t="s">
         <v>30</v>
       </c>
       <c r="D74" s="15" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="E74" s="17" t="s">
         <v>52</v>
@@ -7013,7 +6971,7 @@
         <v>17</v>
       </c>
       <c r="L74" s="4" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.3">
@@ -7021,13 +6979,13 @@
         <v>28</v>
       </c>
       <c r="B75" s="15" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C75" s="4" t="s">
         <v>30</v>
       </c>
       <c r="D75" s="15" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="E75" s="17" t="s">
         <v>52</v>
@@ -7043,7 +7001,7 @@
         <v>17</v>
       </c>
       <c r="L75" s="4" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.3">
@@ -7051,13 +7009,13 @@
         <v>28</v>
       </c>
       <c r="B76" s="15" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C76" s="4" t="s">
         <v>30</v>
       </c>
       <c r="D76" s="15" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="E76" s="17" t="s">
         <v>52</v>
@@ -7073,7 +7031,7 @@
         <v>17</v>
       </c>
       <c r="L76" s="4" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.3">
@@ -7081,13 +7039,13 @@
         <v>28</v>
       </c>
       <c r="B77" s="15" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C77" s="4" t="s">
         <v>30</v>
       </c>
       <c r="D77" s="15" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="E77" s="17" t="s">
         <v>52</v>
@@ -7103,7 +7061,7 @@
         <v>17</v>
       </c>
       <c r="L77" s="4" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.3">
@@ -7111,13 +7069,13 @@
         <v>28</v>
       </c>
       <c r="B78" s="15" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C78" s="4" t="s">
         <v>30</v>
       </c>
       <c r="D78" s="15" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="E78" s="17" t="s">
         <v>52</v>
@@ -7133,7 +7091,7 @@
         <v>17</v>
       </c>
       <c r="L78" s="4" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="79" spans="1:12" ht="41.4" x14ac:dyDescent="0.3">
@@ -7141,19 +7099,19 @@
         <v>28</v>
       </c>
       <c r="B79" s="15" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C79" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="D79" s="33" t="s">
-        <v>245</v>
+      <c r="D79" s="32" t="s">
+        <v>243</v>
       </c>
       <c r="E79" s="17" t="s">
         <v>52</v>
       </c>
       <c r="F79" s="16" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="H79" s="4" t="s">
         <v>63</v>
@@ -7168,7 +7126,7 @@
         <v>17</v>
       </c>
       <c r="L79" s="4" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.3">
@@ -7176,13 +7134,13 @@
         <v>49</v>
       </c>
       <c r="B80" s="23" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="C80" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="D80" s="27" t="s">
-        <v>269</v>
+      <c r="D80" s="26" t="s">
+        <v>262</v>
       </c>
       <c r="E80" s="21" t="s">
         <v>109</v>
@@ -7198,7 +7156,7 @@
         <v>18</v>
       </c>
       <c r="L80" s="4" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
     </row>
     <row r="81" spans="1:12" x14ac:dyDescent="0.3">
@@ -7206,13 +7164,13 @@
         <v>49</v>
       </c>
       <c r="B81" s="23" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="C81" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="D81" s="27" t="s">
-        <v>268</v>
+      <c r="D81" s="26" t="s">
+        <v>261</v>
       </c>
       <c r="E81" s="21" t="s">
         <v>109</v>
@@ -7228,7 +7186,7 @@
         <v>18</v>
       </c>
       <c r="L81" s="4" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
     </row>
     <row r="82" spans="1:12" x14ac:dyDescent="0.3">
@@ -7602,55 +7560,55 @@
       <c r="F147" s="10"/>
     </row>
     <row r="148" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="D148" s="28"/>
-      <c r="E148" s="29"/>
-      <c r="F148" s="30"/>
+      <c r="D148" s="27"/>
+      <c r="E148" s="28"/>
+      <c r="F148" s="29"/>
     </row>
     <row r="149" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="D149" s="28"/>
-      <c r="E149" s="29"/>
-      <c r="F149" s="30"/>
+      <c r="D149" s="27"/>
+      <c r="E149" s="28"/>
+      <c r="F149" s="29"/>
     </row>
     <row r="150" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="D150" s="28"/>
-      <c r="E150" s="29"/>
-      <c r="F150" s="30"/>
+      <c r="D150" s="27"/>
+      <c r="E150" s="28"/>
+      <c r="F150" s="29"/>
     </row>
     <row r="151" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="D151" s="28"/>
-      <c r="E151" s="29"/>
-      <c r="F151" s="30"/>
+      <c r="D151" s="27"/>
+      <c r="E151" s="28"/>
+      <c r="F151" s="29"/>
     </row>
     <row r="152" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="D152" s="28"/>
-      <c r="E152" s="29"/>
-      <c r="F152" s="30"/>
+      <c r="D152" s="27"/>
+      <c r="E152" s="28"/>
+      <c r="F152" s="29"/>
     </row>
     <row r="153" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="D153" s="28"/>
-      <c r="E153" s="29"/>
-      <c r="F153" s="30"/>
+      <c r="D153" s="27"/>
+      <c r="E153" s="28"/>
+      <c r="F153" s="29"/>
     </row>
     <row r="154" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B154" s="28"/>
-      <c r="D154" s="28"/>
-      <c r="E154" s="29"/>
-      <c r="F154" s="30"/>
+      <c r="B154" s="27"/>
+      <c r="D154" s="27"/>
+      <c r="E154" s="28"/>
+      <c r="F154" s="29"/>
     </row>
     <row r="155" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B155" s="28"/>
-      <c r="D155" s="28"/>
-      <c r="E155" s="29"/>
-      <c r="F155" s="30"/>
+      <c r="B155" s="27"/>
+      <c r="D155" s="27"/>
+      <c r="E155" s="28"/>
+      <c r="F155" s="29"/>
     </row>
     <row r="156" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B156" s="28"/>
-      <c r="D156" s="28"/>
-      <c r="E156" s="29"/>
-      <c r="F156" s="30"/>
+      <c r="B156" s="27"/>
+      <c r="D156" s="27"/>
+      <c r="E156" s="28"/>
+      <c r="F156" s="29"/>
     </row>
     <row r="157" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B157" s="28"/>
+      <c r="B157" s="27"/>
     </row>
     <row r="158" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B158" s="15"/>
@@ -7857,19 +7815,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="4e95bed8-6d15-4403-ad70-a53422338dca">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <TaxCatchAll xmlns="d045ab76-3bb7-45f5-ab41-d7b04aa0dc94" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100C4EA295FB1FB9547A73C9F5819D6E613" ma:contentTypeVersion="20" ma:contentTypeDescription="Een nieuw document maken." ma:contentTypeScope="" ma:versionID="26426b46a5c0c1d258bf284d595ef36f">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="4e95bed8-6d15-4403-ad70-a53422338dca" xmlns:ns3="10d3344f-2d16-43d9-a145-97142f5cb288" xmlns:ns4="d045ab76-3bb7-45f5-ab41-d7b04aa0dc94" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7a995b3ef3034e03d49cf2989483892d" ns1:_="" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -8146,6 +8091,19 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="4e95bed8-6d15-4403-ad70-a53422338dca">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <TaxCatchAll xmlns="d045ab76-3bb7-45f5-ab41-d7b04aa0dc94" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F0EF40A6-8528-4994-A94E-1AE934020AF5}">
   <ds:schemaRefs>
@@ -8155,25 +8113,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FFBB421F-7112-4B85-A662-9379706C03DC}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="c1085ce0-992b-4e2c-bc8b-9e7e29361dd3"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="4e95bed8-6d15-4403-ad70-a53422338dca"/>
-    <ds:schemaRef ds:uri="d045ab76-3bb7-45f5-ab41-d7b04aa0dc94"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2B7D56E5-F4DF-48D9-A1CD-EEB941D1E03B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -8192,4 +8131,23 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FFBB421F-7112-4B85-A662-9379706C03DC}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="c1085ce0-992b-4e2c-bc8b-9e7e29361dd3"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="4e95bed8-6d15-4403-ad70-a53422338dca"/>
+    <ds:schemaRef ds:uri="d045ab76-3bb7-45f5-ab41-d7b04aa0dc94"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/1. Configuratie.xlsx
+++ b/1. Configuratie.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://vrln.sharepoint.com/sites/GGD-ONDZ/PSchijf/Gezondheidsmonitor/Algemeen/Automatisering en R/Rapportage GMJ2023/Versie 10/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="156" documentId="8_{9135F566-5C0B-45DE-866D-BB2926EAD177}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CF9E928B-845E-4C7A-B68C-DB920289C75E}"/>
+  <xr:revisionPtr revIDLastSave="167" documentId="8_{9135F566-5C0B-45DE-866D-BB2926EAD177}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{36B2FAAE-2AE6-44B4-BA4E-36CDC738EC43}"/>
   <bookViews>
-    <workbookView xWindow="12" yWindow="12" windowWidth="23016" windowHeight="12336" xr2:uid="{340DDFAE-1A83-41FC-A379-531A17E4526A}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{340DDFAE-1A83-41FC-A379-531A17E4526A}"/>
   </bookViews>
   <sheets>
     <sheet name="Rapportconfiguratie" sheetId="4" r:id="rId1"/>
@@ -41,8 +41,26 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={778CBD80-E1A3-47A0-B5C5-DC3E84201059}</author>
+  </authors>
+  <commentList>
+    <comment ref="D51" authorId="0" shapeId="0" xr:uid="{778CBD80-E1A3-47A0-B5C5-DC3E84201059}">
+      <text>
+        <t>[Opmerkingenthread]
+U kunt deze opmerkingenthread lezen in uw versie van Excel. Eventuele wijzigingen aan de thread gaan echter verloren als het bestand wordt geopend in een nieuwere versie van Excel. Meer informatie: https://go.microsoft.com/fwlink/?linkid=870924
+Opmerking:
+    Moet dit niet PBWBK3S2 zijn? (Is voldoende weerbaar)</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1243" uniqueCount="273">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1243" uniqueCount="276">
   <si>
     <t>basis</t>
   </si>
@@ -531,9 +549,6 @@
   </si>
   <si>
     <t>Kan bij iemand terecht als hij/zij ergens mee zit</t>
-  </si>
-  <si>
-    <t>GBZOK3S17</t>
   </si>
   <si>
     <t>Percentage iemand terecht</t>
@@ -862,6 +877,18 @@
   </si>
   <si>
     <t>College van de Hoge Hoed</t>
+  </si>
+  <si>
+    <t>Is voldoende weerbaar</t>
+  </si>
+  <si>
+    <t>PBWBK3S2</t>
+  </si>
+  <si>
+    <t>Percentage weerbaar</t>
+  </si>
+  <si>
+    <t>GBZOK3S11</t>
   </si>
 </sst>
 </file>
@@ -971,7 +998,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -1068,6 +1095,21 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
@@ -1086,6 +1128,12 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <person displayName="Vermeulen, Sander" id="{DB7F9BFD-9AE8-413C-A685-3276F941A2CC}" userId="S::s.vermeulen@VRLN.NL::e08259fd-81d2-4a86-9b20-28ba02d67a18" providerId="AD"/>
+</personList>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1383,11 +1431,19 @@
 </a:theme>
 </file>
 
+<file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="D51" dT="2024-01-24T08:21:15.02" personId="{DB7F9BFD-9AE8-413C-A685-3276F941A2CC}" id="{778CBD80-E1A3-47A0-B5C5-DC3E84201059}">
+    <text>Moet dit niet PBWBK3S2 zijn? (Is voldoende weerbaar)</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F0AA7A9-459B-4958-BBC2-94F84CFD8846}">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1421,7 +1477,7 @@
         <v>5</v>
       </c>
       <c r="B2" s="19" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C2" s="19" t="s">
         <v>6</v>
@@ -1430,7 +1486,7 @@
         <v>6</v>
       </c>
       <c r="E2" s="19" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
   </sheetData>
@@ -1441,10 +1497,10 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73A75041-D6C8-4C2F-941F-420EA079C5D1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73A75041-D6C8-4C2F-941F-420EA079C5D1}">
   <dimension ref="A1:L188"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1550,12 +1606,12 @@
       <c r="C4" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="D4" s="5" t="s">
-        <v>244</v>
+      <c r="D4" s="38" t="s">
+        <v>243</v>
       </c>
       <c r="E4" s="6"/>
       <c r="F4" s="6" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="I4" s="4" t="s">
         <v>0</v>
@@ -1821,7 +1877,7 @@
         <v>30</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E13" s="9" t="s">
         <v>52</v>
@@ -1851,7 +1907,7 @@
         <v>55</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E14" s="6" t="s">
         <v>52</v>
@@ -2189,7 +2245,7 @@
         <v>28</v>
       </c>
       <c r="B24" s="20" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C24" s="4" t="s">
         <v>30</v>
@@ -2218,7 +2274,7 @@
         <v>28</v>
       </c>
       <c r="B25" s="20" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C25" s="4" t="s">
         <v>30</v>
@@ -2282,7 +2338,7 @@
         <v>30</v>
       </c>
       <c r="D27" s="20" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E27" s="21" t="s">
         <v>52</v>
@@ -2311,7 +2367,7 @@
         <v>30</v>
       </c>
       <c r="D28" s="20" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E28" s="21" t="s">
         <v>52</v>
@@ -2404,7 +2460,7 @@
         <v>49</v>
       </c>
       <c r="B31" s="20" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C31" s="4" t="s">
         <v>107</v>
@@ -2440,13 +2496,13 @@
         <v>55</v>
       </c>
       <c r="D32" s="20" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E32" s="21" t="s">
         <v>52</v>
       </c>
       <c r="F32" s="22" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="I32" s="4" t="s">
         <v>0</v>
@@ -2507,7 +2563,7 @@
         <v>118</v>
       </c>
       <c r="E34" s="21" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="I34" s="4" t="s">
         <v>81</v>
@@ -2527,13 +2583,13 @@
         <v>28</v>
       </c>
       <c r="B35" s="20" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C35" s="4" t="s">
         <v>147</v>
       </c>
       <c r="D35" s="20" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E35" s="21" t="s">
         <v>52</v>
@@ -2548,7 +2604,7 @@
         <v>11</v>
       </c>
       <c r="L35" s="4" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.3">
@@ -2909,13 +2965,13 @@
         <v>28</v>
       </c>
       <c r="B47" s="8" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C47" s="4" t="s">
         <v>147</v>
       </c>
       <c r="D47" s="23" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E47" s="24" t="s">
         <v>52</v>
@@ -3026,64 +3082,64 @@
         <v>158</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A51" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="B51" s="8" t="s">
-        <v>159</v>
-      </c>
-      <c r="C51" s="4" t="s">
+    <row r="51" spans="1:12" s="34" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="34" t="s">
+        <v>28</v>
+      </c>
+      <c r="B51" s="35" t="s">
+        <v>272</v>
+      </c>
+      <c r="C51" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="D51" s="8" t="s">
-        <v>160</v>
-      </c>
-      <c r="E51" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="F51" s="10"/>
-      <c r="I51" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="J51" s="4">
-        <v>2023</v>
-      </c>
-      <c r="K51" s="4">
+      <c r="D51" s="35" t="s">
+        <v>273</v>
+      </c>
+      <c r="E51" s="36" t="s">
+        <v>52</v>
+      </c>
+      <c r="F51" s="37"/>
+      <c r="I51" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="J51" s="34">
+        <v>2023</v>
+      </c>
+      <c r="K51" s="34">
         <v>13</v>
       </c>
-      <c r="L51" s="4" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A52" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="B52" s="8" t="s">
+      <c r="L51" s="34" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" s="34" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="34" t="s">
+        <v>28</v>
+      </c>
+      <c r="B52" s="35" t="s">
         <v>162</v>
       </c>
-      <c r="C52" s="4" t="s">
+      <c r="C52" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="D52" s="8" t="s">
+      <c r="D52" s="35" t="s">
+        <v>275</v>
+      </c>
+      <c r="E52" s="36" t="s">
+        <v>52</v>
+      </c>
+      <c r="F52" s="37"/>
+      <c r="I52" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="J52" s="34">
+        <v>2023</v>
+      </c>
+      <c r="K52" s="34">
+        <v>13</v>
+      </c>
+      <c r="L52" s="34" t="s">
         <v>163</v>
-      </c>
-      <c r="E52" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="F52" s="10"/>
-      <c r="I52" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="J52" s="4">
-        <v>2023</v>
-      </c>
-      <c r="K52" s="4">
-        <v>13</v>
-      </c>
-      <c r="L52" s="4" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="53" spans="1:12" ht="41.4" x14ac:dyDescent="0.3">
@@ -3091,19 +3147,19 @@
         <v>28</v>
       </c>
       <c r="B53" s="15" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C53" s="4" t="s">
         <v>88</v>
       </c>
       <c r="D53" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="E53" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="F53" s="10" t="s">
         <v>166</v>
-      </c>
-      <c r="E53" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="F53" s="10" t="s">
-        <v>167</v>
       </c>
       <c r="H53" s="4" t="s">
         <v>63</v>
@@ -3118,7 +3174,7 @@
         <v>13</v>
       </c>
       <c r="L53" s="4" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.3">
@@ -3126,16 +3182,16 @@
         <v>28</v>
       </c>
       <c r="B54" s="15" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C54" s="4" t="s">
         <v>107</v>
       </c>
       <c r="D54" s="20" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E54" s="21" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="I54" s="4" t="s">
         <v>81</v>
@@ -3147,7 +3203,7 @@
         <v>13</v>
       </c>
       <c r="L54" s="4" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="55" spans="1:12" ht="27.6" x14ac:dyDescent="0.3">
@@ -3155,13 +3211,13 @@
         <v>28</v>
       </c>
       <c r="B55" s="8" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C55" s="4" t="s">
         <v>147</v>
       </c>
       <c r="D55" s="23" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E55" s="24" t="s">
         <v>52</v>
@@ -3177,7 +3233,7 @@
         <v>14</v>
       </c>
       <c r="L55" s="4" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="56" spans="1:12" ht="61.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -3185,13 +3241,13 @@
         <v>28</v>
       </c>
       <c r="B56" s="8" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C56" s="4" t="s">
         <v>147</v>
       </c>
       <c r="D56" s="23" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E56" s="24" t="s">
         <v>52</v>
@@ -3207,7 +3263,7 @@
         <v>14</v>
       </c>
       <c r="L56" s="4" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.3">
@@ -3215,13 +3271,13 @@
         <v>28</v>
       </c>
       <c r="B57" s="15" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C57" s="4" t="s">
         <v>61</v>
       </c>
       <c r="D57" s="15" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E57" s="17" t="s">
         <v>52</v>
@@ -3243,7 +3299,7 @@
         <v>14</v>
       </c>
       <c r="L57" s="4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="58" spans="1:12" ht="69" x14ac:dyDescent="0.3">
@@ -3251,19 +3307,19 @@
         <v>28</v>
       </c>
       <c r="B58" s="15" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C58" s="4" t="s">
         <v>55</v>
       </c>
       <c r="D58" s="15" t="s">
+        <v>175</v>
+      </c>
+      <c r="E58" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="F58" s="16" t="s">
         <v>176</v>
-      </c>
-      <c r="E58" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="F58" s="16" t="s">
-        <v>177</v>
       </c>
       <c r="I58" s="4" t="s">
         <v>0</v>
@@ -3275,7 +3331,7 @@
         <v>14</v>
       </c>
       <c r="L58" s="4" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.3">
@@ -3283,13 +3339,13 @@
         <v>28</v>
       </c>
       <c r="B59" s="15" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C59" s="4" t="s">
         <v>79</v>
       </c>
       <c r="D59" s="15" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E59" s="17" t="s">
         <v>52</v>
@@ -3305,7 +3361,7 @@
         <v>14</v>
       </c>
       <c r="L59" s="4" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="60" spans="1:12" ht="41.4" x14ac:dyDescent="0.3">
@@ -3313,19 +3369,19 @@
         <v>28</v>
       </c>
       <c r="B60" s="15" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C60" s="4" t="s">
         <v>88</v>
       </c>
       <c r="D60" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="E60" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="F60" s="10" t="s">
         <v>183</v>
-      </c>
-      <c r="E60" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="F60" s="10" t="s">
-        <v>184</v>
       </c>
       <c r="H60" s="4" t="s">
         <v>63</v>
@@ -3340,7 +3396,7 @@
         <v>14</v>
       </c>
       <c r="L60" s="4" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.3">
@@ -3348,13 +3404,13 @@
         <v>28</v>
       </c>
       <c r="B61" s="15" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C61" s="4" t="s">
         <v>79</v>
       </c>
       <c r="D61" s="8" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E61" s="9" t="s">
         <v>52</v>
@@ -3370,7 +3426,7 @@
         <v>15</v>
       </c>
       <c r="L61" s="4" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="62" spans="1:12" ht="27.6" x14ac:dyDescent="0.3">
@@ -3378,19 +3434,19 @@
         <v>28</v>
       </c>
       <c r="B62" s="15" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C62" s="4" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="15" t="s">
+        <v>189</v>
+      </c>
+      <c r="E62" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="F62" s="16" t="s">
         <v>190</v>
-      </c>
-      <c r="E62" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="F62" s="16" t="s">
-        <v>191</v>
       </c>
       <c r="I62" s="4" t="s">
         <v>0</v>
@@ -3402,7 +3458,7 @@
         <v>15</v>
       </c>
       <c r="L62" s="4" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="63" spans="1:12" ht="96.6" x14ac:dyDescent="0.3">
@@ -3410,19 +3466,19 @@
         <v>28</v>
       </c>
       <c r="B63" s="15" t="s">
+        <v>192</v>
+      </c>
+      <c r="C63" s="4" t="s">
         <v>193</v>
       </c>
-      <c r="C63" s="4" t="s">
+      <c r="D63" s="15" t="s">
         <v>194</v>
       </c>
-      <c r="D63" s="15" t="s">
+      <c r="E63" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="F63" s="16" t="s">
         <v>195</v>
-      </c>
-      <c r="E63" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="F63" s="16" t="s">
-        <v>196</v>
       </c>
       <c r="I63" s="4" t="s">
         <v>0</v>
@@ -3434,7 +3490,7 @@
         <v>15</v>
       </c>
       <c r="L63" s="4" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="64" spans="1:12" ht="41.4" x14ac:dyDescent="0.3">
@@ -3442,19 +3498,19 @@
         <v>28</v>
       </c>
       <c r="B64" s="15" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C64" s="4" t="s">
         <v>88</v>
       </c>
       <c r="D64" s="15" t="s">
+        <v>198</v>
+      </c>
+      <c r="E64" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="F64" s="16" t="s">
         <v>199</v>
-      </c>
-      <c r="E64" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="F64" s="16" t="s">
-        <v>200</v>
       </c>
       <c r="H64" s="4" t="s">
         <v>63</v>
@@ -3469,7 +3525,7 @@
         <v>15</v>
       </c>
       <c r="L64" s="4" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.3">
@@ -3477,13 +3533,13 @@
         <v>28</v>
       </c>
       <c r="B65" s="15" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C65" s="4" t="s">
         <v>30</v>
       </c>
       <c r="D65" s="15" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E65" s="17" t="s">
         <v>52</v>
@@ -3499,7 +3555,7 @@
         <v>16</v>
       </c>
       <c r="L65" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.3">
@@ -3507,13 +3563,13 @@
         <v>28</v>
       </c>
       <c r="B66" s="15" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C66" s="4" t="s">
         <v>30</v>
       </c>
       <c r="D66" s="15" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E66" s="17" t="s">
         <v>52</v>
@@ -3529,7 +3585,7 @@
         <v>16</v>
       </c>
       <c r="L66" s="4" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.3">
@@ -3537,13 +3593,13 @@
         <v>28</v>
       </c>
       <c r="B67" s="15" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C67" s="4" t="s">
         <v>30</v>
       </c>
       <c r="D67" s="15" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E67" s="17" t="s">
         <v>52</v>
@@ -3559,7 +3615,7 @@
         <v>16</v>
       </c>
       <c r="L67" s="4" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.3">
@@ -3567,13 +3623,13 @@
         <v>28</v>
       </c>
       <c r="B68" s="15" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C68" s="4" t="s">
         <v>30</v>
       </c>
       <c r="D68" s="15" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E68" s="17" t="s">
         <v>52</v>
@@ -3589,7 +3645,7 @@
         <v>16</v>
       </c>
       <c r="L68" s="4" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.3">
@@ -3597,13 +3653,13 @@
         <v>28</v>
       </c>
       <c r="B69" s="15" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C69" s="4" t="s">
         <v>79</v>
       </c>
       <c r="D69" s="15" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E69" s="17" t="s">
         <v>52</v>
@@ -3619,7 +3675,7 @@
         <v>16</v>
       </c>
       <c r="L69" s="4" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="70" spans="1:12" ht="41.4" x14ac:dyDescent="0.3">
@@ -3627,19 +3683,19 @@
         <v>28</v>
       </c>
       <c r="B70" s="15" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C70" s="4" t="s">
         <v>88</v>
       </c>
       <c r="D70" s="15" t="s">
+        <v>213</v>
+      </c>
+      <c r="E70" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="F70" s="16" t="s">
         <v>214</v>
-      </c>
-      <c r="E70" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="F70" s="16" t="s">
-        <v>215</v>
       </c>
       <c r="H70" s="4" t="s">
         <v>63</v>
@@ -3654,7 +3710,7 @@
         <v>16</v>
       </c>
       <c r="L70" s="4" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.3">
@@ -3662,13 +3718,13 @@
         <v>28</v>
       </c>
       <c r="B71" s="15" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C71" s="4" t="s">
         <v>30</v>
       </c>
       <c r="D71" s="15" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E71" s="16" t="s">
         <v>52</v>
@@ -3684,7 +3740,7 @@
         <v>16</v>
       </c>
       <c r="L71" s="4" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.3">
@@ -3692,13 +3748,13 @@
         <v>28</v>
       </c>
       <c r="B72" s="15" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C72" s="4" t="s">
         <v>30</v>
       </c>
       <c r="D72" s="15" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E72" s="16" t="s">
         <v>52</v>
@@ -3714,7 +3770,7 @@
         <v>16</v>
       </c>
       <c r="L72" s="4" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.3">
@@ -3722,13 +3778,13 @@
         <v>28</v>
       </c>
       <c r="B73" s="15" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C73" s="4" t="s">
         <v>61</v>
       </c>
       <c r="D73" s="15" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E73" s="16" t="s">
         <v>52</v>
@@ -3744,7 +3800,7 @@
         <v>17</v>
       </c>
       <c r="L73" s="4" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.3">
@@ -3752,13 +3808,13 @@
         <v>28</v>
       </c>
       <c r="B74" s="15" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C74" s="4" t="s">
         <v>30</v>
       </c>
       <c r="D74" s="15" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E74" s="17" t="s">
         <v>52</v>
@@ -3774,7 +3830,7 @@
         <v>17</v>
       </c>
       <c r="L74" s="4" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.3">
@@ -3782,13 +3838,13 @@
         <v>28</v>
       </c>
       <c r="B75" s="15" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C75" s="4" t="s">
         <v>30</v>
       </c>
       <c r="D75" s="15" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E75" s="17" t="s">
         <v>52</v>
@@ -3804,7 +3860,7 @@
         <v>17</v>
       </c>
       <c r="L75" s="4" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.3">
@@ -3812,13 +3868,13 @@
         <v>28</v>
       </c>
       <c r="B76" s="15" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C76" s="4" t="s">
         <v>30</v>
       </c>
       <c r="D76" s="15" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E76" s="17" t="s">
         <v>52</v>
@@ -3834,7 +3890,7 @@
         <v>17</v>
       </c>
       <c r="L76" s="4" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.3">
@@ -3842,13 +3898,13 @@
         <v>28</v>
       </c>
       <c r="B77" s="15" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C77" s="4" t="s">
         <v>30</v>
       </c>
       <c r="D77" s="15" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E77" s="17" t="s">
         <v>52</v>
@@ -3864,7 +3920,7 @@
         <v>17</v>
       </c>
       <c r="L77" s="4" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.3">
@@ -3872,13 +3928,13 @@
         <v>28</v>
       </c>
       <c r="B78" s="15" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C78" s="4" t="s">
         <v>30</v>
       </c>
       <c r="D78" s="15" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E78" s="17" t="s">
         <v>52</v>
@@ -3894,7 +3950,7 @@
         <v>17</v>
       </c>
       <c r="L78" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.3">
@@ -3902,13 +3958,13 @@
         <v>28</v>
       </c>
       <c r="B79" s="15" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C79" s="4" t="s">
         <v>30</v>
       </c>
       <c r="D79" s="15" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E79" s="17" t="s">
         <v>52</v>
@@ -3924,7 +3980,7 @@
         <v>17</v>
       </c>
       <c r="L79" s="4" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="80" spans="1:12" ht="41.4" x14ac:dyDescent="0.3">
@@ -3932,19 +3988,19 @@
         <v>28</v>
       </c>
       <c r="B80" s="15" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C80" s="4" t="s">
         <v>88</v>
       </c>
       <c r="D80" s="15" t="s">
+        <v>236</v>
+      </c>
+      <c r="E80" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="F80" s="16" t="s">
         <v>237</v>
-      </c>
-      <c r="E80" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="F80" s="16" t="s">
-        <v>238</v>
       </c>
       <c r="H80" s="4" t="s">
         <v>63</v>
@@ -3959,7 +4015,7 @@
         <v>17</v>
       </c>
       <c r="L80" s="4" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="81" spans="1:12" x14ac:dyDescent="0.3">
@@ -3967,13 +4023,13 @@
         <v>49</v>
       </c>
       <c r="B81" s="23" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C81" s="4" t="s">
         <v>107</v>
       </c>
       <c r="D81" s="26" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E81" s="21" t="s">
         <v>109</v>
@@ -3989,7 +4045,7 @@
         <v>18</v>
       </c>
       <c r="L81" s="4" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="82" spans="1:12" x14ac:dyDescent="0.3">
@@ -3997,13 +4053,13 @@
         <v>49</v>
       </c>
       <c r="B82" s="23" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C82" s="4" t="s">
         <v>107</v>
       </c>
       <c r="D82" s="26" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E82" s="21" t="s">
         <v>109</v>
@@ -4019,7 +4075,7 @@
         <v>18</v>
       </c>
       <c r="L82" s="4" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="83" spans="1:12" x14ac:dyDescent="0.3">
@@ -4636,6 +4692,7 @@
   <ignoredErrors>
     <ignoredError sqref="E13:E30 E33 E5:E9 E11 E53 E36:E39 E64 E57:E62 E49 E80 E76 E73:E74 E41:E44 E35 E45:E48 E75 E77:E79 E81:E82 E50:E52 E63 E65:E72 E40 E54:E56" numberStoredAsText="1"/>
   </ignoredErrors>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -4750,11 +4807,11 @@
         <v>26</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E4" s="6"/>
       <c r="F4" s="6" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="I4" s="4" t="s">
         <v>0</v>
@@ -5388,7 +5445,7 @@
         <v>28</v>
       </c>
       <c r="B24" s="20" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C24" s="4" t="s">
         <v>30</v>
@@ -5417,7 +5474,7 @@
         <v>28</v>
       </c>
       <c r="B25" s="20" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C25" s="4" t="s">
         <v>30</v>
@@ -5481,7 +5538,7 @@
         <v>30</v>
       </c>
       <c r="D27" s="20" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E27" s="21" t="s">
         <v>52</v>
@@ -5510,7 +5567,7 @@
         <v>30</v>
       </c>
       <c r="D28" s="20" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E28" s="21" t="s">
         <v>52</v>
@@ -5603,7 +5660,7 @@
         <v>49</v>
       </c>
       <c r="B31" s="20" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C31" s="4" t="s">
         <v>107</v>
@@ -5674,7 +5731,7 @@
         <v>118</v>
       </c>
       <c r="E33" s="21" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="I33" s="4" t="s">
         <v>81</v>
@@ -5694,13 +5751,13 @@
         <v>28</v>
       </c>
       <c r="B34" s="20" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C34" s="4" t="s">
         <v>147</v>
       </c>
       <c r="D34" s="20" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E34" s="24" t="s">
         <v>52</v>
@@ -5715,7 +5772,7 @@
         <v>11</v>
       </c>
       <c r="L34" s="4" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.3">
@@ -6076,13 +6133,13 @@
         <v>28</v>
       </c>
       <c r="B46" s="8" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C46" s="4" t="s">
         <v>147</v>
       </c>
       <c r="D46" s="23" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E46" s="24" t="s">
         <v>52</v>
@@ -6112,7 +6169,7 @@
         <v>55</v>
       </c>
       <c r="D47" s="30" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E47" s="24" t="s">
         <v>52</v>
@@ -6234,7 +6291,7 @@
         <v>30</v>
       </c>
       <c r="D51" s="31" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E51" s="9" t="s">
         <v>52</v>
@@ -6250,7 +6307,7 @@
         <v>13</v>
       </c>
       <c r="L51" s="4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="52" spans="1:12" ht="41.4" x14ac:dyDescent="0.3">
@@ -6258,19 +6315,19 @@
         <v>28</v>
       </c>
       <c r="B52" s="15" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C52" s="4" t="s">
         <v>88</v>
       </c>
       <c r="D52" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="E52" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="F52" s="10" t="s">
         <v>166</v>
-      </c>
-      <c r="E52" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="F52" s="10" t="s">
-        <v>167</v>
       </c>
       <c r="H52" s="4" t="s">
         <v>63</v>
@@ -6285,7 +6342,7 @@
         <v>13</v>
       </c>
       <c r="L52" s="4" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.3">
@@ -6293,16 +6350,16 @@
         <v>28</v>
       </c>
       <c r="B53" s="15" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C53" s="4" t="s">
         <v>107</v>
       </c>
       <c r="D53" s="20" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E53" s="21" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="I53" s="4" t="s">
         <v>81</v>
@@ -6314,7 +6371,7 @@
         <v>13</v>
       </c>
       <c r="L53" s="4" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="54" spans="1:12" ht="27.6" x14ac:dyDescent="0.3">
@@ -6322,13 +6379,13 @@
         <v>28</v>
       </c>
       <c r="B54" s="8" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C54" s="4" t="s">
         <v>147</v>
       </c>
       <c r="D54" s="23" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E54" s="24" t="s">
         <v>52</v>
@@ -6344,7 +6401,7 @@
         <v>14</v>
       </c>
       <c r="L54" s="4" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="55" spans="1:12" ht="61.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -6352,13 +6409,13 @@
         <v>28</v>
       </c>
       <c r="B55" s="8" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C55" s="4" t="s">
         <v>147</v>
       </c>
       <c r="D55" s="23" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E55" s="24" t="s">
         <v>52</v>
@@ -6374,7 +6431,7 @@
         <v>14</v>
       </c>
       <c r="L55" s="4" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.3">
@@ -6382,13 +6439,13 @@
         <v>28</v>
       </c>
       <c r="B56" s="15" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C56" s="4" t="s">
         <v>61</v>
       </c>
       <c r="D56" s="15" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E56" s="17" t="s">
         <v>52</v>
@@ -6410,7 +6467,7 @@
         <v>14</v>
       </c>
       <c r="L56" s="4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="57" spans="1:12" ht="69" x14ac:dyDescent="0.3">
@@ -6418,19 +6475,19 @@
         <v>28</v>
       </c>
       <c r="B57" s="15" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C57" s="4" t="s">
         <v>55</v>
       </c>
       <c r="D57" s="15" t="s">
+        <v>175</v>
+      </c>
+      <c r="E57" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="F57" s="16" t="s">
         <v>176</v>
-      </c>
-      <c r="E57" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="F57" s="16" t="s">
-        <v>177</v>
       </c>
       <c r="I57" s="4" t="s">
         <v>0</v>
@@ -6442,7 +6499,7 @@
         <v>14</v>
       </c>
       <c r="L57" s="4" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.3">
@@ -6450,13 +6507,13 @@
         <v>28</v>
       </c>
       <c r="B58" s="15" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C58" s="4" t="s">
         <v>79</v>
       </c>
       <c r="D58" s="15" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E58" s="17" t="s">
         <v>52</v>
@@ -6472,7 +6529,7 @@
         <v>14</v>
       </c>
       <c r="L58" s="4" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="59" spans="1:12" ht="41.4" x14ac:dyDescent="0.3">
@@ -6480,19 +6537,19 @@
         <v>28</v>
       </c>
       <c r="B59" s="15" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C59" s="4" t="s">
         <v>88</v>
       </c>
       <c r="D59" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="E59" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="F59" s="10" t="s">
         <v>183</v>
-      </c>
-      <c r="E59" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="F59" s="10" t="s">
-        <v>184</v>
       </c>
       <c r="H59" s="4" t="s">
         <v>63</v>
@@ -6507,7 +6564,7 @@
         <v>14</v>
       </c>
       <c r="L59" s="4" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.3">
@@ -6515,13 +6572,13 @@
         <v>28</v>
       </c>
       <c r="B60" s="15" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C60" s="4" t="s">
         <v>79</v>
       </c>
       <c r="D60" s="8" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E60" s="9" t="s">
         <v>52</v>
@@ -6537,7 +6594,7 @@
         <v>15</v>
       </c>
       <c r="L60" s="4" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="61" spans="1:12" ht="27.6" x14ac:dyDescent="0.3">
@@ -6545,19 +6602,19 @@
         <v>28</v>
       </c>
       <c r="B61" s="15" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C61" s="4" t="s">
         <v>55</v>
       </c>
       <c r="D61" s="15" t="s">
+        <v>189</v>
+      </c>
+      <c r="E61" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="F61" s="16" t="s">
         <v>190</v>
-      </c>
-      <c r="E61" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="F61" s="16" t="s">
-        <v>191</v>
       </c>
       <c r="I61" s="4" t="s">
         <v>0</v>
@@ -6569,7 +6626,7 @@
         <v>15</v>
       </c>
       <c r="L61" s="4" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="62" spans="1:12" ht="96.6" x14ac:dyDescent="0.3">
@@ -6577,19 +6634,19 @@
         <v>28</v>
       </c>
       <c r="B62" s="15" t="s">
+        <v>192</v>
+      </c>
+      <c r="C62" s="4" t="s">
         <v>193</v>
       </c>
-      <c r="C62" s="4" t="s">
+      <c r="D62" s="15" t="s">
         <v>194</v>
       </c>
-      <c r="D62" s="15" t="s">
+      <c r="E62" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="F62" s="16" t="s">
         <v>195</v>
-      </c>
-      <c r="E62" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="F62" s="16" t="s">
-        <v>196</v>
       </c>
       <c r="I62" s="4" t="s">
         <v>0</v>
@@ -6601,7 +6658,7 @@
         <v>15</v>
       </c>
       <c r="L62" s="4" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="63" spans="1:12" ht="41.4" x14ac:dyDescent="0.3">
@@ -6609,19 +6666,19 @@
         <v>28</v>
       </c>
       <c r="B63" s="15" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C63" s="4" t="s">
         <v>88</v>
       </c>
       <c r="D63" s="15" t="s">
+        <v>198</v>
+      </c>
+      <c r="E63" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="F63" s="16" t="s">
         <v>199</v>
-      </c>
-      <c r="E63" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="F63" s="16" t="s">
-        <v>200</v>
       </c>
       <c r="H63" s="4" t="s">
         <v>63</v>
@@ -6636,7 +6693,7 @@
         <v>15</v>
       </c>
       <c r="L63" s="4" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.3">
@@ -6644,13 +6701,13 @@
         <v>28</v>
       </c>
       <c r="B64" s="15" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C64" s="4" t="s">
         <v>30</v>
       </c>
       <c r="D64" s="15" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E64" s="17" t="s">
         <v>52</v>
@@ -6666,7 +6723,7 @@
         <v>16</v>
       </c>
       <c r="L64" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.3">
@@ -6674,13 +6731,13 @@
         <v>28</v>
       </c>
       <c r="B65" s="15" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C65" s="4" t="s">
         <v>30</v>
       </c>
       <c r="D65" s="15" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E65" s="17" t="s">
         <v>52</v>
@@ -6696,7 +6753,7 @@
         <v>16</v>
       </c>
       <c r="L65" s="4" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.3">
@@ -6704,13 +6761,13 @@
         <v>28</v>
       </c>
       <c r="B66" s="15" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C66" s="4" t="s">
         <v>30</v>
       </c>
       <c r="D66" s="15" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E66" s="17" t="s">
         <v>52</v>
@@ -6726,7 +6783,7 @@
         <v>16</v>
       </c>
       <c r="L66" s="4" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.3">
@@ -6734,13 +6791,13 @@
         <v>28</v>
       </c>
       <c r="B67" s="15" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C67" s="4" t="s">
         <v>30</v>
       </c>
       <c r="D67" s="15" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E67" s="17" t="s">
         <v>52</v>
@@ -6756,7 +6813,7 @@
         <v>16</v>
       </c>
       <c r="L67" s="4" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.3">
@@ -6764,13 +6821,13 @@
         <v>28</v>
       </c>
       <c r="B68" s="15" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C68" s="4" t="s">
         <v>79</v>
       </c>
       <c r="D68" s="15" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E68" s="17" t="s">
         <v>52</v>
@@ -6786,7 +6843,7 @@
         <v>16</v>
       </c>
       <c r="L68" s="4" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="69" spans="1:12" ht="41.4" x14ac:dyDescent="0.3">
@@ -6794,19 +6851,19 @@
         <v>28</v>
       </c>
       <c r="B69" s="15" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C69" s="4" t="s">
         <v>88</v>
       </c>
       <c r="D69" s="15" t="s">
+        <v>213</v>
+      </c>
+      <c r="E69" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="F69" s="16" t="s">
         <v>214</v>
-      </c>
-      <c r="E69" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="F69" s="16" t="s">
-        <v>215</v>
       </c>
       <c r="H69" s="4" t="s">
         <v>63</v>
@@ -6821,7 +6878,7 @@
         <v>16</v>
       </c>
       <c r="L69" s="4" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.3">
@@ -6829,13 +6886,13 @@
         <v>28</v>
       </c>
       <c r="B70" s="15" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C70" s="4" t="s">
         <v>30</v>
       </c>
       <c r="D70" s="15" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E70" s="16" t="s">
         <v>52</v>
@@ -6851,7 +6908,7 @@
         <v>16</v>
       </c>
       <c r="L70" s="4" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.3">
@@ -6859,13 +6916,13 @@
         <v>28</v>
       </c>
       <c r="B71" s="15" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C71" s="4" t="s">
         <v>30</v>
       </c>
       <c r="D71" s="15" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E71" s="16" t="s">
         <v>52</v>
@@ -6881,7 +6938,7 @@
         <v>16</v>
       </c>
       <c r="L71" s="4" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.3">
@@ -6889,13 +6946,13 @@
         <v>28</v>
       </c>
       <c r="B72" s="15" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C72" s="4" t="s">
         <v>79</v>
       </c>
       <c r="D72" s="32" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E72" s="16" t="s">
         <v>52</v>
@@ -6911,7 +6968,7 @@
         <v>17</v>
       </c>
       <c r="L72" s="4" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.3">
@@ -6919,13 +6976,13 @@
         <v>28</v>
       </c>
       <c r="B73" s="15" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C73" s="4" t="s">
         <v>30</v>
       </c>
       <c r="D73" s="15" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E73" s="17" t="s">
         <v>52</v>
@@ -6941,7 +6998,7 @@
         <v>17</v>
       </c>
       <c r="L73" s="4" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.3">
@@ -6949,13 +7006,13 @@
         <v>28</v>
       </c>
       <c r="B74" s="15" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C74" s="4" t="s">
         <v>30</v>
       </c>
       <c r="D74" s="15" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E74" s="17" t="s">
         <v>52</v>
@@ -6971,7 +7028,7 @@
         <v>17</v>
       </c>
       <c r="L74" s="4" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.3">
@@ -6979,13 +7036,13 @@
         <v>28</v>
       </c>
       <c r="B75" s="15" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C75" s="4" t="s">
         <v>30</v>
       </c>
       <c r="D75" s="15" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E75" s="17" t="s">
         <v>52</v>
@@ -7001,7 +7058,7 @@
         <v>17</v>
       </c>
       <c r="L75" s="4" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.3">
@@ -7009,13 +7066,13 @@
         <v>28</v>
       </c>
       <c r="B76" s="15" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C76" s="4" t="s">
         <v>30</v>
       </c>
       <c r="D76" s="15" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E76" s="17" t="s">
         <v>52</v>
@@ -7031,7 +7088,7 @@
         <v>17</v>
       </c>
       <c r="L76" s="4" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.3">
@@ -7039,13 +7096,13 @@
         <v>28</v>
       </c>
       <c r="B77" s="15" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C77" s="4" t="s">
         <v>30</v>
       </c>
       <c r="D77" s="15" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E77" s="17" t="s">
         <v>52</v>
@@ -7061,7 +7118,7 @@
         <v>17</v>
       </c>
       <c r="L77" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.3">
@@ -7069,13 +7126,13 @@
         <v>28</v>
       </c>
       <c r="B78" s="15" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C78" s="4" t="s">
         <v>30</v>
       </c>
       <c r="D78" s="15" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E78" s="17" t="s">
         <v>52</v>
@@ -7091,7 +7148,7 @@
         <v>17</v>
       </c>
       <c r="L78" s="4" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="79" spans="1:12" ht="41.4" x14ac:dyDescent="0.3">
@@ -7099,19 +7156,19 @@
         <v>28</v>
       </c>
       <c r="B79" s="15" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C79" s="4" t="s">
         <v>88</v>
       </c>
       <c r="D79" s="32" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E79" s="17" t="s">
         <v>52</v>
       </c>
       <c r="F79" s="16" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="H79" s="4" t="s">
         <v>63</v>
@@ -7126,7 +7183,7 @@
         <v>17</v>
       </c>
       <c r="L79" s="4" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.3">
@@ -7134,13 +7191,13 @@
         <v>49</v>
       </c>
       <c r="B80" s="23" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C80" s="4" t="s">
         <v>107</v>
       </c>
       <c r="D80" s="26" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E80" s="21" t="s">
         <v>109</v>
@@ -7156,7 +7213,7 @@
         <v>18</v>
       </c>
       <c r="L80" s="4" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="81" spans="1:12" x14ac:dyDescent="0.3">
@@ -7164,13 +7221,13 @@
         <v>49</v>
       </c>
       <c r="B81" s="23" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C81" s="4" t="s">
         <v>107</v>
       </c>
       <c r="D81" s="26" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E81" s="21" t="s">
         <v>109</v>
@@ -7186,7 +7243,7 @@
         <v>18</v>
       </c>
       <c r="L81" s="4" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="82" spans="1:12" x14ac:dyDescent="0.3">
@@ -7815,6 +7872,19 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="4e95bed8-6d15-4403-ad70-a53422338dca">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <TaxCatchAll xmlns="d045ab76-3bb7-45f5-ab41-d7b04aa0dc94" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100C4EA295FB1FB9547A73C9F5819D6E613" ma:contentTypeVersion="20" ma:contentTypeDescription="Een nieuw document maken." ma:contentTypeScope="" ma:versionID="26426b46a5c0c1d258bf284d595ef36f">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="4e95bed8-6d15-4403-ad70-a53422338dca" xmlns:ns3="10d3344f-2d16-43d9-a145-97142f5cb288" xmlns:ns4="d045ab76-3bb7-45f5-ab41-d7b04aa0dc94" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7a995b3ef3034e03d49cf2989483892d" ns1:_="" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -8091,19 +8161,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="4e95bed8-6d15-4403-ad70-a53422338dca">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <TaxCatchAll xmlns="d045ab76-3bb7-45f5-ab41-d7b04aa0dc94" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F0EF40A6-8528-4994-A94E-1AE934020AF5}">
   <ds:schemaRefs>
@@ -8113,6 +8170,25 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FFBB421F-7112-4B85-A662-9379706C03DC}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="c1085ce0-992b-4e2c-bc8b-9e7e29361dd3"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="4e95bed8-6d15-4403-ad70-a53422338dca"/>
+    <ds:schemaRef ds:uri="d045ab76-3bb7-45f5-ab41-d7b04aa0dc94"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2B7D56E5-F4DF-48D9-A1CD-EEB941D1E03B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -8131,23 +8207,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FFBB421F-7112-4B85-A662-9379706C03DC}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="c1085ce0-992b-4e2c-bc8b-9e7e29361dd3"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="4e95bed8-6d15-4403-ad70-a53422338dca"/>
-    <ds:schemaRef ds:uri="d045ab76-3bb7-45f5-ab41-d7b04aa0dc94"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/1. Configuratie.xlsx
+++ b/1. Configuratie.xlsx
@@ -5,21 +5,19 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://vrln.sharepoint.com/sites/GGD-ONDZ/PSchijf/Gezondheidsmonitor/Algemeen/Automatisering en R/Rapportage GMJ2023/Versie 10/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://vrln-my.sharepoint.com/personal/s_vermeulen_vrln_nl/Documents/Bureaublad/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="167" documentId="8_{9135F566-5C0B-45DE-866D-BB2926EAD177}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{36B2FAAE-2AE6-44B4-BA4E-36CDC738EC43}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1C11BA40-95A5-463C-825E-49E927D89F6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{340DDFAE-1A83-41FC-A379-531A17E4526A}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{340DDFAE-1A83-41FC-A379-531A17E4526A}"/>
   </bookViews>
   <sheets>
     <sheet name="Rapportconfiguratie" sheetId="4" r:id="rId1"/>
-    <sheet name="Slideconfiguratie Landelijk" sheetId="1" r:id="rId2"/>
-    <sheet name="Slideconfiguratie Testdata" sheetId="5" r:id="rId3"/>
+    <sheet name="Slideconfiguratie 1" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Slideconfiguratie Landelijk'!$A$1:$L$188</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Slideconfiguratie Testdata'!$A$1:$L$174</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Slideconfiguratie 1'!$A$1:$L$188</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -60,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1243" uniqueCount="276">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="630" uniqueCount="267">
   <si>
     <t>basis</t>
   </si>
@@ -215,9 +213,6 @@
     <t>Was in de afgelopen week 3 of meer dagen 's avonds na 10 uur niet thuis</t>
   </si>
   <si>
-    <t>SOROK3S1</t>
-  </si>
-  <si>
     <t>1</t>
   </si>
   <si>
@@ -230,9 +225,6 @@
     <t>combi liggend</t>
   </si>
   <si>
-    <t>SOROK3S3; SOROK3S4; SOROK3S6</t>
-  </si>
-  <si>
     <t>Mijn ouders of verzorgers weten waar ik ben als ik niet thuis ben; Mijn ouders hebben duidelijke regels over wat ik wel en niet mag doen; Mijn ouders brengen veel tijd met mij door</t>
   </si>
   <si>
@@ -434,9 +426,6 @@
     <t>Vapet (minimaal wekelijks)</t>
   </si>
   <si>
-    <t>LBGEK3S4</t>
-  </si>
-  <si>
     <t>Percentage vapen</t>
   </si>
   <si>
@@ -539,15 +528,6 @@
     <t>Percentage stress doorstaan</t>
   </si>
   <si>
-    <t>Kan goed voor zichzelf opkomen</t>
-  </si>
-  <si>
-    <t>PBWBK3S7</t>
-  </si>
-  <si>
-    <t>Percentage opkomen</t>
-  </si>
-  <si>
     <t>Kan bij iemand terecht als hij/zij ergens mee zit</t>
   </si>
   <si>
@@ -779,18 +759,6 @@
     <t>Combi bewegen gender</t>
   </si>
   <si>
-    <t>GBZOK3S2; GBZOK3S3; GBZOK3S4; GBZOK3S5; GBZOK3S6</t>
-  </si>
-  <si>
-    <t>GBZOK3S1</t>
-  </si>
-  <si>
-    <t>LBLBK3S13</t>
-  </si>
-  <si>
-    <t>LBLBK3S13; LBLBK3S11; LBLBK3S10</t>
-  </si>
-  <si>
     <t>KLAS; MBOKK3S31; GENDER</t>
   </si>
   <si>
@@ -825,9 +793,6 @@
   </si>
   <si>
     <t>PBSGK3S2</t>
-  </si>
-  <si>
-    <t>Slideconfiguratie Testdata</t>
   </si>
   <si>
     <t>Mening ouders alcohol</t>
@@ -889,6 +854,12 @@
   </si>
   <si>
     <t>GBZOK3S11</t>
+  </si>
+  <si>
+    <t>LBGEK3S3</t>
+  </si>
+  <si>
+    <t>Slideconfiguratie 1</t>
   </si>
 </sst>
 </file>
@@ -960,18 +931,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -998,7 +963,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -1081,33 +1046,6 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1443,7 +1381,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F0AA7A9-459B-4958-BBC2-94F84CFD8846}">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1477,7 +1415,7 @@
         <v>5</v>
       </c>
       <c r="B2" s="19" t="s">
-        <v>271</v>
+        <v>260</v>
       </c>
       <c r="C2" s="19" t="s">
         <v>6</v>
@@ -1486,7 +1424,7 @@
         <v>6</v>
       </c>
       <c r="E2" s="19" t="s">
-        <v>255</v>
+        <v>266</v>
       </c>
     </row>
   </sheetData>
@@ -1500,7 +1438,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73A75041-D6C8-4C2F-941F-420EA079C5D1}">
   <dimension ref="A1:L188"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1606,12 +1544,12 @@
       <c r="C4" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="D4" s="38" t="s">
-        <v>243</v>
+      <c r="D4" s="5" t="s">
+        <v>233</v>
       </c>
       <c r="E4" s="6"/>
       <c r="F4" s="6" t="s">
-        <v>244</v>
+        <v>234</v>
       </c>
       <c r="I4" s="4" t="s">
         <v>0</v>
@@ -1877,10 +1815,10 @@
         <v>30</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>245</v>
+        <v>235</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F13" s="10"/>
       <c r="I13" s="4" t="s">
@@ -1893,7 +1831,7 @@
         <v>5</v>
       </c>
       <c r="L13" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="82.8" x14ac:dyDescent="0.3">
@@ -1901,22 +1839,22 @@
         <v>49</v>
       </c>
       <c r="B14" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="C14" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="C14" s="7" t="s">
+      <c r="D14" s="5" t="s">
+        <v>236</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="F14" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="D14" s="5" t="s">
-        <v>246</v>
-      </c>
-      <c r="E14" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="F14" s="6" t="s">
-        <v>57</v>
-      </c>
       <c r="H14" s="4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="I14" s="4" t="s">
         <v>0</v>
@@ -1928,7 +1866,7 @@
         <v>5</v>
       </c>
       <c r="L14" s="4" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.3">
@@ -1936,23 +1874,23 @@
         <v>28</v>
       </c>
       <c r="B15" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="D15" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="C15" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="D15" s="8" t="s">
-        <v>62</v>
-      </c>
       <c r="E15" s="9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F15" s="10"/>
       <c r="G15" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="H15" s="4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="I15" s="4" t="s">
         <v>0</v>
@@ -1964,7 +1902,7 @@
         <v>6</v>
       </c>
       <c r="L15" s="4" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.3">
@@ -1972,23 +1910,23 @@
         <v>28</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E16" s="9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F16" s="10"/>
       <c r="G16" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="H16" s="4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="I16" s="4" t="s">
         <v>0</v>
@@ -2000,7 +1938,7 @@
         <v>6</v>
       </c>
       <c r="L16" s="4" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.3">
@@ -2008,23 +1946,23 @@
         <v>28</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E17" s="9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F17" s="10"/>
       <c r="G17" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="H17" s="4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="I17" s="4" t="s">
         <v>0</v>
@@ -2036,7 +1974,7 @@
         <v>6</v>
       </c>
       <c r="L17" s="4" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.3">
@@ -2044,23 +1982,23 @@
         <v>28</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E18" s="9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F18" s="10"/>
       <c r="G18" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="H18" s="4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="I18" s="4" t="s">
         <v>0</v>
@@ -2072,7 +2010,7 @@
         <v>6</v>
       </c>
       <c r="L18" s="4" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.3">
@@ -2080,22 +2018,22 @@
         <v>49</v>
       </c>
       <c r="B19" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="E19" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="F19" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="C19" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="D19" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="E19" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="F19" s="6" t="s">
-        <v>76</v>
-      </c>
       <c r="H19" s="4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="I19" s="4" t="s">
         <v>0</v>
@@ -2107,7 +2045,7 @@
         <v>7</v>
       </c>
       <c r="L19" s="4" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.3">
@@ -2115,29 +2053,29 @@
         <v>28</v>
       </c>
       <c r="B20" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="D20" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="C20" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="D20" s="11" t="s">
-        <v>80</v>
-      </c>
       <c r="E20" s="12" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F20" s="13"/>
       <c r="I20" s="4" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="J20" s="4" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="K20" s="4">
         <v>8</v>
       </c>
       <c r="L20" s="4" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.3">
@@ -2145,29 +2083,29 @@
         <v>28</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D21" s="11" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E21" s="10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F21" s="10"/>
       <c r="I21" s="4" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="J21" s="4" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="K21" s="4">
         <v>8</v>
       </c>
       <c r="L21" s="4" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="22" spans="1:12" ht="27.6" x14ac:dyDescent="0.3">
@@ -2175,22 +2113,22 @@
         <v>28</v>
       </c>
       <c r="B22" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="D22" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="C22" s="7" t="s">
+      <c r="E22" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="F22" s="11" t="s">
         <v>88</v>
       </c>
-      <c r="D22" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="E22" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="F22" s="11" t="s">
-        <v>90</v>
-      </c>
       <c r="H22" s="4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="I22" s="4" t="s">
         <v>0</v>
@@ -2202,7 +2140,7 @@
         <v>8</v>
       </c>
       <c r="L22" s="4" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="23" spans="1:12" ht="27.6" x14ac:dyDescent="0.3">
@@ -2210,22 +2148,22 @@
         <v>28</v>
       </c>
       <c r="B23" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="D23" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="C23" s="7" t="s">
+      <c r="E23" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="F23" s="11" t="s">
         <v>88</v>
       </c>
-      <c r="D23" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="E23" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="F23" s="11" t="s">
-        <v>90</v>
-      </c>
       <c r="H23" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="I23" s="4" t="s">
         <v>0</v>
@@ -2237,7 +2175,7 @@
         <v>8</v>
       </c>
       <c r="L23" s="4" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="24" spans="1:12" ht="27.6" x14ac:dyDescent="0.3">
@@ -2245,16 +2183,16 @@
         <v>28</v>
       </c>
       <c r="B24" s="20" t="s">
-        <v>257</v>
+        <v>246</v>
       </c>
       <c r="C24" s="4" t="s">
         <v>30</v>
       </c>
       <c r="D24" s="20" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E24" s="21" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I24" s="4" t="s">
         <v>0</v>
@@ -2266,7 +2204,7 @@
         <v>9</v>
       </c>
       <c r="L24" s="4" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="25" spans="1:12" ht="27.6" x14ac:dyDescent="0.3">
@@ -2274,16 +2212,16 @@
         <v>28</v>
       </c>
       <c r="B25" s="20" t="s">
-        <v>257</v>
+        <v>246</v>
       </c>
       <c r="C25" s="4" t="s">
         <v>30</v>
       </c>
       <c r="D25" s="20" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E25" s="21" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I25" s="4" t="s">
         <v>2</v>
@@ -2295,7 +2233,7 @@
         <v>9</v>
       </c>
       <c r="L25" s="4" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.3">
@@ -2303,28 +2241,28 @@
         <v>28</v>
       </c>
       <c r="B26" s="20" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C26" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D26" s="20" t="s">
+        <v>95</v>
+      </c>
+      <c r="E26" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="I26" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="D26" s="20" t="s">
-        <v>97</v>
-      </c>
-      <c r="E26" s="21" t="s">
-        <v>52</v>
-      </c>
-      <c r="I26" s="4" t="s">
-        <v>81</v>
-      </c>
       <c r="J26" s="4" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="K26" s="4">
         <v>9</v>
       </c>
       <c r="L26" s="4" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.3">
@@ -2332,16 +2270,16 @@
         <v>28</v>
       </c>
       <c r="B27" s="20" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C27" s="4" t="s">
         <v>30</v>
       </c>
       <c r="D27" s="20" t="s">
-        <v>248</v>
+        <v>238</v>
       </c>
       <c r="E27" s="21" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I27" s="4" t="s">
         <v>0</v>
@@ -2353,7 +2291,7 @@
         <v>9</v>
       </c>
       <c r="L27" s="4" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.3">
@@ -2361,16 +2299,16 @@
         <v>28</v>
       </c>
       <c r="B28" s="20" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C28" s="4" t="s">
         <v>30</v>
       </c>
       <c r="D28" s="20" t="s">
-        <v>248</v>
+        <v>238</v>
       </c>
       <c r="E28" s="21" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I28" s="4" t="s">
         <v>2</v>
@@ -2382,7 +2320,7 @@
         <v>9</v>
       </c>
       <c r="L28" s="4" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="29" spans="1:12" ht="41.4" x14ac:dyDescent="0.3">
@@ -2390,22 +2328,22 @@
         <v>28</v>
       </c>
       <c r="B29" s="20" t="s">
+        <v>100</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="D29" s="20" t="s">
+        <v>101</v>
+      </c>
+      <c r="E29" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="F29" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="C29" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="D29" s="20" t="s">
-        <v>103</v>
-      </c>
-      <c r="E29" s="21" t="s">
-        <v>52</v>
-      </c>
-      <c r="F29" s="6" t="s">
-        <v>104</v>
-      </c>
       <c r="H29" s="4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="I29" s="4" t="s">
         <v>0</v>
@@ -2417,7 +2355,7 @@
         <v>9</v>
       </c>
       <c r="L29" s="4" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="30" spans="1:12" ht="41.4" x14ac:dyDescent="0.3">
@@ -2425,22 +2363,22 @@
         <v>28</v>
       </c>
       <c r="B30" s="20" t="s">
+        <v>100</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="D30" s="20" t="s">
+        <v>101</v>
+      </c>
+      <c r="E30" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="F30" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="C30" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="D30" s="20" t="s">
-        <v>103</v>
-      </c>
-      <c r="E30" s="21" t="s">
-        <v>52</v>
-      </c>
-      <c r="F30" s="6" t="s">
-        <v>104</v>
-      </c>
       <c r="H30" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="I30" s="4" t="s">
         <v>0</v>
@@ -2452,7 +2390,7 @@
         <v>9</v>
       </c>
       <c r="L30" s="4" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.3">
@@ -2460,16 +2398,16 @@
         <v>49</v>
       </c>
       <c r="B31" s="20" t="s">
-        <v>256</v>
+        <v>245</v>
       </c>
       <c r="C31" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="D31" s="20" t="s">
+        <v>106</v>
+      </c>
+      <c r="E31" s="21" t="s">
         <v>107</v>
-      </c>
-      <c r="D31" s="20" t="s">
-        <v>108</v>
-      </c>
-      <c r="E31" s="21" t="s">
-        <v>109</v>
       </c>
       <c r="F31" s="6"/>
       <c r="I31" s="4" t="s">
@@ -2482,7 +2420,7 @@
         <v>10</v>
       </c>
       <c r="L31" s="4" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="32" spans="1:12" ht="124.2" x14ac:dyDescent="0.3">
@@ -2490,19 +2428,19 @@
         <v>49</v>
       </c>
       <c r="B32" s="20" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D32" s="20" t="s">
-        <v>266</v>
+        <v>255</v>
       </c>
       <c r="E32" s="21" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F32" s="22" t="s">
-        <v>247</v>
+        <v>237</v>
       </c>
       <c r="I32" s="4" t="s">
         <v>0</v>
@@ -2514,7 +2452,7 @@
         <v>10</v>
       </c>
       <c r="L32" s="4" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="33" spans="1:12" ht="69" x14ac:dyDescent="0.3">
@@ -2522,19 +2460,19 @@
         <v>49</v>
       </c>
       <c r="B33" s="20" t="s">
+        <v>111</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="D33" s="20" t="s">
+        <v>112</v>
+      </c>
+      <c r="E33" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="F33" s="22" t="s">
         <v>113</v>
-      </c>
-      <c r="C33" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="D33" s="20" t="s">
-        <v>114</v>
-      </c>
-      <c r="E33" s="21" t="s">
-        <v>52</v>
-      </c>
-      <c r="F33" s="22" t="s">
-        <v>115</v>
       </c>
       <c r="I33" s="4" t="s">
         <v>0</v>
@@ -2546,7 +2484,7 @@
         <v>10</v>
       </c>
       <c r="L33" s="4" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.3">
@@ -2554,19 +2492,19 @@
         <v>49</v>
       </c>
       <c r="B34" s="20" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D34" s="20" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E34" s="21" t="s">
-        <v>259</v>
+        <v>248</v>
       </c>
       <c r="I34" s="4" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="J34" s="4">
         <v>2023</v>
@@ -2575,7 +2513,7 @@
         <v>10</v>
       </c>
       <c r="L34" s="4" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="35" spans="1:12" ht="41.4" x14ac:dyDescent="0.3">
@@ -2583,16 +2521,16 @@
         <v>28</v>
       </c>
       <c r="B35" s="20" t="s">
-        <v>267</v>
+        <v>256</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="D35" s="20" t="s">
-        <v>249</v>
+        <v>239</v>
       </c>
       <c r="E35" s="21" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I35" s="4" t="s">
         <v>0</v>
@@ -2604,7 +2542,7 @@
         <v>11</v>
       </c>
       <c r="L35" s="4" t="s">
-        <v>251</v>
+        <v>241</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.3">
@@ -2612,29 +2550,29 @@
         <v>28</v>
       </c>
       <c r="B36" s="8" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D36" s="23" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E36" s="24" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F36" s="25"/>
       <c r="I36" s="4" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="J36" s="4" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="K36" s="4">
         <v>11</v>
       </c>
       <c r="L36" s="4" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.3">
@@ -2642,16 +2580,16 @@
         <v>28</v>
       </c>
       <c r="B37" s="8" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C37" s="4" t="s">
         <v>30</v>
       </c>
       <c r="D37" s="8" t="s">
-        <v>124</v>
+        <v>265</v>
       </c>
       <c r="E37" s="9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F37" s="10"/>
       <c r="I37" s="4" t="s">
@@ -2664,7 +2602,7 @@
         <v>11</v>
       </c>
       <c r="L37" s="4" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.3">
@@ -2672,16 +2610,16 @@
         <v>28</v>
       </c>
       <c r="B38" s="8" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C38" s="4" t="s">
         <v>30</v>
       </c>
       <c r="D38" s="8" t="s">
-        <v>124</v>
+        <v>265</v>
       </c>
       <c r="E38" s="9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F38" s="10"/>
       <c r="I38" s="4" t="s">
@@ -2694,7 +2632,7 @@
         <v>11</v>
       </c>
       <c r="L38" s="4" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.3">
@@ -2702,16 +2640,16 @@
         <v>28</v>
       </c>
       <c r="B39" s="8" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C39" s="14" t="s">
         <v>30</v>
       </c>
       <c r="D39" s="23" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="E39" s="24" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F39" s="25"/>
       <c r="H39" s="14"/>
@@ -2725,7 +2663,7 @@
         <v>11</v>
       </c>
       <c r="L39" s="4" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.3">
@@ -2733,16 +2671,16 @@
         <v>28</v>
       </c>
       <c r="B40" s="8" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C40" s="14" t="s">
         <v>30</v>
       </c>
       <c r="D40" s="23" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="E40" s="24" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F40" s="25"/>
       <c r="H40" s="14"/>
@@ -2756,7 +2694,7 @@
         <v>11</v>
       </c>
       <c r="L40" s="4" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="41" spans="1:12" ht="41.4" x14ac:dyDescent="0.3">
@@ -2764,22 +2702,22 @@
         <v>28</v>
       </c>
       <c r="B41" s="8" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D41" s="23" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="E41" s="9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F41" s="10" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="H41" s="4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="I41" s="4" t="s">
         <v>0</v>
@@ -2791,7 +2729,7 @@
         <v>11</v>
       </c>
       <c r="L41" s="4" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="42" spans="1:12" ht="41.4" x14ac:dyDescent="0.3">
@@ -2799,22 +2737,22 @@
         <v>28</v>
       </c>
       <c r="B42" s="8" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="C42" s="14" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D42" s="23" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="E42" s="24" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F42" s="25" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="H42" s="14" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="I42" s="4" t="s">
         <v>0</v>
@@ -2826,7 +2764,7 @@
         <v>11</v>
       </c>
       <c r="L42" s="4" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.3">
@@ -2834,21 +2772,21 @@
         <v>49</v>
       </c>
       <c r="B43" s="8" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="C43" s="14" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D43" s="23" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="E43" s="24" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F43" s="25"/>
       <c r="H43" s="14"/>
       <c r="I43" s="4" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="J43" s="4">
         <v>2023</v>
@@ -2857,7 +2795,7 @@
         <v>12</v>
       </c>
       <c r="L43" s="4" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.3">
@@ -2865,20 +2803,20 @@
         <v>49</v>
       </c>
       <c r="B44" s="8" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D44" s="23" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="E44" s="24" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F44" s="25"/>
       <c r="I44" s="4" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="J44" s="4">
         <v>2023</v>
@@ -2887,7 +2825,7 @@
         <v>12</v>
       </c>
       <c r="L44" s="4" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="45" spans="1:12" ht="27.6" x14ac:dyDescent="0.3">
@@ -2895,22 +2833,22 @@
         <v>49</v>
       </c>
       <c r="B45" s="8" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D45" s="23" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="E45" s="24" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F45" s="25" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="H45" s="4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="I45" s="4" t="s">
         <v>0</v>
@@ -2922,7 +2860,7 @@
         <v>12</v>
       </c>
       <c r="L45" s="4" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
     <row r="46" spans="1:12" ht="27.6" x14ac:dyDescent="0.3">
@@ -2930,22 +2868,22 @@
         <v>49</v>
       </c>
       <c r="B46" s="8" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D46" s="23" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="E46" s="24" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F46" s="25" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="H46" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="I46" s="4" t="s">
         <v>0</v>
@@ -2957,7 +2895,7 @@
         <v>12</v>
       </c>
       <c r="L46" s="4" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
     </row>
     <row r="47" spans="1:12" ht="61.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -2965,16 +2903,16 @@
         <v>28</v>
       </c>
       <c r="B47" s="8" t="s">
-        <v>268</v>
+        <v>257</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="D47" s="23" t="s">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="E47" s="24" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F47" s="25"/>
       <c r="I47" s="4" t="s">
@@ -2987,7 +2925,7 @@
         <v>13</v>
       </c>
       <c r="L47" s="4" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
     </row>
     <row r="48" spans="1:12" ht="72" customHeight="1" x14ac:dyDescent="0.3">
@@ -2995,19 +2933,19 @@
         <v>28</v>
       </c>
       <c r="B48" s="8" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D48" s="23" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="E48" s="24" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F48" s="25" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="I48" s="4" t="s">
         <v>0</v>
@@ -3019,7 +2957,7 @@
         <v>13</v>
       </c>
       <c r="L48" s="4" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.3">
@@ -3027,16 +2965,16 @@
         <v>28</v>
       </c>
       <c r="B49" s="8" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="C49" s="4" t="s">
         <v>30</v>
       </c>
       <c r="D49" s="8" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="E49" s="9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F49" s="10"/>
       <c r="I49" s="4" t="s">
@@ -3049,7 +2987,7 @@
         <v>13</v>
       </c>
       <c r="L49" s="4" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
     </row>
     <row r="50" spans="1:12" ht="27.6" x14ac:dyDescent="0.3">
@@ -3057,16 +2995,16 @@
         <v>28</v>
       </c>
       <c r="B50" s="8" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="C50" s="4" t="s">
         <v>30</v>
       </c>
       <c r="D50" s="8" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="E50" s="9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F50" s="10"/>
       <c r="I50" s="4" t="s">
@@ -3079,67 +3017,67 @@
         <v>13</v>
       </c>
       <c r="L50" s="4" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="51" spans="1:12" s="34" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="34" t="s">
-        <v>28</v>
-      </c>
-      <c r="B51" s="35" t="s">
-        <v>272</v>
-      </c>
-      <c r="C51" s="34" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A51" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B51" s="8" t="s">
+        <v>261</v>
+      </c>
+      <c r="C51" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="D51" s="35" t="s">
-        <v>273</v>
-      </c>
-      <c r="E51" s="36" t="s">
-        <v>52</v>
-      </c>
-      <c r="F51" s="37"/>
-      <c r="I51" s="34" t="s">
-        <v>0</v>
-      </c>
-      <c r="J51" s="34">
-        <v>2023</v>
-      </c>
-      <c r="K51" s="34">
+      <c r="D51" s="8" t="s">
+        <v>262</v>
+      </c>
+      <c r="E51" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="F51" s="10"/>
+      <c r="I51" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="J51" s="4">
+        <v>2023</v>
+      </c>
+      <c r="K51" s="4">
         <v>13</v>
       </c>
-      <c r="L51" s="34" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="52" spans="1:12" s="34" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="34" t="s">
-        <v>28</v>
-      </c>
-      <c r="B52" s="35" t="s">
-        <v>162</v>
-      </c>
-      <c r="C52" s="34" t="s">
+      <c r="L51" s="4" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A52" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B52" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="C52" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="D52" s="35" t="s">
-        <v>275</v>
-      </c>
-      <c r="E52" s="36" t="s">
-        <v>52</v>
-      </c>
-      <c r="F52" s="37"/>
-      <c r="I52" s="34" t="s">
-        <v>0</v>
-      </c>
-      <c r="J52" s="34">
-        <v>2023</v>
-      </c>
-      <c r="K52" s="34">
+      <c r="D52" s="8" t="s">
+        <v>264</v>
+      </c>
+      <c r="E52" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="F52" s="10"/>
+      <c r="I52" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="J52" s="4">
+        <v>2023</v>
+      </c>
+      <c r="K52" s="4">
         <v>13</v>
       </c>
-      <c r="L52" s="34" t="s">
-        <v>163</v>
+      <c r="L52" s="4" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="53" spans="1:12" ht="41.4" x14ac:dyDescent="0.3">
@@ -3147,22 +3085,22 @@
         <v>28</v>
       </c>
       <c r="B53" s="15" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D53" s="8" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="E53" s="9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F53" s="10" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="H53" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="I53" s="4" t="s">
         <v>0</v>
@@ -3174,7 +3112,7 @@
         <v>13</v>
       </c>
       <c r="L53" s="4" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.3">
@@ -3182,19 +3120,19 @@
         <v>28</v>
       </c>
       <c r="B54" s="15" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D54" s="20" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="E54" s="21" t="s">
-        <v>258</v>
+        <v>247</v>
       </c>
       <c r="I54" s="4" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="J54" s="4">
         <v>2023</v>
@@ -3203,7 +3141,7 @@
         <v>13</v>
       </c>
       <c r="L54" s="4" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
     </row>
     <row r="55" spans="1:12" ht="27.6" x14ac:dyDescent="0.3">
@@ -3211,16 +3149,16 @@
         <v>28</v>
       </c>
       <c r="B55" s="8" t="s">
-        <v>269</v>
+        <v>258</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="D55" s="23" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="E55" s="24" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F55" s="25"/>
       <c r="I55" s="4" t="s">
@@ -3233,7 +3171,7 @@
         <v>14</v>
       </c>
       <c r="L55" s="4" t="s">
-        <v>252</v>
+        <v>242</v>
       </c>
     </row>
     <row r="56" spans="1:12" ht="61.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -3241,16 +3179,16 @@
         <v>28</v>
       </c>
       <c r="B56" s="8" t="s">
-        <v>270</v>
+        <v>259</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="D56" s="23" t="s">
-        <v>254</v>
+        <v>244</v>
       </c>
       <c r="E56" s="24" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F56" s="25"/>
       <c r="I56" s="4" t="s">
@@ -3263,7 +3201,7 @@
         <v>14</v>
       </c>
       <c r="L56" s="4" t="s">
-        <v>253</v>
+        <v>243</v>
       </c>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.3">
@@ -3271,23 +3209,23 @@
         <v>28</v>
       </c>
       <c r="B57" s="15" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D57" s="15" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="E57" s="17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F57" s="16"/>
       <c r="G57" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="H57" s="4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="I57" s="4" t="s">
         <v>0</v>
@@ -3299,7 +3237,7 @@
         <v>14</v>
       </c>
       <c r="L57" s="4" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
     </row>
     <row r="58" spans="1:12" ht="69" x14ac:dyDescent="0.3">
@@ -3307,19 +3245,19 @@
         <v>28</v>
       </c>
       <c r="B58" s="15" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D58" s="15" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="E58" s="16" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F58" s="16" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="I58" s="4" t="s">
         <v>0</v>
@@ -3331,7 +3269,7 @@
         <v>14</v>
       </c>
       <c r="L58" s="4" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.3">
@@ -3339,29 +3277,29 @@
         <v>28</v>
       </c>
       <c r="B59" s="15" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D59" s="15" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="E59" s="17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F59" s="16"/>
       <c r="I59" s="4" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="J59" s="4" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="K59" s="4">
         <v>14</v>
       </c>
       <c r="L59" s="4" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
     </row>
     <row r="60" spans="1:12" ht="41.4" x14ac:dyDescent="0.3">
@@ -3369,22 +3307,22 @@
         <v>28</v>
       </c>
       <c r="B60" s="15" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D60" s="8" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="E60" s="9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F60" s="10" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="H60" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="I60" s="4" t="s">
         <v>0</v>
@@ -3396,7 +3334,7 @@
         <v>14</v>
       </c>
       <c r="L60" s="4" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.3">
@@ -3404,29 +3342,29 @@
         <v>28</v>
       </c>
       <c r="B61" s="15" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D61" s="8" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="E61" s="9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F61" s="10"/>
       <c r="I61" s="4" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="J61" s="4" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="K61" s="4">
         <v>15</v>
       </c>
       <c r="L61" s="4" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
     </row>
     <row r="62" spans="1:12" ht="27.6" x14ac:dyDescent="0.3">
@@ -3434,19 +3372,19 @@
         <v>28</v>
       </c>
       <c r="B62" s="15" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D62" s="15" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="E62" s="16" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F62" s="16" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="I62" s="4" t="s">
         <v>0</v>
@@ -3458,7 +3396,7 @@
         <v>15</v>
       </c>
       <c r="L62" s="4" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
     </row>
     <row r="63" spans="1:12" ht="96.6" x14ac:dyDescent="0.3">
@@ -3466,19 +3404,19 @@
         <v>28</v>
       </c>
       <c r="B63" s="15" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="D63" s="15" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="E63" s="16" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F63" s="16" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="I63" s="4" t="s">
         <v>0</v>
@@ -3490,7 +3428,7 @@
         <v>15</v>
       </c>
       <c r="L63" s="4" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
     </row>
     <row r="64" spans="1:12" ht="41.4" x14ac:dyDescent="0.3">
@@ -3498,22 +3436,22 @@
         <v>28</v>
       </c>
       <c r="B64" s="15" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D64" s="15" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="E64" s="16" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F64" s="16" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="H64" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="I64" s="4" t="s">
         <v>0</v>
@@ -3525,7 +3463,7 @@
         <v>15</v>
       </c>
       <c r="L64" s="4" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.3">
@@ -3533,16 +3471,16 @@
         <v>28</v>
       </c>
       <c r="B65" s="15" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="C65" s="4" t="s">
         <v>30</v>
       </c>
       <c r="D65" s="15" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="E65" s="17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F65" s="16"/>
       <c r="I65" s="4" t="s">
@@ -3555,7 +3493,7 @@
         <v>16</v>
       </c>
       <c r="L65" s="4" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.3">
@@ -3563,16 +3501,16 @@
         <v>28</v>
       </c>
       <c r="B66" s="15" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="C66" s="4" t="s">
         <v>30</v>
       </c>
       <c r="D66" s="15" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="E66" s="17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F66" s="16"/>
       <c r="I66" s="4" t="s">
@@ -3585,7 +3523,7 @@
         <v>16</v>
       </c>
       <c r="L66" s="4" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.3">
@@ -3593,16 +3531,16 @@
         <v>28</v>
       </c>
       <c r="B67" s="15" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="C67" s="4" t="s">
         <v>30</v>
       </c>
       <c r="D67" s="15" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="E67" s="17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F67" s="16"/>
       <c r="I67" s="4" t="s">
@@ -3615,7 +3553,7 @@
         <v>16</v>
       </c>
       <c r="L67" s="4" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.3">
@@ -3623,16 +3561,16 @@
         <v>28</v>
       </c>
       <c r="B68" s="15" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="C68" s="4" t="s">
         <v>30</v>
       </c>
       <c r="D68" s="15" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="E68" s="17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F68" s="16"/>
       <c r="I68" s="4" t="s">
@@ -3645,7 +3583,7 @@
         <v>16</v>
       </c>
       <c r="L68" s="4" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.3">
@@ -3653,29 +3591,29 @@
         <v>28</v>
       </c>
       <c r="B69" s="15" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D69" s="15" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="E69" s="17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F69" s="16"/>
       <c r="I69" s="4" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="J69" s="4" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="K69" s="4">
         <v>16</v>
       </c>
       <c r="L69" s="4" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
     </row>
     <row r="70" spans="1:12" ht="41.4" x14ac:dyDescent="0.3">
@@ -3683,22 +3621,22 @@
         <v>28</v>
       </c>
       <c r="B70" s="15" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D70" s="15" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="E70" s="17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F70" s="16" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="H70" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="I70" s="4" t="s">
         <v>0</v>
@@ -3710,7 +3648,7 @@
         <v>16</v>
       </c>
       <c r="L70" s="4" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.3">
@@ -3718,16 +3656,16 @@
         <v>28</v>
       </c>
       <c r="B71" s="15" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="C71" s="4" t="s">
         <v>30</v>
       </c>
       <c r="D71" s="15" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="E71" s="16" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F71" s="16"/>
       <c r="I71" s="4" t="s">
@@ -3740,7 +3678,7 @@
         <v>16</v>
       </c>
       <c r="L71" s="4" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.3">
@@ -3748,16 +3686,16 @@
         <v>28</v>
       </c>
       <c r="B72" s="15" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="C72" s="4" t="s">
         <v>30</v>
       </c>
       <c r="D72" s="15" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="E72" s="16" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F72" s="16"/>
       <c r="I72" s="4" t="s">
@@ -3770,7 +3708,7 @@
         <v>16</v>
       </c>
       <c r="L72" s="4" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.3">
@@ -3778,20 +3716,20 @@
         <v>28</v>
       </c>
       <c r="B73" s="15" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D73" s="15" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="E73" s="16" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F73" s="16"/>
       <c r="I73" s="4" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="J73" s="4">
         <v>2023</v>
@@ -3800,7 +3738,7 @@
         <v>17</v>
       </c>
       <c r="L73" s="4" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.3">
@@ -3808,16 +3746,16 @@
         <v>28</v>
       </c>
       <c r="B74" s="15" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="C74" s="4" t="s">
         <v>30</v>
       </c>
       <c r="D74" s="15" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="E74" s="17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F74" s="16"/>
       <c r="I74" s="4" t="s">
@@ -3830,7 +3768,7 @@
         <v>17</v>
       </c>
       <c r="L74" s="4" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.3">
@@ -3838,16 +3776,16 @@
         <v>28</v>
       </c>
       <c r="B75" s="15" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="C75" s="4" t="s">
         <v>30</v>
       </c>
       <c r="D75" s="15" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="E75" s="17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F75" s="16"/>
       <c r="I75" s="4" t="s">
@@ -3860,7 +3798,7 @@
         <v>17</v>
       </c>
       <c r="L75" s="4" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.3">
@@ -3868,16 +3806,16 @@
         <v>28</v>
       </c>
       <c r="B76" s="15" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="C76" s="4" t="s">
         <v>30</v>
       </c>
       <c r="D76" s="15" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="E76" s="17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F76" s="16"/>
       <c r="I76" s="4" t="s">
@@ -3890,7 +3828,7 @@
         <v>17</v>
       </c>
       <c r="L76" s="4" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.3">
@@ -3898,16 +3836,16 @@
         <v>28</v>
       </c>
       <c r="B77" s="15" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="C77" s="4" t="s">
         <v>30</v>
       </c>
       <c r="D77" s="15" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="E77" s="17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F77" s="16"/>
       <c r="I77" s="4" t="s">
@@ -3920,7 +3858,7 @@
         <v>17</v>
       </c>
       <c r="L77" s="4" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.3">
@@ -3928,16 +3866,16 @@
         <v>28</v>
       </c>
       <c r="B78" s="15" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="C78" s="4" t="s">
         <v>30</v>
       </c>
       <c r="D78" s="15" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="E78" s="17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F78" s="16"/>
       <c r="I78" s="4" t="s">
@@ -3950,7 +3888,7 @@
         <v>17</v>
       </c>
       <c r="L78" s="4" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.3">
@@ -3958,16 +3896,16 @@
         <v>28</v>
       </c>
       <c r="B79" s="15" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="C79" s="4" t="s">
         <v>30</v>
       </c>
       <c r="D79" s="15" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="E79" s="17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F79" s="16"/>
       <c r="I79" s="4" t="s">
@@ -3980,7 +3918,7 @@
         <v>17</v>
       </c>
       <c r="L79" s="4" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
     </row>
     <row r="80" spans="1:12" ht="41.4" x14ac:dyDescent="0.3">
@@ -3988,22 +3926,22 @@
         <v>28</v>
       </c>
       <c r="B80" s="15" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D80" s="15" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="E80" s="17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F80" s="16" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="H80" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="I80" s="4" t="s">
         <v>0</v>
@@ -4015,7 +3953,7 @@
         <v>17</v>
       </c>
       <c r="L80" s="4" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
     </row>
     <row r="81" spans="1:12" x14ac:dyDescent="0.3">
@@ -4023,16 +3961,16 @@
         <v>49</v>
       </c>
       <c r="B81" s="23" t="s">
-        <v>262</v>
+        <v>251</v>
       </c>
       <c r="C81" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="D81" s="26" t="s">
+        <v>250</v>
+      </c>
+      <c r="E81" s="21" t="s">
         <v>107</v>
-      </c>
-      <c r="D81" s="26" t="s">
-        <v>261</v>
-      </c>
-      <c r="E81" s="21" t="s">
-        <v>109</v>
       </c>
       <c r="F81" s="25"/>
       <c r="I81" s="4" t="s">
@@ -4045,7 +3983,7 @@
         <v>18</v>
       </c>
       <c r="L81" s="4" t="s">
-        <v>263</v>
+        <v>252</v>
       </c>
     </row>
     <row r="82" spans="1:12" x14ac:dyDescent="0.3">
@@ -4053,16 +3991,16 @@
         <v>49</v>
       </c>
       <c r="B82" s="23" t="s">
-        <v>265</v>
+        <v>254</v>
       </c>
       <c r="C82" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="D82" s="26" t="s">
+        <v>249</v>
+      </c>
+      <c r="E82" s="21" t="s">
         <v>107</v>
-      </c>
-      <c r="D82" s="26" t="s">
-        <v>260</v>
-      </c>
-      <c r="E82" s="21" t="s">
-        <v>109</v>
       </c>
       <c r="F82" s="25"/>
       <c r="I82" s="4" t="s">
@@ -4075,7 +4013,7 @@
         <v>18</v>
       </c>
       <c r="L82" s="4" t="s">
-        <v>264</v>
+        <v>253</v>
       </c>
     </row>
     <row r="83" spans="1:12" x14ac:dyDescent="0.3">
@@ -4682,7 +4620,7 @@
   </sheetData>
   <autoFilter ref="A1:L188" xr:uid="{73A75041-D6C8-4C2F-941F-420EA079C5D1}"/>
   <phoneticPr fontId="4" type="noConversion"/>
-  <dataValidations count="1">
+  <dataValidations disablePrompts="1" count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I1:I1048576" xr:uid="{E89AD40E-DE52-4053-84BA-AF9396D00B95}">
       <formula1>"basis, referentie, basis en referentie"</formula1>
     </dataValidation>
@@ -4696,3195 +4634,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF695DE9-1123-44CF-8821-90B2A45BD0C6}">
-  <dimension ref="A1:L187"/>
-  <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="8.5546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="51.33203125" style="20" customWidth="1"/>
-    <col min="3" max="3" width="19.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.88671875" style="20" customWidth="1"/>
-    <col min="5" max="5" width="10.109375" style="21" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="30.44140625" style="22" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="11.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="7.5546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="32.5546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="8.88671875" style="4"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A2" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D2" s="5"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="K2" s="4">
-        <v>1</v>
-      </c>
-      <c r="L2" s="4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A3" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D3" s="5"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="K3" s="4">
-        <v>1</v>
-      </c>
-      <c r="L3" s="4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A4" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>243</v>
-      </c>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6" t="s">
-        <v>244</v>
-      </c>
-      <c r="I4" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="J4" s="4">
-        <v>2023</v>
-      </c>
-      <c r="K4" s="4">
-        <v>3</v>
-      </c>
-      <c r="L4" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A5" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="E5" s="6">
-        <v>1</v>
-      </c>
-      <c r="F5" s="6"/>
-      <c r="I5" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="J5" s="4">
-        <v>2023</v>
-      </c>
-      <c r="K5" s="4">
-        <v>4</v>
-      </c>
-      <c r="L5" s="4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A6" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="F6" s="6"/>
-      <c r="I6" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="J6" s="4">
-        <v>2023</v>
-      </c>
-      <c r="K6" s="4">
-        <v>4</v>
-      </c>
-      <c r="L6" s="4" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A7" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="F7" s="6"/>
-      <c r="I7" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="J7" s="4">
-        <v>2023</v>
-      </c>
-      <c r="K7" s="4">
-        <v>4</v>
-      </c>
-      <c r="L7" s="4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A8" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="E8" s="6">
-        <v>4</v>
-      </c>
-      <c r="F8" s="6"/>
-      <c r="I8" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="J8" s="4">
-        <v>2023</v>
-      </c>
-      <c r="K8" s="4">
-        <v>4</v>
-      </c>
-      <c r="L8" s="4" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A9" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="B9" s="20" t="s">
-        <v>41</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="E9" s="6">
-        <v>1</v>
-      </c>
-      <c r="F9" s="6"/>
-      <c r="I9" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="J9" s="4">
-        <v>2023</v>
-      </c>
-      <c r="K9" s="4">
-        <v>4</v>
-      </c>
-      <c r="L9" s="4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A10" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="B10" s="20" t="s">
-        <v>41</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="E10" s="6">
-        <v>1</v>
-      </c>
-      <c r="F10" s="6"/>
-      <c r="I10" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="J10" s="4">
-        <v>2023</v>
-      </c>
-      <c r="K10" s="4">
-        <v>4</v>
-      </c>
-      <c r="L10" s="4" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A11" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="B11" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="D11" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="E11" s="9">
-        <v>1</v>
-      </c>
-      <c r="F11" s="10"/>
-      <c r="I11" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="J11" s="4">
-        <v>2023</v>
-      </c>
-      <c r="K11" s="4">
-        <v>4</v>
-      </c>
-      <c r="L11" s="4" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A12" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="B12" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="D12" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="E12" s="9">
-        <v>1</v>
-      </c>
-      <c r="F12" s="10"/>
-      <c r="I12" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="J12" s="4">
-        <v>2023</v>
-      </c>
-      <c r="K12" s="4">
-        <v>4</v>
-      </c>
-      <c r="L12" s="4" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A13" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="B13" s="20" t="s">
-        <v>50</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="D13" s="31" t="s">
-        <v>51</v>
-      </c>
-      <c r="E13" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="F13" s="10"/>
-      <c r="I13" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="J13" s="4">
-        <v>2023</v>
-      </c>
-      <c r="K13" s="4">
-        <v>5</v>
-      </c>
-      <c r="L13" s="4" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" ht="82.8" x14ac:dyDescent="0.3">
-      <c r="A14" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="B14" s="20" t="s">
-        <v>54</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="D14" s="33" t="s">
-        <v>56</v>
-      </c>
-      <c r="E14" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="F14" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="H14" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="I14" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="J14" s="4">
-        <v>2023</v>
-      </c>
-      <c r="K14" s="4">
-        <v>5</v>
-      </c>
-      <c r="L14" s="4" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A15" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="B15" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="D15" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="E15" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="F15" s="10"/>
-      <c r="G15" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="H15" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="I15" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="J15" s="4">
-        <v>2023</v>
-      </c>
-      <c r="K15" s="4">
-        <v>6</v>
-      </c>
-      <c r="L15" s="4" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A16" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="B16" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="D16" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="E16" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="F16" s="10"/>
-      <c r="G16" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="H16" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="I16" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="J16" s="4">
-        <v>2023</v>
-      </c>
-      <c r="K16" s="4">
-        <v>6</v>
-      </c>
-      <c r="L16" s="4" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A17" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="B17" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="D17" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="E17" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="F17" s="10"/>
-      <c r="G17" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="H17" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="I17" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="J17" s="4">
-        <v>2023</v>
-      </c>
-      <c r="K17" s="4">
-        <v>6</v>
-      </c>
-      <c r="L17" s="4" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A18" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="B18" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="D18" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="E18" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="F18" s="10"/>
-      <c r="G18" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="H18" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="I18" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="J18" s="4">
-        <v>2023</v>
-      </c>
-      <c r="K18" s="4">
-        <v>6</v>
-      </c>
-      <c r="L18" s="4" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A19" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="B19" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="C19" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="D19" s="31" t="s">
-        <v>75</v>
-      </c>
-      <c r="E19" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="F19" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="H19" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="I19" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="J19" s="4">
-        <v>2023</v>
-      </c>
-      <c r="K19" s="4">
-        <v>7</v>
-      </c>
-      <c r="L19" s="4" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A20" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="B20" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="C20" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="D20" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="E20" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="F20" s="13"/>
-      <c r="I20" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="J20" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="K20" s="4">
-        <v>8</v>
-      </c>
-      <c r="L20" s="4" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A21" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="B21" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="C21" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="D21" s="11" t="s">
-        <v>85</v>
-      </c>
-      <c r="E21" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="F21" s="10"/>
-      <c r="I21" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="J21" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="K21" s="4">
-        <v>8</v>
-      </c>
-      <c r="L21" s="4" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A22" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="B22" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="C22" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="D22" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="E22" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="F22" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="H22" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="I22" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="J22" s="4">
-        <v>2023</v>
-      </c>
-      <c r="K22" s="4">
-        <v>8</v>
-      </c>
-      <c r="L22" s="4" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A23" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="B23" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="C23" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="D23" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="E23" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="F23" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="H23" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="I23" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="J23" s="4">
-        <v>2023</v>
-      </c>
-      <c r="K23" s="4">
-        <v>8</v>
-      </c>
-      <c r="L23" s="4" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A24" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="B24" s="20" t="s">
-        <v>257</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="D24" s="20" t="s">
-        <v>93</v>
-      </c>
-      <c r="E24" s="21" t="s">
-        <v>52</v>
-      </c>
-      <c r="I24" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="J24" s="4">
-        <v>2023</v>
-      </c>
-      <c r="K24" s="4">
-        <v>9</v>
-      </c>
-      <c r="L24" s="4" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A25" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="B25" s="20" t="s">
-        <v>257</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="D25" s="20" t="s">
-        <v>93</v>
-      </c>
-      <c r="E25" s="21" t="s">
-        <v>52</v>
-      </c>
-      <c r="I25" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="J25" s="4">
-        <v>2023</v>
-      </c>
-      <c r="K25" s="4">
-        <v>9</v>
-      </c>
-      <c r="L25" s="4" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A26" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="B26" s="20" t="s">
-        <v>96</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="D26" s="20" t="s">
-        <v>97</v>
-      </c>
-      <c r="E26" s="21" t="s">
-        <v>52</v>
-      </c>
-      <c r="I26" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="J26" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="K26" s="4">
-        <v>9</v>
-      </c>
-      <c r="L26" s="4" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A27" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="B27" s="20" t="s">
-        <v>99</v>
-      </c>
-      <c r="C27" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="D27" s="20" t="s">
-        <v>248</v>
-      </c>
-      <c r="E27" s="21" t="s">
-        <v>52</v>
-      </c>
-      <c r="I27" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="J27" s="4">
-        <v>2023</v>
-      </c>
-      <c r="K27" s="4">
-        <v>9</v>
-      </c>
-      <c r="L27" s="4" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A28" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="B28" s="20" t="s">
-        <v>99</v>
-      </c>
-      <c r="C28" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="D28" s="20" t="s">
-        <v>248</v>
-      </c>
-      <c r="E28" s="21" t="s">
-        <v>52</v>
-      </c>
-      <c r="I28" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="J28" s="4">
-        <v>2023</v>
-      </c>
-      <c r="K28" s="4">
-        <v>9</v>
-      </c>
-      <c r="L28" s="4" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A29" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="B29" s="20" t="s">
-        <v>102</v>
-      </c>
-      <c r="C29" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="D29" s="20" t="s">
-        <v>103</v>
-      </c>
-      <c r="E29" s="21" t="s">
-        <v>52</v>
-      </c>
-      <c r="F29" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="H29" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="I29" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="J29" s="4">
-        <v>2023</v>
-      </c>
-      <c r="K29" s="4">
-        <v>9</v>
-      </c>
-      <c r="L29" s="4" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A30" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="B30" s="20" t="s">
-        <v>102</v>
-      </c>
-      <c r="C30" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="D30" s="20" t="s">
-        <v>103</v>
-      </c>
-      <c r="E30" s="21" t="s">
-        <v>52</v>
-      </c>
-      <c r="F30" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="H30" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="I30" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="J30" s="4">
-        <v>2023</v>
-      </c>
-      <c r="K30" s="4">
-        <v>9</v>
-      </c>
-      <c r="L30" s="4" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A31" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="B31" s="20" t="s">
-        <v>256</v>
-      </c>
-      <c r="C31" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="D31" s="20" t="s">
-        <v>108</v>
-      </c>
-      <c r="E31" s="21" t="s">
-        <v>109</v>
-      </c>
-      <c r="F31" s="6"/>
-      <c r="I31" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="J31" s="4">
-        <v>2023</v>
-      </c>
-      <c r="K31" s="4">
-        <v>10</v>
-      </c>
-      <c r="L31" s="4" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12" ht="69" x14ac:dyDescent="0.3">
-      <c r="A32" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="B32" s="20" t="s">
-        <v>113</v>
-      </c>
-      <c r="C32" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="D32" s="20" t="s">
-        <v>114</v>
-      </c>
-      <c r="E32" s="21" t="s">
-        <v>52</v>
-      </c>
-      <c r="F32" s="22" t="s">
-        <v>115</v>
-      </c>
-      <c r="I32" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="J32" s="4">
-        <v>2023</v>
-      </c>
-      <c r="K32" s="4">
-        <v>10</v>
-      </c>
-      <c r="L32" s="4" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A33" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="B33" s="20" t="s">
-        <v>117</v>
-      </c>
-      <c r="C33" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="D33" s="20" t="s">
-        <v>118</v>
-      </c>
-      <c r="E33" s="21" t="s">
-        <v>259</v>
-      </c>
-      <c r="I33" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="J33" s="4">
-        <v>2023</v>
-      </c>
-      <c r="K33" s="4">
-        <v>10</v>
-      </c>
-      <c r="L33" s="4" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A34" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="B34" s="20" t="s">
-        <v>267</v>
-      </c>
-      <c r="C34" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="D34" s="20" t="s">
-        <v>249</v>
-      </c>
-      <c r="E34" s="24" t="s">
-        <v>52</v>
-      </c>
-      <c r="I34" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="J34" s="4">
-        <v>2023</v>
-      </c>
-      <c r="K34" s="4">
-        <v>11</v>
-      </c>
-      <c r="L34" s="4" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A35" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="B35" s="8" t="s">
-        <v>120</v>
-      </c>
-      <c r="C35" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="D35" s="23" t="s">
-        <v>121</v>
-      </c>
-      <c r="E35" s="24" t="s">
-        <v>52</v>
-      </c>
-      <c r="F35" s="25"/>
-      <c r="I35" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="J35" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="K35" s="4">
-        <v>11</v>
-      </c>
-      <c r="L35" s="4" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A36" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="B36" s="8" t="s">
-        <v>123</v>
-      </c>
-      <c r="C36" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="D36" s="8" t="s">
-        <v>124</v>
-      </c>
-      <c r="E36" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="F36" s="10"/>
-      <c r="I36" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="J36" s="4">
-        <v>2023</v>
-      </c>
-      <c r="K36" s="4">
-        <v>11</v>
-      </c>
-      <c r="L36" s="4" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A37" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="B37" s="8" t="s">
-        <v>123</v>
-      </c>
-      <c r="C37" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="D37" s="8" t="s">
-        <v>124</v>
-      </c>
-      <c r="E37" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="F37" s="10"/>
-      <c r="I37" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="J37" s="4">
-        <v>2023</v>
-      </c>
-      <c r="K37" s="4">
-        <v>11</v>
-      </c>
-      <c r="L37" s="4" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A38" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="B38" s="8" t="s">
-        <v>127</v>
-      </c>
-      <c r="C38" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="D38" s="23" t="s">
-        <v>128</v>
-      </c>
-      <c r="E38" s="24" t="s">
-        <v>52</v>
-      </c>
-      <c r="F38" s="25"/>
-      <c r="H38" s="14"/>
-      <c r="I38" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="J38" s="4">
-        <v>2023</v>
-      </c>
-      <c r="K38" s="4">
-        <v>11</v>
-      </c>
-      <c r="L38" s="4" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A39" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="B39" s="8" t="s">
-        <v>127</v>
-      </c>
-      <c r="C39" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="D39" s="23" t="s">
-        <v>128</v>
-      </c>
-      <c r="E39" s="24" t="s">
-        <v>52</v>
-      </c>
-      <c r="F39" s="25"/>
-      <c r="H39" s="14"/>
-      <c r="I39" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="J39" s="4">
-        <v>2023</v>
-      </c>
-      <c r="K39" s="4">
-        <v>11</v>
-      </c>
-      <c r="L39" s="4" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="40" spans="1:12" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A40" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="B40" s="8" t="s">
-        <v>131</v>
-      </c>
-      <c r="C40" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="D40" s="23" t="s">
-        <v>132</v>
-      </c>
-      <c r="E40" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="F40" s="10" t="s">
-        <v>133</v>
-      </c>
-      <c r="H40" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="I40" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="J40" s="4">
-        <v>2023</v>
-      </c>
-      <c r="K40" s="4">
-        <v>11</v>
-      </c>
-      <c r="L40" s="4" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="41" spans="1:12" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A41" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="B41" s="8" t="s">
-        <v>131</v>
-      </c>
-      <c r="C41" s="14" t="s">
-        <v>88</v>
-      </c>
-      <c r="D41" s="23" t="s">
-        <v>132</v>
-      </c>
-      <c r="E41" s="24" t="s">
-        <v>52</v>
-      </c>
-      <c r="F41" s="25" t="s">
-        <v>133</v>
-      </c>
-      <c r="H41" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="I41" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="J41" s="4">
-        <v>2023</v>
-      </c>
-      <c r="K41" s="4">
-        <v>11</v>
-      </c>
-      <c r="L41" s="4" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A42" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="B42" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="C42" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="D42" s="23" t="s">
-        <v>137</v>
-      </c>
-      <c r="E42" s="24" t="s">
-        <v>52</v>
-      </c>
-      <c r="F42" s="25"/>
-      <c r="H42" s="14"/>
-      <c r="I42" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="J42" s="4">
-        <v>2023</v>
-      </c>
-      <c r="K42" s="4">
-        <v>12</v>
-      </c>
-      <c r="L42" s="4" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A43" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="B43" s="8" t="s">
-        <v>139</v>
-      </c>
-      <c r="C43" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="D43" s="23" t="s">
-        <v>140</v>
-      </c>
-      <c r="E43" s="24" t="s">
-        <v>52</v>
-      </c>
-      <c r="F43" s="25"/>
-      <c r="I43" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="J43" s="4">
-        <v>2023</v>
-      </c>
-      <c r="K43" s="4">
-        <v>12</v>
-      </c>
-      <c r="L43" s="4" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="44" spans="1:12" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A44" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="B44" s="8" t="s">
-        <v>142</v>
-      </c>
-      <c r="C44" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="D44" s="23" t="s">
-        <v>143</v>
-      </c>
-      <c r="E44" s="24" t="s">
-        <v>52</v>
-      </c>
-      <c r="F44" s="25" t="s">
-        <v>144</v>
-      </c>
-      <c r="H44" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="I44" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="J44" s="4">
-        <v>2023</v>
-      </c>
-      <c r="K44" s="4">
-        <v>12</v>
-      </c>
-      <c r="L44" s="4" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="45" spans="1:12" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A45" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="B45" s="8" t="s">
-        <v>142</v>
-      </c>
-      <c r="C45" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="D45" s="23" t="s">
-        <v>143</v>
-      </c>
-      <c r="E45" s="24" t="s">
-        <v>52</v>
-      </c>
-      <c r="F45" s="25" t="s">
-        <v>144</v>
-      </c>
-      <c r="H45" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="I45" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="J45" s="4">
-        <v>2023</v>
-      </c>
-      <c r="K45" s="4">
-        <v>12</v>
-      </c>
-      <c r="L45" s="4" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="46" spans="1:12" ht="61.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="B46" s="8" t="s">
-        <v>268</v>
-      </c>
-      <c r="C46" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="D46" s="23" t="s">
-        <v>250</v>
-      </c>
-      <c r="E46" s="24" t="s">
-        <v>52</v>
-      </c>
-      <c r="F46" s="25"/>
-      <c r="I46" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="J46" s="4">
-        <v>2023</v>
-      </c>
-      <c r="K46" s="4">
-        <v>13</v>
-      </c>
-      <c r="L46" s="4" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="47" spans="1:12" ht="72" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="B47" s="8" t="s">
-        <v>149</v>
-      </c>
-      <c r="C47" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="D47" s="30" t="s">
-        <v>239</v>
-      </c>
-      <c r="E47" s="24" t="s">
-        <v>52</v>
-      </c>
-      <c r="F47" s="25" t="s">
-        <v>151</v>
-      </c>
-      <c r="I47" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="J47" s="4">
-        <v>2023</v>
-      </c>
-      <c r="K47" s="4">
-        <v>13</v>
-      </c>
-      <c r="L47" s="4" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A48" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="B48" s="8" t="s">
-        <v>153</v>
-      </c>
-      <c r="C48" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="D48" s="8" t="s">
-        <v>154</v>
-      </c>
-      <c r="E48" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="F48" s="10"/>
-      <c r="I48" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="J48" s="4">
-        <v>2023</v>
-      </c>
-      <c r="K48" s="4">
-        <v>13</v>
-      </c>
-      <c r="L48" s="4" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="49" spans="1:12" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A49" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="B49" s="8" t="s">
-        <v>156</v>
-      </c>
-      <c r="C49" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="D49" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="E49" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="F49" s="10"/>
-      <c r="I49" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="J49" s="4">
-        <v>2023</v>
-      </c>
-      <c r="K49" s="4">
-        <v>13</v>
-      </c>
-      <c r="L49" s="4" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A50" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="B50" s="8" t="s">
-        <v>159</v>
-      </c>
-      <c r="C50" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="D50" s="8" t="s">
-        <v>160</v>
-      </c>
-      <c r="E50" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="F50" s="10"/>
-      <c r="I50" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="J50" s="4">
-        <v>2023</v>
-      </c>
-      <c r="K50" s="4">
-        <v>13</v>
-      </c>
-      <c r="L50" s="4" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A51" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="B51" s="8" t="s">
-        <v>162</v>
-      </c>
-      <c r="C51" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="D51" s="31" t="s">
-        <v>240</v>
-      </c>
-      <c r="E51" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="F51" s="10"/>
-      <c r="I51" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="J51" s="4">
-        <v>2023</v>
-      </c>
-      <c r="K51" s="4">
-        <v>13</v>
-      </c>
-      <c r="L51" s="4" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="52" spans="1:12" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A52" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="B52" s="15" t="s">
-        <v>164</v>
-      </c>
-      <c r="C52" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="D52" s="8" t="s">
-        <v>165</v>
-      </c>
-      <c r="E52" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="F52" s="10" t="s">
-        <v>166</v>
-      </c>
-      <c r="H52" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="I52" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="J52" s="4">
-        <v>2023</v>
-      </c>
-      <c r="K52" s="4">
-        <v>13</v>
-      </c>
-      <c r="L52" s="4" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A53" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="B53" s="15" t="s">
-        <v>168</v>
-      </c>
-      <c r="C53" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="D53" s="20" t="s">
-        <v>169</v>
-      </c>
-      <c r="E53" s="21" t="s">
-        <v>258</v>
-      </c>
-      <c r="I53" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="J53" s="4">
-        <v>2023</v>
-      </c>
-      <c r="K53" s="4">
-        <v>13</v>
-      </c>
-      <c r="L53" s="4" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="54" spans="1:12" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A54" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="B54" s="8" t="s">
-        <v>269</v>
-      </c>
-      <c r="C54" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="D54" s="23" t="s">
-        <v>172</v>
-      </c>
-      <c r="E54" s="24" t="s">
-        <v>52</v>
-      </c>
-      <c r="F54" s="25"/>
-      <c r="I54" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="J54" s="4">
-        <v>2023</v>
-      </c>
-      <c r="K54" s="4">
-        <v>14</v>
-      </c>
-      <c r="L54" s="4" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="55" spans="1:12" ht="61.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="B55" s="8" t="s">
-        <v>270</v>
-      </c>
-      <c r="C55" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="D55" s="23" t="s">
-        <v>254</v>
-      </c>
-      <c r="E55" s="24" t="s">
-        <v>52</v>
-      </c>
-      <c r="F55" s="25"/>
-      <c r="I55" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="J55" s="4">
-        <v>2023</v>
-      </c>
-      <c r="K55" s="4">
-        <v>14</v>
-      </c>
-      <c r="L55" s="4" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A56" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="B56" s="15" t="s">
-        <v>171</v>
-      </c>
-      <c r="C56" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="D56" s="15" t="s">
-        <v>172</v>
-      </c>
-      <c r="E56" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="F56" s="16"/>
-      <c r="G56" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="H56" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="I56" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="J56" s="4">
-        <v>2023</v>
-      </c>
-      <c r="K56" s="4">
-        <v>14</v>
-      </c>
-      <c r="L56" s="4" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="57" spans="1:12" ht="69" x14ac:dyDescent="0.3">
-      <c r="A57" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="B57" s="15" t="s">
-        <v>174</v>
-      </c>
-      <c r="C57" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="D57" s="15" t="s">
-        <v>175</v>
-      </c>
-      <c r="E57" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="F57" s="16" t="s">
-        <v>176</v>
-      </c>
-      <c r="I57" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="J57" s="4">
-        <v>2023</v>
-      </c>
-      <c r="K57" s="4">
-        <v>14</v>
-      </c>
-      <c r="L57" s="4" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A58" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="B58" s="15" t="s">
-        <v>178</v>
-      </c>
-      <c r="C58" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="D58" s="15" t="s">
-        <v>179</v>
-      </c>
-      <c r="E58" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="F58" s="16"/>
-      <c r="I58" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="J58" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="K58" s="4">
-        <v>14</v>
-      </c>
-      <c r="L58" s="4" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="59" spans="1:12" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A59" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="B59" s="15" t="s">
-        <v>181</v>
-      </c>
-      <c r="C59" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="D59" s="8" t="s">
-        <v>182</v>
-      </c>
-      <c r="E59" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="F59" s="10" t="s">
-        <v>183</v>
-      </c>
-      <c r="H59" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="I59" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="J59" s="4">
-        <v>2023</v>
-      </c>
-      <c r="K59" s="4">
-        <v>14</v>
-      </c>
-      <c r="L59" s="4" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A60" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="B60" s="15" t="s">
-        <v>185</v>
-      </c>
-      <c r="C60" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="D60" s="8" t="s">
-        <v>186</v>
-      </c>
-      <c r="E60" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="F60" s="10"/>
-      <c r="I60" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="J60" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="K60" s="4">
-        <v>15</v>
-      </c>
-      <c r="L60" s="4" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="61" spans="1:12" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A61" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="B61" s="15" t="s">
-        <v>188</v>
-      </c>
-      <c r="C61" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="D61" s="15" t="s">
-        <v>189</v>
-      </c>
-      <c r="E61" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="F61" s="16" t="s">
-        <v>190</v>
-      </c>
-      <c r="I61" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="J61" s="4">
-        <v>2023</v>
-      </c>
-      <c r="K61" s="4">
-        <v>15</v>
-      </c>
-      <c r="L61" s="4" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="62" spans="1:12" ht="96.6" x14ac:dyDescent="0.3">
-      <c r="A62" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="B62" s="15" t="s">
-        <v>192</v>
-      </c>
-      <c r="C62" s="4" t="s">
-        <v>193</v>
-      </c>
-      <c r="D62" s="15" t="s">
-        <v>194</v>
-      </c>
-      <c r="E62" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="F62" s="16" t="s">
-        <v>195</v>
-      </c>
-      <c r="I62" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="J62" s="4">
-        <v>2023</v>
-      </c>
-      <c r="K62" s="4">
-        <v>15</v>
-      </c>
-      <c r="L62" s="4" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="63" spans="1:12" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A63" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="B63" s="15" t="s">
-        <v>197</v>
-      </c>
-      <c r="C63" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="D63" s="15" t="s">
-        <v>198</v>
-      </c>
-      <c r="E63" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="F63" s="16" t="s">
-        <v>199</v>
-      </c>
-      <c r="H63" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="I63" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="J63" s="4">
-        <v>2023</v>
-      </c>
-      <c r="K63" s="4">
-        <v>15</v>
-      </c>
-      <c r="L63" s="4" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A64" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="B64" s="15" t="s">
-        <v>201</v>
-      </c>
-      <c r="C64" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="D64" s="15" t="s">
-        <v>202</v>
-      </c>
-      <c r="E64" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="F64" s="16"/>
-      <c r="I64" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="J64" s="4">
-        <v>2023</v>
-      </c>
-      <c r="K64" s="4">
-        <v>16</v>
-      </c>
-      <c r="L64" s="4" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A65" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="B65" s="15" t="s">
-        <v>201</v>
-      </c>
-      <c r="C65" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="D65" s="15" t="s">
-        <v>202</v>
-      </c>
-      <c r="E65" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="F65" s="16"/>
-      <c r="I65" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="J65" s="4">
-        <v>2023</v>
-      </c>
-      <c r="K65" s="4">
-        <v>16</v>
-      </c>
-      <c r="L65" s="4" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A66" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="B66" s="15" t="s">
-        <v>205</v>
-      </c>
-      <c r="C66" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="D66" s="15" t="s">
-        <v>206</v>
-      </c>
-      <c r="E66" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="F66" s="16"/>
-      <c r="I66" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="J66" s="4">
-        <v>2023</v>
-      </c>
-      <c r="K66" s="4">
-        <v>16</v>
-      </c>
-      <c r="L66" s="4" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A67" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="B67" s="15" t="s">
-        <v>205</v>
-      </c>
-      <c r="C67" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="D67" s="15" t="s">
-        <v>206</v>
-      </c>
-      <c r="E67" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="F67" s="16"/>
-      <c r="I67" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="J67" s="4">
-        <v>2023</v>
-      </c>
-      <c r="K67" s="4">
-        <v>16</v>
-      </c>
-      <c r="L67" s="4" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A68" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="B68" s="15" t="s">
-        <v>209</v>
-      </c>
-      <c r="C68" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="D68" s="15" t="s">
-        <v>210</v>
-      </c>
-      <c r="E68" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="F68" s="16"/>
-      <c r="I68" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="J68" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="K68" s="4">
-        <v>16</v>
-      </c>
-      <c r="L68" s="4" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="69" spans="1:12" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A69" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="B69" s="15" t="s">
-        <v>212</v>
-      </c>
-      <c r="C69" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="D69" s="15" t="s">
-        <v>213</v>
-      </c>
-      <c r="E69" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="F69" s="16" t="s">
-        <v>214</v>
-      </c>
-      <c r="H69" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="I69" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="J69" s="4">
-        <v>2023</v>
-      </c>
-      <c r="K69" s="4">
-        <v>16</v>
-      </c>
-      <c r="L69" s="4" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A70" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="B70" s="15" t="s">
-        <v>216</v>
-      </c>
-      <c r="C70" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="D70" s="15" t="s">
-        <v>217</v>
-      </c>
-      <c r="E70" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="F70" s="16"/>
-      <c r="I70" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="J70" s="4">
-        <v>2023</v>
-      </c>
-      <c r="K70" s="4">
-        <v>16</v>
-      </c>
-      <c r="L70" s="4" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A71" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="B71" s="15" t="s">
-        <v>216</v>
-      </c>
-      <c r="C71" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="D71" s="15" t="s">
-        <v>217</v>
-      </c>
-      <c r="E71" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="F71" s="16"/>
-      <c r="I71" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="J71" s="4">
-        <v>2023</v>
-      </c>
-      <c r="K71" s="4">
-        <v>16</v>
-      </c>
-      <c r="L71" s="4" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A72" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="B72" s="15" t="s">
-        <v>220</v>
-      </c>
-      <c r="C72" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="D72" s="32" t="s">
-        <v>241</v>
-      </c>
-      <c r="E72" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="F72" s="16"/>
-      <c r="I72" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="J72" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="K72" s="4">
-        <v>17</v>
-      </c>
-      <c r="L72" s="4" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A73" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="B73" s="15" t="s">
-        <v>223</v>
-      </c>
-      <c r="C73" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="D73" s="15" t="s">
-        <v>224</v>
-      </c>
-      <c r="E73" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="F73" s="16"/>
-      <c r="I73" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="J73" s="4">
-        <v>2023</v>
-      </c>
-      <c r="K73" s="4">
-        <v>17</v>
-      </c>
-      <c r="L73" s="4" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A74" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="B74" s="15" t="s">
-        <v>223</v>
-      </c>
-      <c r="C74" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="D74" s="15" t="s">
-        <v>224</v>
-      </c>
-      <c r="E74" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="F74" s="16"/>
-      <c r="I74" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="J74" s="4">
-        <v>2023</v>
-      </c>
-      <c r="K74" s="4">
-        <v>17</v>
-      </c>
-      <c r="L74" s="4" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A75" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="B75" s="15" t="s">
-        <v>227</v>
-      </c>
-      <c r="C75" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="D75" s="15" t="s">
-        <v>228</v>
-      </c>
-      <c r="E75" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="F75" s="16"/>
-      <c r="I75" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="J75" s="4">
-        <v>2023</v>
-      </c>
-      <c r="K75" s="4">
-        <v>17</v>
-      </c>
-      <c r="L75" s="4" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A76" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="B76" s="15" t="s">
-        <v>227</v>
-      </c>
-      <c r="C76" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="D76" s="15" t="s">
-        <v>228</v>
-      </c>
-      <c r="E76" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="F76" s="16"/>
-      <c r="I76" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="J76" s="4">
-        <v>2023</v>
-      </c>
-      <c r="K76" s="4">
-        <v>17</v>
-      </c>
-      <c r="L76" s="4" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A77" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="B77" s="15" t="s">
-        <v>231</v>
-      </c>
-      <c r="C77" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="D77" s="15" t="s">
-        <v>232</v>
-      </c>
-      <c r="E77" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="F77" s="16"/>
-      <c r="I77" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="J77" s="4">
-        <v>2023</v>
-      </c>
-      <c r="K77" s="4">
-        <v>17</v>
-      </c>
-      <c r="L77" s="4" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A78" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="B78" s="15" t="s">
-        <v>231</v>
-      </c>
-      <c r="C78" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="D78" s="15" t="s">
-        <v>232</v>
-      </c>
-      <c r="E78" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="F78" s="16"/>
-      <c r="I78" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="J78" s="4">
-        <v>2023</v>
-      </c>
-      <c r="K78" s="4">
-        <v>17</v>
-      </c>
-      <c r="L78" s="4" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="79" spans="1:12" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A79" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="B79" s="15" t="s">
-        <v>235</v>
-      </c>
-      <c r="C79" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="D79" s="32" t="s">
-        <v>242</v>
-      </c>
-      <c r="E79" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="F79" s="16" t="s">
-        <v>237</v>
-      </c>
-      <c r="H79" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="I79" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="J79" s="4">
-        <v>2023</v>
-      </c>
-      <c r="K79" s="4">
-        <v>17</v>
-      </c>
-      <c r="L79" s="4" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A80" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="B80" s="23" t="s">
-        <v>262</v>
-      </c>
-      <c r="C80" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="D80" s="26" t="s">
-        <v>261</v>
-      </c>
-      <c r="E80" s="21" t="s">
-        <v>109</v>
-      </c>
-      <c r="F80" s="25"/>
-      <c r="I80" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="J80" s="4">
-        <v>2023</v>
-      </c>
-      <c r="K80" s="4">
-        <v>18</v>
-      </c>
-      <c r="L80" s="4" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A81" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="B81" s="23" t="s">
-        <v>265</v>
-      </c>
-      <c r="C81" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="D81" s="26" t="s">
-        <v>260</v>
-      </c>
-      <c r="E81" s="21" t="s">
-        <v>109</v>
-      </c>
-      <c r="F81" s="25"/>
-      <c r="I81" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="J81" s="4">
-        <v>2023</v>
-      </c>
-      <c r="K81" s="4">
-        <v>18</v>
-      </c>
-      <c r="L81" s="4" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B82" s="23"/>
-      <c r="D82" s="23"/>
-      <c r="E82" s="24"/>
-      <c r="F82" s="25"/>
-    </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B83" s="23"/>
-      <c r="D83" s="23"/>
-      <c r="E83" s="24"/>
-      <c r="F83" s="25"/>
-    </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B84" s="23"/>
-      <c r="D84" s="23"/>
-      <c r="E84" s="24"/>
-      <c r="F84" s="25"/>
-    </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B85" s="23"/>
-      <c r="D85" s="23"/>
-      <c r="E85" s="24"/>
-      <c r="F85" s="25"/>
-    </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B86" s="23"/>
-      <c r="D86" s="23"/>
-      <c r="E86" s="24"/>
-      <c r="F86" s="25"/>
-    </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B87" s="23"/>
-      <c r="D87" s="23"/>
-      <c r="E87" s="24"/>
-      <c r="F87" s="25"/>
-    </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B88" s="23"/>
-      <c r="D88" s="23"/>
-      <c r="E88" s="24"/>
-      <c r="F88" s="25"/>
-    </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B89" s="23"/>
-      <c r="D89" s="23"/>
-      <c r="E89" s="24"/>
-      <c r="F89" s="25"/>
-    </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B90" s="23"/>
-      <c r="D90" s="23"/>
-      <c r="E90" s="24"/>
-      <c r="F90" s="25"/>
-    </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B91" s="23"/>
-      <c r="D91" s="23"/>
-      <c r="E91" s="24"/>
-      <c r="F91" s="25"/>
-    </row>
-    <row r="92" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B92" s="23"/>
-      <c r="D92" s="23"/>
-      <c r="E92" s="24"/>
-      <c r="F92" s="25"/>
-    </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B93" s="23"/>
-      <c r="D93" s="23"/>
-      <c r="E93" s="24"/>
-      <c r="F93" s="25"/>
-    </row>
-    <row r="94" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B94" s="23"/>
-      <c r="D94" s="23"/>
-      <c r="E94" s="24"/>
-      <c r="F94" s="25"/>
-    </row>
-    <row r="95" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B95" s="23"/>
-      <c r="D95" s="23"/>
-      <c r="E95" s="24"/>
-      <c r="F95" s="25"/>
-    </row>
-    <row r="96" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B96" s="23"/>
-      <c r="D96" s="23"/>
-      <c r="E96" s="24"/>
-      <c r="F96" s="25"/>
-    </row>
-    <row r="97" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B97" s="23"/>
-      <c r="D97" s="23"/>
-      <c r="E97" s="24"/>
-      <c r="F97" s="25"/>
-    </row>
-    <row r="98" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B98" s="23"/>
-      <c r="D98" s="23"/>
-      <c r="E98" s="24"/>
-      <c r="F98" s="25"/>
-    </row>
-    <row r="99" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B99" s="23"/>
-      <c r="D99" s="23"/>
-      <c r="E99" s="24"/>
-      <c r="F99" s="25"/>
-    </row>
-    <row r="100" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B100" s="23"/>
-      <c r="D100" s="23"/>
-      <c r="E100" s="24"/>
-      <c r="F100" s="25"/>
-    </row>
-    <row r="101" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B101" s="23"/>
-      <c r="D101" s="23"/>
-      <c r="E101" s="24"/>
-      <c r="F101" s="25"/>
-    </row>
-    <row r="102" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B102" s="23"/>
-      <c r="D102" s="23"/>
-      <c r="E102" s="24"/>
-      <c r="F102" s="25"/>
-    </row>
-    <row r="103" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B103" s="23"/>
-      <c r="D103" s="23"/>
-      <c r="E103" s="24"/>
-      <c r="F103" s="25"/>
-    </row>
-    <row r="104" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B104" s="23"/>
-      <c r="D104" s="23"/>
-      <c r="E104" s="24"/>
-      <c r="F104" s="25"/>
-    </row>
-    <row r="105" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B105" s="23"/>
-      <c r="D105" s="23"/>
-      <c r="E105" s="24"/>
-      <c r="F105" s="25"/>
-    </row>
-    <row r="106" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B106" s="23"/>
-      <c r="D106" s="23"/>
-      <c r="E106" s="24"/>
-      <c r="F106" s="25"/>
-    </row>
-    <row r="107" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B107" s="23"/>
-      <c r="D107" s="23"/>
-      <c r="E107" s="24"/>
-      <c r="F107" s="25"/>
-    </row>
-    <row r="108" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B108" s="23"/>
-      <c r="D108" s="23"/>
-      <c r="E108" s="24"/>
-      <c r="F108" s="25"/>
-    </row>
-    <row r="109" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B109" s="23"/>
-      <c r="D109" s="23"/>
-      <c r="E109" s="24"/>
-      <c r="F109" s="25"/>
-    </row>
-    <row r="110" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B110" s="23"/>
-      <c r="D110" s="23"/>
-      <c r="E110" s="24"/>
-      <c r="F110" s="25"/>
-    </row>
-    <row r="111" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B111" s="23"/>
-      <c r="D111" s="23"/>
-      <c r="E111" s="24"/>
-      <c r="F111" s="25"/>
-    </row>
-    <row r="112" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B112" s="23"/>
-      <c r="D112" s="23"/>
-      <c r="E112" s="24"/>
-      <c r="F112" s="25"/>
-    </row>
-    <row r="113" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B113" s="23"/>
-      <c r="D113" s="23"/>
-      <c r="E113" s="24"/>
-      <c r="F113" s="25"/>
-    </row>
-    <row r="114" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B114" s="23"/>
-      <c r="D114" s="23"/>
-      <c r="E114" s="24"/>
-      <c r="F114" s="25"/>
-    </row>
-    <row r="115" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B115" s="23"/>
-      <c r="D115" s="23"/>
-      <c r="E115" s="24"/>
-      <c r="F115" s="25"/>
-    </row>
-    <row r="116" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B116" s="23"/>
-      <c r="D116" s="23"/>
-      <c r="E116" s="24"/>
-      <c r="F116" s="25"/>
-    </row>
-    <row r="117" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B117" s="23"/>
-      <c r="D117" s="23"/>
-      <c r="E117" s="24"/>
-      <c r="F117" s="25"/>
-    </row>
-    <row r="118" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B118" s="23"/>
-      <c r="D118" s="23"/>
-      <c r="E118" s="24"/>
-      <c r="F118" s="25"/>
-    </row>
-    <row r="119" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B119" s="23"/>
-      <c r="D119" s="23"/>
-      <c r="E119" s="24"/>
-      <c r="F119" s="25"/>
-    </row>
-    <row r="120" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B120" s="23"/>
-      <c r="D120" s="23"/>
-      <c r="E120" s="24"/>
-      <c r="F120" s="25"/>
-    </row>
-    <row r="121" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B121" s="23"/>
-      <c r="D121" s="23"/>
-      <c r="E121" s="24"/>
-      <c r="F121" s="25"/>
-    </row>
-    <row r="122" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B122" s="23"/>
-      <c r="D122" s="23"/>
-      <c r="E122" s="24"/>
-      <c r="F122" s="25"/>
-    </row>
-    <row r="123" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B123" s="23"/>
-      <c r="D123" s="23"/>
-      <c r="E123" s="24"/>
-      <c r="F123" s="25"/>
-    </row>
-    <row r="124" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B124" s="23"/>
-      <c r="D124" s="23"/>
-      <c r="E124" s="24"/>
-      <c r="F124" s="25"/>
-    </row>
-    <row r="125" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B125" s="8"/>
-      <c r="D125" s="8"/>
-      <c r="E125" s="9"/>
-      <c r="F125" s="10"/>
-    </row>
-    <row r="126" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B126" s="8"/>
-      <c r="D126" s="8"/>
-      <c r="E126" s="9"/>
-      <c r="F126" s="10"/>
-    </row>
-    <row r="127" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B127" s="8"/>
-      <c r="D127" s="8"/>
-      <c r="E127" s="9"/>
-      <c r="F127" s="10"/>
-    </row>
-    <row r="128" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B128" s="8"/>
-      <c r="D128" s="8"/>
-      <c r="E128" s="9"/>
-      <c r="F128" s="10"/>
-    </row>
-    <row r="129" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B129" s="8"/>
-      <c r="D129" s="8"/>
-      <c r="E129" s="9"/>
-      <c r="F129" s="10"/>
-    </row>
-    <row r="130" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B130" s="8"/>
-      <c r="D130" s="8"/>
-      <c r="E130" s="9"/>
-      <c r="F130" s="10"/>
-    </row>
-    <row r="135" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B135" s="15"/>
-      <c r="D135" s="15"/>
-      <c r="E135" s="17"/>
-      <c r="F135" s="16"/>
-    </row>
-    <row r="136" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B136" s="15"/>
-      <c r="D136" s="15"/>
-      <c r="E136" s="17"/>
-      <c r="F136" s="16"/>
-    </row>
-    <row r="137" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B137" s="15"/>
-      <c r="D137" s="15"/>
-      <c r="E137" s="17"/>
-      <c r="F137" s="16"/>
-    </row>
-    <row r="138" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B138" s="15"/>
-      <c r="D138" s="15"/>
-      <c r="E138" s="17"/>
-      <c r="F138" s="16"/>
-    </row>
-    <row r="139" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B139" s="15"/>
-      <c r="D139" s="15"/>
-      <c r="E139" s="17"/>
-      <c r="F139" s="16"/>
-    </row>
-    <row r="140" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B140" s="15"/>
-      <c r="D140" s="15"/>
-      <c r="E140" s="17"/>
-      <c r="F140" s="16"/>
-    </row>
-    <row r="141" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B141" s="15"/>
-      <c r="D141" s="15"/>
-      <c r="E141" s="17"/>
-      <c r="F141" s="16"/>
-    </row>
-    <row r="142" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B142" s="15"/>
-      <c r="D142" s="15"/>
-      <c r="E142" s="17"/>
-      <c r="F142" s="16"/>
-    </row>
-    <row r="143" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B143" s="8"/>
-      <c r="D143" s="8"/>
-      <c r="E143" s="9"/>
-      <c r="F143" s="10"/>
-    </row>
-    <row r="144" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B144" s="8"/>
-      <c r="D144" s="8"/>
-      <c r="E144" s="9"/>
-      <c r="F144" s="10"/>
-    </row>
-    <row r="145" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B145" s="8"/>
-      <c r="D145" s="8"/>
-      <c r="E145" s="9"/>
-      <c r="F145" s="10"/>
-    </row>
-    <row r="146" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="D146" s="8"/>
-      <c r="E146" s="9"/>
-      <c r="F146" s="10"/>
-    </row>
-    <row r="147" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="D147" s="8"/>
-      <c r="E147" s="9"/>
-      <c r="F147" s="10"/>
-    </row>
-    <row r="148" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="D148" s="27"/>
-      <c r="E148" s="28"/>
-      <c r="F148" s="29"/>
-    </row>
-    <row r="149" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="D149" s="27"/>
-      <c r="E149" s="28"/>
-      <c r="F149" s="29"/>
-    </row>
-    <row r="150" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="D150" s="27"/>
-      <c r="E150" s="28"/>
-      <c r="F150" s="29"/>
-    </row>
-    <row r="151" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="D151" s="27"/>
-      <c r="E151" s="28"/>
-      <c r="F151" s="29"/>
-    </row>
-    <row r="152" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="D152" s="27"/>
-      <c r="E152" s="28"/>
-      <c r="F152" s="29"/>
-    </row>
-    <row r="153" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="D153" s="27"/>
-      <c r="E153" s="28"/>
-      <c r="F153" s="29"/>
-    </row>
-    <row r="154" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B154" s="27"/>
-      <c r="D154" s="27"/>
-      <c r="E154" s="28"/>
-      <c r="F154" s="29"/>
-    </row>
-    <row r="155" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B155" s="27"/>
-      <c r="D155" s="27"/>
-      <c r="E155" s="28"/>
-      <c r="F155" s="29"/>
-    </row>
-    <row r="156" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B156" s="27"/>
-      <c r="D156" s="27"/>
-      <c r="E156" s="28"/>
-      <c r="F156" s="29"/>
-    </row>
-    <row r="157" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B157" s="27"/>
-    </row>
-    <row r="158" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B158" s="15"/>
-      <c r="D158" s="15"/>
-      <c r="E158" s="17"/>
-      <c r="F158" s="16"/>
-    </row>
-    <row r="159" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B159" s="15"/>
-      <c r="D159" s="15"/>
-      <c r="E159" s="17"/>
-      <c r="F159" s="16"/>
-    </row>
-    <row r="160" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B160" s="15"/>
-      <c r="D160" s="15"/>
-      <c r="E160" s="17"/>
-      <c r="F160" s="16"/>
-    </row>
-    <row r="161" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B161" s="15"/>
-      <c r="D161" s="15"/>
-      <c r="E161" s="17"/>
-      <c r="F161" s="16"/>
-    </row>
-    <row r="162" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B162" s="15"/>
-      <c r="D162" s="15"/>
-      <c r="E162" s="17"/>
-      <c r="F162" s="16"/>
-    </row>
-    <row r="163" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B163" s="15"/>
-      <c r="D163" s="15"/>
-      <c r="E163" s="17"/>
-      <c r="F163" s="16"/>
-    </row>
-    <row r="164" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B164" s="15"/>
-      <c r="D164" s="15"/>
-      <c r="E164" s="17"/>
-      <c r="F164" s="16"/>
-    </row>
-    <row r="165" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B165" s="15"/>
-      <c r="D165" s="15"/>
-      <c r="E165" s="17"/>
-      <c r="F165" s="16"/>
-    </row>
-    <row r="166" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B166" s="15"/>
-      <c r="D166" s="15"/>
-      <c r="E166" s="17"/>
-      <c r="F166" s="16"/>
-    </row>
-    <row r="167" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B167" s="15"/>
-      <c r="D167" s="15"/>
-      <c r="E167" s="17"/>
-      <c r="F167" s="16"/>
-    </row>
-    <row r="168" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B168" s="15"/>
-      <c r="D168" s="15"/>
-      <c r="E168" s="17"/>
-      <c r="F168" s="16"/>
-    </row>
-    <row r="169" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B169" s="15"/>
-      <c r="D169" s="15"/>
-      <c r="E169" s="17"/>
-      <c r="F169" s="16"/>
-    </row>
-    <row r="170" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B170" s="15"/>
-      <c r="D170" s="15"/>
-      <c r="E170" s="17"/>
-      <c r="F170" s="16"/>
-    </row>
-    <row r="171" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B171" s="15"/>
-      <c r="D171" s="15"/>
-      <c r="E171" s="17"/>
-      <c r="F171" s="16"/>
-    </row>
-    <row r="172" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B172" s="8"/>
-      <c r="D172" s="8"/>
-      <c r="E172" s="9"/>
-      <c r="F172" s="10"/>
-    </row>
-    <row r="173" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B173" s="8"/>
-      <c r="D173" s="8"/>
-      <c r="E173" s="9"/>
-      <c r="F173" s="10"/>
-    </row>
-    <row r="174" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B174" s="8"/>
-      <c r="D174" s="8"/>
-      <c r="E174" s="9"/>
-      <c r="F174" s="10"/>
-    </row>
-    <row r="175" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B175" s="8"/>
-      <c r="D175" s="8"/>
-      <c r="E175" s="9"/>
-      <c r="F175" s="10"/>
-    </row>
-    <row r="176" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B176" s="8"/>
-      <c r="D176" s="8"/>
-      <c r="E176" s="9"/>
-      <c r="F176" s="10"/>
-    </row>
-    <row r="177" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B177" s="8"/>
-      <c r="D177" s="8"/>
-      <c r="E177" s="9"/>
-      <c r="F177" s="10"/>
-    </row>
-    <row r="178" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B178" s="8"/>
-      <c r="D178" s="8"/>
-      <c r="E178" s="9"/>
-      <c r="F178" s="10"/>
-    </row>
-    <row r="179" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B179" s="8"/>
-      <c r="D179" s="8"/>
-      <c r="E179" s="9"/>
-      <c r="F179" s="10"/>
-    </row>
-    <row r="180" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B180" s="8"/>
-      <c r="D180" s="8"/>
-      <c r="E180" s="9"/>
-      <c r="F180" s="10"/>
-    </row>
-    <row r="181" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B181" s="8"/>
-      <c r="D181" s="8"/>
-      <c r="E181" s="9"/>
-      <c r="F181" s="10"/>
-    </row>
-    <row r="182" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B182" s="8"/>
-      <c r="D182" s="8"/>
-      <c r="E182" s="9"/>
-      <c r="F182" s="10"/>
-    </row>
-    <row r="183" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B183" s="8"/>
-      <c r="D183" s="8"/>
-      <c r="E183" s="9"/>
-      <c r="F183" s="10"/>
-    </row>
-    <row r="184" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B184" s="8"/>
-      <c r="D184" s="8"/>
-      <c r="E184" s="9"/>
-      <c r="F184" s="10"/>
-    </row>
-    <row r="185" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B185" s="8"/>
-      <c r="D185" s="8"/>
-      <c r="E185" s="9"/>
-      <c r="F185" s="10"/>
-    </row>
-    <row r="186" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B186" s="8"/>
-      <c r="D186" s="8"/>
-      <c r="E186" s="9"/>
-      <c r="F186" s="10"/>
-    </row>
-    <row r="187" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B187" s="8"/>
-      <c r="D187" s="8"/>
-      <c r="E187" s="9"/>
-      <c r="F187" s="10"/>
-    </row>
-  </sheetData>
-  <autoFilter ref="A1:L174" xr:uid="{73A75041-D6C8-4C2F-941F-420EA079C5D1}"/>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I1:I1048576" xr:uid="{2FB01D4B-F212-4522-9BFA-7FB7C392BF3A}">
-      <formula1>"basis, referentie, basis en referentie"</formula1>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <ignoredErrors>
-    <ignoredError sqref="E6:E30 E54:E79 E35:E52 E32" numberStoredAsText="1"/>
-  </ignoredErrors>
-</worksheet>
-</file>
-
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="4e95bed8-6d15-4403-ad70-a53422338dca">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <TaxCatchAll xmlns="d045ab76-3bb7-45f5-ab41-d7b04aa0dc94" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100C4EA295FB1FB9547A73C9F5819D6E613" ma:contentTypeVersion="20" ma:contentTypeDescription="Een nieuw document maken." ma:contentTypeScope="" ma:versionID="26426b46a5c0c1d258bf284d595ef36f">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="4e95bed8-6d15-4403-ad70-a53422338dca" xmlns:ns3="10d3344f-2d16-43d9-a145-97142f5cb288" xmlns:ns4="d045ab76-3bb7-45f5-ab41-d7b04aa0dc94" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7a995b3ef3034e03d49cf2989483892d" ns1:_="" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -8161,10 +4911,45 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="4e95bed8-6d15-4403-ad70-a53422338dca">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <TaxCatchAll xmlns="d045ab76-3bb7-45f5-ab41-d7b04aa0dc94" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F0EF40A6-8528-4994-A94E-1AE934020AF5}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2B7D56E5-F4DF-48D9-A1CD-EEB941D1E03B}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="4e95bed8-6d15-4403-ad70-a53422338dca"/>
+    <ds:schemaRef ds:uri="10d3344f-2d16-43d9-a145-97142f5cb288"/>
+    <ds:schemaRef ds:uri="d045ab76-3bb7-45f5-ab41-d7b04aa0dc94"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -8189,22 +4974,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2B7D56E5-F4DF-48D9-A1CD-EEB941D1E03B}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F0EF40A6-8528-4994-A94E-1AE934020AF5}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="4e95bed8-6d15-4403-ad70-a53422338dca"/>
-    <ds:schemaRef ds:uri="10d3344f-2d16-43d9-a145-97142f5cb288"/>
-    <ds:schemaRef ds:uri="d045ab76-3bb7-45f5-ab41-d7b04aa0dc94"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/1. Configuratie.xlsx
+++ b/1. Configuratie.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://vrln-my.sharepoint.com/personal/s_vermeulen_vrln_nl/Documents/Bureaublad/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1C11BA40-95A5-463C-825E-49E927D89F6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8C7AE25C-1F45-432D-8705-40A258EC101F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{340DDFAE-1A83-41FC-A379-531A17E4526A}"/>
   </bookViews>
@@ -39,24 +39,6 @@
 </workbook>
 </file>
 
-<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
-    <author>tc={778CBD80-E1A3-47A0-B5C5-DC3E84201059}</author>
-  </authors>
-  <commentList>
-    <comment ref="D51" authorId="0" shapeId="0" xr:uid="{778CBD80-E1A3-47A0-B5C5-DC3E84201059}">
-      <text>
-        <t>[Opmerkingenthread]
-U kunt deze opmerkingenthread lezen in uw versie van Excel. Eventuele wijzigingen aan de thread gaan echter verloren als het bestand wordt geopend in een nieuwere versie van Excel. Meer informatie: https://go.microsoft.com/fwlink/?linkid=870924
-Opmerking:
-    Moet dit niet PBWBK3S2 zijn? (Is voldoende weerbaar)</t>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="630" uniqueCount="267">
   <si>
@@ -537,9 +519,6 @@
     <t>Veerkracht</t>
   </si>
   <si>
-    <t>PBVKK3S2; PBVKK3S4; PBWBK3S7</t>
-  </si>
-  <si>
     <t>Herstelt snel; Moeilijk omgaan met stress; Goed voor zichzelf opkomen</t>
   </si>
   <si>
@@ -860,6 +839,9 @@
   </si>
   <si>
     <t>Slideconfiguratie 1</t>
+  </si>
+  <si>
+    <t>PBVKK3S2; PBVKK3S4; PBWBK3S2</t>
   </si>
 </sst>
 </file>
@@ -1069,9 +1051,7 @@
 </file>
 
 <file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <person displayName="Vermeulen, Sander" id="{DB7F9BFD-9AE8-413C-A685-3276F941A2CC}" userId="S::s.vermeulen@VRLN.NL::e08259fd-81d2-4a86-9b20-28ba02d67a18" providerId="AD"/>
-</personList>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1369,14 +1349,6 @@
 </a:theme>
 </file>
 
-<file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
-<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="D51" dT="2024-01-24T08:21:15.02" personId="{DB7F9BFD-9AE8-413C-A685-3276F941A2CC}" id="{778CBD80-E1A3-47A0-B5C5-DC3E84201059}">
-    <text>Moet dit niet PBWBK3S2 zijn? (Is voldoende weerbaar)</text>
-  </threadedComment>
-</ThreadedComments>
-</file>
-
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F0AA7A9-459B-4958-BBC2-94F84CFD8846}">
   <dimension ref="A1:E2"/>
@@ -1415,7 +1387,7 @@
         <v>5</v>
       </c>
       <c r="B2" s="19" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C2" s="19" t="s">
         <v>6</v>
@@ -1424,7 +1396,7 @@
         <v>6</v>
       </c>
       <c r="E2" s="19" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
   </sheetData>
@@ -1435,7 +1407,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73A75041-D6C8-4C2F-941F-420EA079C5D1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73A75041-D6C8-4C2F-941F-420EA079C5D1}">
   <dimension ref="A1:L188"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0"/>
@@ -1545,11 +1517,11 @@
         <v>26</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E4" s="6"/>
       <c r="F4" s="6" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="I4" s="4" t="s">
         <v>0</v>
@@ -1815,7 +1787,7 @@
         <v>30</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E13" s="9" t="s">
         <v>51</v>
@@ -1845,7 +1817,7 @@
         <v>54</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E14" s="6" t="s">
         <v>51</v>
@@ -2183,7 +2155,7 @@
         <v>28</v>
       </c>
       <c r="B24" s="20" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C24" s="4" t="s">
         <v>30</v>
@@ -2212,7 +2184,7 @@
         <v>28</v>
       </c>
       <c r="B25" s="20" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C25" s="4" t="s">
         <v>30</v>
@@ -2276,7 +2248,7 @@
         <v>30</v>
       </c>
       <c r="D27" s="20" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E27" s="21" t="s">
         <v>51</v>
@@ -2305,7 +2277,7 @@
         <v>30</v>
       </c>
       <c r="D28" s="20" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E28" s="21" t="s">
         <v>51</v>
@@ -2398,7 +2370,7 @@
         <v>49</v>
       </c>
       <c r="B31" s="20" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C31" s="4" t="s">
         <v>105</v>
@@ -2434,13 +2406,13 @@
         <v>54</v>
       </c>
       <c r="D32" s="20" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E32" s="21" t="s">
         <v>51</v>
       </c>
       <c r="F32" s="22" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="I32" s="4" t="s">
         <v>0</v>
@@ -2501,7 +2473,7 @@
         <v>116</v>
       </c>
       <c r="E34" s="21" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="I34" s="4" t="s">
         <v>79</v>
@@ -2521,13 +2493,13 @@
         <v>28</v>
       </c>
       <c r="B35" s="20" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C35" s="4" t="s">
         <v>144</v>
       </c>
       <c r="D35" s="20" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E35" s="21" t="s">
         <v>51</v>
@@ -2542,7 +2514,7 @@
         <v>11</v>
       </c>
       <c r="L35" s="4" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.3">
@@ -2586,7 +2558,7 @@
         <v>30</v>
       </c>
       <c r="D37" s="8" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E37" s="9" t="s">
         <v>51</v>
@@ -2616,7 +2588,7 @@
         <v>30</v>
       </c>
       <c r="D38" s="8" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E38" s="9" t="s">
         <v>51</v>
@@ -2903,13 +2875,13 @@
         <v>28</v>
       </c>
       <c r="B47" s="8" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C47" s="4" t="s">
         <v>144</v>
       </c>
       <c r="D47" s="23" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E47" s="24" t="s">
         <v>51</v>
@@ -3025,13 +2997,13 @@
         <v>28</v>
       </c>
       <c r="B51" s="8" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C51" s="4" t="s">
         <v>30</v>
       </c>
       <c r="D51" s="8" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E51" s="9" t="s">
         <v>51</v>
@@ -3047,7 +3019,7 @@
         <v>13</v>
       </c>
       <c r="L51" s="4" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.3">
@@ -3061,7 +3033,7 @@
         <v>30</v>
       </c>
       <c r="D52" s="8" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E52" s="9" t="s">
         <v>51</v>
@@ -3091,13 +3063,13 @@
         <v>86</v>
       </c>
       <c r="D53" s="8" t="s">
+        <v>266</v>
+      </c>
+      <c r="E53" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="F53" s="10" t="s">
         <v>159</v>
-      </c>
-      <c r="E53" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="F53" s="10" t="s">
-        <v>160</v>
       </c>
       <c r="H53" s="4" t="s">
         <v>61</v>
@@ -3112,7 +3084,7 @@
         <v>13</v>
       </c>
       <c r="L53" s="4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.3">
@@ -3120,16 +3092,16 @@
         <v>28</v>
       </c>
       <c r="B54" s="15" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C54" s="4" t="s">
         <v>105</v>
       </c>
       <c r="D54" s="20" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E54" s="21" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I54" s="4" t="s">
         <v>79</v>
@@ -3141,7 +3113,7 @@
         <v>13</v>
       </c>
       <c r="L54" s="4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="55" spans="1:12" ht="27.6" x14ac:dyDescent="0.3">
@@ -3149,13 +3121,13 @@
         <v>28</v>
       </c>
       <c r="B55" s="8" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C55" s="4" t="s">
         <v>144</v>
       </c>
       <c r="D55" s="23" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E55" s="24" t="s">
         <v>51</v>
@@ -3171,7 +3143,7 @@
         <v>14</v>
       </c>
       <c r="L55" s="4" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="56" spans="1:12" ht="61.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -3179,13 +3151,13 @@
         <v>28</v>
       </c>
       <c r="B56" s="8" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C56" s="4" t="s">
         <v>144</v>
       </c>
       <c r="D56" s="23" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E56" s="24" t="s">
         <v>51</v>
@@ -3201,7 +3173,7 @@
         <v>14</v>
       </c>
       <c r="L56" s="4" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.3">
@@ -3209,13 +3181,13 @@
         <v>28</v>
       </c>
       <c r="B57" s="15" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C57" s="4" t="s">
         <v>59</v>
       </c>
       <c r="D57" s="15" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E57" s="17" t="s">
         <v>51</v>
@@ -3237,7 +3209,7 @@
         <v>14</v>
       </c>
       <c r="L57" s="4" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="58" spans="1:12" ht="69" x14ac:dyDescent="0.3">
@@ -3245,19 +3217,19 @@
         <v>28</v>
       </c>
       <c r="B58" s="15" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C58" s="4" t="s">
         <v>54</v>
       </c>
       <c r="D58" s="15" t="s">
+        <v>168</v>
+      </c>
+      <c r="E58" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="F58" s="16" t="s">
         <v>169</v>
-      </c>
-      <c r="E58" s="16" t="s">
-        <v>51</v>
-      </c>
-      <c r="F58" s="16" t="s">
-        <v>170</v>
       </c>
       <c r="I58" s="4" t="s">
         <v>0</v>
@@ -3269,7 +3241,7 @@
         <v>14</v>
       </c>
       <c r="L58" s="4" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.3">
@@ -3277,13 +3249,13 @@
         <v>28</v>
       </c>
       <c r="B59" s="15" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C59" s="4" t="s">
         <v>77</v>
       </c>
       <c r="D59" s="15" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E59" s="17" t="s">
         <v>51</v>
@@ -3299,7 +3271,7 @@
         <v>14</v>
       </c>
       <c r="L59" s="4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="60" spans="1:12" ht="41.4" x14ac:dyDescent="0.3">
@@ -3307,19 +3279,19 @@
         <v>28</v>
       </c>
       <c r="B60" s="15" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C60" s="4" t="s">
         <v>86</v>
       </c>
       <c r="D60" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="E60" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="F60" s="10" t="s">
         <v>176</v>
-      </c>
-      <c r="E60" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="F60" s="10" t="s">
-        <v>177</v>
       </c>
       <c r="H60" s="4" t="s">
         <v>61</v>
@@ -3334,7 +3306,7 @@
         <v>14</v>
       </c>
       <c r="L60" s="4" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.3">
@@ -3342,13 +3314,13 @@
         <v>28</v>
       </c>
       <c r="B61" s="15" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C61" s="4" t="s">
         <v>77</v>
       </c>
       <c r="D61" s="8" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E61" s="9" t="s">
         <v>51</v>
@@ -3364,7 +3336,7 @@
         <v>15</v>
       </c>
       <c r="L61" s="4" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="62" spans="1:12" ht="27.6" x14ac:dyDescent="0.3">
@@ -3372,19 +3344,19 @@
         <v>28</v>
       </c>
       <c r="B62" s="15" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C62" s="4" t="s">
         <v>54</v>
       </c>
       <c r="D62" s="15" t="s">
+        <v>182</v>
+      </c>
+      <c r="E62" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="F62" s="16" t="s">
         <v>183</v>
-      </c>
-      <c r="E62" s="16" t="s">
-        <v>51</v>
-      </c>
-      <c r="F62" s="16" t="s">
-        <v>184</v>
       </c>
       <c r="I62" s="4" t="s">
         <v>0</v>
@@ -3396,7 +3368,7 @@
         <v>15</v>
       </c>
       <c r="L62" s="4" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="63" spans="1:12" ht="96.6" x14ac:dyDescent="0.3">
@@ -3404,19 +3376,19 @@
         <v>28</v>
       </c>
       <c r="B63" s="15" t="s">
+        <v>185</v>
+      </c>
+      <c r="C63" s="4" t="s">
         <v>186</v>
       </c>
-      <c r="C63" s="4" t="s">
+      <c r="D63" s="15" t="s">
         <v>187</v>
       </c>
-      <c r="D63" s="15" t="s">
+      <c r="E63" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="F63" s="16" t="s">
         <v>188</v>
-      </c>
-      <c r="E63" s="16" t="s">
-        <v>51</v>
-      </c>
-      <c r="F63" s="16" t="s">
-        <v>189</v>
       </c>
       <c r="I63" s="4" t="s">
         <v>0</v>
@@ -3428,7 +3400,7 @@
         <v>15</v>
       </c>
       <c r="L63" s="4" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="64" spans="1:12" ht="41.4" x14ac:dyDescent="0.3">
@@ -3436,19 +3408,19 @@
         <v>28</v>
       </c>
       <c r="B64" s="15" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C64" s="4" t="s">
         <v>86</v>
       </c>
       <c r="D64" s="15" t="s">
+        <v>191</v>
+      </c>
+      <c r="E64" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="F64" s="16" t="s">
         <v>192</v>
-      </c>
-      <c r="E64" s="16" t="s">
-        <v>51</v>
-      </c>
-      <c r="F64" s="16" t="s">
-        <v>193</v>
       </c>
       <c r="H64" s="4" t="s">
         <v>61</v>
@@ -3463,7 +3435,7 @@
         <v>15</v>
       </c>
       <c r="L64" s="4" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.3">
@@ -3471,13 +3443,13 @@
         <v>28</v>
       </c>
       <c r="B65" s="15" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C65" s="4" t="s">
         <v>30</v>
       </c>
       <c r="D65" s="15" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E65" s="17" t="s">
         <v>51</v>
@@ -3493,7 +3465,7 @@
         <v>16</v>
       </c>
       <c r="L65" s="4" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.3">
@@ -3501,13 +3473,13 @@
         <v>28</v>
       </c>
       <c r="B66" s="15" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C66" s="4" t="s">
         <v>30</v>
       </c>
       <c r="D66" s="15" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E66" s="17" t="s">
         <v>51</v>
@@ -3523,7 +3495,7 @@
         <v>16</v>
       </c>
       <c r="L66" s="4" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.3">
@@ -3531,13 +3503,13 @@
         <v>28</v>
       </c>
       <c r="B67" s="15" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C67" s="4" t="s">
         <v>30</v>
       </c>
       <c r="D67" s="15" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E67" s="17" t="s">
         <v>51</v>
@@ -3553,7 +3525,7 @@
         <v>16</v>
       </c>
       <c r="L67" s="4" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.3">
@@ -3561,13 +3533,13 @@
         <v>28</v>
       </c>
       <c r="B68" s="15" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C68" s="4" t="s">
         <v>30</v>
       </c>
       <c r="D68" s="15" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E68" s="17" t="s">
         <v>51</v>
@@ -3583,7 +3555,7 @@
         <v>16</v>
       </c>
       <c r="L68" s="4" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.3">
@@ -3591,13 +3563,13 @@
         <v>28</v>
       </c>
       <c r="B69" s="15" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C69" s="4" t="s">
         <v>77</v>
       </c>
       <c r="D69" s="15" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E69" s="17" t="s">
         <v>51</v>
@@ -3613,7 +3585,7 @@
         <v>16</v>
       </c>
       <c r="L69" s="4" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="70" spans="1:12" ht="41.4" x14ac:dyDescent="0.3">
@@ -3621,19 +3593,19 @@
         <v>28</v>
       </c>
       <c r="B70" s="15" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C70" s="4" t="s">
         <v>86</v>
       </c>
       <c r="D70" s="15" t="s">
+        <v>206</v>
+      </c>
+      <c r="E70" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="F70" s="16" t="s">
         <v>207</v>
-      </c>
-      <c r="E70" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="F70" s="16" t="s">
-        <v>208</v>
       </c>
       <c r="H70" s="4" t="s">
         <v>61</v>
@@ -3648,7 +3620,7 @@
         <v>16</v>
       </c>
       <c r="L70" s="4" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.3">
@@ -3656,13 +3628,13 @@
         <v>28</v>
       </c>
       <c r="B71" s="15" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C71" s="4" t="s">
         <v>30</v>
       </c>
       <c r="D71" s="15" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E71" s="16" t="s">
         <v>51</v>
@@ -3678,7 +3650,7 @@
         <v>16</v>
       </c>
       <c r="L71" s="4" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.3">
@@ -3686,13 +3658,13 @@
         <v>28</v>
       </c>
       <c r="B72" s="15" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C72" s="4" t="s">
         <v>30</v>
       </c>
       <c r="D72" s="15" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E72" s="16" t="s">
         <v>51</v>
@@ -3708,7 +3680,7 @@
         <v>16</v>
       </c>
       <c r="L72" s="4" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.3">
@@ -3716,13 +3688,13 @@
         <v>28</v>
       </c>
       <c r="B73" s="15" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C73" s="4" t="s">
         <v>59</v>
       </c>
       <c r="D73" s="15" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E73" s="16" t="s">
         <v>51</v>
@@ -3738,7 +3710,7 @@
         <v>17</v>
       </c>
       <c r="L73" s="4" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.3">
@@ -3746,13 +3718,13 @@
         <v>28</v>
       </c>
       <c r="B74" s="15" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C74" s="4" t="s">
         <v>30</v>
       </c>
       <c r="D74" s="15" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E74" s="17" t="s">
         <v>51</v>
@@ -3768,7 +3740,7 @@
         <v>17</v>
       </c>
       <c r="L74" s="4" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.3">
@@ -3776,13 +3748,13 @@
         <v>28</v>
       </c>
       <c r="B75" s="15" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C75" s="4" t="s">
         <v>30</v>
       </c>
       <c r="D75" s="15" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E75" s="17" t="s">
         <v>51</v>
@@ -3798,7 +3770,7 @@
         <v>17</v>
       </c>
       <c r="L75" s="4" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.3">
@@ -3806,13 +3778,13 @@
         <v>28</v>
       </c>
       <c r="B76" s="15" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C76" s="4" t="s">
         <v>30</v>
       </c>
       <c r="D76" s="15" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E76" s="17" t="s">
         <v>51</v>
@@ -3828,7 +3800,7 @@
         <v>17</v>
       </c>
       <c r="L76" s="4" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.3">
@@ -3836,13 +3808,13 @@
         <v>28</v>
       </c>
       <c r="B77" s="15" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C77" s="4" t="s">
         <v>30</v>
       </c>
       <c r="D77" s="15" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E77" s="17" t="s">
         <v>51</v>
@@ -3858,7 +3830,7 @@
         <v>17</v>
       </c>
       <c r="L77" s="4" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.3">
@@ -3866,13 +3838,13 @@
         <v>28</v>
       </c>
       <c r="B78" s="15" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C78" s="4" t="s">
         <v>30</v>
       </c>
       <c r="D78" s="15" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E78" s="17" t="s">
         <v>51</v>
@@ -3888,7 +3860,7 @@
         <v>17</v>
       </c>
       <c r="L78" s="4" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.3">
@@ -3896,13 +3868,13 @@
         <v>28</v>
       </c>
       <c r="B79" s="15" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C79" s="4" t="s">
         <v>30</v>
       </c>
       <c r="D79" s="15" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E79" s="17" t="s">
         <v>51</v>
@@ -3918,7 +3890,7 @@
         <v>17</v>
       </c>
       <c r="L79" s="4" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="80" spans="1:12" ht="41.4" x14ac:dyDescent="0.3">
@@ -3926,19 +3898,19 @@
         <v>28</v>
       </c>
       <c r="B80" s="15" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C80" s="4" t="s">
         <v>86</v>
       </c>
       <c r="D80" s="15" t="s">
+        <v>229</v>
+      </c>
+      <c r="E80" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="F80" s="16" t="s">
         <v>230</v>
-      </c>
-      <c r="E80" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="F80" s="16" t="s">
-        <v>231</v>
       </c>
       <c r="H80" s="4" t="s">
         <v>61</v>
@@ -3953,7 +3925,7 @@
         <v>17</v>
       </c>
       <c r="L80" s="4" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="81" spans="1:12" x14ac:dyDescent="0.3">
@@ -3961,13 +3933,13 @@
         <v>49</v>
       </c>
       <c r="B81" s="23" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C81" s="4" t="s">
         <v>105</v>
       </c>
       <c r="D81" s="26" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E81" s="21" t="s">
         <v>107</v>
@@ -3983,7 +3955,7 @@
         <v>18</v>
       </c>
       <c r="L81" s="4" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="82" spans="1:12" x14ac:dyDescent="0.3">
@@ -3991,13 +3963,13 @@
         <v>49</v>
       </c>
       <c r="B82" s="23" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C82" s="4" t="s">
         <v>105</v>
       </c>
       <c r="D82" s="26" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E82" s="21" t="s">
         <v>107</v>
@@ -4013,7 +3985,7 @@
         <v>18</v>
       </c>
       <c r="L82" s="4" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="83" spans="1:12" x14ac:dyDescent="0.3">
@@ -4630,7 +4602,6 @@
   <ignoredErrors>
     <ignoredError sqref="E13:E30 E33 E5:E9 E11 E53 E36:E39 E64 E57:E62 E49 E80 E76 E73:E74 E41:E44 E35 E45:E48 E75 E77:E79 E81:E82 E50:E52 E63 E65:E72 E40 E54:E56" numberStoredAsText="1"/>
   </ignoredErrors>
-  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -4912,6 +4883,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
@@ -4922,15 +4902,6 @@
     <TaxCatchAll xmlns="d045ab76-3bb7-45f5-ab41-d7b04aa0dc94" xsi:nil="true"/>
   </documentManagement>
 </p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4955,6 +4926,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F0EF40A6-8528-4994-A94E-1AE934020AF5}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FFBB421F-7112-4B85-A662-9379706C03DC}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="c1085ce0-992b-4e2c-bc8b-9e7e29361dd3"/>
@@ -4971,12 +4950,4 @@
     <ds:schemaRef ds:uri="d045ab76-3bb7-45f5-ab41-d7b04aa0dc94"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F0EF40A6-8528-4994-A94E-1AE934020AF5}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/1. Configuratie.xlsx
+++ b/1. Configuratie.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://vrln-my.sharepoint.com/personal/s_vermeulen_vrln_nl/Documents/Bureaublad/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8C7AE25C-1F45-432D-8705-40A258EC101F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{642ADE76-78FA-447C-B9B7-76B9EDDAF703}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{340DDFAE-1A83-41FC-A379-531A17E4526A}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{340DDFAE-1A83-41FC-A379-531A17E4526A}"/>
   </bookViews>
   <sheets>
     <sheet name="Rapportconfiguratie" sheetId="4" r:id="rId1"/>
@@ -306,9 +306,6 @@
     <t xml:space="preserve">EBGLK3S1; EBEGK3S2 </t>
   </si>
   <si>
-    <t>Ervaart een goede gezondheid; Voelt zich meestal gelukkig</t>
-  </si>
-  <si>
     <t>Combi ervaren gezondheid geluk klas</t>
   </si>
   <si>
@@ -842,6 +839,9 @@
   </si>
   <si>
     <t>PBVKK3S2; PBVKK3S4; PBWBK3S2</t>
+  </si>
+  <si>
+    <t>Voelt zich meestal gelukkig; Ervaart een goede gezondheid</t>
   </si>
 </sst>
 </file>
@@ -1048,10 +1048,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1353,7 +1349,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F0AA7A9-459B-4958-BBC2-94F84CFD8846}">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1387,7 +1383,7 @@
         <v>5</v>
       </c>
       <c r="B2" s="19" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C2" s="19" t="s">
         <v>6</v>
@@ -1396,7 +1392,7 @@
         <v>6</v>
       </c>
       <c r="E2" s="19" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
   </sheetData>
@@ -1410,7 +1406,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73A75041-D6C8-4C2F-941F-420EA079C5D1}">
   <dimension ref="A1:L188"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1517,11 +1513,11 @@
         <v>26</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E4" s="6"/>
       <c r="F4" s="6" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="I4" s="4" t="s">
         <v>0</v>
@@ -1787,7 +1783,7 @@
         <v>30</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E13" s="9" t="s">
         <v>51</v>
@@ -1817,7 +1813,7 @@
         <v>54</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E14" s="6" t="s">
         <v>51</v>
@@ -2097,7 +2093,7 @@
         <v>51</v>
       </c>
       <c r="F22" s="11" t="s">
-        <v>88</v>
+        <v>266</v>
       </c>
       <c r="H22" s="4" t="s">
         <v>56</v>
@@ -2112,7 +2108,7 @@
         <v>8</v>
       </c>
       <c r="L22" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="23" spans="1:12" ht="27.6" x14ac:dyDescent="0.3">
@@ -2132,7 +2128,7 @@
         <v>51</v>
       </c>
       <c r="F23" s="11" t="s">
-        <v>88</v>
+        <v>266</v>
       </c>
       <c r="H23" s="4" t="s">
         <v>61</v>
@@ -2147,7 +2143,7 @@
         <v>8</v>
       </c>
       <c r="L23" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="24" spans="1:12" ht="27.6" x14ac:dyDescent="0.3">
@@ -2155,13 +2151,13 @@
         <v>28</v>
       </c>
       <c r="B24" s="20" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C24" s="4" t="s">
         <v>30</v>
       </c>
       <c r="D24" s="20" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E24" s="21" t="s">
         <v>51</v>
@@ -2176,7 +2172,7 @@
         <v>9</v>
       </c>
       <c r="L24" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="25" spans="1:12" ht="27.6" x14ac:dyDescent="0.3">
@@ -2184,13 +2180,13 @@
         <v>28</v>
       </c>
       <c r="B25" s="20" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C25" s="4" t="s">
         <v>30</v>
       </c>
       <c r="D25" s="20" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E25" s="21" t="s">
         <v>51</v>
@@ -2205,7 +2201,7 @@
         <v>9</v>
       </c>
       <c r="L25" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.3">
@@ -2213,13 +2209,13 @@
         <v>28</v>
       </c>
       <c r="B26" s="20" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C26" s="4" t="s">
         <v>77</v>
       </c>
       <c r="D26" s="20" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E26" s="21" t="s">
         <v>51</v>
@@ -2234,7 +2230,7 @@
         <v>9</v>
       </c>
       <c r="L26" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.3">
@@ -2242,13 +2238,13 @@
         <v>28</v>
       </c>
       <c r="B27" s="20" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C27" s="4" t="s">
         <v>30</v>
       </c>
       <c r="D27" s="20" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E27" s="21" t="s">
         <v>51</v>
@@ -2263,7 +2259,7 @@
         <v>9</v>
       </c>
       <c r="L27" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.3">
@@ -2271,13 +2267,13 @@
         <v>28</v>
       </c>
       <c r="B28" s="20" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C28" s="4" t="s">
         <v>30</v>
       </c>
       <c r="D28" s="20" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E28" s="21" t="s">
         <v>51</v>
@@ -2292,7 +2288,7 @@
         <v>9</v>
       </c>
       <c r="L28" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="29" spans="1:12" ht="41.4" x14ac:dyDescent="0.3">
@@ -2300,19 +2296,19 @@
         <v>28</v>
       </c>
       <c r="B29" s="20" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C29" s="4" t="s">
         <v>86</v>
       </c>
       <c r="D29" s="20" t="s">
+        <v>100</v>
+      </c>
+      <c r="E29" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="F29" s="6" t="s">
         <v>101</v>
-      </c>
-      <c r="E29" s="21" t="s">
-        <v>51</v>
-      </c>
-      <c r="F29" s="6" t="s">
-        <v>102</v>
       </c>
       <c r="H29" s="4" t="s">
         <v>56</v>
@@ -2327,7 +2323,7 @@
         <v>9</v>
       </c>
       <c r="L29" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="30" spans="1:12" ht="41.4" x14ac:dyDescent="0.3">
@@ -2335,19 +2331,19 @@
         <v>28</v>
       </c>
       <c r="B30" s="20" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C30" s="4" t="s">
         <v>86</v>
       </c>
       <c r="D30" s="20" t="s">
+        <v>100</v>
+      </c>
+      <c r="E30" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="F30" s="6" t="s">
         <v>101</v>
-      </c>
-      <c r="E30" s="21" t="s">
-        <v>51</v>
-      </c>
-      <c r="F30" s="6" t="s">
-        <v>102</v>
       </c>
       <c r="H30" s="4" t="s">
         <v>61</v>
@@ -2362,7 +2358,7 @@
         <v>9</v>
       </c>
       <c r="L30" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.3">
@@ -2370,16 +2366,16 @@
         <v>49</v>
       </c>
       <c r="B31" s="20" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C31" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="D31" s="20" t="s">
         <v>105</v>
       </c>
-      <c r="D31" s="20" t="s">
+      <c r="E31" s="21" t="s">
         <v>106</v>
-      </c>
-      <c r="E31" s="21" t="s">
-        <v>107</v>
       </c>
       <c r="F31" s="6"/>
       <c r="I31" s="4" t="s">
@@ -2392,7 +2388,7 @@
         <v>10</v>
       </c>
       <c r="L31" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="32" spans="1:12" ht="124.2" x14ac:dyDescent="0.3">
@@ -2400,19 +2396,19 @@
         <v>49</v>
       </c>
       <c r="B32" s="20" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C32" s="4" t="s">
         <v>54</v>
       </c>
       <c r="D32" s="20" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E32" s="21" t="s">
         <v>51</v>
       </c>
       <c r="F32" s="22" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="I32" s="4" t="s">
         <v>0</v>
@@ -2424,7 +2420,7 @@
         <v>10</v>
       </c>
       <c r="L32" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="33" spans="1:12" ht="69" x14ac:dyDescent="0.3">
@@ -2432,19 +2428,19 @@
         <v>49</v>
       </c>
       <c r="B33" s="20" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C33" s="4" t="s">
         <v>54</v>
       </c>
       <c r="D33" s="20" t="s">
+        <v>111</v>
+      </c>
+      <c r="E33" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="F33" s="22" t="s">
         <v>112</v>
-      </c>
-      <c r="E33" s="21" t="s">
-        <v>51</v>
-      </c>
-      <c r="F33" s="22" t="s">
-        <v>113</v>
       </c>
       <c r="I33" s="4" t="s">
         <v>0</v>
@@ -2456,7 +2452,7 @@
         <v>10</v>
       </c>
       <c r="L33" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.3">
@@ -2464,16 +2460,16 @@
         <v>49</v>
       </c>
       <c r="B34" s="20" t="s">
+        <v>114</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="D34" s="20" t="s">
         <v>115</v>
       </c>
-      <c r="C34" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="D34" s="20" t="s">
-        <v>116</v>
-      </c>
       <c r="E34" s="21" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I34" s="4" t="s">
         <v>79</v>
@@ -2485,7 +2481,7 @@
         <v>10</v>
       </c>
       <c r="L34" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="35" spans="1:12" ht="41.4" x14ac:dyDescent="0.3">
@@ -2493,13 +2489,13 @@
         <v>28</v>
       </c>
       <c r="B35" s="20" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D35" s="20" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E35" s="21" t="s">
         <v>51</v>
@@ -2514,7 +2510,7 @@
         <v>11</v>
       </c>
       <c r="L35" s="4" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.3">
@@ -2522,13 +2518,13 @@
         <v>28</v>
       </c>
       <c r="B36" s="8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C36" s="4" t="s">
         <v>77</v>
       </c>
       <c r="D36" s="23" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E36" s="24" t="s">
         <v>51</v>
@@ -2544,7 +2540,7 @@
         <v>11</v>
       </c>
       <c r="L36" s="4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.3">
@@ -2552,13 +2548,13 @@
         <v>28</v>
       </c>
       <c r="B37" s="8" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C37" s="4" t="s">
         <v>30</v>
       </c>
       <c r="D37" s="8" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E37" s="9" t="s">
         <v>51</v>
@@ -2574,7 +2570,7 @@
         <v>11</v>
       </c>
       <c r="L37" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.3">
@@ -2582,13 +2578,13 @@
         <v>28</v>
       </c>
       <c r="B38" s="8" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C38" s="4" t="s">
         <v>30</v>
       </c>
       <c r="D38" s="8" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E38" s="9" t="s">
         <v>51</v>
@@ -2604,7 +2600,7 @@
         <v>11</v>
       </c>
       <c r="L38" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.3">
@@ -2612,13 +2608,13 @@
         <v>28</v>
       </c>
       <c r="B39" s="8" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C39" s="14" t="s">
         <v>30</v>
       </c>
       <c r="D39" s="23" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E39" s="24" t="s">
         <v>51</v>
@@ -2635,7 +2631,7 @@
         <v>11</v>
       </c>
       <c r="L39" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.3">
@@ -2643,13 +2639,13 @@
         <v>28</v>
       </c>
       <c r="B40" s="8" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C40" s="14" t="s">
         <v>30</v>
       </c>
       <c r="D40" s="23" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E40" s="24" t="s">
         <v>51</v>
@@ -2666,7 +2662,7 @@
         <v>11</v>
       </c>
       <c r="L40" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="41" spans="1:12" ht="41.4" x14ac:dyDescent="0.3">
@@ -2674,19 +2670,19 @@
         <v>28</v>
       </c>
       <c r="B41" s="8" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C41" s="4" t="s">
         <v>86</v>
       </c>
       <c r="D41" s="23" t="s">
+        <v>128</v>
+      </c>
+      <c r="E41" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="F41" s="10" t="s">
         <v>129</v>
-      </c>
-      <c r="E41" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="F41" s="10" t="s">
-        <v>130</v>
       </c>
       <c r="H41" s="4" t="s">
         <v>56</v>
@@ -2701,7 +2697,7 @@
         <v>11</v>
       </c>
       <c r="L41" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="42" spans="1:12" ht="41.4" x14ac:dyDescent="0.3">
@@ -2709,19 +2705,19 @@
         <v>28</v>
       </c>
       <c r="B42" s="8" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C42" s="14" t="s">
         <v>86</v>
       </c>
       <c r="D42" s="23" t="s">
+        <v>128</v>
+      </c>
+      <c r="E42" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="F42" s="25" t="s">
         <v>129</v>
-      </c>
-      <c r="E42" s="24" t="s">
-        <v>51</v>
-      </c>
-      <c r="F42" s="25" t="s">
-        <v>130</v>
       </c>
       <c r="H42" s="14" t="s">
         <v>61</v>
@@ -2736,7 +2732,7 @@
         <v>11</v>
       </c>
       <c r="L42" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.3">
@@ -2744,13 +2740,13 @@
         <v>49</v>
       </c>
       <c r="B43" s="8" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C43" s="14" t="s">
         <v>59</v>
       </c>
       <c r="D43" s="23" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E43" s="24" t="s">
         <v>51</v>
@@ -2767,7 +2763,7 @@
         <v>12</v>
       </c>
       <c r="L43" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.3">
@@ -2775,13 +2771,13 @@
         <v>49</v>
       </c>
       <c r="B44" s="8" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C44" s="4" t="s">
         <v>59</v>
       </c>
       <c r="D44" s="23" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E44" s="24" t="s">
         <v>51</v>
@@ -2797,7 +2793,7 @@
         <v>12</v>
       </c>
       <c r="L44" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="45" spans="1:12" ht="27.6" x14ac:dyDescent="0.3">
@@ -2805,19 +2801,19 @@
         <v>49</v>
       </c>
       <c r="B45" s="8" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C45" s="4" t="s">
         <v>86</v>
       </c>
       <c r="D45" s="23" t="s">
+        <v>139</v>
+      </c>
+      <c r="E45" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="F45" s="25" t="s">
         <v>140</v>
-      </c>
-      <c r="E45" s="24" t="s">
-        <v>51</v>
-      </c>
-      <c r="F45" s="25" t="s">
-        <v>141</v>
       </c>
       <c r="H45" s="4" t="s">
         <v>56</v>
@@ -2832,7 +2828,7 @@
         <v>12</v>
       </c>
       <c r="L45" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="46" spans="1:12" ht="27.6" x14ac:dyDescent="0.3">
@@ -2840,19 +2836,19 @@
         <v>49</v>
       </c>
       <c r="B46" s="8" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C46" s="4" t="s">
         <v>86</v>
       </c>
       <c r="D46" s="23" t="s">
+        <v>139</v>
+      </c>
+      <c r="E46" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="F46" s="25" t="s">
         <v>140</v>
-      </c>
-      <c r="E46" s="24" t="s">
-        <v>51</v>
-      </c>
-      <c r="F46" s="25" t="s">
-        <v>141</v>
       </c>
       <c r="H46" s="4" t="s">
         <v>61</v>
@@ -2867,7 +2863,7 @@
         <v>12</v>
       </c>
       <c r="L46" s="4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="47" spans="1:12" ht="61.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -2875,13 +2871,13 @@
         <v>28</v>
       </c>
       <c r="B47" s="8" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D47" s="23" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E47" s="24" t="s">
         <v>51</v>
@@ -2897,7 +2893,7 @@
         <v>13</v>
       </c>
       <c r="L47" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="48" spans="1:12" ht="72" customHeight="1" x14ac:dyDescent="0.3">
@@ -2905,19 +2901,19 @@
         <v>28</v>
       </c>
       <c r="B48" s="8" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C48" s="4" t="s">
         <v>54</v>
       </c>
       <c r="D48" s="23" t="s">
+        <v>146</v>
+      </c>
+      <c r="E48" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="F48" s="25" t="s">
         <v>147</v>
-      </c>
-      <c r="E48" s="24" t="s">
-        <v>51</v>
-      </c>
-      <c r="F48" s="25" t="s">
-        <v>148</v>
       </c>
       <c r="I48" s="4" t="s">
         <v>0</v>
@@ -2929,7 +2925,7 @@
         <v>13</v>
       </c>
       <c r="L48" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.3">
@@ -2937,13 +2933,13 @@
         <v>28</v>
       </c>
       <c r="B49" s="8" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C49" s="4" t="s">
         <v>30</v>
       </c>
       <c r="D49" s="8" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E49" s="9" t="s">
         <v>51</v>
@@ -2959,7 +2955,7 @@
         <v>13</v>
       </c>
       <c r="L49" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="50" spans="1:12" ht="27.6" x14ac:dyDescent="0.3">
@@ -2967,13 +2963,13 @@
         <v>28</v>
       </c>
       <c r="B50" s="8" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C50" s="4" t="s">
         <v>30</v>
       </c>
       <c r="D50" s="8" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E50" s="9" t="s">
         <v>51</v>
@@ -2989,7 +2985,7 @@
         <v>13</v>
       </c>
       <c r="L50" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.3">
@@ -2997,13 +2993,13 @@
         <v>28</v>
       </c>
       <c r="B51" s="8" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C51" s="4" t="s">
         <v>30</v>
       </c>
       <c r="D51" s="8" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E51" s="9" t="s">
         <v>51</v>
@@ -3019,7 +3015,7 @@
         <v>13</v>
       </c>
       <c r="L51" s="4" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.3">
@@ -3027,13 +3023,13 @@
         <v>28</v>
       </c>
       <c r="B52" s="8" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C52" s="4" t="s">
         <v>30</v>
       </c>
       <c r="D52" s="8" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="E52" s="9" t="s">
         <v>51</v>
@@ -3049,7 +3045,7 @@
         <v>13</v>
       </c>
       <c r="L52" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="53" spans="1:12" ht="41.4" x14ac:dyDescent="0.3">
@@ -3057,19 +3053,19 @@
         <v>28</v>
       </c>
       <c r="B53" s="15" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C53" s="4" t="s">
         <v>86</v>
       </c>
       <c r="D53" s="8" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E53" s="9" t="s">
         <v>51</v>
       </c>
       <c r="F53" s="10" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H53" s="4" t="s">
         <v>61</v>
@@ -3084,7 +3080,7 @@
         <v>13</v>
       </c>
       <c r="L53" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.3">
@@ -3092,16 +3088,16 @@
         <v>28</v>
       </c>
       <c r="B54" s="15" t="s">
+        <v>160</v>
+      </c>
+      <c r="C54" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="D54" s="20" t="s">
         <v>161</v>
       </c>
-      <c r="C54" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="D54" s="20" t="s">
-        <v>162</v>
-      </c>
       <c r="E54" s="21" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="I54" s="4" t="s">
         <v>79</v>
@@ -3113,7 +3109,7 @@
         <v>13</v>
       </c>
       <c r="L54" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="55" spans="1:12" ht="27.6" x14ac:dyDescent="0.3">
@@ -3121,13 +3117,13 @@
         <v>28</v>
       </c>
       <c r="B55" s="8" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D55" s="23" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E55" s="24" t="s">
         <v>51</v>
@@ -3143,7 +3139,7 @@
         <v>14</v>
       </c>
       <c r="L55" s="4" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="56" spans="1:12" ht="61.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -3151,13 +3147,13 @@
         <v>28</v>
       </c>
       <c r="B56" s="8" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D56" s="23" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E56" s="24" t="s">
         <v>51</v>
@@ -3173,7 +3169,7 @@
         <v>14</v>
       </c>
       <c r="L56" s="4" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.3">
@@ -3181,13 +3177,13 @@
         <v>28</v>
       </c>
       <c r="B57" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C57" s="4" t="s">
         <v>59</v>
       </c>
       <c r="D57" s="15" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E57" s="17" t="s">
         <v>51</v>
@@ -3209,7 +3205,7 @@
         <v>14</v>
       </c>
       <c r="L57" s="4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="58" spans="1:12" ht="69" x14ac:dyDescent="0.3">
@@ -3217,19 +3213,19 @@
         <v>28</v>
       </c>
       <c r="B58" s="15" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C58" s="4" t="s">
         <v>54</v>
       </c>
       <c r="D58" s="15" t="s">
+        <v>167</v>
+      </c>
+      <c r="E58" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="F58" s="16" t="s">
         <v>168</v>
-      </c>
-      <c r="E58" s="16" t="s">
-        <v>51</v>
-      </c>
-      <c r="F58" s="16" t="s">
-        <v>169</v>
       </c>
       <c r="I58" s="4" t="s">
         <v>0</v>
@@ -3241,7 +3237,7 @@
         <v>14</v>
       </c>
       <c r="L58" s="4" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.3">
@@ -3249,13 +3245,13 @@
         <v>28</v>
       </c>
       <c r="B59" s="15" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C59" s="4" t="s">
         <v>77</v>
       </c>
       <c r="D59" s="15" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E59" s="17" t="s">
         <v>51</v>
@@ -3271,7 +3267,7 @@
         <v>14</v>
       </c>
       <c r="L59" s="4" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="60" spans="1:12" ht="41.4" x14ac:dyDescent="0.3">
@@ -3279,19 +3275,19 @@
         <v>28</v>
       </c>
       <c r="B60" s="15" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C60" s="4" t="s">
         <v>86</v>
       </c>
       <c r="D60" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="E60" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="F60" s="10" t="s">
         <v>175</v>
-      </c>
-      <c r="E60" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="F60" s="10" t="s">
-        <v>176</v>
       </c>
       <c r="H60" s="4" t="s">
         <v>61</v>
@@ -3306,7 +3302,7 @@
         <v>14</v>
       </c>
       <c r="L60" s="4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.3">
@@ -3314,13 +3310,13 @@
         <v>28</v>
       </c>
       <c r="B61" s="15" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C61" s="4" t="s">
         <v>77</v>
       </c>
       <c r="D61" s="8" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E61" s="9" t="s">
         <v>51</v>
@@ -3336,7 +3332,7 @@
         <v>15</v>
       </c>
       <c r="L61" s="4" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="62" spans="1:12" ht="27.6" x14ac:dyDescent="0.3">
@@ -3344,19 +3340,19 @@
         <v>28</v>
       </c>
       <c r="B62" s="15" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C62" s="4" t="s">
         <v>54</v>
       </c>
       <c r="D62" s="15" t="s">
+        <v>181</v>
+      </c>
+      <c r="E62" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="F62" s="16" t="s">
         <v>182</v>
-      </c>
-      <c r="E62" s="16" t="s">
-        <v>51</v>
-      </c>
-      <c r="F62" s="16" t="s">
-        <v>183</v>
       </c>
       <c r="I62" s="4" t="s">
         <v>0</v>
@@ -3368,7 +3364,7 @@
         <v>15</v>
       </c>
       <c r="L62" s="4" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="63" spans="1:12" ht="96.6" x14ac:dyDescent="0.3">
@@ -3376,19 +3372,19 @@
         <v>28</v>
       </c>
       <c r="B63" s="15" t="s">
+        <v>184</v>
+      </c>
+      <c r="C63" s="4" t="s">
         <v>185</v>
       </c>
-      <c r="C63" s="4" t="s">
+      <c r="D63" s="15" t="s">
         <v>186</v>
       </c>
-      <c r="D63" s="15" t="s">
+      <c r="E63" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="F63" s="16" t="s">
         <v>187</v>
-      </c>
-      <c r="E63" s="16" t="s">
-        <v>51</v>
-      </c>
-      <c r="F63" s="16" t="s">
-        <v>188</v>
       </c>
       <c r="I63" s="4" t="s">
         <v>0</v>
@@ -3400,7 +3396,7 @@
         <v>15</v>
       </c>
       <c r="L63" s="4" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="64" spans="1:12" ht="41.4" x14ac:dyDescent="0.3">
@@ -3408,19 +3404,19 @@
         <v>28</v>
       </c>
       <c r="B64" s="15" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C64" s="4" t="s">
         <v>86</v>
       </c>
       <c r="D64" s="15" t="s">
+        <v>190</v>
+      </c>
+      <c r="E64" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="F64" s="16" t="s">
         <v>191</v>
-      </c>
-      <c r="E64" s="16" t="s">
-        <v>51</v>
-      </c>
-      <c r="F64" s="16" t="s">
-        <v>192</v>
       </c>
       <c r="H64" s="4" t="s">
         <v>61</v>
@@ -3435,7 +3431,7 @@
         <v>15</v>
       </c>
       <c r="L64" s="4" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.3">
@@ -3443,13 +3439,13 @@
         <v>28</v>
       </c>
       <c r="B65" s="15" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C65" s="4" t="s">
         <v>30</v>
       </c>
       <c r="D65" s="15" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E65" s="17" t="s">
         <v>51</v>
@@ -3465,7 +3461,7 @@
         <v>16</v>
       </c>
       <c r="L65" s="4" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.3">
@@ -3473,13 +3469,13 @@
         <v>28</v>
       </c>
       <c r="B66" s="15" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C66" s="4" t="s">
         <v>30</v>
       </c>
       <c r="D66" s="15" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E66" s="17" t="s">
         <v>51</v>
@@ -3495,7 +3491,7 @@
         <v>16</v>
       </c>
       <c r="L66" s="4" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.3">
@@ -3503,13 +3499,13 @@
         <v>28</v>
       </c>
       <c r="B67" s="15" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C67" s="4" t="s">
         <v>30</v>
       </c>
       <c r="D67" s="15" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E67" s="17" t="s">
         <v>51</v>
@@ -3525,7 +3521,7 @@
         <v>16</v>
       </c>
       <c r="L67" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.3">
@@ -3533,13 +3529,13 @@
         <v>28</v>
       </c>
       <c r="B68" s="15" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C68" s="4" t="s">
         <v>30</v>
       </c>
       <c r="D68" s="15" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E68" s="17" t="s">
         <v>51</v>
@@ -3555,7 +3551,7 @@
         <v>16</v>
       </c>
       <c r="L68" s="4" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.3">
@@ -3563,13 +3559,13 @@
         <v>28</v>
       </c>
       <c r="B69" s="15" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C69" s="4" t="s">
         <v>77</v>
       </c>
       <c r="D69" s="15" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E69" s="17" t="s">
         <v>51</v>
@@ -3585,7 +3581,7 @@
         <v>16</v>
       </c>
       <c r="L69" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="70" spans="1:12" ht="41.4" x14ac:dyDescent="0.3">
@@ -3593,19 +3589,19 @@
         <v>28</v>
       </c>
       <c r="B70" s="15" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C70" s="4" t="s">
         <v>86</v>
       </c>
       <c r="D70" s="15" t="s">
+        <v>205</v>
+      </c>
+      <c r="E70" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="F70" s="16" t="s">
         <v>206</v>
-      </c>
-      <c r="E70" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="F70" s="16" t="s">
-        <v>207</v>
       </c>
       <c r="H70" s="4" t="s">
         <v>61</v>
@@ -3620,7 +3616,7 @@
         <v>16</v>
       </c>
       <c r="L70" s="4" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.3">
@@ -3628,13 +3624,13 @@
         <v>28</v>
       </c>
       <c r="B71" s="15" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C71" s="4" t="s">
         <v>30</v>
       </c>
       <c r="D71" s="15" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E71" s="16" t="s">
         <v>51</v>
@@ -3650,7 +3646,7 @@
         <v>16</v>
       </c>
       <c r="L71" s="4" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.3">
@@ -3658,13 +3654,13 @@
         <v>28</v>
       </c>
       <c r="B72" s="15" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C72" s="4" t="s">
         <v>30</v>
       </c>
       <c r="D72" s="15" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E72" s="16" t="s">
         <v>51</v>
@@ -3680,7 +3676,7 @@
         <v>16</v>
       </c>
       <c r="L72" s="4" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.3">
@@ -3688,13 +3684,13 @@
         <v>28</v>
       </c>
       <c r="B73" s="15" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C73" s="4" t="s">
         <v>59</v>
       </c>
       <c r="D73" s="15" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E73" s="16" t="s">
         <v>51</v>
@@ -3710,7 +3706,7 @@
         <v>17</v>
       </c>
       <c r="L73" s="4" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.3">
@@ -3718,13 +3714,13 @@
         <v>28</v>
       </c>
       <c r="B74" s="15" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C74" s="4" t="s">
         <v>30</v>
       </c>
       <c r="D74" s="15" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E74" s="17" t="s">
         <v>51</v>
@@ -3740,7 +3736,7 @@
         <v>17</v>
       </c>
       <c r="L74" s="4" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.3">
@@ -3748,13 +3744,13 @@
         <v>28</v>
       </c>
       <c r="B75" s="15" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C75" s="4" t="s">
         <v>30</v>
       </c>
       <c r="D75" s="15" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E75" s="17" t="s">
         <v>51</v>
@@ -3770,7 +3766,7 @@
         <v>17</v>
       </c>
       <c r="L75" s="4" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.3">
@@ -3778,13 +3774,13 @@
         <v>28</v>
       </c>
       <c r="B76" s="15" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C76" s="4" t="s">
         <v>30</v>
       </c>
       <c r="D76" s="15" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E76" s="17" t="s">
         <v>51</v>
@@ -3800,7 +3796,7 @@
         <v>17</v>
       </c>
       <c r="L76" s="4" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.3">
@@ -3808,13 +3804,13 @@
         <v>28</v>
       </c>
       <c r="B77" s="15" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C77" s="4" t="s">
         <v>30</v>
       </c>
       <c r="D77" s="15" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E77" s="17" t="s">
         <v>51</v>
@@ -3830,7 +3826,7 @@
         <v>17</v>
       </c>
       <c r="L77" s="4" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.3">
@@ -3838,13 +3834,13 @@
         <v>28</v>
       </c>
       <c r="B78" s="15" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C78" s="4" t="s">
         <v>30</v>
       </c>
       <c r="D78" s="15" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E78" s="17" t="s">
         <v>51</v>
@@ -3860,7 +3856,7 @@
         <v>17</v>
       </c>
       <c r="L78" s="4" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.3">
@@ -3868,13 +3864,13 @@
         <v>28</v>
       </c>
       <c r="B79" s="15" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C79" s="4" t="s">
         <v>30</v>
       </c>
       <c r="D79" s="15" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E79" s="17" t="s">
         <v>51</v>
@@ -3890,7 +3886,7 @@
         <v>17</v>
       </c>
       <c r="L79" s="4" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="80" spans="1:12" ht="41.4" x14ac:dyDescent="0.3">
@@ -3898,19 +3894,19 @@
         <v>28</v>
       </c>
       <c r="B80" s="15" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C80" s="4" t="s">
         <v>86</v>
       </c>
       <c r="D80" s="15" t="s">
+        <v>228</v>
+      </c>
+      <c r="E80" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="F80" s="16" t="s">
         <v>229</v>
-      </c>
-      <c r="E80" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="F80" s="16" t="s">
-        <v>230</v>
       </c>
       <c r="H80" s="4" t="s">
         <v>61</v>
@@ -3925,7 +3921,7 @@
         <v>17</v>
       </c>
       <c r="L80" s="4" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="81" spans="1:12" x14ac:dyDescent="0.3">
@@ -3933,16 +3929,16 @@
         <v>49</v>
       </c>
       <c r="B81" s="23" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D81" s="26" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E81" s="21" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F81" s="25"/>
       <c r="I81" s="4" t="s">
@@ -3955,7 +3951,7 @@
         <v>18</v>
       </c>
       <c r="L81" s="4" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="82" spans="1:12" x14ac:dyDescent="0.3">
@@ -3963,16 +3959,16 @@
         <v>49</v>
       </c>
       <c r="B82" s="23" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D82" s="26" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E82" s="21" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F82" s="25"/>
       <c r="I82" s="4" t="s">
@@ -3985,7 +3981,7 @@
         <v>18</v>
       </c>
       <c r="L82" s="4" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="83" spans="1:12" x14ac:dyDescent="0.3">
@@ -4883,15 +4879,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
@@ -4902,6 +4889,15 @@
     <TaxCatchAll xmlns="d045ab76-3bb7-45f5-ab41-d7b04aa0dc94" xsi:nil="true"/>
   </documentManagement>
 </p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4926,14 +4922,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F0EF40A6-8528-4994-A94E-1AE934020AF5}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FFBB421F-7112-4B85-A662-9379706C03DC}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="c1085ce0-992b-4e2c-bc8b-9e7e29361dd3"/>
@@ -4950,4 +4938,12 @@
     <ds:schemaRef ds:uri="d045ab76-3bb7-45f5-ab41-d7b04aa0dc94"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F0EF40A6-8528-4994-A94E-1AE934020AF5}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/1. Configuratie.xlsx
+++ b/1. Configuratie.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://vrln-my.sharepoint.com/personal/s_vermeulen_vrln_nl/Documents/Bureaublad/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{642ADE76-78FA-447C-B9B7-76B9EDDAF703}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B3C23C33-3E57-401D-B56E-786C998E3F69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{340DDFAE-1A83-41FC-A379-531A17E4526A}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="630" uniqueCount="267">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="629" uniqueCount="266">
   <si>
     <t>basis</t>
   </si>
@@ -733,12 +733,6 @@
   </si>
   <si>
     <t>Combi bewegen gender</t>
-  </si>
-  <si>
-    <t>KLAS; MBOKK3S31; GENDER</t>
-  </si>
-  <si>
-    <t>Leerjaar; Onderwijsniveau; Gender</t>
   </si>
   <si>
     <t>SOROK3S4</t>
@@ -842,6 +836,9 @@
   </si>
   <si>
     <t>Voelt zich meestal gelukkig; Ervaart een goede gezondheid</t>
+  </si>
+  <si>
+    <t>Schoolcode; KLAS; MBOKK3S31; GENDER</t>
   </si>
 </sst>
 </file>
@@ -1383,7 +1380,7 @@
         <v>5</v>
       </c>
       <c r="B2" s="19" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C2" s="19" t="s">
         <v>6</v>
@@ -1392,7 +1389,7 @@
         <v>6</v>
       </c>
       <c r="E2" s="19" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
   </sheetData>
@@ -1502,7 +1499,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" ht="55.2" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>19</v>
       </c>
@@ -1513,12 +1510,10 @@
         <v>26</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>231</v>
+        <v>265</v>
       </c>
       <c r="E4" s="6"/>
-      <c r="F4" s="6" t="s">
-        <v>232</v>
-      </c>
+      <c r="F4" s="6"/>
       <c r="I4" s="4" t="s">
         <v>0</v>
       </c>
@@ -1783,7 +1778,7 @@
         <v>30</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="E13" s="9" t="s">
         <v>51</v>
@@ -1813,7 +1808,7 @@
         <v>54</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="E14" s="6" t="s">
         <v>51</v>
@@ -2093,7 +2088,7 @@
         <v>51</v>
       </c>
       <c r="F22" s="11" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="H22" s="4" t="s">
         <v>56</v>
@@ -2128,7 +2123,7 @@
         <v>51</v>
       </c>
       <c r="F23" s="11" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="H23" s="4" t="s">
         <v>61</v>
@@ -2151,7 +2146,7 @@
         <v>28</v>
       </c>
       <c r="B24" s="20" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C24" s="4" t="s">
         <v>30</v>
@@ -2180,7 +2175,7 @@
         <v>28</v>
       </c>
       <c r="B25" s="20" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C25" s="4" t="s">
         <v>30</v>
@@ -2244,7 +2239,7 @@
         <v>30</v>
       </c>
       <c r="D27" s="20" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="E27" s="21" t="s">
         <v>51</v>
@@ -2273,7 +2268,7 @@
         <v>30</v>
       </c>
       <c r="D28" s="20" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="E28" s="21" t="s">
         <v>51</v>
@@ -2366,7 +2361,7 @@
         <v>49</v>
       </c>
       <c r="B31" s="20" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C31" s="4" t="s">
         <v>104</v>
@@ -2402,13 +2397,13 @@
         <v>54</v>
       </c>
       <c r="D32" s="20" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="E32" s="21" t="s">
         <v>51</v>
       </c>
       <c r="F32" s="22" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="I32" s="4" t="s">
         <v>0</v>
@@ -2469,7 +2464,7 @@
         <v>115</v>
       </c>
       <c r="E34" s="21" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="I34" s="4" t="s">
         <v>79</v>
@@ -2489,13 +2484,13 @@
         <v>28</v>
       </c>
       <c r="B35" s="20" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C35" s="4" t="s">
         <v>143</v>
       </c>
       <c r="D35" s="20" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="E35" s="21" t="s">
         <v>51</v>
@@ -2510,7 +2505,7 @@
         <v>11</v>
       </c>
       <c r="L35" s="4" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.3">
@@ -2554,7 +2549,7 @@
         <v>30</v>
       </c>
       <c r="D37" s="8" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="E37" s="9" t="s">
         <v>51</v>
@@ -2584,7 +2579,7 @@
         <v>30</v>
       </c>
       <c r="D38" s="8" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="E38" s="9" t="s">
         <v>51</v>
@@ -2871,13 +2866,13 @@
         <v>28</v>
       </c>
       <c r="B47" s="8" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C47" s="4" t="s">
         <v>143</v>
       </c>
       <c r="D47" s="23" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="E47" s="24" t="s">
         <v>51</v>
@@ -2993,13 +2988,13 @@
         <v>28</v>
       </c>
       <c r="B51" s="8" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="C51" s="4" t="s">
         <v>30</v>
       </c>
       <c r="D51" s="8" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="E51" s="9" t="s">
         <v>51</v>
@@ -3015,7 +3010,7 @@
         <v>13</v>
       </c>
       <c r="L51" s="4" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.3">
@@ -3029,7 +3024,7 @@
         <v>30</v>
       </c>
       <c r="D52" s="8" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="E52" s="9" t="s">
         <v>51</v>
@@ -3059,7 +3054,7 @@
         <v>86</v>
       </c>
       <c r="D53" s="8" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="E53" s="9" t="s">
         <v>51</v>
@@ -3097,7 +3092,7 @@
         <v>161</v>
       </c>
       <c r="E54" s="21" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="I54" s="4" t="s">
         <v>79</v>
@@ -3117,7 +3112,7 @@
         <v>28</v>
       </c>
       <c r="B55" s="8" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C55" s="4" t="s">
         <v>143</v>
@@ -3139,7 +3134,7 @@
         <v>14</v>
       </c>
       <c r="L55" s="4" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="56" spans="1:12" ht="61.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -3147,13 +3142,13 @@
         <v>28</v>
       </c>
       <c r="B56" s="8" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C56" s="4" t="s">
         <v>143</v>
       </c>
       <c r="D56" s="23" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="E56" s="24" t="s">
         <v>51</v>
@@ -3169,7 +3164,7 @@
         <v>14</v>
       </c>
       <c r="L56" s="4" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.3">
@@ -3929,13 +3924,13 @@
         <v>49</v>
       </c>
       <c r="B81" s="23" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C81" s="4" t="s">
         <v>104</v>
       </c>
       <c r="D81" s="26" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="E81" s="21" t="s">
         <v>106</v>
@@ -3951,7 +3946,7 @@
         <v>18</v>
       </c>
       <c r="L81" s="4" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="82" spans="1:12" x14ac:dyDescent="0.3">
@@ -3959,13 +3954,13 @@
         <v>49</v>
       </c>
       <c r="B82" s="23" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C82" s="4" t="s">
         <v>104</v>
       </c>
       <c r="D82" s="26" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="E82" s="21" t="s">
         <v>106</v>
@@ -3981,7 +3976,7 @@
         <v>18</v>
       </c>
       <c r="L82" s="4" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
     <row r="83" spans="1:12" x14ac:dyDescent="0.3">
